--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -458,6210 +458,6230 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29677</v>
+        <v>29830</v>
       </c>
       <c r="B2" t="n">
-        <v>12400000</v>
+        <v>17200000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29707</v>
+        <v>29860</v>
       </c>
       <c r="B3" t="n">
-        <v>12700000</v>
+        <v>16500000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29738</v>
+        <v>29891</v>
       </c>
       <c r="B4" t="n">
-        <v>13100000</v>
+        <v>17000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29768</v>
+        <v>29921</v>
       </c>
       <c r="B5" t="n">
-        <v>14300000</v>
+        <v>19200000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29799</v>
+        <v>29952</v>
       </c>
       <c r="B6" t="n">
-        <v>16600000</v>
+        <v>20100000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29830</v>
+        <v>29983</v>
       </c>
       <c r="B7" t="n">
-        <v>17200000</v>
+        <v>21200000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29860</v>
+        <v>30011</v>
       </c>
       <c r="B8" t="n">
-        <v>16500000</v>
+        <v>22400000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29891</v>
+        <v>30042</v>
       </c>
       <c r="B9" t="n">
-        <v>17000000</v>
+        <v>24400000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>29921</v>
+        <v>30072</v>
       </c>
       <c r="B10" t="n">
-        <v>19200000</v>
+        <v>25800000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>29952</v>
+        <v>30103</v>
       </c>
       <c r="B11" t="n">
-        <v>20100000</v>
+        <v>27400000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>29983</v>
+        <v>30133</v>
       </c>
       <c r="B12" t="n">
-        <v>21200000</v>
+        <v>28300000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30011</v>
+        <v>30164</v>
       </c>
       <c r="B13" t="n">
-        <v>22400000</v>
+        <v>31500000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30042</v>
+        <v>30195</v>
       </c>
       <c r="B14" t="n">
-        <v>24400000</v>
+        <v>37700000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30072</v>
+        <v>30225</v>
       </c>
       <c r="B15" t="n">
-        <v>25800000</v>
+        <v>42900000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30103</v>
+        <v>30256</v>
       </c>
       <c r="B16" t="n">
-        <v>27400000</v>
+        <v>50500000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30133</v>
+        <v>30286</v>
       </c>
       <c r="B17" t="n">
-        <v>28300000</v>
+        <v>57600000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30164</v>
+        <v>30317</v>
       </c>
       <c r="B18" t="n">
-        <v>31500000</v>
+        <v>58400000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30195</v>
+        <v>30348</v>
       </c>
       <c r="B19" t="n">
-        <v>37700000</v>
+        <v>67900000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30225</v>
+        <v>30376</v>
       </c>
       <c r="B20" t="n">
-        <v>42900000</v>
+        <v>71400000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30256</v>
+        <v>30407</v>
       </c>
       <c r="B21" t="n">
-        <v>50500000</v>
+        <v>76800000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30286</v>
+        <v>30437</v>
       </c>
       <c r="B22" t="n">
-        <v>57600000</v>
+        <v>83200000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30317</v>
+        <v>30468</v>
       </c>
       <c r="B23" t="n">
-        <v>58400000</v>
+        <v>87000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30348</v>
+        <v>30498</v>
       </c>
       <c r="B24" t="n">
-        <v>67900000</v>
+        <v>90400000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30376</v>
+        <v>30529</v>
       </c>
       <c r="B25" t="n">
-        <v>71400000</v>
+        <v>94400000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30407</v>
+        <v>30560</v>
       </c>
       <c r="B26" t="n">
-        <v>76800000</v>
+        <v>100400000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30437</v>
+        <v>30590</v>
       </c>
       <c r="B27" t="n">
-        <v>83200000</v>
+        <v>103200000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30468</v>
+        <v>30621</v>
       </c>
       <c r="B28" t="n">
-        <v>87000000</v>
+        <v>112800000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30498</v>
+        <v>30651</v>
       </c>
       <c r="B29" t="n">
-        <v>90400000</v>
+        <v>123100000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30529</v>
+        <v>30682</v>
       </c>
       <c r="B30" t="n">
-        <v>94400000</v>
+        <v>149900000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30560</v>
+        <v>30713</v>
       </c>
       <c r="B31" t="n">
-        <v>100400000</v>
+        <v>188300000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30590</v>
+        <v>30742</v>
       </c>
       <c r="B32" t="n">
-        <v>103200000</v>
+        <v>214100000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30621</v>
+        <v>30773</v>
       </c>
       <c r="B33" t="n">
-        <v>112800000</v>
+        <v>268400000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30651</v>
+        <v>30803</v>
       </c>
       <c r="B34" t="n">
-        <v>123100000</v>
+        <v>287700000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30682</v>
+        <v>30834</v>
       </c>
       <c r="B35" t="n">
-        <v>149900000</v>
+        <v>326200000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30713</v>
+        <v>30864</v>
       </c>
       <c r="B36" t="n">
-        <v>188300000</v>
+        <v>324000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30742</v>
+        <v>30895</v>
       </c>
       <c r="B37" t="n">
-        <v>214100000</v>
+        <v>366900000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30773</v>
+        <v>30926</v>
       </c>
       <c r="B38" t="n">
-        <v>268400000</v>
+        <v>449600000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30803</v>
+        <v>30956</v>
       </c>
       <c r="B39" t="n">
-        <v>287700000</v>
+        <v>506100000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30834</v>
+        <v>30987</v>
       </c>
       <c r="B40" t="n">
-        <v>326200000</v>
+        <v>600900000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30864</v>
+        <v>31017</v>
       </c>
       <c r="B41" t="n">
-        <v>324000000</v>
+        <v>729300000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30895</v>
+        <v>31048</v>
       </c>
       <c r="B42" t="n">
-        <v>366900000</v>
+        <v>804800000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>30926</v>
+        <v>31079</v>
       </c>
       <c r="B43" t="n">
-        <v>449600000</v>
+        <v>883100000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>30956</v>
+        <v>31107</v>
       </c>
       <c r="B44" t="n">
-        <v>506100000</v>
+        <v>1008800000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>30987</v>
+        <v>31138</v>
       </c>
       <c r="B45" t="n">
-        <v>600900000</v>
+        <v>1343600000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31017</v>
+        <v>31168</v>
       </c>
       <c r="B46" t="n">
-        <v>729300000</v>
+        <v>1455100000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31048</v>
+        <v>31199</v>
       </c>
       <c r="B47" t="n">
-        <v>804800000</v>
+        <v>1611800000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31079</v>
+        <v>31229</v>
       </c>
       <c r="B48" t="n">
-        <v>883100000</v>
+        <v>2390300000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31107</v>
+        <v>31260</v>
       </c>
       <c r="B49" t="n">
-        <v>1008800000</v>
+        <v>2883600000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31138</v>
+        <v>31291</v>
       </c>
       <c r="B50" t="n">
-        <v>1343600000</v>
+        <v>3232400000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31168</v>
+        <v>31321</v>
       </c>
       <c r="B51" t="n">
-        <v>1455100000</v>
+        <v>3552400000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31199</v>
+        <v>31352</v>
       </c>
       <c r="B52" t="n">
-        <v>1611800000</v>
+        <v>4045200000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31229</v>
+        <v>31382</v>
       </c>
       <c r="B53" t="n">
-        <v>2390300000</v>
+        <v>4300300000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31260</v>
+        <v>31413</v>
       </c>
       <c r="B54" t="n">
-        <v>2883600000</v>
+        <v>4423400000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31291</v>
+        <v>31444</v>
       </c>
       <c r="B55" t="n">
-        <v>3232400000</v>
+        <v>4843400000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31321</v>
+        <v>31472</v>
       </c>
       <c r="B56" t="n">
-        <v>3552400000</v>
+        <v>4944300000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31352</v>
+        <v>31503</v>
       </c>
       <c r="B57" t="n">
-        <v>4045200000</v>
+        <v>4975800000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31382</v>
+        <v>31533</v>
       </c>
       <c r="B58" t="n">
-        <v>4300300000</v>
+        <v>4955000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31413</v>
+        <v>31564</v>
       </c>
       <c r="B59" t="n">
-        <v>4423400000</v>
+        <v>4892600000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31444</v>
+        <v>31594</v>
       </c>
       <c r="B60" t="n">
-        <v>4843400000</v>
+        <v>5162900000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31472</v>
+        <v>31625</v>
       </c>
       <c r="B61" t="n">
-        <v>4944300000</v>
+        <v>5666500000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31503</v>
+        <v>31656</v>
       </c>
       <c r="B62" t="n">
-        <v>4975800000</v>
+        <v>6023600000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31533</v>
+        <v>31686</v>
       </c>
       <c r="B63" t="n">
-        <v>4955000000</v>
+        <v>6486700000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31564</v>
+        <v>31717</v>
       </c>
       <c r="B64" t="n">
-        <v>4892600000</v>
+        <v>6774600000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31594</v>
+        <v>31747</v>
       </c>
       <c r="B65" t="n">
-        <v>5162900000</v>
+        <v>7194000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31625</v>
+        <v>31778</v>
       </c>
       <c r="B66" t="n">
-        <v>5666500000</v>
+        <v>7233700000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31656</v>
+        <v>31809</v>
       </c>
       <c r="B67" t="n">
-        <v>6023600000</v>
+        <v>7485200000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31686</v>
+        <v>31837</v>
       </c>
       <c r="B68" t="n">
-        <v>6486700000</v>
+        <v>8006600000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31717</v>
+        <v>31868</v>
       </c>
       <c r="B69" t="n">
-        <v>6774600000</v>
+        <v>8666200000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31747</v>
+        <v>31898</v>
       </c>
       <c r="B70" t="n">
-        <v>7194000000</v>
+        <v>8987900000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31778</v>
+        <v>31929</v>
       </c>
       <c r="B71" t="n">
-        <v>7233700000</v>
+        <v>9338900000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31809</v>
+        <v>31959</v>
       </c>
       <c r="B72" t="n">
-        <v>7485200000</v>
+        <v>9721300000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31837</v>
+        <v>31990</v>
       </c>
       <c r="B73" t="n">
-        <v>8006600000</v>
+        <v>9920900000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31868</v>
+        <v>32021</v>
       </c>
       <c r="B74" t="n">
-        <v>8666200000</v>
+        <v>10101100000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31898</v>
+        <v>32051</v>
       </c>
       <c r="B75" t="n">
-        <v>8987900000</v>
+        <v>10183000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>31929</v>
+        <v>32082</v>
       </c>
       <c r="B76" t="n">
-        <v>9338900000</v>
+        <v>10456700000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>31959</v>
+        <v>32112</v>
       </c>
       <c r="B77" t="n">
-        <v>9721300000</v>
+        <v>10659200000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>31990</v>
+        <v>32143</v>
       </c>
       <c r="B78" t="n">
-        <v>9920900000</v>
+        <v>10686600000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32021</v>
+        <v>32174</v>
       </c>
       <c r="B79" t="n">
-        <v>10101100000</v>
+        <v>11061500000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32051</v>
+        <v>32203</v>
       </c>
       <c r="B80" t="n">
-        <v>10183000000</v>
+        <v>11315300000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32082</v>
+        <v>32234</v>
       </c>
       <c r="B81" t="n">
-        <v>10456700000</v>
+        <v>11584000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32112</v>
+        <v>32264</v>
       </c>
       <c r="B82" t="n">
-        <v>10659200000</v>
+        <v>11812800000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32143</v>
+        <v>32295</v>
       </c>
       <c r="B83" t="n">
-        <v>10686600000</v>
+        <v>12042800000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32174</v>
+        <v>32325</v>
       </c>
       <c r="B84" t="n">
-        <v>11061500000</v>
+        <v>12432900000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32203</v>
+        <v>32356</v>
       </c>
       <c r="B85" t="n">
-        <v>11315300000</v>
+        <v>12798400000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32234</v>
+        <v>32387</v>
       </c>
       <c r="B86" t="n">
-        <v>11584000000</v>
+        <v>13126100000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32264</v>
+        <v>32417</v>
       </c>
       <c r="B87" t="n">
-        <v>11812800000</v>
+        <v>12575400000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32295</v>
+        <v>32448</v>
       </c>
       <c r="B88" t="n">
-        <v>12042800000</v>
+        <v>11661600000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32325</v>
+        <v>32478</v>
       </c>
       <c r="B89" t="n">
-        <v>12432900000</v>
+        <v>10968800000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32356</v>
+        <v>32509</v>
       </c>
       <c r="B90" t="n">
-        <v>12798400000</v>
+        <v>11571700000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32387</v>
+        <v>32540</v>
       </c>
       <c r="B91" t="n">
-        <v>13126100000</v>
+        <v>12097900000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32417</v>
+        <v>32568</v>
       </c>
       <c r="B92" t="n">
-        <v>12575400000</v>
+        <v>12642800000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32448</v>
+        <v>32599</v>
       </c>
       <c r="B93" t="n">
-        <v>11661600000</v>
+        <v>13132600000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32478</v>
+        <v>32629</v>
       </c>
       <c r="B94" t="n">
-        <v>10968800000</v>
+        <v>13363800000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32509</v>
+        <v>32660</v>
       </c>
       <c r="B95" t="n">
-        <v>11571700000</v>
+        <v>13219100000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32540</v>
+        <v>32690</v>
       </c>
       <c r="B96" t="n">
-        <v>12097900000</v>
+        <v>13463900000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32568</v>
+        <v>32721</v>
       </c>
       <c r="B97" t="n">
-        <v>12642800000</v>
+        <v>13730700000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32599</v>
+        <v>32752</v>
       </c>
       <c r="B98" t="n">
-        <v>13132600000</v>
+        <v>14105400000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32629</v>
+        <v>32782</v>
       </c>
       <c r="B99" t="n">
-        <v>13363800000</v>
+        <v>13989700000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32660</v>
+        <v>32813</v>
       </c>
       <c r="B100" t="n">
-        <v>13219100000</v>
+        <v>14209300000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32690</v>
+        <v>32843</v>
       </c>
       <c r="B101" t="n">
-        <v>13463900000</v>
+        <v>14309800000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32721</v>
+        <v>32874</v>
       </c>
       <c r="B102" t="n">
-        <v>13730700000</v>
+        <v>14724700000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32752</v>
+        <v>32905</v>
       </c>
       <c r="B103" t="n">
-        <v>14105400000</v>
+        <v>14963200000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32782</v>
+        <v>32933</v>
       </c>
       <c r="B104" t="n">
-        <v>13989700000</v>
+        <v>15431400000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32813</v>
+        <v>32964</v>
       </c>
       <c r="B105" t="n">
-        <v>14209300000</v>
+        <v>16138000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32843</v>
+        <v>32994</v>
       </c>
       <c r="B106" t="n">
-        <v>14309800000</v>
+        <v>16635400000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32874</v>
+        <v>33025</v>
       </c>
       <c r="B107" t="n">
-        <v>14724700000</v>
+        <v>16781900000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32905</v>
+        <v>33055</v>
       </c>
       <c r="B108" t="n">
-        <v>14963200000</v>
+        <v>16944900000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>32933</v>
+        <v>33086</v>
       </c>
       <c r="B109" t="n">
-        <v>15431400000</v>
+        <v>17696500000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>32964</v>
+        <v>33117</v>
       </c>
       <c r="B110" t="n">
-        <v>16138000000</v>
+        <v>17588200000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>32994</v>
+        <v>33147</v>
       </c>
       <c r="B111" t="n">
-        <v>16635400000</v>
+        <v>18058500000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33025</v>
+        <v>33178</v>
       </c>
       <c r="B112" t="n">
-        <v>16781900000</v>
+        <v>18841900000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33055</v>
+        <v>33208</v>
       </c>
       <c r="B113" t="n">
-        <v>16944900000</v>
+        <v>19747400000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33086</v>
+        <v>33239</v>
       </c>
       <c r="B114" t="n">
-        <v>17696500000</v>
+        <v>21585500000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33117</v>
+        <v>33270</v>
       </c>
       <c r="B115" t="n">
-        <v>17588200000</v>
+        <v>21909800000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33147</v>
+        <v>33298</v>
       </c>
       <c r="B116" t="n">
-        <v>18058500000</v>
+        <v>22306000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33178</v>
+        <v>33329</v>
       </c>
       <c r="B117" t="n">
-        <v>18841900000</v>
+        <v>22120900000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33208</v>
+        <v>33359</v>
       </c>
       <c r="B118" t="n">
-        <v>19747400000</v>
+        <v>22389300000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33239</v>
+        <v>33390</v>
       </c>
       <c r="B119" t="n">
-        <v>21585500000</v>
+        <v>21894200000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33270</v>
+        <v>33420</v>
       </c>
       <c r="B120" t="n">
-        <v>21909800000</v>
+        <v>22203400000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33298</v>
+        <v>33451</v>
       </c>
       <c r="B121" t="n">
-        <v>22306000000</v>
+        <v>23584900000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33329</v>
+        <v>33482</v>
       </c>
       <c r="B122" t="n">
-        <v>22120900000</v>
+        <v>23049100000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33359</v>
+        <v>33512</v>
       </c>
       <c r="B123" t="n">
-        <v>22389300000</v>
+        <v>22056200000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33390</v>
+        <v>33543</v>
       </c>
       <c r="B124" t="n">
-        <v>21894200000</v>
+        <v>23364100000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33420</v>
+        <v>33573</v>
       </c>
       <c r="B125" t="n">
-        <v>22203400000</v>
+        <v>23756900000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33451</v>
+        <v>33604</v>
       </c>
       <c r="B126" t="n">
-        <v>23584900000</v>
+        <v>24855800000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33482</v>
+        <v>33635</v>
       </c>
       <c r="B127" t="n">
-        <v>23049100000</v>
+        <v>25303700000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33512</v>
+        <v>33664</v>
       </c>
       <c r="B128" t="n">
-        <v>22056200000</v>
+        <v>25384700000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33543</v>
+        <v>33695</v>
       </c>
       <c r="B129" t="n">
-        <v>23364100000</v>
+        <v>25976000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33573</v>
+        <v>33725</v>
       </c>
       <c r="B130" t="n">
-        <v>23756900000</v>
+        <v>25857300000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33604</v>
+        <v>33756</v>
       </c>
       <c r="B131" t="n">
-        <v>24855800000</v>
+        <v>25537000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33635</v>
+        <v>33786</v>
       </c>
       <c r="B132" t="n">
-        <v>25303700000</v>
+        <v>26018600000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33664</v>
+        <v>33817</v>
       </c>
       <c r="B133" t="n">
-        <v>25384700000</v>
+        <v>26302600000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33695</v>
+        <v>33848</v>
       </c>
       <c r="B134" t="n">
-        <v>25976000000</v>
+        <v>27750300000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33725</v>
+        <v>33878</v>
       </c>
       <c r="B135" t="n">
-        <v>25857300000</v>
+        <v>28727300000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33756</v>
+        <v>33909</v>
       </c>
       <c r="B136" t="n">
-        <v>25537000000</v>
+        <v>29292600000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33786</v>
+        <v>33939</v>
       </c>
       <c r="B137" t="n">
-        <v>26018600000</v>
+        <v>29665300000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33817</v>
+        <v>33970</v>
       </c>
       <c r="B138" t="n">
-        <v>26302600000</v>
+        <v>30386200000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33848</v>
+        <v>34001</v>
       </c>
       <c r="B139" t="n">
-        <v>27750300000</v>
+        <v>30157900000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33878</v>
+        <v>34029</v>
       </c>
       <c r="B140" t="n">
-        <v>28727300000</v>
+        <v>30936400000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>33909</v>
+        <v>34060</v>
       </c>
       <c r="B141" t="n">
-        <v>29292600000</v>
+        <v>31145600000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>33939</v>
+        <v>34090</v>
       </c>
       <c r="B142" t="n">
-        <v>29665300000</v>
+        <v>32327900000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>33970</v>
+        <v>34121</v>
       </c>
       <c r="B143" t="n">
-        <v>30386200000</v>
+        <v>33096800000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34001</v>
+        <v>34151</v>
       </c>
       <c r="B144" t="n">
-        <v>30157900000</v>
+        <v>34239600000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34029</v>
+        <v>34182</v>
       </c>
       <c r="B145" t="n">
-        <v>30936400000</v>
+        <v>35644800000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34060</v>
+        <v>34213</v>
       </c>
       <c r="B146" t="n">
-        <v>31145600000</v>
+        <v>37388100000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34090</v>
+        <v>34243</v>
       </c>
       <c r="B147" t="n">
-        <v>32327900000</v>
+        <v>38572400000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34121</v>
+        <v>34274</v>
       </c>
       <c r="B148" t="n">
-        <v>33096800000</v>
+        <v>41261500000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34151</v>
+        <v>34304</v>
       </c>
       <c r="B149" t="n">
-        <v>34239600000</v>
+        <v>43613300000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34182</v>
+        <v>34335</v>
       </c>
       <c r="B150" t="n">
-        <v>35644800000</v>
+        <v>45755600000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34213</v>
+        <v>34366</v>
       </c>
       <c r="B151" t="n">
-        <v>37388100000</v>
+        <v>46547200000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34243</v>
+        <v>34394</v>
       </c>
       <c r="B152" t="n">
-        <v>38572400000</v>
+        <v>50127100000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34274</v>
+        <v>34425</v>
       </c>
       <c r="B153" t="n">
-        <v>41261500000</v>
+        <v>50872500000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34304</v>
+        <v>34455</v>
       </c>
       <c r="B154" t="n">
-        <v>43613300000</v>
+        <v>51106500000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34335</v>
+        <v>34486</v>
       </c>
       <c r="B155" t="n">
-        <v>45755600000</v>
+        <v>52393400000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34366</v>
+        <v>34516</v>
       </c>
       <c r="B156" t="n">
-        <v>46547200000</v>
+        <v>54863900000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34394</v>
+        <v>34547</v>
       </c>
       <c r="B157" t="n">
-        <v>50127100000</v>
+        <v>55873000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34425</v>
+        <v>34578</v>
       </c>
       <c r="B158" t="n">
-        <v>50872500000</v>
+        <v>57834200000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34455</v>
+        <v>34608</v>
       </c>
       <c r="B159" t="n">
-        <v>51106500000</v>
+        <v>56778900000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34486</v>
+        <v>34639</v>
       </c>
       <c r="B160" t="n">
-        <v>52393400000</v>
+        <v>57538500000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34516</v>
+        <v>34669</v>
       </c>
       <c r="B161" t="n">
-        <v>54863900000</v>
+        <v>59590000000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34547</v>
+        <v>34700</v>
       </c>
       <c r="B162" t="n">
-        <v>55873000000</v>
+        <v>61388900000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34578</v>
+        <v>34731</v>
       </c>
       <c r="B163" t="n">
-        <v>57834200000</v>
+        <v>63068800000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34608</v>
+        <v>34759</v>
       </c>
       <c r="B164" t="n">
-        <v>56778900000</v>
+        <v>64345500000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34639</v>
+        <v>34790</v>
       </c>
       <c r="B165" t="n">
-        <v>57538500000</v>
+        <v>65662399999.99999</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34669</v>
+        <v>34820</v>
       </c>
       <c r="B166" t="n">
-        <v>59590000000</v>
+        <v>67430200000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34700</v>
+        <v>34851</v>
       </c>
       <c r="B167" t="n">
-        <v>61388900000</v>
+        <v>69116600000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34731</v>
+        <v>34881</v>
       </c>
       <c r="B168" t="n">
-        <v>63068800000</v>
+        <v>71190100000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34759</v>
+        <v>34912</v>
       </c>
       <c r="B169" t="n">
-        <v>64345500000</v>
+        <v>72893300000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34790</v>
+        <v>34943</v>
       </c>
       <c r="B170" t="n">
-        <v>65662399999.99999</v>
+        <v>74350700000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34820</v>
+        <v>34973</v>
       </c>
       <c r="B171" t="n">
-        <v>67430200000</v>
+        <v>74985500000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34851</v>
+        <v>35004</v>
       </c>
       <c r="B172" t="n">
-        <v>69116600000</v>
+        <v>76064400000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34881</v>
+        <v>35034</v>
       </c>
       <c r="B173" t="n">
-        <v>71190100000</v>
+        <v>78003800000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>34912</v>
+        <v>35065</v>
       </c>
       <c r="B174" t="n">
-        <v>72893300000</v>
+        <v>79916600000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>34943</v>
+        <v>35096</v>
       </c>
       <c r="B175" t="n">
-        <v>74350700000</v>
+        <v>81072700000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>34973</v>
+        <v>35125</v>
       </c>
       <c r="B176" t="n">
-        <v>74985500000</v>
+        <v>82576000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35004</v>
+        <v>35156</v>
       </c>
       <c r="B177" t="n">
-        <v>76064400000</v>
+        <v>84718100000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35034</v>
+        <v>35186</v>
       </c>
       <c r="B178" t="n">
-        <v>78003800000</v>
+        <v>84676500000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35065</v>
+        <v>35217</v>
       </c>
       <c r="B179" t="n">
-        <v>79916600000</v>
+        <v>85980600000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35096</v>
+        <v>35247</v>
       </c>
       <c r="B180" t="n">
-        <v>81072700000</v>
+        <v>88936400000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35125</v>
+        <v>35278</v>
       </c>
       <c r="B181" t="n">
-        <v>82576000000</v>
+        <v>92505800000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35156</v>
+        <v>35309</v>
       </c>
       <c r="B182" t="n">
-        <v>84718100000</v>
+        <v>94329900000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35186</v>
+        <v>35339</v>
       </c>
       <c r="B183" t="n">
-        <v>84676500000</v>
+        <v>95150000000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35217</v>
+        <v>35370</v>
       </c>
       <c r="B184" t="n">
-        <v>85980600000</v>
+        <v>96601900000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35247</v>
+        <v>35400</v>
       </c>
       <c r="B185" t="n">
-        <v>88936400000</v>
+        <v>98902800000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35278</v>
+        <v>35431</v>
       </c>
       <c r="B186" t="n">
-        <v>92505800000</v>
+        <v>103180100000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35309</v>
+        <v>35462</v>
       </c>
       <c r="B187" t="n">
-        <v>94329900000</v>
+        <v>104615600000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35339</v>
+        <v>35490</v>
       </c>
       <c r="B188" t="n">
-        <v>95150000000</v>
+        <v>106110400000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35370</v>
+        <v>35521</v>
       </c>
       <c r="B189" t="n">
-        <v>96601900000</v>
+        <v>107533900000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35400</v>
+        <v>35551</v>
       </c>
       <c r="B190" t="n">
-        <v>98902800000</v>
+        <v>108889300000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35431</v>
+        <v>35582</v>
       </c>
       <c r="B191" t="n">
-        <v>103180100000</v>
+        <v>111206600000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35462</v>
+        <v>35612</v>
       </c>
       <c r="B192" t="n">
-        <v>104615600000</v>
+        <v>112774400000</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35490</v>
+        <v>35643</v>
       </c>
       <c r="B193" t="n">
-        <v>106110400000</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+        <v>114718000000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D193" t="n">
+        <v>32776571428.57143</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35521</v>
+        <v>35674</v>
       </c>
       <c r="B194" t="n">
-        <v>107533900000</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+        <v>116196400000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.2853881278538813</v>
+      </c>
+      <c r="D194" t="n">
+        <v>33161073059.36073</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35551</v>
+        <v>35704</v>
       </c>
       <c r="B195" t="n">
-        <v>108889300000</v>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+        <v>118167500000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D195" t="n">
+        <v>33762142857.14286</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35582</v>
+        <v>35735</v>
       </c>
       <c r="B196" t="n">
-        <v>111206600000</v>
+        <v>119754800000</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35612</v>
+        <v>35765</v>
       </c>
       <c r="B197" t="n">
-        <v>112774400000</v>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+        <v>122541600000</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.2837684449489217</v>
+      </c>
+      <c r="D197" t="n">
+        <v>34773439273.55278</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35643</v>
+        <v>35796</v>
       </c>
       <c r="B198" t="n">
-        <v>114718000000</v>
+        <v>125591200000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2822466836014677</v>
       </c>
       <c r="D198" t="n">
-        <v>32776571428.57143</v>
+        <v>35447699689.52864</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35674</v>
+        <v>35827</v>
       </c>
       <c r="B199" t="n">
-        <v>116196400000</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.2853881278538813</v>
-      </c>
-      <c r="D199" t="n">
-        <v>33161073059.36073</v>
-      </c>
+        <v>126668300000</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35704</v>
+        <v>35855</v>
       </c>
       <c r="B200" t="n">
-        <v>118167500000</v>
+        <v>127003700000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2803476310625175</v>
       </c>
       <c r="D200" t="n">
-        <v>33762142857.14286</v>
+        <v>35605186431.17466</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35735</v>
+        <v>35886</v>
       </c>
       <c r="B201" t="n">
-        <v>119754800000</v>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+        <v>128626000000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.271665308340125</v>
+      </c>
+      <c r="D201" t="n">
+        <v>34943221950.55692</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35765</v>
+        <v>35916</v>
       </c>
       <c r="B202" t="n">
-        <v>122541600000</v>
+        <v>129389900000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2837684449489217</v>
+        <v>0.2737476047084588</v>
       </c>
       <c r="D202" t="n">
-        <v>34773439273.55278</v>
+        <v>35420175198.46702</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35796</v>
+        <v>35947</v>
       </c>
       <c r="B203" t="n">
-        <v>125591200000</v>
+        <v>131618700000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2822466836014677</v>
+        <v>0.2731494127287626</v>
       </c>
       <c r="D203" t="n">
-        <v>35447699689.52864</v>
+        <v>35951570609.12319</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35827</v>
+        <v>35977</v>
       </c>
       <c r="B204" t="n">
-        <v>126668300000</v>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+        <v>135543000000</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.2741979709350151</v>
+      </c>
+      <c r="D204" t="n">
+        <v>37165615574.44475</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35855</v>
+        <v>36008</v>
       </c>
       <c r="B205" t="n">
-        <v>127003700000</v>
+        <v>137577100000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2803476310625175</v>
+        <v>0.2722570106180234</v>
       </c>
       <c r="D205" t="n">
-        <v>35605186431.17466</v>
+        <v>37456329975.49687</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35886</v>
+        <v>36039</v>
       </c>
       <c r="B206" t="n">
-        <v>128626000000</v>
+        <v>139568900000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.271665308340125</v>
+        <v>0.2596053997923157</v>
       </c>
       <c r="D206" t="n">
-        <v>34943221950.55692</v>
+        <v>36232840083.07373</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>35916</v>
+        <v>36069</v>
       </c>
       <c r="B207" t="n">
-        <v>129389900000</v>
+        <v>140938600000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2737476047084588</v>
+        <v>0.2351281448389372</v>
       </c>
       <c r="D207" t="n">
-        <v>35420175198.46702</v>
+        <v>33138631554.19704</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>35947</v>
+        <v>36100</v>
       </c>
       <c r="B208" t="n">
-        <v>131618700000</v>
+        <v>140465000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2731494127287626</v>
+        <v>0.2391200382592061</v>
       </c>
       <c r="D208" t="n">
-        <v>35951570609.12319</v>
+        <v>33587996174.07939</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>35977</v>
+        <v>36130</v>
       </c>
       <c r="B209" t="n">
-        <v>135543000000</v>
+        <v>142533000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.2741979709350151</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="D209" t="n">
-        <v>37165615574.44475</v>
+        <v>34262740384.61538</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36008</v>
+        <v>36161</v>
       </c>
       <c r="B210" t="n">
-        <v>137577100000</v>
+        <v>149174300000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2722570106180234</v>
+        <v>0.2437835202340322</v>
       </c>
       <c r="D210" t="n">
-        <v>37456329975.49687</v>
+        <v>36366235982.44759</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36039</v>
+        <v>36192</v>
       </c>
       <c r="B211" t="n">
-        <v>139568900000</v>
+        <v>150478700000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2596053997923157</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="D211" t="n">
-        <v>36232840083.07373</v>
+        <v>37247202970.29703</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36069</v>
+        <v>36220</v>
       </c>
       <c r="B212" t="n">
-        <v>140938600000</v>
+        <v>154237000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.2351281448389372</v>
+        <v>0.2493765586034913</v>
       </c>
       <c r="D212" t="n">
-        <v>33138631554.19704</v>
+        <v>38463092269.32668</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36100</v>
+        <v>36251</v>
       </c>
       <c r="B213" t="n">
-        <v>140465000000</v>
+        <v>157737800000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.2391200382592061</v>
+        <v>0.241779497098646</v>
       </c>
       <c r="D213" t="n">
-        <v>33587996174.07939</v>
+        <v>38137765957.44681</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36130</v>
+        <v>36281</v>
       </c>
       <c r="B214" t="n">
-        <v>142533000000</v>
+        <v>160058700000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.243605359317905</v>
       </c>
       <c r="D214" t="n">
-        <v>34262740384.61538</v>
+        <v>38991157125.45676</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36161</v>
+        <v>36312</v>
       </c>
       <c r="B215" t="n">
-        <v>149174300000</v>
+        <v>161309400000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2437835202340322</v>
+        <v>0.2455795677799607</v>
       </c>
       <c r="D215" t="n">
-        <v>36366235982.44759</v>
+        <v>39614292730.8448</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36192</v>
+        <v>36342</v>
       </c>
       <c r="B216" t="n">
-        <v>150478700000</v>
+        <v>164651000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2475247524752475</v>
+        <v>0.2410800385728062</v>
       </c>
       <c r="D216" t="n">
-        <v>37247202970.29703</v>
+        <v>39694069431.05111</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36220</v>
+        <v>36373</v>
       </c>
       <c r="B217" t="n">
-        <v>154237000000</v>
+        <v>166929700000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2493765586034913</v>
+        <v>0.2359603586597451</v>
       </c>
       <c r="D217" t="n">
-        <v>38463092269.32668</v>
+        <v>39388791882.96365</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36251</v>
+        <v>36404</v>
       </c>
       <c r="B218" t="n">
-        <v>157737800000</v>
+        <v>168321900000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.241779497098646</v>
+        <v>0.2337540906965872</v>
       </c>
       <c r="D218" t="n">
-        <v>38137765957.44681</v>
+        <v>39345932678.82188</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36281</v>
+        <v>36434</v>
       </c>
       <c r="B219" t="n">
-        <v>160058700000</v>
+        <v>170334500000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.243605359317905</v>
+        <v>0.2355157795572303</v>
       </c>
       <c r="D219" t="n">
-        <v>38991157125.45676</v>
+        <v>40116462552.99104</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36312</v>
+        <v>36465</v>
       </c>
       <c r="B220" t="n">
-        <v>161309400000</v>
+        <v>173286400000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.2455795677799607</v>
+        <v>0.2366863905325444</v>
       </c>
       <c r="D220" t="n">
-        <v>39614292730.8448</v>
+        <v>41014532544.3787</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36342</v>
+        <v>36495</v>
       </c>
       <c r="B221" t="n">
-        <v>164651000000</v>
+        <v>178808400000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.2410800385728062</v>
+        <v>0.2409058058299205</v>
       </c>
       <c r="D221" t="n">
-        <v>39694069431.05111</v>
+        <v>43075981691.15876</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36373</v>
+        <v>36526</v>
       </c>
       <c r="B222" t="n">
-        <v>166929700000</v>
+        <v>183975700000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2359603586597451</v>
+        <v>0.245398773006135</v>
       </c>
       <c r="D222" t="n">
-        <v>39388791882.96365</v>
+        <v>45147411042.94479</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36404</v>
+        <v>36557</v>
       </c>
       <c r="B223" t="n">
-        <v>168321900000</v>
+        <v>185668600000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2337540906965872</v>
+        <v>0.2474634991338777</v>
       </c>
       <c r="D223" t="n">
-        <v>39345932678.82188</v>
+        <v>45946201435.28829</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36434</v>
+        <v>36586</v>
       </c>
       <c r="B224" t="n">
-        <v>170334500000</v>
+        <v>187076700000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2355157795572303</v>
+        <v>0.2493143854400399</v>
       </c>
       <c r="D224" t="n">
-        <v>40116462552.99104</v>
+        <v>46640912490.65071</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36465</v>
+        <v>36617</v>
       </c>
       <c r="B225" t="n">
-        <v>173286400000</v>
+        <v>188902300000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2366863905325444</v>
+        <v>0.248015873015873</v>
       </c>
       <c r="D225" t="n">
-        <v>41014532544.3787</v>
+        <v>46850768849.20635</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36495</v>
+        <v>36647</v>
       </c>
       <c r="B226" t="n">
-        <v>178808400000</v>
+        <v>189103700000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2409058058299205</v>
+        <v>0.2400384061449832</v>
       </c>
       <c r="D226" t="n">
-        <v>43075981691.15876</v>
+        <v>45392150744.11906</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36526</v>
+        <v>36678</v>
       </c>
       <c r="B227" t="n">
-        <v>183975700000</v>
+        <v>190961300000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.245398773006135</v>
+        <v>0.2452783909737552</v>
       </c>
       <c r="D227" t="n">
-        <v>45147411042.94479</v>
+        <v>46838680402.25656</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36557</v>
+        <v>36708</v>
       </c>
       <c r="B228" t="n">
-        <v>185668600000</v>
+        <v>195056600000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.2474634991338777</v>
+        <v>0.2460629921259843</v>
       </c>
       <c r="D228" t="n">
-        <v>45946201435.28829</v>
+        <v>47996210629.92126</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36586</v>
+        <v>36739</v>
       </c>
       <c r="B229" t="n">
-        <v>187076700000</v>
+        <v>198410700000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2493143854400399</v>
+        <v>0.2494387627837366</v>
       </c>
       <c r="D229" t="n">
-        <v>46640912490.65071</v>
+        <v>49491319531.05512</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36617</v>
+        <v>36770</v>
       </c>
       <c r="B230" t="n">
-        <v>188902300000</v>
+        <v>201584500000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.248015873015873</v>
+        <v>0.2498750624687656</v>
       </c>
       <c r="D230" t="n">
-        <v>46850768849.20635</v>
+        <v>50370939530.23489</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36647</v>
+        <v>36800</v>
       </c>
       <c r="B231" t="n">
-        <v>189103700000</v>
+        <v>205945800000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2400384061449832</v>
+        <v>0.2431906614785992</v>
       </c>
       <c r="D231" t="n">
-        <v>45392150744.11906</v>
+        <v>50084095330.7393</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36678</v>
+        <v>36831</v>
       </c>
       <c r="B232" t="n">
-        <v>190961300000</v>
+        <v>207942700000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.2452783909737552</v>
+        <v>0.2442002442002442</v>
       </c>
       <c r="D232" t="n">
-        <v>46838680402.25656</v>
+        <v>50779658119.65813</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36708</v>
+        <v>36861</v>
       </c>
       <c r="B233" t="n">
-        <v>195056600000</v>
+        <v>212393600000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2460629921259843</v>
+        <v>0.2486943546381497</v>
       </c>
       <c r="D233" t="n">
-        <v>47996210629.92126</v>
+        <v>52821089281.27332</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36739</v>
+        <v>36892</v>
       </c>
       <c r="B234" t="n">
-        <v>198410700000</v>
+        <v>215819800000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.2494387627837366</v>
+        <v>0.2408187838651415</v>
       </c>
       <c r="D234" t="n">
-        <v>49491319531.05512</v>
+        <v>51973461770.01807</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36770</v>
+        <v>36923</v>
       </c>
       <c r="B235" t="n">
-        <v>201584500000</v>
+        <v>217782200000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2498750624687656</v>
+        <v>0.2435460301997077</v>
       </c>
       <c r="D235" t="n">
-        <v>50370939530.23489</v>
+        <v>53039990258.15879</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36800</v>
+        <v>36951</v>
       </c>
       <c r="B236" t="n">
-        <v>205945800000</v>
+        <v>221484100000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.2431906614785992</v>
+        <v>0.2381519409383187</v>
       </c>
       <c r="D236" t="n">
-        <v>50084095330.7393</v>
+        <v>52746868301.97666</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36831</v>
+        <v>36982</v>
       </c>
       <c r="B237" t="n">
-        <v>207942700000</v>
+        <v>222735800000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2442002442002442</v>
+        <v>0.2420135527589545</v>
       </c>
       <c r="D237" t="n">
-        <v>50779658119.65813</v>
+        <v>53905082284.60795</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36861</v>
+        <v>37012</v>
       </c>
       <c r="B238" t="n">
-        <v>212393600000</v>
+        <v>224642300000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2486943546381497</v>
+        <v>0.2416626389560174</v>
       </c>
       <c r="D238" t="n">
-        <v>52821089281.27332</v>
+        <v>54287651039.14935</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36892</v>
+        <v>37043</v>
       </c>
       <c r="B239" t="n">
-        <v>215819800000</v>
+        <v>227793600000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.2408187838651415</v>
+        <v>0.2399808015358771</v>
       </c>
       <c r="D239" t="n">
-        <v>51973461770.01807</v>
+        <v>54666090712.74298</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>36923</v>
+        <v>37073</v>
       </c>
       <c r="B240" t="n">
-        <v>217782200000</v>
+        <v>230306000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2435460301997077</v>
+        <v>0.2376990729736154</v>
       </c>
       <c r="D240" t="n">
-        <v>53039990258.15879</v>
+        <v>54743522700.26147</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>36951</v>
+        <v>37104</v>
       </c>
       <c r="B241" t="n">
-        <v>221484100000</v>
+        <v>232646700000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.2381519409383187</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="D241" t="n">
-        <v>52746868301.97666</v>
+        <v>54611901408.45071</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>36982</v>
+        <v>37135</v>
       </c>
       <c r="B242" t="n">
-        <v>222735800000</v>
+        <v>236009500000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2420135527589545</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="D242" t="n">
-        <v>53905082284.60795</v>
+        <v>54255057471.26437</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37012</v>
+        <v>37165</v>
       </c>
       <c r="B243" t="n">
-        <v>224642300000</v>
+        <v>239598700000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2416626389560174</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="D243" t="n">
-        <v>54287651039.14935</v>
+        <v>56046479532.16374</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37043</v>
+        <v>37196</v>
       </c>
       <c r="B244" t="n">
-        <v>227793600000</v>
+        <v>240095600000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.2399808015358771</v>
+        <v>0.2364625206904706</v>
       </c>
       <c r="D244" t="n">
-        <v>54666090712.74298</v>
+        <v>56773610782.69094</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37073</v>
+        <v>37226</v>
       </c>
       <c r="B245" t="n">
-        <v>230306000000</v>
+        <v>242857800000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.2376990729736154</v>
+        <v>0.2271694684234439</v>
       </c>
       <c r="D245" t="n">
-        <v>54743522700.26147</v>
+        <v>55169877328.48705</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37104</v>
+        <v>37257</v>
       </c>
       <c r="B246" t="n">
-        <v>232646700000</v>
+        <v>239634800000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2347417840375587</v>
+        <v>0.2181025081788441</v>
       </c>
       <c r="D246" t="n">
-        <v>54611901408.45071</v>
+        <v>52264950926.93566</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37135</v>
+        <v>37288</v>
       </c>
       <c r="B247" t="n">
-        <v>236009500000</v>
+        <v>231312700000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2143852502947797</v>
       </c>
       <c r="D247" t="n">
-        <v>54255057471.26437</v>
+        <v>49590031085.86129</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37165</v>
+        <v>37316</v>
       </c>
       <c r="B248" t="n">
-        <v>239598700000</v>
+        <v>230560200000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.2339181286549707</v>
+        <v>0.2108370229812355</v>
       </c>
       <c r="D248" t="n">
-        <v>56046479532.16374</v>
+        <v>48610626185.95825</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37196</v>
+        <v>37347</v>
       </c>
       <c r="B249" t="n">
-        <v>240095600000</v>
+        <v>233057600000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2364625206904706</v>
+        <v>0.2044989775051125</v>
       </c>
       <c r="D249" t="n">
-        <v>56773610782.69094</v>
+        <v>47660040899.7955</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37226</v>
+        <v>37377</v>
       </c>
       <c r="B250" t="n">
-        <v>242857800000</v>
+        <v>232290300000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2271694684234439</v>
+        <v>0.2033760423022168</v>
       </c>
       <c r="D250" t="n">
-        <v>55169877328.48705</v>
+        <v>47242281879.19463</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37257</v>
+        <v>37408</v>
       </c>
       <c r="B251" t="n">
-        <v>239634800000</v>
+        <v>232231100000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2181025081788441</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D251" t="n">
-        <v>52264950926.93566</v>
+        <v>48890757894.73684</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37288</v>
+        <v>37438</v>
       </c>
       <c r="B252" t="n">
-        <v>231312700000</v>
+        <v>232066900000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2143852502947797</v>
+        <v>0.2138351331123704</v>
       </c>
       <c r="D252" t="n">
-        <v>49590031085.86129</v>
+        <v>49624056452.47514</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37316</v>
+        <v>37469</v>
       </c>
       <c r="B253" t="n">
-        <v>230560200000</v>
+        <v>233317300000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2108370229812355</v>
+        <v>0.2147028512538646</v>
       </c>
       <c r="D253" t="n">
-        <v>48610626185.95825</v>
+        <v>50093889556.85331</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37347</v>
+        <v>37500</v>
       </c>
       <c r="B254" t="n">
-        <v>233057600000</v>
+        <v>236599100000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.2044989775051125</v>
+        <v>0.2050440844781628</v>
       </c>
       <c r="D254" t="n">
-        <v>47660040899.7955</v>
+        <v>48513245847.85729</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37377</v>
+        <v>37530</v>
       </c>
       <c r="B255" t="n">
-        <v>232290300000</v>
+        <v>237118300000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.2033760423022168</v>
+        <v>0.2095118374188142</v>
       </c>
       <c r="D255" t="n">
-        <v>47242281879.19463</v>
+        <v>49679090718.62561</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37408</v>
+        <v>37561</v>
       </c>
       <c r="B256" t="n">
-        <v>232231100000</v>
+        <v>236775500000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2153779883695886</v>
       </c>
       <c r="D256" t="n">
-        <v>48890757894.73684</v>
+        <v>50996230885.20353</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37438</v>
+        <v>37591</v>
       </c>
       <c r="B257" t="n">
-        <v>232066900000</v>
+        <v>237770500000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2138351331123704</v>
+        <v>0.2108014671782115</v>
       </c>
       <c r="D257" t="n">
-        <v>49624056452.47514</v>
+        <v>50122370251.69695</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37469</v>
+        <v>37622</v>
       </c>
       <c r="B258" t="n">
-        <v>233317300000</v>
+        <v>238793700000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2147028512538646</v>
+        <v>0.2074688796680498</v>
       </c>
       <c r="D258" t="n">
-        <v>50093889556.85331</v>
+        <v>49542261410.78838</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37500</v>
+        <v>37653</v>
       </c>
       <c r="B259" t="n">
-        <v>236599100000</v>
+        <v>237425400000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2050440844781628</v>
+        <v>0.2077706212341575</v>
       </c>
       <c r="D259" t="n">
-        <v>48513245847.85729</v>
+        <v>49330022854.76834</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37530</v>
+        <v>37681</v>
       </c>
       <c r="B260" t="n">
-        <v>237118300000</v>
+        <v>235316800000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2095118374188142</v>
+        <v>0.2131060202450719</v>
       </c>
       <c r="D260" t="n">
-        <v>49679090718.62561</v>
+        <v>50147426744.80554</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37561</v>
+        <v>37712</v>
       </c>
       <c r="B261" t="n">
-        <v>236775500000</v>
+        <v>235152500000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2153779883695886</v>
+        <v>0.2198285337436799</v>
       </c>
       <c r="D261" t="n">
-        <v>50996230885.20353</v>
+        <v>51693229281.16069</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37591</v>
+        <v>37742</v>
       </c>
       <c r="B262" t="n">
-        <v>237770500000</v>
+        <v>235653900000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2108014671782115</v>
+        <v>0.2279202279202279</v>
       </c>
       <c r="D262" t="n">
-        <v>50122370251.69695</v>
+        <v>53710290598.2906</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37622</v>
+        <v>37773</v>
       </c>
       <c r="B263" t="n">
-        <v>238793700000</v>
+        <v>233550400000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.2074688796680498</v>
+        <v>0.2312673450508788</v>
       </c>
       <c r="D263" t="n">
-        <v>49542261410.78838</v>
+        <v>54012580943.57077</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37653</v>
+        <v>37803</v>
       </c>
       <c r="B264" t="n">
-        <v>237425400000</v>
+        <v>235657500000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.2077706212341575</v>
+        <v>0.2245677071637099</v>
       </c>
       <c r="D264" t="n">
-        <v>49330022854.76834</v>
+        <v>52921064450.93195</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37681</v>
+        <v>37834</v>
       </c>
       <c r="B265" t="n">
-        <v>235316800000</v>
+        <v>237979700000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="D265" t="n">
-        <v>50147426744.80554</v>
+        <v>53478584269.66292</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37712</v>
+        <v>37865</v>
       </c>
       <c r="B266" t="n">
-        <v>235152500000</v>
+        <v>241116000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2198285337436799</v>
+        <v>0.2249870632438635</v>
       </c>
       <c r="D266" t="n">
-        <v>51693229281.16069</v>
+        <v>54247980741.10738</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37742</v>
+        <v>37895</v>
       </c>
       <c r="B267" t="n">
-        <v>235653900000</v>
+        <v>244277100000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.2279202279202279</v>
+        <v>0.222667557336896</v>
       </c>
       <c r="D267" t="n">
-        <v>53710290598.2906</v>
+        <v>54392585170.34068</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37773</v>
+        <v>37926</v>
       </c>
       <c r="B268" t="n">
-        <v>233550400000</v>
+        <v>242554200000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.2312673450508788</v>
+        <v>0.2249718785151856</v>
       </c>
       <c r="D268" t="n">
-        <v>54012580943.57077</v>
+        <v>54567874015.74802</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37803</v>
+        <v>37956</v>
       </c>
       <c r="B269" t="n">
-        <v>235657500000</v>
+        <v>242423800000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.2245677071637099</v>
+        <v>0.2282062984938384</v>
       </c>
       <c r="D269" t="n">
-        <v>52921064450.93195</v>
+        <v>55322638064.81059</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37834</v>
+        <v>37987</v>
       </c>
       <c r="B270" t="n">
-        <v>237979700000</v>
+        <v>247432200000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2247191011235955</v>
+        <v>0.2229803554306866</v>
       </c>
       <c r="D270" t="n">
-        <v>53478584269.66292</v>
+        <v>55172519900.99673</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37865</v>
+        <v>38018</v>
       </c>
       <c r="B271" t="n">
-        <v>241116000000</v>
+        <v>244833700000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2249870632438635</v>
+        <v>0.2226576416102601</v>
       </c>
       <c r="D271" t="n">
-        <v>54247980741.10738</v>
+        <v>54514094228.71393</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37895</v>
+        <v>38047</v>
       </c>
       <c r="B272" t="n">
-        <v>244277100000</v>
+        <v>243503700000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.222667557336896</v>
+        <v>0.2209944751381215</v>
       </c>
       <c r="D272" t="n">
-        <v>54392585170.34068</v>
+        <v>53812972375.69061</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>37926</v>
+        <v>38078</v>
       </c>
       <c r="B273" t="n">
-        <v>242554200000</v>
+        <v>244259800000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.2249718785151856</v>
+        <v>0.21767522855899</v>
       </c>
       <c r="D273" t="n">
-        <v>54567874015.74802</v>
+        <v>53169307792.77318</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>37956</v>
+        <v>38108</v>
       </c>
       <c r="B274" t="n">
-        <v>242423800000</v>
+        <v>244662700000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.2282062984938384</v>
+        <v>0.2200704225352113</v>
       </c>
       <c r="D274" t="n">
-        <v>55322638064.81059</v>
+        <v>53843023767.60564</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>37987</v>
+        <v>38139</v>
       </c>
       <c r="B275" t="n">
-        <v>247432200000</v>
+        <v>246161800000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2229803554306866</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D275" t="n">
-        <v>55172519900.99673</v>
+        <v>54836667409.22254</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38018</v>
+        <v>38169</v>
       </c>
       <c r="B276" t="n">
-        <v>244833700000</v>
+        <v>247645600000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2226576416102601</v>
+        <v>0.2215820961666297</v>
       </c>
       <c r="D276" t="n">
-        <v>54514094228.71393</v>
+        <v>54873831154.44273</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38047</v>
+        <v>38200</v>
       </c>
       <c r="B277" t="n">
-        <v>243503700000</v>
+        <v>248832400000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.2209944751381215</v>
+        <v>0.2216312056737589</v>
       </c>
       <c r="D277" t="n">
-        <v>53812972375.69061</v>
+        <v>55149024822.69504</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38078</v>
+        <v>38231</v>
       </c>
       <c r="B278" t="n">
-        <v>244259800000</v>
+        <v>252335300000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.21767522855899</v>
+        <v>0.2236786185608518</v>
       </c>
       <c r="D278" t="n">
-        <v>53169307792.77318</v>
+        <v>56442011318.1381</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38108</v>
+        <v>38261</v>
       </c>
       <c r="B279" t="n">
-        <v>244662700000</v>
+        <v>251575400000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.2200704225352113</v>
+        <v>0.2243661655822302</v>
       </c>
       <c r="D279" t="n">
-        <v>53843023767.60564</v>
+        <v>56445007852.8158</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38139</v>
+        <v>38292</v>
       </c>
       <c r="B280" t="n">
-        <v>246161800000</v>
+        <v>251598200000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2227667631989307</v>
+        <v>0.2296738631143776</v>
       </c>
       <c r="D280" t="n">
-        <v>54836667409.22254</v>
+        <v>57785530546.62379</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38169</v>
+        <v>38322</v>
       </c>
       <c r="B281" t="n">
-        <v>247645600000</v>
+        <v>256059000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2215820961666297</v>
+        <v>0.2314546927438954</v>
       </c>
       <c r="D281" t="n">
-        <v>54873831154.44273</v>
+        <v>59266057169.3091</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38200</v>
+        <v>38353</v>
       </c>
       <c r="B282" t="n">
-        <v>248832400000</v>
+        <v>258336900000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2216312056737589</v>
+        <v>0.2281282080529257</v>
       </c>
       <c r="D282" t="n">
-        <v>55149024822.69504</v>
+        <v>58933934070.94788</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38231</v>
+        <v>38384</v>
       </c>
       <c r="B283" t="n">
-        <v>252335300000</v>
+        <v>258681900000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.2236786185608518</v>
+        <v>0.2289115256953188</v>
       </c>
       <c r="D283" t="n">
-        <v>56442011318.1381</v>
+        <v>59215268398.76388</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38261</v>
+        <v>38412</v>
       </c>
       <c r="B284" t="n">
-        <v>251575400000</v>
+        <v>256407800000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2243661655822302</v>
+        <v>0.2294893861158921</v>
       </c>
       <c r="D284" t="n">
-        <v>56445007852.8158</v>
+        <v>58842868617.32645</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38292</v>
+        <v>38443</v>
       </c>
       <c r="B285" t="n">
-        <v>251598200000</v>
+        <v>259594600000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2296738631143776</v>
+        <v>0.2289115256953188</v>
       </c>
       <c r="D285" t="n">
-        <v>57785530546.62379</v>
+        <v>59424195948.26599</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38322</v>
+        <v>38473</v>
       </c>
       <c r="B286" t="n">
-        <v>256059000000</v>
+        <v>260406300000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.2314546927438954</v>
+        <v>0.2268345242145854</v>
       </c>
       <c r="D286" t="n">
-        <v>59266057169.3091</v>
+        <v>59069139162.9806</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38353</v>
+        <v>38504</v>
       </c>
       <c r="B287" t="n">
-        <v>258336900000</v>
+        <v>265362400000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2281282080529257</v>
+        <v>0.2184598580010923</v>
       </c>
       <c r="D287" t="n">
-        <v>58933934070.94788</v>
+        <v>57971032222.82906</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38384</v>
+        <v>38534</v>
       </c>
       <c r="B288" t="n">
-        <v>258681900000</v>
+        <v>267910800000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2289115256953188</v>
+        <v>0.2213368747233289</v>
       </c>
       <c r="D288" t="n">
-        <v>59215268398.76388</v>
+        <v>59298539176.62683</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38412</v>
+        <v>38565</v>
       </c>
       <c r="B289" t="n">
-        <v>256407800000</v>
+        <v>267306900000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2294893861158921</v>
+        <v>0.2206433961431535</v>
       </c>
       <c r="D289" t="n">
-        <v>58842868617.32645</v>
+        <v>58979502228.49831</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38443</v>
+        <v>38596</v>
       </c>
       <c r="B290" t="n">
-        <v>259594600000</v>
+        <v>265307900000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2289115256953188</v>
+        <v>0.2176515398846447</v>
       </c>
       <c r="D290" t="n">
-        <v>59424195948.26599</v>
+        <v>57744672978.56133</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38473</v>
+        <v>38626</v>
       </c>
       <c r="B291" t="n">
-        <v>260406300000</v>
+        <v>265180300000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2268345242145854</v>
+        <v>0.2153872663048161</v>
       </c>
       <c r="D291" t="n">
-        <v>59069139162.9806</v>
+        <v>57116459894.89101</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38504</v>
+        <v>38657</v>
       </c>
       <c r="B292" t="n">
-        <v>265362400000</v>
+        <v>265374300000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.2184598580010923</v>
+        <v>0.2146014850422765</v>
       </c>
       <c r="D292" t="n">
-        <v>57971032222.82906</v>
+        <v>56949718872.0546</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38534</v>
+        <v>38687</v>
       </c>
       <c r="B293" t="n">
-        <v>267910800000</v>
+        <v>269664000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.2213368747233289</v>
+        <v>0.2173676774263667</v>
       </c>
       <c r="D293" t="n">
-        <v>59298539176.62683</v>
+        <v>58616237365.50375</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38565</v>
+        <v>38718</v>
       </c>
       <c r="B294" t="n">
-        <v>267306900000</v>
+        <v>269822900000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2206433961431535</v>
+        <v>0.2149613069647463</v>
       </c>
       <c r="D294" t="n">
-        <v>58979502228.49831</v>
+        <v>58001483233.01805</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38596</v>
+        <v>38749</v>
       </c>
       <c r="B295" t="n">
-        <v>265307900000</v>
+        <v>267555100000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.2176515398846447</v>
+        <v>0.2131060202450719</v>
       </c>
       <c r="D295" t="n">
-        <v>57744672978.56133</v>
+        <v>57017602557.27224</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38626</v>
+        <v>38777</v>
       </c>
       <c r="B296" t="n">
-        <v>265180300000</v>
+        <v>268358200000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2153872663048161</v>
+        <v>0.2147535702781058</v>
       </c>
       <c r="D296" t="n">
-        <v>57116459894.89101</v>
+        <v>57630881563.40598</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38657</v>
+        <v>38808</v>
       </c>
       <c r="B297" t="n">
-        <v>265374300000</v>
+        <v>272180300000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.2146014850422765</v>
+        <v>0.2236185961224536</v>
       </c>
       <c r="D297" t="n">
-        <v>56949718872.0546</v>
+        <v>60864576578.18825</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38687</v>
+        <v>38838</v>
       </c>
       <c r="B298" t="n">
-        <v>269664000000</v>
+        <v>271529200000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.2173676774263667</v>
+        <v>0.2216852512802323</v>
       </c>
       <c r="D298" t="n">
-        <v>58616237365.50375</v>
+        <v>60194018931.92046</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38718</v>
+        <v>38869</v>
       </c>
       <c r="B299" t="n">
-        <v>269822900000</v>
+        <v>272924600000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.2149613069647463</v>
+        <v>0.2264954361169622</v>
       </c>
       <c r="D299" t="n">
-        <v>58001483233.01805</v>
+        <v>61816176304.04747</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38749</v>
+        <v>38899</v>
       </c>
       <c r="B300" t="n">
-        <v>267555100000</v>
+        <v>276535800000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2284722063560968</v>
       </c>
       <c r="D300" t="n">
-        <v>57017602557.27224</v>
+        <v>63180744362.4483</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38777</v>
+        <v>38930</v>
       </c>
       <c r="B301" t="n">
-        <v>268358200000</v>
+        <v>278050100000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.2147535702781058</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="D301" t="n">
-        <v>57630881563.40598</v>
+        <v>63772958715.59633</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38808</v>
+        <v>38961</v>
       </c>
       <c r="B302" t="n">
-        <v>272180300000</v>
+        <v>281820600000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2236185961224536</v>
+        <v>0.2325040688212044</v>
       </c>
       <c r="D302" t="n">
-        <v>60864576578.18825</v>
+        <v>65524436177.6331</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38838</v>
+        <v>38991</v>
       </c>
       <c r="B303" t="n">
-        <v>271529200000</v>
+        <v>284425800000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2216852512802323</v>
+        <v>0.234246896228625</v>
       </c>
       <c r="D303" t="n">
-        <v>60194018931.92046</v>
+        <v>66625860857.34364</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38869</v>
+        <v>39022</v>
       </c>
       <c r="B304" t="n">
-        <v>272924600000</v>
+        <v>282246800000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2264954361169622</v>
+        <v>0.2364066193853428</v>
       </c>
       <c r="D304" t="n">
-        <v>61816176304.04747</v>
+        <v>66725011820.33096</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38899</v>
+        <v>39052</v>
       </c>
       <c r="B305" t="n">
-        <v>276535800000</v>
+        <v>288972600000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.2284722063560968</v>
+        <v>0.2374394529395004</v>
       </c>
       <c r="D305" t="n">
-        <v>63180744362.4483</v>
+        <v>68613496058.50509</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>38930</v>
+        <v>39083</v>
       </c>
       <c r="B306" t="n">
-        <v>278050100000</v>
+        <v>296334000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.2293577981651376</v>
+        <v>0.235626767200754</v>
       </c>
       <c r="D306" t="n">
-        <v>63772958715.59633</v>
+        <v>69824222431.66824</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>38961</v>
+        <v>39114</v>
       </c>
       <c r="B307" t="n">
-        <v>281820600000</v>
+        <v>300961000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.2325040688212044</v>
+        <v>0.2376425855513308</v>
       </c>
       <c r="D307" t="n">
-        <v>65524436177.6331</v>
+        <v>71521150190.11406</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>38991</v>
+        <v>39142</v>
       </c>
       <c r="B308" t="n">
-        <v>284425800000</v>
+        <v>303450500000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.234246896228625</v>
+        <v>0.2409058058299205</v>
       </c>
       <c r="D308" t="n">
-        <v>66625860857.34364</v>
+        <v>73102987231.99229</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39022</v>
+        <v>39173</v>
       </c>
       <c r="B309" t="n">
-        <v>282246800000</v>
+        <v>310632900000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.2364066193853428</v>
+        <v>0.2481697481077057</v>
       </c>
       <c r="D309" t="n">
-        <v>66725011820.33096</v>
+        <v>77089688546.96614</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39052</v>
+        <v>39203</v>
       </c>
       <c r="B310" t="n">
-        <v>288972600000</v>
+        <v>313592000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.2374394529395004</v>
+        <v>0.246669955599408</v>
       </c>
       <c r="D310" t="n">
-        <v>68613496058.50509</v>
+        <v>77353724716.32954</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39083</v>
+        <v>39234</v>
       </c>
       <c r="B311" t="n">
-        <v>296334000000</v>
+        <v>317231100000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.235626767200754</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D311" t="n">
-        <v>69824222431.66824</v>
+        <v>74642611764.70589</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39114</v>
+        <v>39264</v>
       </c>
       <c r="B312" t="n">
-        <v>300961000000</v>
+        <v>326471600000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2376425855513308</v>
+        <v>0.2321262766945218</v>
       </c>
       <c r="D312" t="n">
-        <v>71521150190.11406</v>
+        <v>75782636954.50325</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39142</v>
+        <v>39295</v>
       </c>
       <c r="B313" t="n">
-        <v>303450500000</v>
+        <v>331851200000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.2409058058299205</v>
+        <v>0.2430724355858046</v>
       </c>
       <c r="D313" t="n">
-        <v>73102987231.99229</v>
+        <v>80663879436.07195</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39173</v>
+        <v>39326</v>
       </c>
       <c r="B314" t="n">
-        <v>310632900000</v>
+        <v>329756900000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.2481697481077057</v>
+        <v>0.24919013207077</v>
       </c>
       <c r="D314" t="n">
-        <v>77089688546.96614</v>
+        <v>82172165462.2477</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39203</v>
+        <v>39356</v>
       </c>
       <c r="B315" t="n">
-        <v>313592000000</v>
+        <v>332953100000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.246669955599408</v>
+        <v>0.2529084471421346</v>
       </c>
       <c r="D315" t="n">
-        <v>77353724716.32954</v>
+        <v>84206651492.15984</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39234</v>
+        <v>39387</v>
       </c>
       <c r="B316" t="n">
-        <v>317231100000</v>
+        <v>328750600000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.261437908496732</v>
       </c>
       <c r="D316" t="n">
-        <v>74642611764.70589</v>
+        <v>85947869281.04576</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39264</v>
+        <v>39417</v>
       </c>
       <c r="B317" t="n">
-        <v>326471600000</v>
+        <v>330688400000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.2321262766945218</v>
+        <v>0.2601456815816858</v>
       </c>
       <c r="D317" t="n">
-        <v>75782636954.50325</v>
+        <v>86027159209.15714</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39295</v>
+        <v>39448</v>
       </c>
       <c r="B318" t="n">
-        <v>331851200000</v>
+        <v>333976700000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.2430724355858046</v>
+        <v>0.2770083102493075</v>
       </c>
       <c r="D318" t="n">
-        <v>80663879436.07195</v>
+        <v>92514321329.63989</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39326</v>
+        <v>39479</v>
       </c>
       <c r="B319" t="n">
-        <v>329756900000</v>
+        <v>332090100000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.24919013207077</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="D319" t="n">
-        <v>82172165462.2477</v>
+        <v>91233543956.04395</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39356</v>
+        <v>39508</v>
       </c>
       <c r="B320" t="n">
-        <v>332953100000</v>
+        <v>338119300000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2529084471421346</v>
+        <v>0.2834467120181406</v>
       </c>
       <c r="D320" t="n">
-        <v>84206651492.15984</v>
+        <v>95838803854.87529</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39387</v>
+        <v>39539</v>
       </c>
       <c r="B321" t="n">
-        <v>328750600000</v>
+        <v>343601000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.261437908496732</v>
+        <v>0.2924831822170225</v>
       </c>
       <c r="D321" t="n">
-        <v>85947869281.04576</v>
+        <v>100497513892.9512</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39417</v>
+        <v>39569</v>
       </c>
       <c r="B322" t="n">
-        <v>330688400000</v>
+        <v>344694800000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.2601456815816858</v>
+        <v>0.3094059405940594</v>
       </c>
       <c r="D322" t="n">
-        <v>86027159209.15714</v>
+        <v>106650618811.8812</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39448</v>
+        <v>39600</v>
       </c>
       <c r="B323" t="n">
-        <v>333976700000</v>
+        <v>344960700000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2770083102493075</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="D323" t="n">
-        <v>92514321329.63989</v>
+        <v>102973343283.5821</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39479</v>
+        <v>39630</v>
       </c>
       <c r="B324" t="n">
-        <v>332090100000</v>
+        <v>348894400000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2868617326448651</v>
       </c>
       <c r="D324" t="n">
-        <v>91233543956.04395</v>
+        <v>100084452094.0906</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39508</v>
+        <v>39661</v>
       </c>
       <c r="B325" t="n">
-        <v>338119300000</v>
+        <v>348499500000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2834467120181406</v>
+        <v>0.2793296089385475</v>
       </c>
       <c r="D325" t="n">
-        <v>95838803854.87529</v>
+        <v>97346229050.27933</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39539</v>
+        <v>39692</v>
       </c>
       <c r="B326" t="n">
-        <v>343601000000</v>
+        <v>355544700000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.2924831822170225</v>
+        <v>0.2896032435563278</v>
       </c>
       <c r="D326" t="n">
-        <v>100497513892.9512</v>
+        <v>102966898349.2615</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39569</v>
+        <v>39722</v>
       </c>
       <c r="B327" t="n">
-        <v>344694800000</v>
+        <v>366841200000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.3094059405940594</v>
+        <v>0.2680965147453083</v>
       </c>
       <c r="D327" t="n">
-        <v>106650618811.8812</v>
+        <v>98348847184.9866</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39600</v>
+        <v>39753</v>
       </c>
       <c r="B328" t="n">
-        <v>344960700000</v>
+        <v>365782600000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.2985074626865671</v>
+        <v>0.2544464517442304</v>
       </c>
       <c r="D328" t="n">
-        <v>102973343283.5821</v>
+        <v>93072084679.77914</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39630</v>
+        <v>39783</v>
       </c>
       <c r="B329" t="n">
-        <v>348894400000</v>
+        <v>375249300000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.2868617326448651</v>
+        <v>0.2649708532061473</v>
       </c>
       <c r="D329" t="n">
-        <v>100084452094.0906</v>
+        <v>99430127186.00954</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39661</v>
+        <v>39814</v>
       </c>
       <c r="B330" t="n">
-        <v>348499500000</v>
+        <v>389044200000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.2793296089385475</v>
+        <v>0.2464875523786049</v>
       </c>
       <c r="D330" t="n">
-        <v>97346229050.27933</v>
+        <v>95894552625.09242</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39692</v>
+        <v>39845</v>
       </c>
       <c r="B331" t="n">
-        <v>355544700000</v>
+        <v>393428300000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.2896032435563278</v>
+        <v>0.2407318247472316</v>
       </c>
       <c r="D331" t="n">
-        <v>102966898349.2615</v>
+        <v>94710712566.20125</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39722</v>
+        <v>39873</v>
       </c>
       <c r="B332" t="n">
-        <v>366841200000</v>
+        <v>399951000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.2680965147453083</v>
+        <v>0.2373605506764776</v>
       </c>
       <c r="D332" t="n">
-        <v>98348847184.9866</v>
+        <v>94932589603.60788</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39753</v>
+        <v>39904</v>
       </c>
       <c r="B333" t="n">
-        <v>365782600000</v>
+        <v>407642900000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.2544464517442304</v>
+        <v>0.2388801299507907</v>
       </c>
       <c r="D333" t="n">
-        <v>93072084679.77914</v>
+        <v>97377788925.51717</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39783</v>
+        <v>39934</v>
       </c>
       <c r="B334" t="n">
-        <v>375249300000</v>
+        <v>407514900000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.2649708532061473</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="D334" t="n">
-        <v>99430127186.00954</v>
+        <v>103957882653.0612</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39814</v>
+        <v>39965</v>
       </c>
       <c r="B335" t="n">
-        <v>389044200000</v>
+        <v>411136000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.2464875523786049</v>
+        <v>0.255303939339784</v>
       </c>
       <c r="D335" t="n">
-        <v>95894552625.09242</v>
+        <v>104964640404.4014</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39845</v>
+        <v>39995</v>
       </c>
       <c r="B336" t="n">
-        <v>393428300000</v>
+        <v>413626300000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.2407318247472316</v>
+        <v>0.2657595407675136</v>
       </c>
       <c r="D336" t="n">
-        <v>94710712566.20125</v>
+        <v>109925135537.3658</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39873</v>
+        <v>40026</v>
       </c>
       <c r="B337" t="n">
-        <v>399951000000</v>
+        <v>420072500000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.2373605506764776</v>
+        <v>0.2636505048907169</v>
       </c>
       <c r="D337" t="n">
-        <v>94932589603.60788</v>
+        <v>110752326715.7057</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39904</v>
+        <v>40057</v>
       </c>
       <c r="B338" t="n">
-        <v>407642900000</v>
+        <v>425299600000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2388801299507907</v>
+        <v>0.2656818725258376</v>
       </c>
       <c r="D338" t="n">
-        <v>97377788925.51717</v>
+        <v>112994394112.4897</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>39934</v>
+        <v>40087</v>
       </c>
       <c r="B339" t="n">
-        <v>407514900000</v>
+        <v>424657800000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.2663896214603479</v>
       </c>
       <c r="D339" t="n">
-        <v>103957882653.0612</v>
+        <v>113124430592.1841</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>39965</v>
+        <v>40118</v>
       </c>
       <c r="B340" t="n">
-        <v>411136000000</v>
+        <v>424180500000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.255303939339784</v>
+        <v>0.2642775971880864</v>
       </c>
       <c r="D340" t="n">
-        <v>104964640404.4014</v>
+        <v>112101403314.0411</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>39995</v>
+        <v>40148</v>
       </c>
       <c r="B341" t="n">
-        <v>413626300000</v>
+        <v>426196200000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.2657595407675136</v>
+        <v>0.2642077729926814</v>
       </c>
       <c r="D341" t="n">
-        <v>109925135537.3658</v>
+        <v>112604348859.9435</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40026</v>
+        <v>40179</v>
       </c>
       <c r="B342" t="n">
-        <v>420072500000</v>
+        <v>428392900000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.2636505048907169</v>
+        <v>0.268651102812777</v>
       </c>
       <c r="D342" t="n">
-        <v>110752326715.7057</v>
+        <v>115088225022.1637</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40057</v>
+        <v>40210</v>
       </c>
       <c r="B343" t="n">
-        <v>425299600000</v>
+        <v>423594100000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.2656818725258376</v>
+        <v>0.2647884340412011</v>
       </c>
       <c r="D343" t="n">
-        <v>112994394112.4897</v>
+        <v>112162818408.0919</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40087</v>
+        <v>40238</v>
       </c>
       <c r="B344" t="n">
-        <v>424657800000</v>
+        <v>420351000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2663896214603479</v>
+        <v>0.270929287455974</v>
       </c>
       <c r="D344" t="n">
-        <v>113124430592.1841</v>
+        <v>113885396911.4061</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40118</v>
+        <v>40269</v>
       </c>
       <c r="B345" t="n">
-        <v>424180500000</v>
+        <v>426096800000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.2642775971880864</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="D345" t="n">
-        <v>112101403314.0411</v>
+        <v>114542150537.6344</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40148</v>
+        <v>40299</v>
       </c>
       <c r="B346" t="n">
-        <v>426196200000</v>
+        <v>427779500000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.2642077729926814</v>
+        <v>0.2590673575129534</v>
       </c>
       <c r="D346" t="n">
-        <v>112604348859.9435</v>
+        <v>110823704663.2124</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40179</v>
+        <v>40330</v>
       </c>
       <c r="B347" t="n">
-        <v>428392900000</v>
+        <v>427304600000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.268651102812777</v>
+        <v>0.2577585318074028</v>
       </c>
       <c r="D347" t="n">
-        <v>115088225022.1637</v>
+        <v>110141406330.5495</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40210</v>
+        <v>40360</v>
       </c>
       <c r="B348" t="n">
-        <v>423594100000</v>
+        <v>428143000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.2647884340412011</v>
+        <v>0.265653640783147</v>
       </c>
       <c r="D348" t="n">
-        <v>112162818408.0919</v>
+        <v>113737746725.8189</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40238</v>
+        <v>40391</v>
       </c>
       <c r="B349" t="n">
-        <v>420351000000</v>
+        <v>422718500000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.270929287455974</v>
+        <v>0.2628397203385375</v>
       </c>
       <c r="D349" t="n">
-        <v>113885396911.4061</v>
+        <v>111107212321.9261</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40269</v>
+        <v>40422</v>
       </c>
       <c r="B350" t="n">
-        <v>426096800000</v>
+        <v>428997100000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.2756035718222908</v>
       </c>
       <c r="D350" t="n">
-        <v>114542150537.6344</v>
+        <v>118233133061.4045</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40299</v>
+        <v>40452</v>
       </c>
       <c r="B351" t="n">
-        <v>427779500000</v>
+        <v>428509000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.2590673575129534</v>
+        <v>0.2751031636863824</v>
       </c>
       <c r="D351" t="n">
-        <v>110823704663.2124</v>
+        <v>117884181568.088</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40330</v>
+        <v>40483</v>
       </c>
       <c r="B352" t="n">
-        <v>427304600000</v>
+        <v>432279500000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2577585318074028</v>
+        <v>0.2721680910130096</v>
       </c>
       <c r="D352" t="n">
-        <v>110141406330.5495</v>
+        <v>117652686299.0583</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40360</v>
+        <v>40513</v>
       </c>
       <c r="B353" t="n">
-        <v>428143000000</v>
+        <v>441510400000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.265653640783147</v>
+        <v>0.2824938557586373</v>
       </c>
       <c r="D353" t="n">
-        <v>113737746725.8189</v>
+        <v>124723975253.5383</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40391</v>
+        <v>40544</v>
       </c>
       <c r="B354" t="n">
-        <v>422718500000</v>
+        <v>451988000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.2628397203385375</v>
+        <v>0.2699856907583898</v>
       </c>
       <c r="D354" t="n">
-        <v>111107212321.9261</v>
+        <v>122030292394.5031</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40422</v>
+        <v>40575</v>
       </c>
       <c r="B355" t="n">
-        <v>428997100000</v>
+        <v>452665300000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.2756035718222908</v>
+        <v>0.2761286759629987</v>
       </c>
       <c r="D355" t="n">
-        <v>118233133061.4045</v>
+        <v>124993869943.3936</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40452</v>
+        <v>40603</v>
       </c>
       <c r="B356" t="n">
-        <v>428509000000</v>
+        <v>451648100000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.2751031636863824</v>
+        <v>0.2878691922390466</v>
       </c>
       <c r="D356" t="n">
-        <v>117884181568.088</v>
+        <v>130015573723.3001</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40483</v>
+        <v>40634</v>
       </c>
       <c r="B357" t="n">
-        <v>432279500000</v>
+        <v>453020900000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2721680910130096</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D357" t="n">
-        <v>117652686299.0583</v>
+        <v>134827648809.5238</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40513</v>
+        <v>40664</v>
       </c>
       <c r="B358" t="n">
-        <v>441510400000</v>
+        <v>463405400000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.2824938557586373</v>
+        <v>0.2925430769680836</v>
       </c>
       <c r="D358" t="n">
-        <v>124723975253.5383</v>
+        <v>135566041599.6255</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40544</v>
+        <v>40695</v>
       </c>
       <c r="B359" t="n">
-        <v>451988000000</v>
+        <v>466954000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.2699856907583898</v>
+        <v>0.2945941964943291</v>
       </c>
       <c r="D359" t="n">
-        <v>122030292394.5031</v>
+        <v>137561938429.8129</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40575</v>
+        <v>40725</v>
       </c>
       <c r="B360" t="n">
-        <v>452665300000</v>
+        <v>467679200000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.2761286759629987</v>
+        <v>0.2926115581565472</v>
       </c>
       <c r="D360" t="n">
-        <v>124993869943.3936</v>
+        <v>136848339429.4075</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40603</v>
+        <v>40756</v>
       </c>
       <c r="B361" t="n">
-        <v>451648100000</v>
+        <v>475676200000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2878691922390466</v>
+        <v>0.2809935933460717</v>
       </c>
       <c r="D361" t="n">
-        <v>130015573723.3001</v>
+        <v>133661964707.2047</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40634</v>
+        <v>40787</v>
       </c>
       <c r="B362" t="n">
-        <v>453020900000</v>
+        <v>486082000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.2692514808831449</v>
       </c>
       <c r="D362" t="n">
-        <v>134827648809.5238</v>
+        <v>130878298330.6408</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40664</v>
+        <v>40817</v>
       </c>
       <c r="B363" t="n">
-        <v>463405400000</v>
+        <v>488335100000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2925430769680836</v>
+        <v>0.2767629801837706</v>
       </c>
       <c r="D363" t="n">
-        <v>135566041599.6255</v>
+        <v>135153077604.3396</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40695</v>
+        <v>40848</v>
       </c>
       <c r="B364" t="n">
-        <v>466954000000</v>
+        <v>482394300000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.2945941964943291</v>
+        <v>0.2661698163428267</v>
       </c>
       <c r="D364" t="n">
-        <v>137561938429.8129</v>
+        <v>128398802235.8264</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40725</v>
+        <v>40878</v>
       </c>
       <c r="B365" t="n">
-        <v>467679200000</v>
+        <v>487757500000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.2926115581565472</v>
+        <v>0.262501640635254</v>
       </c>
       <c r="D365" t="n">
-        <v>136848339429.4075</v>
+        <v>128037143982.1499</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40756</v>
+        <v>40909</v>
       </c>
       <c r="B366" t="n">
-        <v>475676200000</v>
+        <v>499917100000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.2809935933460717</v>
+        <v>0.2677232812165346</v>
       </c>
       <c r="D366" t="n">
-        <v>133661964707.2047</v>
+        <v>133839446348.2545</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40787</v>
+        <v>40940</v>
       </c>
       <c r="B367" t="n">
-        <v>486082000000</v>
+        <v>492686800000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.2692514808831449</v>
+        <v>0.2647603918453799</v>
       </c>
       <c r="D367" t="n">
-        <v>130878298330.6408</v>
+        <v>130443950225.0463</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40817</v>
+        <v>40969</v>
       </c>
       <c r="B368" t="n">
-        <v>488335100000</v>
+        <v>492045800000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.2767629801837706</v>
+        <v>0.2702337521956493</v>
       </c>
       <c r="D368" t="n">
-        <v>135153077604.3396</v>
+        <v>132967382786.11</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40848</v>
+        <v>41000</v>
       </c>
       <c r="B369" t="n">
-        <v>482394300000</v>
+        <v>500886500000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.2661698163428267</v>
+        <v>0.2659786685107854</v>
       </c>
       <c r="D369" t="n">
-        <v>128398802235.8264</v>
+        <v>133225124345.0275</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40878</v>
+        <v>41030</v>
       </c>
       <c r="B370" t="n">
-        <v>487757500000</v>
+        <v>495523000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.262501640635254</v>
+        <v>0.2563773875144212</v>
       </c>
       <c r="D370" t="n">
-        <v>128037143982.1499</v>
+        <v>127040892193.3086</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>40909</v>
+        <v>41061</v>
       </c>
       <c r="B371" t="n">
-        <v>499917100000</v>
+        <v>503946600000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.2677232812165346</v>
+        <v>0.2560491614389963</v>
       </c>
       <c r="D371" t="n">
-        <v>133839446348.2545</v>
+        <v>129035104340.0333</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>40940</v>
+        <v>41091</v>
       </c>
       <c r="B372" t="n">
-        <v>492686800000</v>
+        <v>511333300000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.2647603918453799</v>
+        <v>0.2513383768567622</v>
       </c>
       <c r="D372" t="n">
-        <v>130443950225.0463</v>
+        <v>128517681654.8119</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>40969</v>
+        <v>41122</v>
       </c>
       <c r="B373" t="n">
-        <v>492045800000</v>
+        <v>514689500000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.2702337521956493</v>
+        <v>0.2494076568150642</v>
       </c>
       <c r="D373" t="n">
-        <v>132967382786.11</v>
+        <v>128367502182.317</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41000</v>
+        <v>41153</v>
       </c>
       <c r="B374" t="n">
-        <v>500886500000</v>
+        <v>520998200000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.2659786685107854</v>
+        <v>0.25552574421873</v>
       </c>
       <c r="D374" t="n">
-        <v>133225124345.0275</v>
+        <v>133128452791.6188</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41030</v>
+        <v>41183</v>
       </c>
       <c r="B375" t="n">
-        <v>495523000000</v>
+        <v>518500600000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.2563773875144212</v>
+        <v>0.2576323586242432</v>
       </c>
       <c r="D375" t="n">
-        <v>127040892193.3086</v>
+        <v>133582532526.0853</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41061</v>
+        <v>41214</v>
       </c>
       <c r="B376" t="n">
-        <v>503946600000</v>
+        <v>522499500000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.2560491614389963</v>
+        <v>0.2624052061192894</v>
       </c>
       <c r="D376" t="n">
-        <v>129035104340.0333</v>
+        <v>137106588994.7257</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41091</v>
+        <v>41244</v>
       </c>
       <c r="B377" t="n">
-        <v>511333300000</v>
+        <v>527619300000.0001</v>
       </c>
       <c r="C377" t="n">
-        <v>0.2513383768567622</v>
+        <v>0.2681540276734957</v>
       </c>
       <c r="D377" t="n">
-        <v>128517681654.8119</v>
+        <v>141483240373.2704</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41122</v>
+        <v>41275</v>
       </c>
       <c r="B378" t="n">
-        <v>514689500000</v>
+        <v>530065699999.9999</v>
       </c>
       <c r="C378" t="n">
-        <v>0.2494076568150642</v>
+        <v>0.269774468544297</v>
       </c>
       <c r="D378" t="n">
-        <v>128367502182.317</v>
+        <v>142998192511.0607</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41153</v>
+        <v>41306</v>
       </c>
       <c r="B379" t="n">
-        <v>520998200000</v>
+        <v>526010900000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.25552574421873</v>
+        <v>0.269432843863667</v>
       </c>
       <c r="D379" t="n">
-        <v>133128452791.6188</v>
+        <v>141724612690.287</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41183</v>
+        <v>41334</v>
       </c>
       <c r="B380" t="n">
-        <v>518500600000</v>
+        <v>530669400000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2576323586242432</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="D380" t="n">
-        <v>133582532526.0853</v>
+        <v>145788296703.2967</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41214</v>
+        <v>41365</v>
       </c>
       <c r="B381" t="n">
-        <v>522499500000</v>
+        <v>534103300000.0001</v>
       </c>
       <c r="C381" t="n">
-        <v>0.2624052061192894</v>
+        <v>0.279290601871247</v>
       </c>
       <c r="D381" t="n">
-        <v>137106588994.7257</v>
+        <v>149170032118.4193</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41244</v>
+        <v>41395</v>
       </c>
       <c r="B382" t="n">
-        <v>527619300000.0001</v>
+        <v>536555400000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.2681540276734957</v>
+        <v>0.2714293469409912</v>
       </c>
       <c r="D382" t="n">
-        <v>141483240373.2704</v>
+        <v>145636881819.6623</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41275</v>
+        <v>41426</v>
       </c>
       <c r="B383" t="n">
-        <v>530065699999.9999</v>
+        <v>532349000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.269774468544297</v>
+        <v>0.2759229623089233</v>
       </c>
       <c r="D383" t="n">
-        <v>142998192511.0607</v>
+        <v>146887313062.193</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41306</v>
+        <v>41456</v>
       </c>
       <c r="B384" t="n">
-        <v>526010900000</v>
+        <v>536553500000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.269432843863667</v>
+        <v>0.2808121086181236</v>
       </c>
       <c r="D384" t="n">
-        <v>141724612690.287</v>
+        <v>150670719721.4344</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41334</v>
+        <v>41487</v>
       </c>
       <c r="B385" t="n">
-        <v>530669400000</v>
+        <v>542158300000.0001</v>
       </c>
       <c r="C385" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D385" t="n">
-        <v>145788296703.2967</v>
+        <v>149272659691.63</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41365</v>
+        <v>41518</v>
       </c>
       <c r="B386" t="n">
-        <v>534103300000.0001</v>
+        <v>547957300000.0001</v>
       </c>
       <c r="C386" t="n">
-        <v>0.279290601871247</v>
+        <v>0.2838489923360772</v>
       </c>
       <c r="D386" t="n">
-        <v>149170032118.4193</v>
+        <v>155537127448.1976</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41395</v>
+        <v>41548</v>
       </c>
       <c r="B387" t="n">
-        <v>536555400000</v>
+        <v>547775100000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.2714293469409912</v>
+        <v>0.2838651073010106</v>
       </c>
       <c r="D387" t="n">
-        <v>145636881819.6623</v>
+        <v>155494237538.3218</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41426</v>
+        <v>41579</v>
       </c>
       <c r="B388" t="n">
-        <v>532349000000</v>
+        <v>553402900000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.2759229623089233</v>
+        <v>0.2845354958031014</v>
       </c>
       <c r="D388" t="n">
-        <v>146887313062.193</v>
+        <v>157462768530.3742</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41456</v>
+        <v>41609</v>
       </c>
       <c r="B389" t="n">
-        <v>536553500000</v>
+        <v>562252500000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2808121086181236</v>
+        <v>0.2884670859054982</v>
       </c>
       <c r="D389" t="n">
-        <v>150670719721.4344</v>
+        <v>162191340218.0811</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41487</v>
+        <v>41640</v>
       </c>
       <c r="B390" t="n">
-        <v>542158300000.0001</v>
+        <v>564578400000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.2753303964757709</v>
+        <v>0.2858122784954841</v>
       </c>
       <c r="D390" t="n">
-        <v>149272659691.63</v>
+        <v>161363438893.3348</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41518</v>
+        <v>41671</v>
       </c>
       <c r="B391" t="n">
-        <v>547957300000.0001</v>
+        <v>563984600000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.2838489923360772</v>
+        <v>0.2870264064293915</v>
       </c>
       <c r="D391" t="n">
-        <v>155537127448.1976</v>
+        <v>161878473019.5178</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41548</v>
+        <v>41699</v>
       </c>
       <c r="B392" t="n">
-        <v>547775100000</v>
+        <v>569376400000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.2838651073010106</v>
+        <v>0.287463707706902</v>
       </c>
       <c r="D392" t="n">
-        <v>155494237538.3218</v>
+        <v>163675051024.8081</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41579</v>
+        <v>41730</v>
       </c>
       <c r="B393" t="n">
-        <v>553402900000</v>
+        <v>577837000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.2845354958031014</v>
+        <v>0.2891259721860815</v>
       </c>
       <c r="D393" t="n">
-        <v>157462768530.3742</v>
+        <v>167067684390.0888</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41609</v>
+        <v>41760</v>
       </c>
       <c r="B394" t="n">
-        <v>562252500000</v>
+        <v>575260100000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.2884670859054982</v>
+        <v>0.288334006112681</v>
       </c>
       <c r="D394" t="n">
-        <v>162191340218.0811</v>
+        <v>165867049189.7815</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41640</v>
+        <v>41791</v>
       </c>
       <c r="B395" t="n">
-        <v>564578400000</v>
+        <v>576437600000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2858122784954841</v>
+        <v>0.2916897587725695</v>
       </c>
       <c r="D395" t="n">
-        <v>161363438893.3348</v>
+        <v>168140944491.4389</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41671</v>
+        <v>41821</v>
       </c>
       <c r="B396" t="n">
-        <v>563984600000</v>
+        <v>580493600000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.2870264064293915</v>
+        <v>0.2919708029197081</v>
       </c>
       <c r="D396" t="n">
-        <v>161878473019.5178</v>
+        <v>169487182481.7518</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41699</v>
+        <v>41852</v>
       </c>
       <c r="B397" t="n">
-        <v>569376400000</v>
+        <v>584491000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.287463707706902</v>
+        <v>0.2802297884265098</v>
       </c>
       <c r="D397" t="n">
-        <v>163675051024.8081</v>
+        <v>163791789267.1991</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41730</v>
+        <v>41883</v>
       </c>
       <c r="B398" t="n">
-        <v>577837000000</v>
+        <v>591059200000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.2891259721860815</v>
+        <v>0.2727917507774565</v>
       </c>
       <c r="D398" t="n">
-        <v>167067684390.0888</v>
+        <v>161236073981.1228</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41760</v>
+        <v>41913</v>
       </c>
       <c r="B399" t="n">
-        <v>575260100000</v>
+        <v>594225800000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.288334006112681</v>
+        <v>0.263005628320446</v>
       </c>
       <c r="D399" t="n">
-        <v>165867049189.7815</v>
+        <v>156284729893.2197</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41791</v>
+        <v>41944</v>
       </c>
       <c r="B400" t="n">
-        <v>576437600000</v>
+        <v>599648600000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.2916897587725695</v>
+        <v>0.2569769234722722</v>
       </c>
       <c r="D400" t="n">
-        <v>168140944491.4389</v>
+        <v>154095852392.4552</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41821</v>
+        <v>41974</v>
       </c>
       <c r="B401" t="n">
-        <v>580493600000</v>
+        <v>609642700000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.2919708029197081</v>
+        <v>0.2569307057886488</v>
       </c>
       <c r="D401" t="n">
-        <v>169487182481.7518</v>
+        <v>156635929189.8975</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41852</v>
+        <v>42005</v>
       </c>
       <c r="B402" t="n">
-        <v>584491000000</v>
+        <v>619369400000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.2802297884265098</v>
+        <v>0.2545565624681804</v>
       </c>
       <c r="D402" t="n">
-        <v>163791789267.1991</v>
+        <v>157664545361.9794</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41883</v>
+        <v>42036</v>
       </c>
       <c r="B403" t="n">
-        <v>591059200000</v>
+        <v>627591700000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.2727917507774565</v>
+        <v>0.2514711059699241</v>
       </c>
       <c r="D403" t="n">
-        <v>161236073981.1228</v>
+        <v>157821178896.5448</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>41913</v>
+        <v>42064</v>
       </c>
       <c r="B404" t="n">
-        <v>594225800000</v>
+        <v>639063300000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.263005628320446</v>
+        <v>0.2514774299006664</v>
       </c>
       <c r="D404" t="n">
-        <v>156284729893.2197</v>
+        <v>160709996227.8385</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>41944</v>
+        <v>42095</v>
       </c>
       <c r="B405" t="n">
-        <v>599648600000</v>
+        <v>647371500000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.2569769234722722</v>
+        <v>0.2594235608477962</v>
       </c>
       <c r="D405" t="n">
-        <v>154095852392.4552</v>
+        <v>167943419721.3791</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>41974</v>
+        <v>42125</v>
       </c>
       <c r="B406" t="n">
-        <v>609642700000</v>
+        <v>651276400000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.2569307057886488</v>
+        <v>0.2596862989508674</v>
       </c>
       <c r="D406" t="n">
-        <v>156635929189.8975</v>
+        <v>169127557910.0447</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42005</v>
+        <v>42156</v>
       </c>
       <c r="B407" t="n">
-        <v>619369400000</v>
+        <v>658167100000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.2545565624681804</v>
+        <v>0.2652871733651678</v>
       </c>
       <c r="D407" t="n">
-        <v>157664545361.9794</v>
+        <v>174603289560.9497</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42036</v>
+        <v>42186</v>
       </c>
       <c r="B408" t="n">
-        <v>627591700000</v>
+        <v>660074100000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.2514711059699241</v>
+        <v>0.2658867322520606</v>
       </c>
       <c r="D408" t="n">
-        <v>157821178896.5448</v>
+        <v>175504945493.2199</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42064</v>
+        <v>42217</v>
       </c>
       <c r="B409" t="n">
-        <v>639063300000</v>
+        <v>663528800000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.2514774299006664</v>
+        <v>0.2550630005611386</v>
       </c>
       <c r="D409" t="n">
-        <v>160709996227.8385</v>
+        <v>169241646686.7316</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42095</v>
+        <v>42248</v>
       </c>
       <c r="B410" t="n">
-        <v>647371500000</v>
+        <v>680513800000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.2594235608477962</v>
+        <v>0.2550044625780951</v>
       </c>
       <c r="D410" t="n">
-        <v>167943419721.3791</v>
+        <v>173534055845.9773</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42125</v>
+        <v>42278</v>
       </c>
       <c r="B411" t="n">
-        <v>651276400000</v>
+        <v>681415100000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.2596862989508674</v>
+        <v>0.259000259000259</v>
       </c>
       <c r="D411" t="n">
-        <v>169127557910.0447</v>
+        <v>176486687386.6874</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42156</v>
+        <v>42309</v>
       </c>
       <c r="B412" t="n">
-        <v>658167100000</v>
+        <v>686142200000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.2652871733651678</v>
+        <v>0.2584112874050338</v>
       </c>
       <c r="D412" t="n">
-        <v>174603289560.9497</v>
+        <v>177306889244.9222</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42186</v>
+        <v>42339</v>
       </c>
       <c r="B413" t="n">
-        <v>660074100000</v>
+        <v>692268100000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.2658867322520606</v>
+        <v>0.2571288987169268</v>
       </c>
       <c r="D413" t="n">
-        <v>175504945493.2199</v>
+        <v>178002134169.8593</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42217</v>
+        <v>42370</v>
       </c>
       <c r="B414" t="n">
-        <v>663528800000</v>
+        <v>696747800000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.2550630005611386</v>
+        <v>0.2528572873470213</v>
       </c>
       <c r="D414" t="n">
-        <v>169241646686.7316</v>
+        <v>176177758673.0049</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42248</v>
+        <v>42401</v>
       </c>
       <c r="B415" t="n">
-        <v>680513800000</v>
+        <v>702928000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.2550044625780951</v>
+        <v>0.2562459961563101</v>
       </c>
       <c r="D415" t="n">
-        <v>173534055845.9773</v>
+        <v>180122485586.1627</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42278</v>
+        <v>42430</v>
       </c>
       <c r="B416" t="n">
-        <v>681415100000</v>
+        <v>704187600000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.259000259000259</v>
+        <v>0.2662052442433116</v>
       </c>
       <c r="D416" t="n">
-        <v>176486687386.6874</v>
+        <v>187458432051.1114</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42309</v>
+        <v>42461</v>
       </c>
       <c r="B417" t="n">
-        <v>686142200000</v>
+        <v>713745100000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.2584112874050338</v>
+        <v>0.2672296304214211</v>
       </c>
       <c r="D417" t="n">
-        <v>177306889244.9222</v>
+        <v>190733839288.1003</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42339</v>
+        <v>42491</v>
       </c>
       <c r="B418" t="n">
-        <v>692268100000</v>
+        <v>718977500000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.2571288987169268</v>
+        <v>0.2599563273370074</v>
       </c>
       <c r="D418" t="n">
-        <v>178002134169.8593</v>
+        <v>186902750337.9432</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42370</v>
+        <v>42522</v>
       </c>
       <c r="B419" t="n">
-        <v>696747800000</v>
+        <v>734277300000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.2528572873470213</v>
+        <v>0.2593024763386491</v>
       </c>
       <c r="D419" t="n">
-        <v>176177758673.0049</v>
+        <v>190399922209.2571</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42401</v>
+        <v>42552</v>
       </c>
       <c r="B420" t="n">
-        <v>702928000000</v>
+        <v>738121300000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2562459961563101</v>
+        <v>0.2624809701296656</v>
       </c>
       <c r="D420" t="n">
-        <v>180122485586.1627</v>
+        <v>193742794897.3699</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42430</v>
+        <v>42583</v>
       </c>
       <c r="B421" t="n">
-        <v>704187600000</v>
+        <v>740007400000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.2662052442433116</v>
+        <v>0.2650129856362962</v>
       </c>
       <c r="D421" t="n">
-        <v>187458432051.1114</v>
+        <v>196111570466.9529</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42461</v>
+        <v>42614</v>
       </c>
       <c r="B422" t="n">
-        <v>713745100000</v>
+        <v>742339100000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.2672296304214211</v>
+        <v>0.2668944165688054</v>
       </c>
       <c r="D422" t="n">
-        <v>190733839288.1003</v>
+        <v>198126160990.7121</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42491</v>
+        <v>42644</v>
       </c>
       <c r="B423" t="n">
-        <v>718977500000</v>
+        <v>742436600000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.2599563273370074</v>
+        <v>0.2610284521012791</v>
       </c>
       <c r="D423" t="n">
-        <v>186902750337.9432</v>
+        <v>193797076481.3365</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42522</v>
+        <v>42675</v>
       </c>
       <c r="B424" t="n">
-        <v>734277300000</v>
+        <v>740616900000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.2593024763386491</v>
+        <v>0.261110240743642</v>
       </c>
       <c r="D424" t="n">
-        <v>190399922209.2571</v>
+        <v>193382657057.8098</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42552</v>
+        <v>42705</v>
       </c>
       <c r="B425" t="n">
-        <v>738121300000</v>
+        <v>747274700000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.2624809701296656</v>
+        <v>0.2605455824496496</v>
       </c>
       <c r="D425" t="n">
-        <v>193742794897.3699</v>
+        <v>194699121961.3872</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42583</v>
+        <v>42736</v>
       </c>
       <c r="B426" t="n">
-        <v>740007400000</v>
+        <v>761155500000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.2650129856362962</v>
+        <v>0.2658231212950903</v>
       </c>
       <c r="D426" t="n">
-        <v>196111570466.9529</v>
+        <v>202332730800.9251</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42614</v>
+        <v>42767</v>
       </c>
       <c r="B427" t="n">
-        <v>742339100000</v>
+        <v>767259500000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.2668944165688054</v>
+        <v>0.274649821477616</v>
       </c>
       <c r="D427" t="n">
-        <v>198126160990.7121</v>
+        <v>210727684702.0049</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42644</v>
+        <v>42795</v>
       </c>
       <c r="B428" t="n">
-        <v>742436600000</v>
+        <v>769309300000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.2610284521012791</v>
+        <v>0.2758392408904091</v>
       </c>
       <c r="D428" t="n">
-        <v>193797076481.3365</v>
+        <v>212205693321.932</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42675</v>
+        <v>42826</v>
       </c>
       <c r="B429" t="n">
-        <v>740616900000</v>
+        <v>778131000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.261110240743642</v>
+        <v>0.2769162605228179</v>
       </c>
       <c r="D429" t="n">
-        <v>193382657057.8098</v>
+        <v>215477126716.8808</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42705</v>
+        <v>42856</v>
       </c>
       <c r="B430" t="n">
-        <v>747274700000</v>
+        <v>773540400000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.2605455824496496</v>
+        <v>0.2829574714920348</v>
       </c>
       <c r="D430" t="n">
-        <v>194699121961.3872</v>
+        <v>218879035680.9372</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42736</v>
+        <v>42887</v>
       </c>
       <c r="B431" t="n">
-        <v>761155500000</v>
+        <v>789848000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.2658231212950903</v>
+        <v>0.2871500358937545</v>
       </c>
       <c r="D431" t="n">
-        <v>202332730800.9251</v>
+        <v>226804881550.6102</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42767</v>
+        <v>42917</v>
       </c>
       <c r="B432" t="n">
-        <v>767259500000</v>
+        <v>798794500000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.274649821477616</v>
+        <v>0.2814443725197714</v>
       </c>
       <c r="D432" t="n">
-        <v>210727684702.0049</v>
+        <v>224816216824.7446</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42795</v>
+        <v>42948</v>
       </c>
       <c r="B433" t="n">
-        <v>769309300000</v>
+        <v>797691600000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.2758392408904091</v>
+        <v>0.2802297884265098</v>
       </c>
       <c r="D433" t="n">
-        <v>212205693321.932</v>
+        <v>223536948297.604</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42826</v>
+        <v>42979</v>
       </c>
       <c r="B434" t="n">
-        <v>778131000000</v>
+        <v>808309200000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.2769162605228179</v>
+        <v>0.2832540222071153</v>
       </c>
       <c r="D434" t="n">
-        <v>215477126716.8808</v>
+        <v>228956832087.0156</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42856</v>
+        <v>43009</v>
       </c>
       <c r="B435" t="n">
-        <v>773540400000</v>
+        <v>798852700000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.2829574714920348</v>
+        <v>0.2845193046348195</v>
       </c>
       <c r="D435" t="n">
-        <v>218879035680.9372</v>
+        <v>227289014709.6481</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42887</v>
+        <v>43040</v>
       </c>
       <c r="B436" t="n">
-        <v>789848000000</v>
+        <v>798915300000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.2871500358937545</v>
+        <v>0.2864180557942372</v>
       </c>
       <c r="D436" t="n">
-        <v>226804881550.6102</v>
+        <v>228823766970.2698</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>42917</v>
+        <v>43070</v>
       </c>
       <c r="B437" t="n">
-        <v>798794500000</v>
+        <v>809904800000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.2814443725197714</v>
+        <v>0.2877532228360958</v>
       </c>
       <c r="D437" t="n">
-        <v>224816216824.7446</v>
+        <v>233052716390.4236</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>42948</v>
+        <v>43101</v>
       </c>
       <c r="B438" t="n">
-        <v>797691600000</v>
+        <v>819159600000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.2802297884265098</v>
+        <v>0.2927571871889455</v>
       </c>
       <c r="D438" t="n">
-        <v>223536948297.604</v>
+        <v>239814860354.8217</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>42979</v>
+        <v>43132</v>
       </c>
       <c r="B439" t="n">
-        <v>808309200000</v>
+        <v>810881400000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.2832540222071153</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="D439" t="n">
-        <v>228956832087.0156</v>
+        <v>233515161987.041</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43009</v>
+        <v>43160</v>
       </c>
       <c r="B440" t="n">
-        <v>798852700000</v>
+        <v>814795000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.2845193046348195</v>
+        <v>0.2867465733784481</v>
       </c>
       <c r="D440" t="n">
-        <v>227289014709.6481</v>
+        <v>233639674255.8926</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43040</v>
+        <v>43191</v>
       </c>
       <c r="B441" t="n">
-        <v>798915300000</v>
+        <v>819928800000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.2864180557942372</v>
+        <v>0.2782647410746584</v>
       </c>
       <c r="D441" t="n">
-        <v>228823766970.2698</v>
+        <v>228157275231.6554</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43070</v>
+        <v>43221</v>
       </c>
       <c r="B442" t="n">
-        <v>809904800000</v>
+        <v>822588500000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.2877532228360958</v>
+        <v>0.28109627547435</v>
       </c>
       <c r="D442" t="n">
-        <v>233052716390.4236</v>
+        <v>231226563598.0323</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43101</v>
+        <v>43252</v>
       </c>
       <c r="B443" t="n">
-        <v>819159600000</v>
+        <v>827771700000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.2927571871889455</v>
+        <v>0.2737925747453729</v>
       </c>
       <c r="D443" t="n">
-        <v>239814860354.8217</v>
+        <v>226637745044.3544</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43132</v>
+        <v>43282</v>
       </c>
       <c r="B444" t="n">
-        <v>810881400000</v>
+        <v>831331100000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.2879769618430525</v>
+        <v>0.2729034194798461</v>
       </c>
       <c r="D444" t="n">
-        <v>233515161987.041</v>
+        <v>226873099909.9419</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43160</v>
+        <v>43313</v>
       </c>
       <c r="B445" t="n">
-        <v>814795000000</v>
+        <v>829881400000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.2867465733784481</v>
+        <v>0.2776158352072402</v>
       </c>
       <c r="D445" t="n">
-        <v>233639674255.8926</v>
+        <v>230388217983.9538</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="B446" t="n">
-        <v>819928800000</v>
+        <v>830645300000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.2782647410746584</v>
+        <v>0.2752849198920883</v>
       </c>
       <c r="D446" t="n">
-        <v>228157275231.6554</v>
+        <v>228664124869.2397</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43221</v>
+        <v>43374</v>
       </c>
       <c r="B447" t="n">
-        <v>822588500000</v>
+        <v>823486200000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.28109627547435</v>
+        <v>0.2690196922414721</v>
       </c>
       <c r="D447" t="n">
-        <v>231226563598.0323</v>
+        <v>221534004089.0993</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43252</v>
+        <v>43405</v>
       </c>
       <c r="B448" t="n">
-        <v>827771700000</v>
+        <v>827009200000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.2737925747453729</v>
+        <v>0.2692007429940507</v>
       </c>
       <c r="D448" t="n">
-        <v>226637745044.3544</v>
+        <v>222631491102.9154</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43282</v>
+        <v>43435</v>
       </c>
       <c r="B449" t="n">
-        <v>831331100000</v>
+        <v>826435700000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.2729034194798461</v>
+        <v>0.2678810608090008</v>
       </c>
       <c r="D449" t="n">
-        <v>226873099909.9419</v>
+        <v>221386472006.4292</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43313</v>
+        <v>43466</v>
       </c>
       <c r="B450" t="n">
-        <v>829881400000</v>
+        <v>843241500000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.2776158352072402</v>
+        <v>0.275671950379049</v>
       </c>
       <c r="D450" t="n">
-        <v>230388217983.9538</v>
+        <v>232458028945.5548</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43344</v>
+        <v>43497</v>
       </c>
       <c r="B451" t="n">
-        <v>830645300000</v>
+        <v>847555800000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.2752849198920883</v>
+        <v>0.2762812543168946</v>
       </c>
       <c r="D451" t="n">
-        <v>228664124869.2397</v>
+        <v>234163779527.5591</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43374</v>
+        <v>43525</v>
       </c>
       <c r="B452" t="n">
-        <v>823486200000</v>
+        <v>850468400000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.2690196922414721</v>
+        <v>0.2754896829113749</v>
       </c>
       <c r="D452" t="n">
-        <v>221534004089.0993</v>
+        <v>234295269842.1444</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43405</v>
+        <v>43556</v>
       </c>
       <c r="B453" t="n">
-        <v>827009200000</v>
+        <v>858786600000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.2692007429940507</v>
+        <v>0.2780326410320572</v>
       </c>
       <c r="D453" t="n">
-        <v>222631491102.9154</v>
+        <v>238770706480.9409</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="B454" t="n">
-        <v>826435700000</v>
+        <v>857292600000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.2678810608090008</v>
+        <v>0.2760829353137683</v>
       </c>
       <c r="D454" t="n">
-        <v>221386472006.4292</v>
+        <v>236683857430.7722</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43466</v>
+        <v>43617</v>
       </c>
       <c r="B455" t="n">
-        <v>843241500000</v>
+        <v>862395800000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.275671950379049</v>
+        <v>0.28055999775552</v>
       </c>
       <c r="D455" t="n">
-        <v>232458028945.5548</v>
+        <v>241953763712.3699</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43497</v>
+        <v>43647</v>
       </c>
       <c r="B456" t="n">
-        <v>847555800000</v>
+        <v>862518000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.2762812543168946</v>
+        <v>0.2852822868228111</v>
       </c>
       <c r="D456" t="n">
-        <v>234163779527.5591</v>
+        <v>246061107465.8374</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43525</v>
+        <v>43678</v>
       </c>
       <c r="B457" t="n">
-        <v>850468400000</v>
+        <v>859848500000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.2754896829113749</v>
+        <v>0.2835672763363108</v>
       </c>
       <c r="D457" t="n">
-        <v>234295269842.1444</v>
+        <v>243824897206.8623</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43556</v>
+        <v>43709</v>
       </c>
       <c r="B458" t="n">
-        <v>858786600000</v>
+        <v>866261200000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.2780326410320572</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="D458" t="n">
-        <v>238770706480.9409</v>
+        <v>249463268538.5169</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43586</v>
+        <v>43739</v>
       </c>
       <c r="B459" t="n">
-        <v>857292600000</v>
+        <v>867102200000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.2760829353137683</v>
+        <v>0.2841231958177066</v>
       </c>
       <c r="D459" t="n">
-        <v>236683857430.7722</v>
+        <v>246363848164.5641</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43617</v>
+        <v>43770</v>
       </c>
       <c r="B460" t="n">
-        <v>862395800000</v>
+        <v>868743800000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.28055999775552</v>
+        <v>0.2881014116969173</v>
       </c>
       <c r="D460" t="n">
-        <v>241953763712.3699</v>
+        <v>250286315182.9444</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43647</v>
+        <v>43800</v>
       </c>
       <c r="B461" t="n">
-        <v>862518000000</v>
+        <v>878149200000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.2852822868228111</v>
+        <v>0.289863474303603</v>
       </c>
       <c r="D461" t="n">
-        <v>246061107465.8374</v>
+        <v>254543378068.9295</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43678</v>
+        <v>43831</v>
       </c>
       <c r="B462" t="n">
-        <v>859848500000</v>
+        <v>887268200000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.2835672763363108</v>
+        <v>0.290098923732993</v>
       </c>
       <c r="D462" t="n">
-        <v>243824897206.8623</v>
+        <v>257395549882.5099</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43709</v>
+        <v>43862</v>
       </c>
       <c r="B463" t="n">
-        <v>866261200000</v>
+        <v>898172000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.2879769618430525</v>
+        <v>0.2887753039360074</v>
       </c>
       <c r="D463" t="n">
-        <v>249463268538.5169</v>
+        <v>259369892286.8116</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43739</v>
+        <v>43891</v>
       </c>
       <c r="B464" t="n">
-        <v>867102200000</v>
+        <v>939849200000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.2841231958177066</v>
+        <v>0.2824140755175238</v>
       </c>
       <c r="D464" t="n">
-        <v>246363848164.5641</v>
+        <v>265426642943.8843</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43770</v>
+        <v>43922</v>
       </c>
       <c r="B465" t="n">
-        <v>868743800000</v>
+        <v>991256800000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.2881014116969173</v>
+        <v>0.2871500358937545</v>
       </c>
       <c r="D465" t="n">
-        <v>250286315182.9444</v>
+        <v>284639425699.9282</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43800</v>
+        <v>43952</v>
       </c>
       <c r="B466" t="n">
-        <v>878149200000</v>
+        <v>1005498800000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.289863474303603</v>
+        <v>0.2851358672407402</v>
       </c>
       <c r="D466" t="n">
-        <v>254543378068.9295</v>
+        <v>286703772347.5236</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="B467" t="n">
-        <v>887268200000</v>
+        <v>1019175100000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.290098923732993</v>
+        <v>0.2889254861171304</v>
       </c>
       <c r="D467" t="n">
-        <v>257395549882.5099</v>
+        <v>294465661205.975</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="B468" t="n">
-        <v>898172000000</v>
+        <v>1029648400000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.2887753039360074</v>
+        <v>0.2938151902453356</v>
       </c>
       <c r="D468" t="n">
-        <v>259369892286.8116</v>
+        <v>302526340531.8055</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="B469" t="n">
-        <v>939849200000</v>
+        <v>1045486200000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.2824140755175238</v>
+        <v>0.2980714775403142</v>
       </c>
       <c r="D469" t="n">
-        <v>265426642943.8843</v>
+        <v>311629616382.0084</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="B470" t="n">
-        <v>991256800000</v>
+        <v>1058798600000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.2871500358937545</v>
+        <v>0.2916302128900554</v>
       </c>
       <c r="D470" t="n">
-        <v>284639425699.9282</v>
+        <v>308777661125.6926</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="B471" t="n">
-        <v>1005498800000</v>
+        <v>1069591500000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.2851358672407402</v>
+        <v>0.293728888236158</v>
       </c>
       <c r="D471" t="n">
-        <v>286703772347.5236</v>
+        <v>314169922161.8446</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="B472" t="n">
-        <v>1019175100000</v>
+        <v>1085379100000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.2889254861171304</v>
+        <v>0.3025901718712176</v>
       </c>
       <c r="D472" t="n">
-        <v>294465661205.975</v>
+        <v>328425048414.4275</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44013</v>
+        <v>44166</v>
       </c>
       <c r="B473" t="n">
-        <v>1029648400000</v>
+        <v>1106226900000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.2938151902453356</v>
+        <v>0.3114391603600237</v>
       </c>
       <c r="D473" t="n">
-        <v>302526340531.8055</v>
+        <v>344522376903.6719</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44044</v>
+        <v>44197</v>
       </c>
       <c r="B474" t="n">
-        <v>1045486200000</v>
+        <v>1131956800000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.2980714775403142</v>
+        <v>0.3050640634533252</v>
       </c>
       <c r="D474" t="n">
-        <v>311629616382.0084</v>
+        <v>345319341061.6229</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44075</v>
+        <v>44228</v>
       </c>
       <c r="B475" t="n">
-        <v>1058798600000</v>
+        <v>1143578000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.2916302128900554</v>
+        <v>0.3022243713733075</v>
       </c>
       <c r="D475" t="n">
-        <v>308777661125.6926</v>
+        <v>345617142166.3443</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44105</v>
+        <v>44256</v>
       </c>
       <c r="B476" t="n">
-        <v>1069591500000</v>
+        <v>1164245000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.293728888236158</v>
+        <v>0.2994460248540201</v>
       </c>
       <c r="D476" t="n">
-        <v>314169922161.8446</v>
+        <v>348628537206.1686</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44136</v>
+        <v>44287</v>
       </c>
       <c r="B477" t="n">
-        <v>1085379100000</v>
+        <v>1175803700000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.3025901718712176</v>
+        <v>0.3081759068076058</v>
       </c>
       <c r="D477" t="n">
-        <v>328425048414.4275</v>
+        <v>362354371475.2381</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44166</v>
+        <v>44317</v>
       </c>
       <c r="B478" t="n">
-        <v>1106226900000</v>
+        <v>1183982300000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.3114391603600237</v>
+        <v>0.3081759068076058</v>
       </c>
       <c r="D478" t="n">
-        <v>344522376903.6719</v>
+        <v>364874818946.6548</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44197</v>
+        <v>44348</v>
       </c>
       <c r="B479" t="n">
-        <v>1131956800000</v>
+        <v>1200106600000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.3050640634533252</v>
+        <v>0.3069556142181841</v>
       </c>
       <c r="D479" t="n">
-        <v>345319341061.6229</v>
+        <v>368379458530.2966</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44228</v>
+        <v>44378</v>
       </c>
       <c r="B480" t="n">
-        <v>1143578000000</v>
+        <v>1225628400000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.3022243713733075</v>
+        <v>0.310096750186058</v>
       </c>
       <c r="D480" t="n">
-        <v>345617142166.3443</v>
+        <v>380063383775.738</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="B481" t="n">
-        <v>1164245000000</v>
+        <v>1239960200000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.2994460248540201</v>
+        <v>0.312275551947038</v>
       </c>
       <c r="D481" t="n">
-        <v>348628537206.1686</v>
+        <v>387209255847.3597</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44287</v>
+        <v>44440</v>
       </c>
       <c r="B482" t="n">
-        <v>1175803700000</v>
+        <v>1257625900000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.3081759068076058</v>
+        <v>0.3103565997330933</v>
       </c>
       <c r="D482" t="n">
-        <v>362354371475.2381</v>
+        <v>390312498060.2712</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44317</v>
+        <v>44470</v>
       </c>
       <c r="B483" t="n">
-        <v>1183982300000</v>
+        <v>1258657100000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.3081759068076058</v>
+        <v>0.3167463811725951</v>
       </c>
       <c r="D483" t="n">
-        <v>364874818946.6548</v>
+        <v>398675081562.1932</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="B484" t="n">
-        <v>1200106600000</v>
+        <v>1267713100000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.3069556142181841</v>
+        <v>0.3173494970010473</v>
       </c>
       <c r="D484" t="n">
-        <v>368379458530.2966</v>
+        <v>402308114626.6383</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44378</v>
+        <v>44531</v>
       </c>
       <c r="B485" t="n">
-        <v>1225628400000</v>
+        <v>1299480800000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.310096750186058</v>
+        <v>0.3228305785123967</v>
       </c>
       <c r="D485" t="n">
-        <v>380063383775.738</v>
+        <v>419512138429.7521</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44409</v>
+        <v>44562</v>
       </c>
       <c r="B486" t="n">
-        <v>1239960200000</v>
+        <v>1321141500000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.312275551947038</v>
+        <v>0.3171180313312615</v>
       </c>
       <c r="D486" t="n">
-        <v>387209255847.3597</v>
+        <v>418957791590.0298</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44440</v>
+        <v>44593</v>
       </c>
       <c r="B487" t="n">
-        <v>1257625900000</v>
+        <v>1326756000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.3103565997330933</v>
+        <v>0.3120319520718922</v>
       </c>
       <c r="D487" t="n">
-        <v>390312498060.2712</v>
+        <v>413990264603.0953</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44470</v>
+        <v>44621</v>
       </c>
       <c r="B488" t="n">
-        <v>1258657100000</v>
+        <v>1333664400000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.3167463811725951</v>
+        <v>0.3134992789516584</v>
       </c>
       <c r="D488" t="n">
-        <v>398675081562.1932</v>
+        <v>418102827763.4962</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44501</v>
+        <v>44652</v>
       </c>
       <c r="B489" t="n">
-        <v>1267713100000</v>
+        <v>1356168100000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.3173494970010473</v>
+        <v>0.2992936669460074</v>
       </c>
       <c r="D489" t="n">
-        <v>402308114626.6383</v>
+        <v>405892523644.1996</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44531</v>
+        <v>44682</v>
       </c>
       <c r="B490" t="n">
-        <v>1299480800000</v>
+        <v>1365393800000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.3228305785123967</v>
+        <v>0.3011594639361542</v>
       </c>
       <c r="D490" t="n">
-        <v>419512138429.7521</v>
+        <v>411201264869.7485</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44562</v>
+        <v>44713</v>
       </c>
       <c r="B491" t="n">
-        <v>1321141500000</v>
+        <v>1377815600000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.3171180313312615</v>
+        <v>0.2873315518777117</v>
       </c>
       <c r="D491" t="n">
-        <v>418957791590.0298</v>
+        <v>395889894549.3205</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44593</v>
+        <v>44743</v>
       </c>
       <c r="B492" t="n">
-        <v>1326756000000</v>
+        <v>1382673300000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.3120319520718922</v>
+        <v>0.2943947244465379</v>
       </c>
       <c r="D492" t="n">
-        <v>413990264603.0953</v>
+        <v>407051725153.0853</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44621</v>
+        <v>44774</v>
       </c>
       <c r="B493" t="n">
-        <v>1333664400000</v>
+        <v>1397990400000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.3134992789516584</v>
+        <v>0.3005981903988938</v>
       </c>
       <c r="D493" t="n">
-        <v>418102827763.4962</v>
+        <v>420233384435.0257</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44652</v>
+        <v>44805</v>
       </c>
       <c r="B494" t="n">
-        <v>1356355700000</v>
+        <v>1388676700000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.2992936669460074</v>
+        <v>0.2811911256080758</v>
       </c>
       <c r="D494" t="n">
-        <v>405948671136.1187</v>
+        <v>390483564378.7082</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44682</v>
+        <v>44835</v>
       </c>
       <c r="B495" t="n">
-        <v>1365393800000</v>
+        <v>1399005700000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.3011594639361542</v>
+        <v>0.2847137203541839</v>
       </c>
       <c r="D495" t="n">
-        <v>411201264869.7485</v>
+        <v>398316117643.7092</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44713</v>
+        <v>44866</v>
       </c>
       <c r="B496" t="n">
-        <v>1377815600000</v>
+        <v>1378892900000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.2873315518777117</v>
+        <v>0.2936072885073299</v>
       </c>
       <c r="D496" t="n">
-        <v>395889894549.3205</v>
+        <v>404853005511.0089</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44743</v>
+        <v>44896</v>
       </c>
       <c r="B497" t="n">
-        <v>1382673300000</v>
+        <v>1362510300000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.2943947244465379</v>
+        <v>0.2850627137970353</v>
       </c>
       <c r="D497" t="n">
-        <v>407051725153.0853</v>
+        <v>388400883694.4128</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44774</v>
+        <v>44927</v>
       </c>
       <c r="B498" t="n">
-        <v>1397990400000</v>
+        <v>1330227600000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.3005981903988938</v>
+        <v>0.2902496437185623</v>
       </c>
       <c r="D498" t="n">
-        <v>420233384435.0257</v>
+        <v>386098086964.5982</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44805</v>
+        <v>44958</v>
       </c>
       <c r="B499" t="n">
-        <v>1388676700000</v>
+        <v>1303847700000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.2811911256080758</v>
+        <v>0.2740995145697597</v>
       </c>
       <c r="D499" t="n">
-        <v>390483564378.7082</v>
+        <v>357384021642.8977</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="B500" t="n">
-        <v>1399005700000</v>
+        <v>1278898200000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.2847137203541839</v>
+        <v>0.2781563795165642</v>
       </c>
       <c r="D500" t="n">
-        <v>398316117643.7092</v>
+        <v>355733693082.2508</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44866</v>
+        <v>45017</v>
       </c>
       <c r="B501" t="n">
-        <v>1378892900000</v>
+        <v>1287481900000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.2936072885073299</v>
+        <v>0.2767246866092924</v>
       </c>
       <c r="D501" t="n">
-        <v>404853005511.0089</v>
+        <v>356278025292.6364</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -6661,13 +6661,13 @@
         <v>44986</v>
       </c>
       <c r="B500" t="n">
-        <v>1278898200000</v>
+        <v>1278852800000</v>
       </c>
       <c r="C500" t="n">
         <v>0.2781563795165642</v>
       </c>
       <c r="D500" t="n">
-        <v>355733693082.2508</v>
+        <v>355721064782.6208</v>
       </c>
     </row>
     <row r="501">

--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -458,6230 +458,6234 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29830</v>
+        <v>29860</v>
       </c>
       <c r="B2" t="n">
-        <v>17200000</v>
+        <v>16500000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B3" t="n">
-        <v>16500000</v>
+        <v>17000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B4" t="n">
-        <v>17000000</v>
+        <v>19200000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B5" t="n">
-        <v>19200000</v>
+        <v>20100000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B6" t="n">
-        <v>20100000</v>
+        <v>21200000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B7" t="n">
-        <v>21200000</v>
+        <v>22400000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B8" t="n">
-        <v>22400000</v>
+        <v>24400000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B9" t="n">
-        <v>24400000</v>
+        <v>25800000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B10" t="n">
-        <v>25800000</v>
+        <v>27400000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B11" t="n">
-        <v>27400000</v>
+        <v>28300000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B12" t="n">
-        <v>28300000</v>
+        <v>31500000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B13" t="n">
-        <v>31500000</v>
+        <v>37700000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B14" t="n">
-        <v>37700000</v>
+        <v>42900000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B15" t="n">
-        <v>42900000</v>
+        <v>50500000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B16" t="n">
-        <v>50500000</v>
+        <v>57600000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B17" t="n">
-        <v>57600000</v>
+        <v>58400000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B18" t="n">
-        <v>58400000</v>
+        <v>67900000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B19" t="n">
-        <v>67900000</v>
+        <v>71400000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B20" t="n">
-        <v>71400000</v>
+        <v>76800000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B21" t="n">
-        <v>76800000</v>
+        <v>83200000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B22" t="n">
-        <v>83200000</v>
+        <v>87000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B23" t="n">
-        <v>87000000</v>
+        <v>90400000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B24" t="n">
-        <v>90400000</v>
+        <v>94400000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B25" t="n">
-        <v>94400000</v>
+        <v>100400000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B26" t="n">
-        <v>100400000</v>
+        <v>103200000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B27" t="n">
-        <v>103200000</v>
+        <v>112800000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B28" t="n">
-        <v>112800000</v>
+        <v>123100000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B29" t="n">
-        <v>123100000</v>
+        <v>149900000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B30" t="n">
-        <v>149900000</v>
+        <v>188300000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B31" t="n">
-        <v>188300000</v>
+        <v>214100000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B32" t="n">
-        <v>214100000</v>
+        <v>268400000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B33" t="n">
-        <v>268400000</v>
+        <v>287700000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B34" t="n">
-        <v>287700000</v>
+        <v>326200000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B35" t="n">
-        <v>326200000</v>
+        <v>324000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B36" t="n">
-        <v>324000000</v>
+        <v>366900000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B37" t="n">
-        <v>366900000</v>
+        <v>449600000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B38" t="n">
-        <v>449600000</v>
+        <v>506100000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B39" t="n">
-        <v>506100000</v>
+        <v>600900000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B40" t="n">
-        <v>600900000</v>
+        <v>729300000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B41" t="n">
-        <v>729300000</v>
+        <v>804800000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B42" t="n">
-        <v>804800000</v>
+        <v>883100000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B43" t="n">
-        <v>883100000</v>
+        <v>1008800000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B44" t="n">
-        <v>1008800000</v>
+        <v>1343600000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B45" t="n">
-        <v>1343600000</v>
+        <v>1455100000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B46" t="n">
-        <v>1455100000</v>
+        <v>1611800000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B47" t="n">
-        <v>1611800000</v>
+        <v>2390300000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B48" t="n">
-        <v>2390300000</v>
+        <v>2883600000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B49" t="n">
-        <v>2883600000</v>
+        <v>3232400000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B50" t="n">
-        <v>3232400000</v>
+        <v>3552400000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B51" t="n">
-        <v>3552400000</v>
+        <v>4045200000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B52" t="n">
-        <v>4045200000</v>
+        <v>4300300000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B53" t="n">
-        <v>4300300000</v>
+        <v>4423400000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B54" t="n">
-        <v>4423400000</v>
+        <v>4843400000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B55" t="n">
-        <v>4843400000</v>
+        <v>4944300000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B56" t="n">
-        <v>4944300000</v>
+        <v>4975800000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B57" t="n">
-        <v>4975800000</v>
+        <v>4955000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>4955000000</v>
+        <v>4892600000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>4892600000</v>
+        <v>5162900000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>5162900000</v>
+        <v>5666500000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>5666500000</v>
+        <v>6023600000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>6023600000</v>
+        <v>6486700000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>6486700000</v>
+        <v>6774600000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>6774600000</v>
+        <v>7194000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>7194000000</v>
+        <v>7233700000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>7233700000</v>
+        <v>7485200000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>7485200000</v>
+        <v>8006600000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>8006600000</v>
+        <v>8666200000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>8666200000</v>
+        <v>8987900000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>8987900000</v>
+        <v>9338900000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>9338900000</v>
+        <v>9721300000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>9721300000</v>
+        <v>9920900000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>9920900000</v>
+        <v>10101100000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>10101100000</v>
+        <v>10183000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>10183000000</v>
+        <v>10456700000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>10456700000</v>
+        <v>10659200000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>10659200000</v>
+        <v>10686600000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>10686600000</v>
+        <v>11061500000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>11061500000</v>
+        <v>11315300000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>11315300000</v>
+        <v>11584000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>11584000000</v>
+        <v>11812800000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>11812800000</v>
+        <v>12042800000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>12042800000</v>
+        <v>12432900000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>12432900000</v>
+        <v>12798400000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>12798400000</v>
+        <v>13126100000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>13126100000</v>
+        <v>12575400000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>12575400000</v>
+        <v>11661600000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>11661600000</v>
+        <v>10968800000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>10968800000</v>
+        <v>11571700000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>11571700000</v>
+        <v>12097900000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>12097900000</v>
+        <v>12642800000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>12642800000</v>
+        <v>13132600000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>13132600000</v>
+        <v>13363800000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>13363800000</v>
+        <v>13219100000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>13219100000</v>
+        <v>13463900000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>13463900000</v>
+        <v>13730700000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>13730700000</v>
+        <v>14105400000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>14105400000</v>
+        <v>13989700000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>13989700000</v>
+        <v>14209300000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>14209300000</v>
+        <v>14309800000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>14309800000</v>
+        <v>14724700000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>14724700000</v>
+        <v>14963200000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>14963200000</v>
+        <v>15431400000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>15431400000</v>
+        <v>16138000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>16138000000</v>
+        <v>16635400000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>16635400000</v>
+        <v>16781900000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>16781900000</v>
+        <v>16944900000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>16944900000</v>
+        <v>17696500000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>17696500000</v>
+        <v>17588200000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>17588200000</v>
+        <v>18058500000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>18058500000</v>
+        <v>18841900000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>18841900000</v>
+        <v>19747400000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>19747400000</v>
+        <v>21585500000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>21585500000</v>
+        <v>21909800000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>21909800000</v>
+        <v>22306000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>22306000000</v>
+        <v>22120900000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>22120900000</v>
+        <v>22389300000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>22389300000</v>
+        <v>21894200000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>21894200000</v>
+        <v>22203400000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>22203400000</v>
+        <v>23584900000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>23584900000</v>
+        <v>23049100000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>23049100000</v>
+        <v>22056200000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>22056200000</v>
+        <v>23364100000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>23364100000</v>
+        <v>23756900000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>23756900000</v>
+        <v>24855800000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>24855800000</v>
+        <v>25303700000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>25303700000</v>
+        <v>25384700000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>25384700000</v>
+        <v>25976000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>25976000000</v>
+        <v>25857300000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>25857300000</v>
+        <v>25537000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>25537000000</v>
+        <v>26018600000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>26018600000</v>
+        <v>26302600000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>26302600000</v>
+        <v>27750300000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>27750300000</v>
+        <v>28727300000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>28727300000</v>
+        <v>29292600000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>29292600000</v>
+        <v>29665300000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>29665300000</v>
+        <v>30386200000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>30386200000</v>
+        <v>30157900000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>30157900000</v>
+        <v>30936400000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>30936400000</v>
+        <v>31145600000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>31145600000</v>
+        <v>32327900000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>32327900000</v>
+        <v>33096800000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>33096800000</v>
+        <v>34239600000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>34239600000</v>
+        <v>35644800000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>35644800000</v>
+        <v>37388100000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>37388100000</v>
+        <v>38572400000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>38572400000</v>
+        <v>41261500000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>41261500000</v>
+        <v>43613300000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>43613300000</v>
+        <v>45755600000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>45755600000</v>
+        <v>46547200000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>46547200000</v>
+        <v>50127100000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>50127100000</v>
+        <v>50872500000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>50872500000</v>
+        <v>51106500000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>51106500000</v>
+        <v>52393400000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>52393400000</v>
+        <v>54863900000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>54863900000</v>
+        <v>55873000000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>55873000000</v>
+        <v>57834200000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>57834200000</v>
+        <v>56778900000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>56778900000</v>
+        <v>57538500000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>57538500000</v>
+        <v>59590000000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>59590000000</v>
+        <v>61388900000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>61388900000</v>
+        <v>63068800000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>63068800000</v>
+        <v>64345500000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>64345500000</v>
+        <v>65662399999.99999</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>65662399999.99999</v>
+        <v>67430200000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>67430200000</v>
+        <v>69116600000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>69116600000</v>
+        <v>71190100000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>71190100000</v>
+        <v>72893300000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>72893300000</v>
+        <v>74350700000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>74350700000</v>
+        <v>74985500000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>74985500000</v>
+        <v>76064400000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>76064400000</v>
+        <v>78003800000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>78003800000</v>
+        <v>79916600000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>79916600000</v>
+        <v>81072700000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>81072700000</v>
+        <v>82576000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>82576000000</v>
+        <v>84718100000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>84718100000</v>
+        <v>84676500000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>84676500000</v>
+        <v>85980600000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>85980600000</v>
+        <v>88936400000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>88936400000</v>
+        <v>92505800000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>92505800000</v>
+        <v>94329900000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>94329900000</v>
+        <v>95150000000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>95150000000</v>
+        <v>96601900000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>96601900000</v>
+        <v>98902800000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>98902800000</v>
+        <v>103180100000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>103180100000</v>
+        <v>104615600000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>104615600000</v>
+        <v>106110400000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>106110400000</v>
+        <v>107533900000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>107533900000</v>
+        <v>108889300000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>108889300000</v>
+        <v>111206600000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>111206600000</v>
+        <v>112774400000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>112774400000</v>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+        <v>114718000000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D192" t="n">
+        <v>32776571428.57143</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>114718000000</v>
+        <v>116196400000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2853881278538813</v>
       </c>
       <c r="D193" t="n">
-        <v>32776571428.57143</v>
+        <v>33161073059.36073</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>116196400000</v>
+        <v>118167500000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2853881278538813</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D194" t="n">
-        <v>33161073059.36073</v>
+        <v>33762142857.14286</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>118167500000</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D195" t="n">
-        <v>33762142857.14286</v>
-      </c>
+        <v>119754800000</v>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>119754800000</v>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+        <v>122541600000</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.2837684449489217</v>
+      </c>
+      <c r="D196" t="n">
+        <v>34773439273.55278</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>122541600000</v>
+        <v>125591200000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2837684449489217</v>
+        <v>0.2822466836014677</v>
       </c>
       <c r="D197" t="n">
-        <v>34773439273.55278</v>
+        <v>35447699689.52864</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>125591200000</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.2822466836014677</v>
-      </c>
-      <c r="D198" t="n">
-        <v>35447699689.52864</v>
-      </c>
+        <v>126668300000</v>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>126668300000</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+        <v>127003700000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.2803476310625175</v>
+      </c>
+      <c r="D199" t="n">
+        <v>35605186431.17466</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>127003700000</v>
+        <v>128626000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2803476310625175</v>
+        <v>0.271665308340125</v>
       </c>
       <c r="D200" t="n">
-        <v>35605186431.17466</v>
+        <v>34943221950.55692</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>128626000000</v>
+        <v>129389900000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.271665308340125</v>
+        <v>0.2737476047084588</v>
       </c>
       <c r="D201" t="n">
-        <v>34943221950.55692</v>
+        <v>35420175198.46702</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>129389900000</v>
+        <v>131618700000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2737476047084588</v>
+        <v>0.2731494127287626</v>
       </c>
       <c r="D202" t="n">
-        <v>35420175198.46702</v>
+        <v>35951570609.12319</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>131618700000</v>
+        <v>135543000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2731494127287626</v>
+        <v>0.2741979709350151</v>
       </c>
       <c r="D203" t="n">
-        <v>35951570609.12319</v>
+        <v>37165615574.44475</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>135543000000</v>
+        <v>137577100000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2741979709350151</v>
+        <v>0.2722570106180234</v>
       </c>
       <c r="D204" t="n">
-        <v>37165615574.44475</v>
+        <v>37456329975.49687</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>137577100000</v>
+        <v>139568900000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2722570106180234</v>
+        <v>0.2596053997923157</v>
       </c>
       <c r="D205" t="n">
-        <v>37456329975.49687</v>
+        <v>36232840083.07373</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>139568900000</v>
+        <v>140938600000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2596053997923157</v>
+        <v>0.2351281448389372</v>
       </c>
       <c r="D206" t="n">
-        <v>36232840083.07373</v>
+        <v>33138631554.19704</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>140938600000</v>
+        <v>140465000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2351281448389372</v>
+        <v>0.2391200382592061</v>
       </c>
       <c r="D207" t="n">
-        <v>33138631554.19704</v>
+        <v>33587996174.07939</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>140465000000</v>
+        <v>142533000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2391200382592061</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="D208" t="n">
-        <v>33587996174.07939</v>
+        <v>34262740384.61538</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>142533000000</v>
+        <v>149174300000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.2437835202340322</v>
       </c>
       <c r="D209" t="n">
-        <v>34262740384.61538</v>
+        <v>36366235982.44759</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>149174300000</v>
+        <v>150478700000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2437835202340322</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="D210" t="n">
-        <v>36366235982.44759</v>
+        <v>37247202970.29703</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>150478700000</v>
+        <v>154237000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2475247524752475</v>
+        <v>0.2493765586034913</v>
       </c>
       <c r="D211" t="n">
-        <v>37247202970.29703</v>
+        <v>38463092269.32668</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>154237000000</v>
+        <v>157737800000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.2493765586034913</v>
+        <v>0.241779497098646</v>
       </c>
       <c r="D212" t="n">
-        <v>38463092269.32668</v>
+        <v>38137765957.44681</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>157737800000</v>
+        <v>160058700000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.241779497098646</v>
+        <v>0.243605359317905</v>
       </c>
       <c r="D213" t="n">
-        <v>38137765957.44681</v>
+        <v>38991157125.45676</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>160058700000</v>
+        <v>161309400000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.243605359317905</v>
+        <v>0.2455795677799607</v>
       </c>
       <c r="D214" t="n">
-        <v>38991157125.45676</v>
+        <v>39614292730.8448</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>161309400000</v>
+        <v>164651000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2455795677799607</v>
+        <v>0.2410800385728062</v>
       </c>
       <c r="D215" t="n">
-        <v>39614292730.8448</v>
+        <v>39694069431.05111</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>164651000000</v>
+        <v>166929700000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2410800385728062</v>
+        <v>0.2359603586597451</v>
       </c>
       <c r="D216" t="n">
-        <v>39694069431.05111</v>
+        <v>39388791882.96365</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>166929700000</v>
+        <v>168321900000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2359603586597451</v>
+        <v>0.2337540906965872</v>
       </c>
       <c r="D217" t="n">
-        <v>39388791882.96365</v>
+        <v>39345932678.82188</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>168321900000</v>
+        <v>170334500000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.2337540906965872</v>
+        <v>0.2355157795572303</v>
       </c>
       <c r="D218" t="n">
-        <v>39345932678.82188</v>
+        <v>40116462552.99104</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>170334500000</v>
+        <v>173286400000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.2355157795572303</v>
+        <v>0.2366863905325444</v>
       </c>
       <c r="D219" t="n">
-        <v>40116462552.99104</v>
+        <v>41014532544.3787</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>173286400000</v>
+        <v>178808400000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.2366863905325444</v>
+        <v>0.2409058058299205</v>
       </c>
       <c r="D220" t="n">
-        <v>41014532544.3787</v>
+        <v>43075981691.15876</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>178808400000</v>
+        <v>183975700000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.2409058058299205</v>
+        <v>0.245398773006135</v>
       </c>
       <c r="D221" t="n">
-        <v>43075981691.15876</v>
+        <v>45147411042.94479</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>183975700000</v>
+        <v>185668600000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.245398773006135</v>
+        <v>0.2474634991338777</v>
       </c>
       <c r="D222" t="n">
-        <v>45147411042.94479</v>
+        <v>45946201435.28829</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>185668600000</v>
+        <v>187076700000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2474634991338777</v>
+        <v>0.2493143854400399</v>
       </c>
       <c r="D223" t="n">
-        <v>45946201435.28829</v>
+        <v>46640912490.65071</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>187076700000</v>
+        <v>188902300000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2493143854400399</v>
+        <v>0.248015873015873</v>
       </c>
       <c r="D224" t="n">
-        <v>46640912490.65071</v>
+        <v>46850768849.20635</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>188902300000</v>
+        <v>189103700000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.248015873015873</v>
+        <v>0.2400384061449832</v>
       </c>
       <c r="D225" t="n">
-        <v>46850768849.20635</v>
+        <v>45392150744.11906</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>189103700000</v>
+        <v>190961300000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2400384061449832</v>
+        <v>0.2452783909737552</v>
       </c>
       <c r="D226" t="n">
-        <v>45392150744.11906</v>
+        <v>46838680402.25656</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>190961300000</v>
+        <v>195056600000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.2452783909737552</v>
+        <v>0.2460629921259843</v>
       </c>
       <c r="D227" t="n">
-        <v>46838680402.25656</v>
+        <v>47996210629.92126</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>195056600000</v>
+        <v>198410700000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.2460629921259843</v>
+        <v>0.2494387627837366</v>
       </c>
       <c r="D228" t="n">
-        <v>47996210629.92126</v>
+        <v>49491319531.05512</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>198410700000</v>
+        <v>201584500000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2494387627837366</v>
+        <v>0.2498750624687656</v>
       </c>
       <c r="D229" t="n">
-        <v>49491319531.05512</v>
+        <v>50370939530.23489</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>201584500000</v>
+        <v>205945800000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.2498750624687656</v>
+        <v>0.2431906614785992</v>
       </c>
       <c r="D230" t="n">
-        <v>50370939530.23489</v>
+        <v>50084095330.7393</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>205945800000</v>
+        <v>207942700000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2431906614785992</v>
+        <v>0.2442002442002442</v>
       </c>
       <c r="D231" t="n">
-        <v>50084095330.7393</v>
+        <v>50779658119.65813</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>207942700000</v>
+        <v>212393600000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.2442002442002442</v>
+        <v>0.2486943546381497</v>
       </c>
       <c r="D232" t="n">
-        <v>50779658119.65813</v>
+        <v>52821089281.27332</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>212393600000</v>
+        <v>215819800000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2486943546381497</v>
+        <v>0.2408187838651415</v>
       </c>
       <c r="D233" t="n">
-        <v>52821089281.27332</v>
+        <v>51973461770.01807</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>215819800000</v>
+        <v>217782200000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.2408187838651415</v>
+        <v>0.2435460301997077</v>
       </c>
       <c r="D234" t="n">
-        <v>51973461770.01807</v>
+        <v>53039990258.15879</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>217782200000</v>
+        <v>221484100000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2435460301997077</v>
+        <v>0.2381519409383187</v>
       </c>
       <c r="D235" t="n">
-        <v>53039990258.15879</v>
+        <v>52746868301.97666</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>221484100000</v>
+        <v>222735800000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.2381519409383187</v>
+        <v>0.2420135527589545</v>
       </c>
       <c r="D236" t="n">
-        <v>52746868301.97666</v>
+        <v>53905082284.60795</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>222735800000</v>
+        <v>224642300000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2420135527589545</v>
+        <v>0.2416626389560174</v>
       </c>
       <c r="D237" t="n">
-        <v>53905082284.60795</v>
+        <v>54287651039.14935</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>224642300000</v>
+        <v>227793600000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2416626389560174</v>
+        <v>0.2399808015358771</v>
       </c>
       <c r="D238" t="n">
-        <v>54287651039.14935</v>
+        <v>54666090712.74298</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>227793600000</v>
+        <v>230306000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.2399808015358771</v>
+        <v>0.2376990729736154</v>
       </c>
       <c r="D239" t="n">
-        <v>54666090712.74298</v>
+        <v>54743522700.26147</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>230306000000</v>
+        <v>232646700000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2376990729736154</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="D240" t="n">
-        <v>54743522700.26147</v>
+        <v>54611901408.45071</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>232646700000</v>
+        <v>236009500000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.2347417840375587</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="D241" t="n">
-        <v>54611901408.45071</v>
+        <v>54255057471.26437</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>236009500000</v>
+        <v>239598700000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="D242" t="n">
-        <v>54255057471.26437</v>
+        <v>56046479532.16374</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>239598700000</v>
+        <v>240095600000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2339181286549707</v>
+        <v>0.2364625206904706</v>
       </c>
       <c r="D243" t="n">
-        <v>56046479532.16374</v>
+        <v>56773610782.69094</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>240095600000</v>
+        <v>242857800000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.2364625206904706</v>
+        <v>0.2271694684234439</v>
       </c>
       <c r="D244" t="n">
-        <v>56773610782.69094</v>
+        <v>55169877328.48705</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>242857800000</v>
+        <v>239634800000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.2271694684234439</v>
+        <v>0.2181025081788441</v>
       </c>
       <c r="D245" t="n">
-        <v>55169877328.48705</v>
+        <v>52264950926.93566</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>239634800000</v>
+        <v>231312700000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2181025081788441</v>
+        <v>0.2143852502947797</v>
       </c>
       <c r="D246" t="n">
-        <v>52264950926.93566</v>
+        <v>49590031085.86129</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>231312700000</v>
+        <v>230560200000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.2143852502947797</v>
+        <v>0.2108370229812355</v>
       </c>
       <c r="D247" t="n">
-        <v>49590031085.86129</v>
+        <v>48610626185.95825</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>230560200000</v>
+        <v>233057600000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.2108370229812355</v>
+        <v>0.2044989775051125</v>
       </c>
       <c r="D248" t="n">
-        <v>48610626185.95825</v>
+        <v>47660040899.7955</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>233057600000</v>
+        <v>232290300000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2044989775051125</v>
+        <v>0.2033760423022168</v>
       </c>
       <c r="D249" t="n">
-        <v>47660040899.7955</v>
+        <v>47242281879.19463</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>232290300000</v>
+        <v>232231100000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2033760423022168</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D250" t="n">
-        <v>47242281879.19463</v>
+        <v>48890757894.73684</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>232231100000</v>
+        <v>232066900000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2138351331123704</v>
       </c>
       <c r="D251" t="n">
-        <v>48890757894.73684</v>
+        <v>49624056452.47514</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>232066900000</v>
+        <v>233317300000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2138351331123704</v>
+        <v>0.2147028512538646</v>
       </c>
       <c r="D252" t="n">
-        <v>49624056452.47514</v>
+        <v>50093889556.85331</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>233317300000</v>
+        <v>236599100000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2147028512538646</v>
+        <v>0.2050440844781628</v>
       </c>
       <c r="D253" t="n">
-        <v>50093889556.85331</v>
+        <v>48513245847.85729</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>236599100000</v>
+        <v>237118300000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.2050440844781628</v>
+        <v>0.2095118374188142</v>
       </c>
       <c r="D254" t="n">
-        <v>48513245847.85729</v>
+        <v>49679090718.62561</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>237118300000</v>
+        <v>236775500000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.2095118374188142</v>
+        <v>0.2153779883695886</v>
       </c>
       <c r="D255" t="n">
-        <v>49679090718.62561</v>
+        <v>50996230885.20353</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>236775500000</v>
+        <v>237770500000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2153779883695886</v>
+        <v>0.2108014671782115</v>
       </c>
       <c r="D256" t="n">
-        <v>50996230885.20353</v>
+        <v>50122370251.69695</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>237770500000</v>
+        <v>238793700000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2108014671782115</v>
+        <v>0.2074688796680498</v>
       </c>
       <c r="D257" t="n">
-        <v>50122370251.69695</v>
+        <v>49542261410.78838</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>238793700000</v>
+        <v>237425400000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2074688796680498</v>
+        <v>0.2077706212341575</v>
       </c>
       <c r="D258" t="n">
-        <v>49542261410.78838</v>
+        <v>49330022854.76834</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>237425400000</v>
+        <v>235316800000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2077706212341575</v>
+        <v>0.2131060202450719</v>
       </c>
       <c r="D259" t="n">
-        <v>49330022854.76834</v>
+        <v>50147426744.80554</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>235316800000</v>
+        <v>235152500000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2198285337436799</v>
       </c>
       <c r="D260" t="n">
-        <v>50147426744.80554</v>
+        <v>51693229281.16069</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>235152500000</v>
+        <v>235653900000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2198285337436799</v>
+        <v>0.2279202279202279</v>
       </c>
       <c r="D261" t="n">
-        <v>51693229281.16069</v>
+        <v>53710290598.2906</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>235653900000</v>
+        <v>233550400000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2279202279202279</v>
+        <v>0.2312673450508788</v>
       </c>
       <c r="D262" t="n">
-        <v>53710290598.2906</v>
+        <v>54012580943.57077</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>233550400000</v>
+        <v>235657500000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.2312673450508788</v>
+        <v>0.2245677071637099</v>
       </c>
       <c r="D263" t="n">
-        <v>54012580943.57077</v>
+        <v>52921064450.93195</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>235657500000</v>
+        <v>237979700000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.2245677071637099</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="D264" t="n">
-        <v>52921064450.93195</v>
+        <v>53478584269.66292</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>237979700000</v>
+        <v>241116000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.2247191011235955</v>
+        <v>0.2249870632438635</v>
       </c>
       <c r="D265" t="n">
-        <v>53478584269.66292</v>
+        <v>54247980741.10738</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>241116000000</v>
+        <v>244277100000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2249870632438635</v>
+        <v>0.222667557336896</v>
       </c>
       <c r="D266" t="n">
-        <v>54247980741.10738</v>
+        <v>54392585170.34068</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>244277100000</v>
+        <v>242554200000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.222667557336896</v>
+        <v>0.2249718785151856</v>
       </c>
       <c r="D267" t="n">
-        <v>54392585170.34068</v>
+        <v>54567874015.74802</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>242554200000</v>
+        <v>242423800000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.2249718785151856</v>
+        <v>0.2282062984938384</v>
       </c>
       <c r="D268" t="n">
-        <v>54567874015.74802</v>
+        <v>55322638064.81059</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>242423800000</v>
+        <v>247432200000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.2282062984938384</v>
+        <v>0.2229803554306866</v>
       </c>
       <c r="D269" t="n">
-        <v>55322638064.81059</v>
+        <v>55172519900.99673</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>247432200000</v>
+        <v>244833700000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2229803554306866</v>
+        <v>0.2226576416102601</v>
       </c>
       <c r="D270" t="n">
-        <v>55172519900.99673</v>
+        <v>54514094228.71393</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>244833700000</v>
+        <v>243503700000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2226576416102601</v>
+        <v>0.2209944751381215</v>
       </c>
       <c r="D271" t="n">
-        <v>54514094228.71393</v>
+        <v>53812972375.69061</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>243503700000</v>
+        <v>244259800000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.2209944751381215</v>
+        <v>0.21767522855899</v>
       </c>
       <c r="D272" t="n">
-        <v>53812972375.69061</v>
+        <v>53169307792.77318</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>244259800000</v>
+        <v>244662700000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.21767522855899</v>
+        <v>0.2200704225352113</v>
       </c>
       <c r="D273" t="n">
-        <v>53169307792.77318</v>
+        <v>53843023767.60564</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>244662700000</v>
+        <v>246161800000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.2200704225352113</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D274" t="n">
-        <v>53843023767.60564</v>
+        <v>54836667409.22254</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>246161800000</v>
+        <v>247645600000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2227667631989307</v>
+        <v>0.2215820961666297</v>
       </c>
       <c r="D275" t="n">
-        <v>54836667409.22254</v>
+        <v>54873831154.44273</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>247645600000</v>
+        <v>248832400000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2215820961666297</v>
+        <v>0.2216312056737589</v>
       </c>
       <c r="D276" t="n">
-        <v>54873831154.44273</v>
+        <v>55149024822.69504</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>248832400000</v>
+        <v>252335300000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.2216312056737589</v>
+        <v>0.2236786185608518</v>
       </c>
       <c r="D277" t="n">
-        <v>55149024822.69504</v>
+        <v>56442011318.1381</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>252335300000</v>
+        <v>251575400000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.2236786185608518</v>
+        <v>0.2243661655822302</v>
       </c>
       <c r="D278" t="n">
-        <v>56442011318.1381</v>
+        <v>56445007852.8158</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>251575400000</v>
+        <v>251598200000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.2243661655822302</v>
+        <v>0.2296738631143776</v>
       </c>
       <c r="D279" t="n">
-        <v>56445007852.8158</v>
+        <v>57785530546.62379</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>251598200000</v>
+        <v>256059000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2296738631143776</v>
+        <v>0.2314546927438954</v>
       </c>
       <c r="D280" t="n">
-        <v>57785530546.62379</v>
+        <v>59266057169.3091</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>256059000000</v>
+        <v>258336900000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2314546927438954</v>
+        <v>0.2281282080529257</v>
       </c>
       <c r="D281" t="n">
-        <v>59266057169.3091</v>
+        <v>58933934070.94788</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>258336900000</v>
+        <v>258681900000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2281282080529257</v>
+        <v>0.2289115256953188</v>
       </c>
       <c r="D282" t="n">
-        <v>58933934070.94788</v>
+        <v>59215268398.76388</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>258681900000</v>
+        <v>256407800000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.2289115256953188</v>
+        <v>0.2294893861158921</v>
       </c>
       <c r="D283" t="n">
-        <v>59215268398.76388</v>
+        <v>58842868617.32645</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>256407800000</v>
+        <v>259594600000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2294893861158921</v>
+        <v>0.2289115256953188</v>
       </c>
       <c r="D284" t="n">
-        <v>58842868617.32645</v>
+        <v>59424195948.26599</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>259594600000</v>
+        <v>260406300000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2289115256953188</v>
+        <v>0.2268345242145854</v>
       </c>
       <c r="D285" t="n">
-        <v>59424195948.26599</v>
+        <v>59069139162.9806</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>260406300000</v>
+        <v>265362400000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.2268345242145854</v>
+        <v>0.2184598580010923</v>
       </c>
       <c r="D286" t="n">
-        <v>59069139162.9806</v>
+        <v>57971032222.82906</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>265362400000</v>
+        <v>267910800000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2184598580010923</v>
+        <v>0.2213368747233289</v>
       </c>
       <c r="D287" t="n">
-        <v>57971032222.82906</v>
+        <v>59298539176.62683</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>267910800000</v>
+        <v>267306900000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2213368747233289</v>
+        <v>0.2206433961431535</v>
       </c>
       <c r="D288" t="n">
-        <v>59298539176.62683</v>
+        <v>58979502228.49831</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>267306900000</v>
+        <v>265307900000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2206433961431535</v>
+        <v>0.2176515398846447</v>
       </c>
       <c r="D289" t="n">
-        <v>58979502228.49831</v>
+        <v>57744672978.56133</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>265307900000</v>
+        <v>265180300000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2176515398846447</v>
+        <v>0.2153872663048161</v>
       </c>
       <c r="D290" t="n">
-        <v>57744672978.56133</v>
+        <v>57116459894.89101</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>265180300000</v>
+        <v>265374300000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2153872663048161</v>
+        <v>0.2146014850422765</v>
       </c>
       <c r="D291" t="n">
-        <v>57116459894.89101</v>
+        <v>56949718872.0546</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>265374300000</v>
+        <v>269664000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.2146014850422765</v>
+        <v>0.2173676774263667</v>
       </c>
       <c r="D292" t="n">
-        <v>56949718872.0546</v>
+        <v>58616237365.50375</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>269664000000</v>
+        <v>269822900000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.2173676774263667</v>
+        <v>0.2149613069647463</v>
       </c>
       <c r="D293" t="n">
-        <v>58616237365.50375</v>
+        <v>58001483233.01805</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>269822900000</v>
+        <v>267555100000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2149613069647463</v>
+        <v>0.2131060202450719</v>
       </c>
       <c r="D294" t="n">
-        <v>58001483233.01805</v>
+        <v>57017602557.27224</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>267555100000</v>
+        <v>268358200000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2147535702781058</v>
       </c>
       <c r="D295" t="n">
-        <v>57017602557.27224</v>
+        <v>57630881563.40598</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>268358200000</v>
+        <v>272180300000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2147535702781058</v>
+        <v>0.2236185961224536</v>
       </c>
       <c r="D296" t="n">
-        <v>57630881563.40598</v>
+        <v>60864576578.18825</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>272180300000</v>
+        <v>271529200000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.2236185961224536</v>
+        <v>0.2216852512802323</v>
       </c>
       <c r="D297" t="n">
-        <v>60864576578.18825</v>
+        <v>60194018931.92046</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>271529200000</v>
+        <v>272924600000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.2216852512802323</v>
+        <v>0.2264954361169622</v>
       </c>
       <c r="D298" t="n">
-        <v>60194018931.92046</v>
+        <v>61816176304.04747</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>272924600000</v>
+        <v>276535800000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.2264954361169622</v>
+        <v>0.2284722063560968</v>
       </c>
       <c r="D299" t="n">
-        <v>61816176304.04747</v>
+        <v>63180744362.4483</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>276535800000</v>
+        <v>278050100000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2284722063560968</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="D300" t="n">
-        <v>63180744362.4483</v>
+        <v>63772958715.59633</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>278050100000</v>
+        <v>281820600000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.2293577981651376</v>
+        <v>0.2325040688212044</v>
       </c>
       <c r="D301" t="n">
-        <v>63772958715.59633</v>
+        <v>65524436177.6331</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>281820600000</v>
+        <v>284425800000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2325040688212044</v>
+        <v>0.234246896228625</v>
       </c>
       <c r="D302" t="n">
-        <v>65524436177.6331</v>
+        <v>66625860857.34364</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>284425800000</v>
+        <v>282246800000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.234246896228625</v>
+        <v>0.2364066193853428</v>
       </c>
       <c r="D303" t="n">
-        <v>66625860857.34364</v>
+        <v>66725011820.33096</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>282246800000</v>
+        <v>288972600000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2364066193853428</v>
+        <v>0.2374394529395004</v>
       </c>
       <c r="D304" t="n">
-        <v>66725011820.33096</v>
+        <v>68613496058.50509</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>288972600000</v>
+        <v>296334000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.2374394529395004</v>
+        <v>0.235626767200754</v>
       </c>
       <c r="D305" t="n">
-        <v>68613496058.50509</v>
+        <v>69824222431.66824</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>296334000000</v>
+        <v>300961000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.235626767200754</v>
+        <v>0.2376425855513308</v>
       </c>
       <c r="D306" t="n">
-        <v>69824222431.66824</v>
+        <v>71521150190.11406</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>300961000000</v>
+        <v>303450500000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.2376425855513308</v>
+        <v>0.2409058058299205</v>
       </c>
       <c r="D307" t="n">
-        <v>71521150190.11406</v>
+        <v>73102987231.99229</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>303450500000</v>
+        <v>310632900000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2409058058299205</v>
+        <v>0.2481697481077057</v>
       </c>
       <c r="D308" t="n">
-        <v>73102987231.99229</v>
+        <v>77089688546.96614</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>310632900000</v>
+        <v>313592000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.2481697481077057</v>
+        <v>0.246669955599408</v>
       </c>
       <c r="D309" t="n">
-        <v>77089688546.96614</v>
+        <v>77353724716.32954</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>313592000000</v>
+        <v>317231100000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.246669955599408</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D310" t="n">
-        <v>77353724716.32954</v>
+        <v>74642611764.70589</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>317231100000</v>
+        <v>326471600000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2321262766945218</v>
       </c>
       <c r="D311" t="n">
-        <v>74642611764.70589</v>
+        <v>75782636954.50325</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>326471600000</v>
+        <v>331851200000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2321262766945218</v>
+        <v>0.2430724355858046</v>
       </c>
       <c r="D312" t="n">
-        <v>75782636954.50325</v>
+        <v>80663879436.07195</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>331851200000</v>
+        <v>329756900000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.2430724355858046</v>
+        <v>0.24919013207077</v>
       </c>
       <c r="D313" t="n">
-        <v>80663879436.07195</v>
+        <v>82172165462.2477</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>329756900000</v>
+        <v>332953100000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.24919013207077</v>
+        <v>0.2529084471421346</v>
       </c>
       <c r="D314" t="n">
-        <v>82172165462.2477</v>
+        <v>84206651492.15984</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>332953100000</v>
+        <v>328750600000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2529084471421346</v>
+        <v>0.261437908496732</v>
       </c>
       <c r="D315" t="n">
-        <v>84206651492.15984</v>
+        <v>85947869281.04576</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>328750600000</v>
+        <v>330688400000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.261437908496732</v>
+        <v>0.2601456815816858</v>
       </c>
       <c r="D316" t="n">
-        <v>85947869281.04576</v>
+        <v>86027159209.15714</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>330688400000</v>
+        <v>333976700000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.2601456815816858</v>
+        <v>0.2770083102493075</v>
       </c>
       <c r="D317" t="n">
-        <v>86027159209.15714</v>
+        <v>92514321329.63989</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>333976700000</v>
+        <v>332090100000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.2770083102493075</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="D318" t="n">
-        <v>92514321329.63989</v>
+        <v>91233543956.04395</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>332090100000</v>
+        <v>338119300000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2834467120181406</v>
       </c>
       <c r="D319" t="n">
-        <v>91233543956.04395</v>
+        <v>95838803854.87529</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>338119300000</v>
+        <v>343601000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2834467120181406</v>
+        <v>0.2924831822170225</v>
       </c>
       <c r="D320" t="n">
-        <v>95838803854.87529</v>
+        <v>100497513892.9512</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>343601000000</v>
+        <v>344694800000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.2924831822170225</v>
+        <v>0.3094059405940594</v>
       </c>
       <c r="D321" t="n">
-        <v>100497513892.9512</v>
+        <v>106650618811.8812</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>344694800000</v>
+        <v>344960700000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.3094059405940594</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="D322" t="n">
-        <v>106650618811.8812</v>
+        <v>102973343283.5821</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>344960700000</v>
+        <v>348894400000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2985074626865671</v>
+        <v>0.2868617326448651</v>
       </c>
       <c r="D323" t="n">
-        <v>102973343283.5821</v>
+        <v>100084452094.0906</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>348894400000</v>
+        <v>348499500000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2868617326448651</v>
+        <v>0.2793296089385475</v>
       </c>
       <c r="D324" t="n">
-        <v>100084452094.0906</v>
+        <v>97346229050.27933</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>348499500000</v>
+        <v>355544700000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2793296089385475</v>
+        <v>0.2896032435563278</v>
       </c>
       <c r="D325" t="n">
-        <v>97346229050.27933</v>
+        <v>102966898349.2615</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>355544700000</v>
+        <v>366841200000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.2896032435563278</v>
+        <v>0.2680965147453083</v>
       </c>
       <c r="D326" t="n">
-        <v>102966898349.2615</v>
+        <v>98348847184.9866</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>366841200000</v>
+        <v>365782600000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.2680965147453083</v>
+        <v>0.2544464517442304</v>
       </c>
       <c r="D327" t="n">
-        <v>98348847184.9866</v>
+        <v>93072084679.77914</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>365782600000</v>
+        <v>375249300000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.2544464517442304</v>
+        <v>0.2649708532061473</v>
       </c>
       <c r="D328" t="n">
-        <v>93072084679.77914</v>
+        <v>99430127186.00954</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>375249300000</v>
+        <v>389044200000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.2649708532061473</v>
+        <v>0.2464875523786049</v>
       </c>
       <c r="D329" t="n">
-        <v>99430127186.00954</v>
+        <v>95894552625.09242</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>389044200000</v>
+        <v>393428300000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.2464875523786049</v>
+        <v>0.2407318247472316</v>
       </c>
       <c r="D330" t="n">
-        <v>95894552625.09242</v>
+        <v>94710712566.20125</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>393428300000</v>
+        <v>399951000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.2407318247472316</v>
+        <v>0.2373605506764776</v>
       </c>
       <c r="D331" t="n">
-        <v>94710712566.20125</v>
+        <v>94932589603.60788</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>399951000000</v>
+        <v>407642900000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.2373605506764776</v>
+        <v>0.2388801299507907</v>
       </c>
       <c r="D332" t="n">
-        <v>94932589603.60788</v>
+        <v>97377788925.51717</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>407642900000</v>
+        <v>407514900000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.2388801299507907</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="D333" t="n">
-        <v>97377788925.51717</v>
+        <v>103957882653.0612</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>407514900000</v>
+        <v>411136000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.255303939339784</v>
       </c>
       <c r="D334" t="n">
-        <v>103957882653.0612</v>
+        <v>104964640404.4014</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>411136000000</v>
+        <v>413626300000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.255303939339784</v>
+        <v>0.2657595407675136</v>
       </c>
       <c r="D335" t="n">
-        <v>104964640404.4014</v>
+        <v>109925135537.3658</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>413626300000</v>
+        <v>420072500000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.2657595407675136</v>
+        <v>0.2636505048907169</v>
       </c>
       <c r="D336" t="n">
-        <v>109925135537.3658</v>
+        <v>110752326715.7057</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>420072500000</v>
+        <v>425299600000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.2636505048907169</v>
+        <v>0.2656818725258376</v>
       </c>
       <c r="D337" t="n">
-        <v>110752326715.7057</v>
+        <v>112994394112.4897</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>425299600000</v>
+        <v>424657800000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2656818725258376</v>
+        <v>0.2663896214603479</v>
       </c>
       <c r="D338" t="n">
-        <v>112994394112.4897</v>
+        <v>113124430592.1841</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>424657800000</v>
+        <v>424180500000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.2663896214603479</v>
+        <v>0.2642775971880864</v>
       </c>
       <c r="D339" t="n">
-        <v>113124430592.1841</v>
+        <v>112101403314.0411</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>424180500000</v>
+        <v>426196200000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.2642775971880864</v>
+        <v>0.2642077729926814</v>
       </c>
       <c r="D340" t="n">
-        <v>112101403314.0411</v>
+        <v>112604348859.9435</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>426196200000</v>
+        <v>428392900000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.2642077729926814</v>
+        <v>0.268651102812777</v>
       </c>
       <c r="D341" t="n">
-        <v>112604348859.9435</v>
+        <v>115088225022.1637</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>428392900000</v>
+        <v>423594100000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.268651102812777</v>
+        <v>0.2647884340412011</v>
       </c>
       <c r="D342" t="n">
-        <v>115088225022.1637</v>
+        <v>112162818408.0919</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>423594100000</v>
+        <v>420351000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.2647884340412011</v>
+        <v>0.270929287455974</v>
       </c>
       <c r="D343" t="n">
-        <v>112162818408.0919</v>
+        <v>113885396911.4061</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>420351000000</v>
+        <v>426096800000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.270929287455974</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="D344" t="n">
-        <v>113885396911.4061</v>
+        <v>114542150537.6344</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>426096800000</v>
+        <v>427779500000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.2590673575129534</v>
       </c>
       <c r="D345" t="n">
-        <v>114542150537.6344</v>
+        <v>110823704663.2124</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>427779500000</v>
+        <v>427304600000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.2590673575129534</v>
+        <v>0.2577585318074028</v>
       </c>
       <c r="D346" t="n">
-        <v>110823704663.2124</v>
+        <v>110141406330.5495</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>427304600000</v>
+        <v>428143000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.2577585318074028</v>
+        <v>0.265653640783147</v>
       </c>
       <c r="D347" t="n">
-        <v>110141406330.5495</v>
+        <v>113737746725.8189</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>428143000000</v>
+        <v>422718500000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.265653640783147</v>
+        <v>0.2628397203385375</v>
       </c>
       <c r="D348" t="n">
-        <v>113737746725.8189</v>
+        <v>111107212321.9261</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>422718500000</v>
+        <v>428997100000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2628397203385375</v>
+        <v>0.2756035718222908</v>
       </c>
       <c r="D349" t="n">
-        <v>111107212321.9261</v>
+        <v>118233133061.4045</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>428997100000</v>
+        <v>428509000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2756035718222908</v>
+        <v>0.2751031636863824</v>
       </c>
       <c r="D350" t="n">
-        <v>118233133061.4045</v>
+        <v>117884181568.088</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>428509000000</v>
+        <v>432279500000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.2751031636863824</v>
+        <v>0.2721680910130096</v>
       </c>
       <c r="D351" t="n">
-        <v>117884181568.088</v>
+        <v>117652686299.0583</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>432279500000</v>
+        <v>441510400000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2721680910130096</v>
+        <v>0.2824938557586373</v>
       </c>
       <c r="D352" t="n">
-        <v>117652686299.0583</v>
+        <v>124723975253.5383</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>441510400000</v>
+        <v>451988000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.2824938557586373</v>
+        <v>0.2699856907583898</v>
       </c>
       <c r="D353" t="n">
-        <v>124723975253.5383</v>
+        <v>122030292394.5031</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>451988000000</v>
+        <v>452665300000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.2699856907583898</v>
+        <v>0.2761286759629987</v>
       </c>
       <c r="D354" t="n">
-        <v>122030292394.5031</v>
+        <v>124993869943.3936</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>452665300000</v>
+        <v>451648100000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.2761286759629987</v>
+        <v>0.2878691922390466</v>
       </c>
       <c r="D355" t="n">
-        <v>124993869943.3936</v>
+        <v>130015573723.3001</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>451648100000</v>
+        <v>453020900000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.2878691922390466</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D356" t="n">
-        <v>130015573723.3001</v>
+        <v>134827648809.5238</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>453020900000</v>
+        <v>463405400000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.2925430769680836</v>
       </c>
       <c r="D357" t="n">
-        <v>134827648809.5238</v>
+        <v>135566041599.6255</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>463405400000</v>
+        <v>466954000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.2925430769680836</v>
+        <v>0.2945941964943291</v>
       </c>
       <c r="D358" t="n">
-        <v>135566041599.6255</v>
+        <v>137561938429.8129</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>466954000000</v>
+        <v>467679200000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.2945941964943291</v>
+        <v>0.2926115581565472</v>
       </c>
       <c r="D359" t="n">
-        <v>137561938429.8129</v>
+        <v>136848339429.4075</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>467679200000</v>
+        <v>475676200000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.2926115581565472</v>
+        <v>0.2809935933460717</v>
       </c>
       <c r="D360" t="n">
-        <v>136848339429.4075</v>
+        <v>133661964707.2047</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>475676200000</v>
+        <v>486082000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2809935933460717</v>
+        <v>0.2692514808831449</v>
       </c>
       <c r="D361" t="n">
-        <v>133661964707.2047</v>
+        <v>130878298330.6408</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>486082000000</v>
+        <v>488335100000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2692514808831449</v>
+        <v>0.2767629801837706</v>
       </c>
       <c r="D362" t="n">
-        <v>130878298330.6408</v>
+        <v>135153077604.3396</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>488335100000</v>
+        <v>482394300000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2767629801837706</v>
+        <v>0.2661698163428267</v>
       </c>
       <c r="D363" t="n">
-        <v>135153077604.3396</v>
+        <v>128398802235.8264</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>482394300000</v>
+        <v>487757500000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.2661698163428267</v>
+        <v>0.262501640635254</v>
       </c>
       <c r="D364" t="n">
-        <v>128398802235.8264</v>
+        <v>128037143982.1499</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>487757500000</v>
+        <v>499917100000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.262501640635254</v>
+        <v>0.2677232812165346</v>
       </c>
       <c r="D365" t="n">
-        <v>128037143982.1499</v>
+        <v>133839446348.2545</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>499917100000</v>
+        <v>492686800000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.2677232812165346</v>
+        <v>0.2647603918453799</v>
       </c>
       <c r="D366" t="n">
-        <v>133839446348.2545</v>
+        <v>130443950225.0463</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>492686800000</v>
+        <v>492045800000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.2647603918453799</v>
+        <v>0.2702337521956493</v>
       </c>
       <c r="D367" t="n">
-        <v>130443950225.0463</v>
+        <v>132967382786.11</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>492045800000</v>
+        <v>500886500000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.2702337521956493</v>
+        <v>0.2659786685107854</v>
       </c>
       <c r="D368" t="n">
-        <v>132967382786.11</v>
+        <v>133225124345.0275</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>500886500000</v>
+        <v>495523000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.2659786685107854</v>
+        <v>0.2563773875144212</v>
       </c>
       <c r="D369" t="n">
-        <v>133225124345.0275</v>
+        <v>127040892193.3086</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>495523000000</v>
+        <v>503946600000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.2563773875144212</v>
+        <v>0.2560491614389963</v>
       </c>
       <c r="D370" t="n">
-        <v>127040892193.3086</v>
+        <v>129035104340.0333</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>503946600000</v>
+        <v>511333300000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.2560491614389963</v>
+        <v>0.2513383768567622</v>
       </c>
       <c r="D371" t="n">
-        <v>129035104340.0333</v>
+        <v>128517681654.8119</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>511333300000</v>
+        <v>514689500000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.2513383768567622</v>
+        <v>0.2494076568150642</v>
       </c>
       <c r="D372" t="n">
-        <v>128517681654.8119</v>
+        <v>128367502182.317</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>514689500000</v>
+        <v>520998200000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.2494076568150642</v>
+        <v>0.25552574421873</v>
       </c>
       <c r="D373" t="n">
-        <v>128367502182.317</v>
+        <v>133128452791.6188</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>520998200000</v>
+        <v>518500600000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.25552574421873</v>
+        <v>0.2576323586242432</v>
       </c>
       <c r="D374" t="n">
-        <v>133128452791.6188</v>
+        <v>133582532526.0853</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>518500600000</v>
+        <v>522499500000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.2576323586242432</v>
+        <v>0.2624052061192894</v>
       </c>
       <c r="D375" t="n">
-        <v>133582532526.0853</v>
+        <v>137106588994.7257</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>522499500000</v>
+        <v>527619300000.0001</v>
       </c>
       <c r="C376" t="n">
-        <v>0.2624052061192894</v>
+        <v>0.2681540276734957</v>
       </c>
       <c r="D376" t="n">
-        <v>137106588994.7257</v>
+        <v>141483240373.2704</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>527619300000.0001</v>
+        <v>530065699999.9999</v>
       </c>
       <c r="C377" t="n">
-        <v>0.2681540276734957</v>
+        <v>0.269774468544297</v>
       </c>
       <c r="D377" t="n">
-        <v>141483240373.2704</v>
+        <v>142998192511.0607</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>530065699999.9999</v>
+        <v>526010900000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.269774468544297</v>
+        <v>0.269432843863667</v>
       </c>
       <c r="D378" t="n">
-        <v>142998192511.0607</v>
+        <v>141724612690.287</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>526010900000</v>
+        <v>530669400000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.269432843863667</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="D379" t="n">
-        <v>141724612690.287</v>
+        <v>145788296703.2967</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>530669400000</v>
+        <v>534103300000.0001</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.279290601871247</v>
       </c>
       <c r="D380" t="n">
-        <v>145788296703.2967</v>
+        <v>149170032118.4193</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>534103300000.0001</v>
+        <v>536555400000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.279290601871247</v>
+        <v>0.2714293469409912</v>
       </c>
       <c r="D381" t="n">
-        <v>149170032118.4193</v>
+        <v>145636881819.6623</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>536555400000</v>
+        <v>532349000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.2714293469409912</v>
+        <v>0.2759229623089233</v>
       </c>
       <c r="D382" t="n">
-        <v>145636881819.6623</v>
+        <v>146887313062.193</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>532349000000</v>
+        <v>536553500000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.2759229623089233</v>
+        <v>0.2808121086181236</v>
       </c>
       <c r="D383" t="n">
-        <v>146887313062.193</v>
+        <v>150670719721.4344</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>536553500000</v>
+        <v>542158300000.0001</v>
       </c>
       <c r="C384" t="n">
-        <v>0.2808121086181236</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D384" t="n">
-        <v>150670719721.4344</v>
+        <v>149272659691.63</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>542158300000.0001</v>
+        <v>547957300000.0001</v>
       </c>
       <c r="C385" t="n">
-        <v>0.2753303964757709</v>
+        <v>0.2838489923360772</v>
       </c>
       <c r="D385" t="n">
-        <v>149272659691.63</v>
+        <v>155537127448.1976</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>547957300000.0001</v>
+        <v>547775100000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.2838489923360772</v>
+        <v>0.2838651073010106</v>
       </c>
       <c r="D386" t="n">
-        <v>155537127448.1976</v>
+        <v>155494237538.3218</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>547775100000</v>
+        <v>553402900000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.2838651073010106</v>
+        <v>0.2845354958031014</v>
       </c>
       <c r="D387" t="n">
-        <v>155494237538.3218</v>
+        <v>157462768530.3742</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>553402900000</v>
+        <v>562252500000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.2845354958031014</v>
+        <v>0.2884670859054982</v>
       </c>
       <c r="D388" t="n">
-        <v>157462768530.3742</v>
+        <v>162191340218.0811</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>562252500000</v>
+        <v>564578400000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2884670859054982</v>
+        <v>0.2858122784954841</v>
       </c>
       <c r="D389" t="n">
-        <v>162191340218.0811</v>
+        <v>161363438893.3348</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>564578400000</v>
+        <v>563984600000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.2858122784954841</v>
+        <v>0.2870264064293915</v>
       </c>
       <c r="D390" t="n">
-        <v>161363438893.3348</v>
+        <v>161878473019.5178</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>563984600000</v>
+        <v>569376400000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.2870264064293915</v>
+        <v>0.287463707706902</v>
       </c>
       <c r="D391" t="n">
-        <v>161878473019.5178</v>
+        <v>163675051024.8081</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>569376400000</v>
+        <v>577837000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.287463707706902</v>
+        <v>0.2891259721860815</v>
       </c>
       <c r="D392" t="n">
-        <v>163675051024.8081</v>
+        <v>167067684390.0888</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>577837000000</v>
+        <v>575260100000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.2891259721860815</v>
+        <v>0.288334006112681</v>
       </c>
       <c r="D393" t="n">
-        <v>167067684390.0888</v>
+        <v>165867049189.7815</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>575260100000</v>
+        <v>576437600000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.288334006112681</v>
+        <v>0.2916897587725695</v>
       </c>
       <c r="D394" t="n">
-        <v>165867049189.7815</v>
+        <v>168140944491.4389</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>576437600000</v>
+        <v>580493600000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2916897587725695</v>
+        <v>0.2919708029197081</v>
       </c>
       <c r="D395" t="n">
-        <v>168140944491.4389</v>
+        <v>169487182481.7518</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>580493600000</v>
+        <v>584491000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.2919708029197081</v>
+        <v>0.2802297884265098</v>
       </c>
       <c r="D396" t="n">
-        <v>169487182481.7518</v>
+        <v>163791789267.1991</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>584491000000</v>
+        <v>591059200000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.2802297884265098</v>
+        <v>0.2727917507774565</v>
       </c>
       <c r="D397" t="n">
-        <v>163791789267.1991</v>
+        <v>161236073981.1228</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>591059200000</v>
+        <v>594225800000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.2727917507774565</v>
+        <v>0.263005628320446</v>
       </c>
       <c r="D398" t="n">
-        <v>161236073981.1228</v>
+        <v>156284729893.2197</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>594225800000</v>
+        <v>599648600000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.263005628320446</v>
+        <v>0.2569769234722722</v>
       </c>
       <c r="D399" t="n">
-        <v>156284729893.2197</v>
+        <v>154095852392.4552</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>599648600000</v>
+        <v>609642700000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.2569769234722722</v>
+        <v>0.2569307057886488</v>
       </c>
       <c r="D400" t="n">
-        <v>154095852392.4552</v>
+        <v>156635929189.8975</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>609642700000</v>
+        <v>619369400000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.2569307057886488</v>
+        <v>0.2545565624681804</v>
       </c>
       <c r="D401" t="n">
-        <v>156635929189.8975</v>
+        <v>157664545361.9794</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>619369400000</v>
+        <v>627591700000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.2545565624681804</v>
+        <v>0.2514711059699241</v>
       </c>
       <c r="D402" t="n">
-        <v>157664545361.9794</v>
+        <v>157821178896.5448</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>627591700000</v>
+        <v>639063300000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.2514711059699241</v>
+        <v>0.2514774299006664</v>
       </c>
       <c r="D403" t="n">
-        <v>157821178896.5448</v>
+        <v>160709996227.8385</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>639063300000</v>
+        <v>647371500000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.2514774299006664</v>
+        <v>0.2594235608477962</v>
       </c>
       <c r="D404" t="n">
-        <v>160709996227.8385</v>
+        <v>167943419721.3791</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>647371500000</v>
+        <v>651276400000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.2594235608477962</v>
+        <v>0.2596862989508674</v>
       </c>
       <c r="D405" t="n">
-        <v>167943419721.3791</v>
+        <v>169127557910.0447</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>651276400000</v>
+        <v>658167100000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.2596862989508674</v>
+        <v>0.2652871733651678</v>
       </c>
       <c r="D406" t="n">
-        <v>169127557910.0447</v>
+        <v>174603289560.9497</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>658167100000</v>
+        <v>660074100000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.2652871733651678</v>
+        <v>0.2658867322520606</v>
       </c>
       <c r="D407" t="n">
-        <v>174603289560.9497</v>
+        <v>175504945493.2199</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>660074100000</v>
+        <v>663528800000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.2658867322520606</v>
+        <v>0.2550630005611386</v>
       </c>
       <c r="D408" t="n">
-        <v>175504945493.2199</v>
+        <v>169241646686.7316</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>663528800000</v>
+        <v>680513800000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.2550630005611386</v>
+        <v>0.2550044625780951</v>
       </c>
       <c r="D409" t="n">
-        <v>169241646686.7316</v>
+        <v>173534055845.9773</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>680513800000</v>
+        <v>681415100000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.2550044625780951</v>
+        <v>0.259000259000259</v>
       </c>
       <c r="D410" t="n">
-        <v>173534055845.9773</v>
+        <v>176486687386.6874</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>681415100000</v>
+        <v>686142200000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.259000259000259</v>
+        <v>0.2584112874050338</v>
       </c>
       <c r="D411" t="n">
-        <v>176486687386.6874</v>
+        <v>177306889244.9222</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>686142200000</v>
+        <v>692268100000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.2584112874050338</v>
+        <v>0.2571288987169268</v>
       </c>
       <c r="D412" t="n">
-        <v>177306889244.9222</v>
+        <v>178002134169.8593</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>692268100000</v>
+        <v>696747800000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.2571288987169268</v>
+        <v>0.2528572873470213</v>
       </c>
       <c r="D413" t="n">
-        <v>178002134169.8593</v>
+        <v>176177758673.0049</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>696747800000</v>
+        <v>702928000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.2528572873470213</v>
+        <v>0.2562459961563101</v>
       </c>
       <c r="D414" t="n">
-        <v>176177758673.0049</v>
+        <v>180122485586.1627</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>702928000000</v>
+        <v>704187600000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.2562459961563101</v>
+        <v>0.2662052442433116</v>
       </c>
       <c r="D415" t="n">
-        <v>180122485586.1627</v>
+        <v>187458432051.1114</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>704187600000</v>
+        <v>713745100000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.2662052442433116</v>
+        <v>0.2672296304214211</v>
       </c>
       <c r="D416" t="n">
-        <v>187458432051.1114</v>
+        <v>190733839288.1003</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>713745100000</v>
+        <v>718977500000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.2672296304214211</v>
+        <v>0.2599563273370074</v>
       </c>
       <c r="D417" t="n">
-        <v>190733839288.1003</v>
+        <v>186902750337.9432</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>718977500000</v>
+        <v>734277300000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.2599563273370074</v>
+        <v>0.2593024763386491</v>
       </c>
       <c r="D418" t="n">
-        <v>186902750337.9432</v>
+        <v>190399922209.2571</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>734277300000</v>
+        <v>738121300000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.2593024763386491</v>
+        <v>0.2624809701296656</v>
       </c>
       <c r="D419" t="n">
-        <v>190399922209.2571</v>
+        <v>193742794897.3699</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>738121300000</v>
+        <v>740007400000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2624809701296656</v>
+        <v>0.2650129856362962</v>
       </c>
       <c r="D420" t="n">
-        <v>193742794897.3699</v>
+        <v>196111570466.9529</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>740007400000</v>
+        <v>742339100000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.2650129856362962</v>
+        <v>0.2668944165688054</v>
       </c>
       <c r="D421" t="n">
-        <v>196111570466.9529</v>
+        <v>198126160990.7121</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>742339100000</v>
+        <v>742436600000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.2668944165688054</v>
+        <v>0.2610284521012791</v>
       </c>
       <c r="D422" t="n">
-        <v>198126160990.7121</v>
+        <v>193797076481.3365</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>742436600000</v>
+        <v>740616900000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.2610284521012791</v>
+        <v>0.261110240743642</v>
       </c>
       <c r="D423" t="n">
-        <v>193797076481.3365</v>
+        <v>193382657057.8098</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>740616900000</v>
+        <v>747274700000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.261110240743642</v>
+        <v>0.2605455824496496</v>
       </c>
       <c r="D424" t="n">
-        <v>193382657057.8098</v>
+        <v>194699121961.3872</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>747274700000</v>
+        <v>761155500000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.2605455824496496</v>
+        <v>0.2658231212950903</v>
       </c>
       <c r="D425" t="n">
-        <v>194699121961.3872</v>
+        <v>202332730800.9251</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>761155500000</v>
+        <v>767259500000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.2658231212950903</v>
+        <v>0.274649821477616</v>
       </c>
       <c r="D426" t="n">
-        <v>202332730800.9251</v>
+        <v>210727684702.0049</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>767259500000</v>
+        <v>769309300000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.274649821477616</v>
+        <v>0.2758392408904091</v>
       </c>
       <c r="D427" t="n">
-        <v>210727684702.0049</v>
+        <v>212205693321.932</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>769309300000</v>
+        <v>778131000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.2758392408904091</v>
+        <v>0.2769162605228179</v>
       </c>
       <c r="D428" t="n">
-        <v>212205693321.932</v>
+        <v>215477126716.8808</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>778131000000</v>
+        <v>773540400000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.2769162605228179</v>
+        <v>0.2829574714920348</v>
       </c>
       <c r="D429" t="n">
-        <v>215477126716.8808</v>
+        <v>218879035680.9372</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>773540400000</v>
+        <v>789848000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.2829574714920348</v>
+        <v>0.2871500358937545</v>
       </c>
       <c r="D430" t="n">
-        <v>218879035680.9372</v>
+        <v>226804881550.6102</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>789848000000</v>
+        <v>798794500000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.2871500358937545</v>
+        <v>0.2814443725197714</v>
       </c>
       <c r="D431" t="n">
-        <v>226804881550.6102</v>
+        <v>224816216824.7446</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>798794500000</v>
+        <v>797691600000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.2814443725197714</v>
+        <v>0.2802297884265098</v>
       </c>
       <c r="D432" t="n">
-        <v>224816216824.7446</v>
+        <v>223536948297.604</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>797691600000</v>
+        <v>808309200000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.2802297884265098</v>
+        <v>0.2832540222071153</v>
       </c>
       <c r="D433" t="n">
-        <v>223536948297.604</v>
+        <v>228956832087.0156</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>808309200000</v>
+        <v>798852700000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.2832540222071153</v>
+        <v>0.2845193046348195</v>
       </c>
       <c r="D434" t="n">
-        <v>228956832087.0156</v>
+        <v>227289014709.6481</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>798852700000</v>
+        <v>798915300000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.2845193046348195</v>
+        <v>0.2864180557942372</v>
       </c>
       <c r="D435" t="n">
-        <v>227289014709.6481</v>
+        <v>228823766970.2698</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>798915300000</v>
+        <v>809904800000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.2864180557942372</v>
+        <v>0.2877532228360958</v>
       </c>
       <c r="D436" t="n">
-        <v>228823766970.2698</v>
+        <v>233052716390.4236</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>809904800000</v>
+        <v>819159600000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.2877532228360958</v>
+        <v>0.2927571871889455</v>
       </c>
       <c r="D437" t="n">
-        <v>233052716390.4236</v>
+        <v>239814860354.8217</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>819159600000</v>
+        <v>810881400000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.2927571871889455</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="D438" t="n">
-        <v>239814860354.8217</v>
+        <v>233515161987.041</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>810881400000</v>
+        <v>814795000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.2879769618430525</v>
+        <v>0.2867465733784481</v>
       </c>
       <c r="D439" t="n">
-        <v>233515161987.041</v>
+        <v>233639674255.8926</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>814795000000</v>
+        <v>819928800000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.2867465733784481</v>
+        <v>0.2782647410746584</v>
       </c>
       <c r="D440" t="n">
-        <v>233639674255.8926</v>
+        <v>228157275231.6554</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>819928800000</v>
+        <v>822588500000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.2782647410746584</v>
+        <v>0.28109627547435</v>
       </c>
       <c r="D441" t="n">
-        <v>228157275231.6554</v>
+        <v>231226563598.0323</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>822588500000</v>
+        <v>827771700000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.28109627547435</v>
+        <v>0.2737925747453729</v>
       </c>
       <c r="D442" t="n">
-        <v>231226563598.0323</v>
+        <v>226637745044.3544</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>827771700000</v>
+        <v>831331100000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.2737925747453729</v>
+        <v>0.2729034194798461</v>
       </c>
       <c r="D443" t="n">
-        <v>226637745044.3544</v>
+        <v>226873099909.9419</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>831331100000</v>
+        <v>829881400000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.2729034194798461</v>
+        <v>0.2776158352072402</v>
       </c>
       <c r="D444" t="n">
-        <v>226873099909.9419</v>
+        <v>230388217983.9538</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>829881400000</v>
+        <v>830645300000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.2776158352072402</v>
+        <v>0.2752849198920883</v>
       </c>
       <c r="D445" t="n">
-        <v>230388217983.9538</v>
+        <v>228664124869.2397</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>830645300000</v>
+        <v>823486200000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.2752849198920883</v>
+        <v>0.2690196922414721</v>
       </c>
       <c r="D446" t="n">
-        <v>228664124869.2397</v>
+        <v>221534004089.0993</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>823486200000</v>
+        <v>827009200000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.2690196922414721</v>
+        <v>0.2692007429940507</v>
       </c>
       <c r="D447" t="n">
-        <v>221534004089.0993</v>
+        <v>222631491102.9154</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>827009200000</v>
+        <v>826435700000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.2692007429940507</v>
+        <v>0.2678810608090008</v>
       </c>
       <c r="D448" t="n">
-        <v>222631491102.9154</v>
+        <v>221386472006.4292</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>826435700000</v>
+        <v>843241500000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.2678810608090008</v>
+        <v>0.275671950379049</v>
       </c>
       <c r="D449" t="n">
-        <v>221386472006.4292</v>
+        <v>232458028945.5548</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>843241500000</v>
+        <v>847555800000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.275671950379049</v>
+        <v>0.2762812543168946</v>
       </c>
       <c r="D450" t="n">
-        <v>232458028945.5548</v>
+        <v>234163779527.5591</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>847555800000</v>
+        <v>850468400000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.2762812543168946</v>
+        <v>0.2754896829113749</v>
       </c>
       <c r="D451" t="n">
-        <v>234163779527.5591</v>
+        <v>234295269842.1444</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>850468400000</v>
+        <v>858786600000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.2754896829113749</v>
+        <v>0.2780326410320572</v>
       </c>
       <c r="D452" t="n">
-        <v>234295269842.1444</v>
+        <v>238770706480.9409</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>858786600000</v>
+        <v>857292600000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.2780326410320572</v>
+        <v>0.2760829353137683</v>
       </c>
       <c r="D453" t="n">
-        <v>238770706480.9409</v>
+        <v>236683857430.7722</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>857292600000</v>
+        <v>862395800000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.2760829353137683</v>
+        <v>0.28055999775552</v>
       </c>
       <c r="D454" t="n">
-        <v>236683857430.7722</v>
+        <v>241953763712.3699</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>862395800000</v>
+        <v>862518000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.28055999775552</v>
+        <v>0.2852822868228111</v>
       </c>
       <c r="D455" t="n">
-        <v>241953763712.3699</v>
+        <v>246061107465.8374</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>862518000000</v>
+        <v>859848500000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.2852822868228111</v>
+        <v>0.2835672763363108</v>
       </c>
       <c r="D456" t="n">
-        <v>246061107465.8374</v>
+        <v>243824897206.8623</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>859848500000</v>
+        <v>866261200000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.2835672763363108</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="D457" t="n">
-        <v>243824897206.8623</v>
+        <v>249463268538.5169</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>866261200000</v>
+        <v>867102200000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.2879769618430525</v>
+        <v>0.2841231958177066</v>
       </c>
       <c r="D458" t="n">
-        <v>249463268538.5169</v>
+        <v>246363848164.5641</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>867102200000</v>
+        <v>868743800000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.2841231958177066</v>
+        <v>0.2881014116969173</v>
       </c>
       <c r="D459" t="n">
-        <v>246363848164.5641</v>
+        <v>250286315182.9444</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>868743800000</v>
+        <v>878149200000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.2881014116969173</v>
+        <v>0.289863474303603</v>
       </c>
       <c r="D460" t="n">
-        <v>250286315182.9444</v>
+        <v>254543378068.9295</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>878149200000</v>
+        <v>887268200000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.289863474303603</v>
+        <v>0.290098923732993</v>
       </c>
       <c r="D461" t="n">
-        <v>254543378068.9295</v>
+        <v>257395549882.5099</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>887268200000</v>
+        <v>898172000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.290098923732993</v>
+        <v>0.2887753039360074</v>
       </c>
       <c r="D462" t="n">
-        <v>257395549882.5099</v>
+        <v>259369892286.8116</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>898172000000</v>
+        <v>939849200000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.2887753039360074</v>
+        <v>0.2824140755175238</v>
       </c>
       <c r="D463" t="n">
-        <v>259369892286.8116</v>
+        <v>265426642943.8843</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>939849200000</v>
+        <v>991256800000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.2824140755175238</v>
+        <v>0.2871500358937545</v>
       </c>
       <c r="D464" t="n">
-        <v>265426642943.8843</v>
+        <v>284639425699.9282</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>991256800000</v>
+        <v>1005498800000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.2871500358937545</v>
+        <v>0.2851358672407402</v>
       </c>
       <c r="D465" t="n">
-        <v>284639425699.9282</v>
+        <v>286703772347.5236</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>1005498800000</v>
+        <v>1019175100000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.2851358672407402</v>
+        <v>0.2889254861171304</v>
       </c>
       <c r="D466" t="n">
-        <v>286703772347.5236</v>
+        <v>294465661205.975</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>1019175100000</v>
+        <v>1029648400000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.2889254861171304</v>
+        <v>0.2938151902453356</v>
       </c>
       <c r="D467" t="n">
-        <v>294465661205.975</v>
+        <v>302526340531.8055</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>1029648400000</v>
+        <v>1045486200000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.2938151902453356</v>
+        <v>0.2980714775403142</v>
       </c>
       <c r="D468" t="n">
-        <v>302526340531.8055</v>
+        <v>311629616382.0084</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>1045486200000</v>
+        <v>1058798600000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.2980714775403142</v>
+        <v>0.2916302128900554</v>
       </c>
       <c r="D469" t="n">
-        <v>311629616382.0084</v>
+        <v>308777661125.6926</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>1058798600000</v>
+        <v>1069591500000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.2916302128900554</v>
+        <v>0.293728888236158</v>
       </c>
       <c r="D470" t="n">
-        <v>308777661125.6926</v>
+        <v>314169922161.8446</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>1069591500000</v>
+        <v>1085379100000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.293728888236158</v>
+        <v>0.3025901718712176</v>
       </c>
       <c r="D471" t="n">
-        <v>314169922161.8446</v>
+        <v>328425048414.4275</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>1085379100000</v>
+        <v>1106226900000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.3025901718712176</v>
+        <v>0.3114391603600237</v>
       </c>
       <c r="D472" t="n">
-        <v>328425048414.4275</v>
+        <v>344522376903.6719</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>1106226900000</v>
+        <v>1131956800000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.3114391603600237</v>
+        <v>0.3050640634533252</v>
       </c>
       <c r="D473" t="n">
-        <v>344522376903.6719</v>
+        <v>345319341061.6229</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>1131956800000</v>
+        <v>1143578000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.3050640634533252</v>
+        <v>0.3022243713733075</v>
       </c>
       <c r="D474" t="n">
-        <v>345319341061.6229</v>
+        <v>345617142166.3443</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>1143578000000</v>
+        <v>1164245000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.3022243713733075</v>
+        <v>0.2994460248540201</v>
       </c>
       <c r="D475" t="n">
-        <v>345617142166.3443</v>
+        <v>348628537206.1686</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>1164245000000</v>
+        <v>1175803700000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.2994460248540201</v>
+        <v>0.3081759068076058</v>
       </c>
       <c r="D476" t="n">
-        <v>348628537206.1686</v>
+        <v>362354371475.2381</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>1175803700000</v>
+        <v>1183982300000</v>
       </c>
       <c r="C477" t="n">
         <v>0.3081759068076058</v>
       </c>
       <c r="D477" t="n">
-        <v>362354371475.2381</v>
+        <v>364874818946.6548</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>1183982300000</v>
+        <v>1200106600000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.3081759068076058</v>
+        <v>0.3069556142181841</v>
       </c>
       <c r="D478" t="n">
-        <v>364874818946.6548</v>
+        <v>368379458530.2966</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>1200106600000</v>
+        <v>1225628400000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.3069556142181841</v>
+        <v>0.310096750186058</v>
       </c>
       <c r="D479" t="n">
-        <v>368379458530.2966</v>
+        <v>380063383775.738</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>1225628400000</v>
+        <v>1239960200000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.310096750186058</v>
+        <v>0.312275551947038</v>
       </c>
       <c r="D480" t="n">
-        <v>380063383775.738</v>
+        <v>387209255847.3597</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>1239960200000</v>
+        <v>1257625900000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.312275551947038</v>
+        <v>0.3103565997330933</v>
       </c>
       <c r="D481" t="n">
-        <v>387209255847.3597</v>
+        <v>390312498060.2712</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>1257625900000</v>
+        <v>1258657100000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.3103565997330933</v>
+        <v>0.3167463811725951</v>
       </c>
       <c r="D482" t="n">
-        <v>390312498060.2712</v>
+        <v>398675081562.1932</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>1258657100000</v>
+        <v>1267713100000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.3167463811725951</v>
+        <v>0.3173494970010473</v>
       </c>
       <c r="D483" t="n">
-        <v>398675081562.1932</v>
+        <v>402308114626.6383</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>1267713100000</v>
+        <v>1299480800000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.3173494970010473</v>
+        <v>0.3228305785123967</v>
       </c>
       <c r="D484" t="n">
-        <v>402308114626.6383</v>
+        <v>419512138429.7521</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>1299480800000</v>
+        <v>1321141500000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.3228305785123967</v>
+        <v>0.3171180313312615</v>
       </c>
       <c r="D485" t="n">
-        <v>419512138429.7521</v>
+        <v>418957791590.0298</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>1321141500000</v>
+        <v>1326756000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.3171180313312615</v>
+        <v>0.3120319520718922</v>
       </c>
       <c r="D486" t="n">
-        <v>418957791590.0298</v>
+        <v>413990264603.0953</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>1326756000000</v>
+        <v>1333664400000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.3120319520718922</v>
+        <v>0.3134992789516584</v>
       </c>
       <c r="D487" t="n">
-        <v>413990264603.0953</v>
+        <v>418102827763.4962</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>1333664400000</v>
+        <v>1356168100000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.3134992789516584</v>
+        <v>0.2992936669460074</v>
       </c>
       <c r="D488" t="n">
-        <v>418102827763.4962</v>
+        <v>405892523644.1996</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>1356168100000</v>
+        <v>1365393800000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.2992936669460074</v>
+        <v>0.3011594639361542</v>
       </c>
       <c r="D489" t="n">
-        <v>405892523644.1996</v>
+        <v>411201264869.7485</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>1365393800000</v>
+        <v>1377815600000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.3011594639361542</v>
+        <v>0.2873315518777117</v>
       </c>
       <c r="D490" t="n">
-        <v>411201264869.7485</v>
+        <v>395889894549.3205</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>1377815600000</v>
+        <v>1382673300000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.2873315518777117</v>
+        <v>0.2943947244465379</v>
       </c>
       <c r="D491" t="n">
-        <v>395889894549.3205</v>
+        <v>407051725153.0853</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>1382673300000</v>
+        <v>1397990400000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.2943947244465379</v>
+        <v>0.3005981903988938</v>
       </c>
       <c r="D492" t="n">
-        <v>407051725153.0853</v>
+        <v>420233384435.0257</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>1397990400000</v>
+        <v>1388676700000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.3005981903988938</v>
+        <v>0.2811911256080758</v>
       </c>
       <c r="D493" t="n">
-        <v>420233384435.0257</v>
+        <v>390483564378.7082</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>1388676700000</v>
+        <v>1399005700000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.2811911256080758</v>
+        <v>0.2847137203541839</v>
       </c>
       <c r="D494" t="n">
-        <v>390483564378.7082</v>
+        <v>398316117643.7092</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>1399005700000</v>
+        <v>1378892900000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.2847137203541839</v>
+        <v>0.2936072885073299</v>
       </c>
       <c r="D495" t="n">
-        <v>398316117643.7092</v>
+        <v>404853005511.0089</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>1378892900000</v>
+        <v>1362510300000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.2936072885073299</v>
+        <v>0.2850627137970353</v>
       </c>
       <c r="D496" t="n">
-        <v>404853005511.0089</v>
+        <v>388400883694.4128</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>1362510300000</v>
+        <v>1330227600000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.2850627137970353</v>
+        <v>0.2902496437185623</v>
       </c>
       <c r="D497" t="n">
-        <v>388400883694.4128</v>
+        <v>386098086964.5982</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>1330227600000</v>
+        <v>1303847700000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.2902496437185623</v>
+        <v>0.2740995145697597</v>
       </c>
       <c r="D498" t="n">
-        <v>386098086964.5982</v>
+        <v>357384021642.8977</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>1303847700000</v>
+        <v>1278852800000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.2740995145697597</v>
+        <v>0.2781563795165642</v>
       </c>
       <c r="D499" t="n">
-        <v>357384021642.8977</v>
+        <v>355721064782.6208</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B500" t="n">
-        <v>1278852800000</v>
+        <v>1287306800000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.2781563795165642</v>
+        <v>0.2767246866092924</v>
       </c>
       <c r="D500" t="n">
-        <v>355721064782.6208</v>
+        <v>356229570800.011</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>1287481900000</v>
+        <v>1275909800000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.2767246866092924</v>
+        <v>0.2691500242235022</v>
       </c>
       <c r="D501" t="n">
-        <v>356278025292.6364</v>
+        <v>343411153577.0038</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -458,6234 +458,6246 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B2" t="n">
-        <v>16500000</v>
+        <v>20100000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B3" t="n">
-        <v>17000000</v>
+        <v>21200000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B4" t="n">
-        <v>19200000</v>
+        <v>22400000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B5" t="n">
-        <v>20100000</v>
+        <v>24400000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B6" t="n">
-        <v>21200000</v>
+        <v>25800000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B7" t="n">
-        <v>22400000</v>
+        <v>27400000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B8" t="n">
-        <v>24400000</v>
+        <v>28300000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B9" t="n">
-        <v>25800000</v>
+        <v>31500000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B10" t="n">
-        <v>27400000</v>
+        <v>37700000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B11" t="n">
-        <v>28300000</v>
+        <v>42900000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B12" t="n">
-        <v>31500000</v>
+        <v>50500000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B13" t="n">
-        <v>37700000</v>
+        <v>57600000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B14" t="n">
-        <v>42900000</v>
+        <v>58400000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B15" t="n">
-        <v>50500000</v>
+        <v>67900000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B16" t="n">
-        <v>57600000</v>
+        <v>71400000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B17" t="n">
-        <v>58400000</v>
+        <v>76800000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B18" t="n">
-        <v>67900000</v>
+        <v>83200000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B19" t="n">
-        <v>71400000</v>
+        <v>87000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B20" t="n">
-        <v>76800000</v>
+        <v>90400000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B21" t="n">
-        <v>83200000</v>
+        <v>94400000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B22" t="n">
-        <v>87000000</v>
+        <v>100400000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B23" t="n">
-        <v>90400000</v>
+        <v>103200000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B24" t="n">
-        <v>94400000</v>
+        <v>112800000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B25" t="n">
-        <v>100400000</v>
+        <v>123100000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B26" t="n">
-        <v>103200000</v>
+        <v>149900000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B27" t="n">
-        <v>112800000</v>
+        <v>188300000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B28" t="n">
-        <v>123100000</v>
+        <v>214100000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B29" t="n">
-        <v>149900000</v>
+        <v>268400000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B30" t="n">
-        <v>188300000</v>
+        <v>287700000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B31" t="n">
-        <v>214100000</v>
+        <v>326200000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B32" t="n">
-        <v>268400000</v>
+        <v>324000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B33" t="n">
-        <v>287700000</v>
+        <v>366900000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B34" t="n">
-        <v>326200000</v>
+        <v>449600000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B35" t="n">
-        <v>324000000</v>
+        <v>506100000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B36" t="n">
-        <v>366900000</v>
+        <v>600900000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B37" t="n">
-        <v>449600000</v>
+        <v>729300000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B38" t="n">
-        <v>506100000</v>
+        <v>804800000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B39" t="n">
-        <v>600900000</v>
+        <v>883100000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B40" t="n">
-        <v>729300000</v>
+        <v>1008800000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B41" t="n">
-        <v>804800000</v>
+        <v>1343600000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B42" t="n">
-        <v>883100000</v>
+        <v>1455100000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B43" t="n">
-        <v>1008800000</v>
+        <v>1611800000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B44" t="n">
-        <v>1343600000</v>
+        <v>2390300000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B45" t="n">
-        <v>1455100000</v>
+        <v>2883600000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B46" t="n">
-        <v>1611800000</v>
+        <v>3232400000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B47" t="n">
-        <v>2390300000</v>
+        <v>3552400000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B48" t="n">
-        <v>2883600000</v>
+        <v>4045200000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B49" t="n">
-        <v>3232400000</v>
+        <v>4300300000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B50" t="n">
-        <v>3552400000</v>
+        <v>4423400000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B51" t="n">
-        <v>4045200000</v>
+        <v>4843400000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B52" t="n">
-        <v>4300300000</v>
+        <v>4944300000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B53" t="n">
-        <v>4423400000</v>
+        <v>4975800000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B54" t="n">
-        <v>4843400000</v>
+        <v>4955000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B55" t="n">
-        <v>4944300000</v>
+        <v>4892600000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B56" t="n">
-        <v>4975800000</v>
+        <v>5162900000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B57" t="n">
-        <v>4955000000</v>
+        <v>5666500000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B58" t="n">
-        <v>4892600000</v>
+        <v>6023600000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B59" t="n">
-        <v>5162900000</v>
+        <v>6486700000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B60" t="n">
-        <v>5666500000</v>
+        <v>6774600000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B61" t="n">
-        <v>6023600000</v>
+        <v>7194000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B62" t="n">
-        <v>6486700000</v>
+        <v>7233700000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B63" t="n">
-        <v>6774600000</v>
+        <v>7485200000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B64" t="n">
-        <v>7194000000</v>
+        <v>8006600000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B65" t="n">
-        <v>7233700000</v>
+        <v>8666200000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B66" t="n">
-        <v>7485200000</v>
+        <v>8987900000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B67" t="n">
-        <v>8006600000</v>
+        <v>9338900000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B68" t="n">
-        <v>8666200000</v>
+        <v>9721300000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B69" t="n">
-        <v>8987900000</v>
+        <v>9920900000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B70" t="n">
-        <v>9338900000</v>
+        <v>10101100000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B71" t="n">
-        <v>9721300000</v>
+        <v>10183000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B72" t="n">
-        <v>9920900000</v>
+        <v>10456700000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B73" t="n">
-        <v>10101100000</v>
+        <v>10659200000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B74" t="n">
-        <v>10183000000</v>
+        <v>10686600000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B75" t="n">
-        <v>10456700000</v>
+        <v>11061500000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B76" t="n">
-        <v>10659200000</v>
+        <v>11315300000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B77" t="n">
-        <v>10686600000</v>
+        <v>11584000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B78" t="n">
-        <v>11061500000</v>
+        <v>11812800000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B79" t="n">
-        <v>11315300000</v>
+        <v>12042800000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B80" t="n">
-        <v>11584000000</v>
+        <v>12432900000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B81" t="n">
-        <v>11812800000</v>
+        <v>12798400000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B82" t="n">
-        <v>12042800000</v>
+        <v>13126100000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B83" t="n">
-        <v>12432900000</v>
+        <v>12575400000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B84" t="n">
-        <v>12798400000</v>
+        <v>11661600000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B85" t="n">
-        <v>13126100000</v>
+        <v>10968800000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B86" t="n">
-        <v>12575400000</v>
+        <v>11571700000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B87" t="n">
-        <v>11661600000</v>
+        <v>12097900000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B88" t="n">
-        <v>10968800000</v>
+        <v>12642800000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B89" t="n">
-        <v>11571700000</v>
+        <v>13132600000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B90" t="n">
-        <v>12097900000</v>
+        <v>13363800000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B91" t="n">
-        <v>12642800000</v>
+        <v>13219100000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B92" t="n">
-        <v>13132600000</v>
+        <v>13463900000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B93" t="n">
-        <v>13363800000</v>
+        <v>13730700000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B94" t="n">
-        <v>13219100000</v>
+        <v>14105400000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B95" t="n">
-        <v>13463900000</v>
+        <v>13989700000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B96" t="n">
-        <v>13730700000</v>
+        <v>14209300000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B97" t="n">
-        <v>14105400000</v>
+        <v>14309800000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B98" t="n">
-        <v>13989700000</v>
+        <v>14724700000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B99" t="n">
-        <v>14209300000</v>
+        <v>14963200000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B100" t="n">
-        <v>14309800000</v>
+        <v>15431400000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B101" t="n">
-        <v>14724700000</v>
+        <v>16138000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B102" t="n">
-        <v>14963200000</v>
+        <v>16635400000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B103" t="n">
-        <v>15431400000</v>
+        <v>16781900000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B104" t="n">
-        <v>16138000000</v>
+        <v>16944900000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B105" t="n">
-        <v>16635400000</v>
+        <v>17696500000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B106" t="n">
-        <v>16781900000</v>
+        <v>17588200000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B107" t="n">
-        <v>16944900000</v>
+        <v>18058500000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B108" t="n">
-        <v>17696500000</v>
+        <v>18841900000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B109" t="n">
-        <v>17588200000</v>
+        <v>19747400000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B110" t="n">
-        <v>18058500000</v>
+        <v>21585500000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B111" t="n">
-        <v>18841900000</v>
+        <v>21909800000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B112" t="n">
-        <v>19747400000</v>
+        <v>22306000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B113" t="n">
-        <v>21585500000</v>
+        <v>22120900000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B114" t="n">
-        <v>21909800000</v>
+        <v>22389300000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B115" t="n">
-        <v>22306000000</v>
+        <v>21894200000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B116" t="n">
-        <v>22120900000</v>
+        <v>22203400000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B117" t="n">
-        <v>22389300000</v>
+        <v>23584900000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B118" t="n">
-        <v>21894200000</v>
+        <v>23049100000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B119" t="n">
-        <v>22203400000</v>
+        <v>22056200000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B120" t="n">
-        <v>23584900000</v>
+        <v>23364100000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B121" t="n">
-        <v>23049100000</v>
+        <v>23756900000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B122" t="n">
-        <v>22056200000</v>
+        <v>24855800000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B123" t="n">
-        <v>23364100000</v>
+        <v>25303700000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B124" t="n">
-        <v>23756900000</v>
+        <v>25384700000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B125" t="n">
-        <v>24855800000</v>
+        <v>25976000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B126" t="n">
-        <v>25303700000</v>
+        <v>25857300000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B127" t="n">
-        <v>25384700000</v>
+        <v>25537000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B128" t="n">
-        <v>25976000000</v>
+        <v>26018600000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B129" t="n">
-        <v>25857300000</v>
+        <v>26302600000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B130" t="n">
-        <v>25537000000</v>
+        <v>27750300000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B131" t="n">
-        <v>26018600000</v>
+        <v>28727300000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B132" t="n">
-        <v>26302600000</v>
+        <v>29292600000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B133" t="n">
-        <v>27750300000</v>
+        <v>29665300000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B134" t="n">
-        <v>28727300000</v>
+        <v>30386200000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B135" t="n">
-        <v>29292600000</v>
+        <v>30157900000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B136" t="n">
-        <v>29665300000</v>
+        <v>30936400000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B137" t="n">
-        <v>30386200000</v>
+        <v>31145600000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B138" t="n">
-        <v>30157900000</v>
+        <v>32327900000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B139" t="n">
-        <v>30936400000</v>
+        <v>33096800000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B140" t="n">
-        <v>31145600000</v>
+        <v>34239600000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B141" t="n">
-        <v>32327900000</v>
+        <v>35644800000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B142" t="n">
-        <v>33096800000</v>
+        <v>37388100000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B143" t="n">
-        <v>34239600000</v>
+        <v>38572400000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B144" t="n">
-        <v>35644800000</v>
+        <v>41261500000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B145" t="n">
-        <v>37388100000</v>
+        <v>43613300000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B146" t="n">
-        <v>38572400000</v>
+        <v>45755600000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B147" t="n">
-        <v>41261500000</v>
+        <v>46547200000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B148" t="n">
-        <v>43613300000</v>
+        <v>50127100000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B149" t="n">
-        <v>45755600000</v>
+        <v>50872500000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B150" t="n">
-        <v>46547200000</v>
+        <v>51106500000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B151" t="n">
-        <v>50127100000</v>
+        <v>52393400000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B152" t="n">
-        <v>50872500000</v>
+        <v>54863900000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B153" t="n">
-        <v>51106500000</v>
+        <v>55873000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B154" t="n">
-        <v>52393400000</v>
+        <v>57834200000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B155" t="n">
-        <v>54863900000</v>
+        <v>56778900000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B156" t="n">
-        <v>55873000000</v>
+        <v>57538500000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B157" t="n">
-        <v>57834200000</v>
+        <v>59590000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B158" t="n">
-        <v>56778900000</v>
+        <v>61388900000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B159" t="n">
-        <v>57538500000</v>
+        <v>63068800000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B160" t="n">
-        <v>59590000000</v>
+        <v>64345500000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B161" t="n">
-        <v>61388900000</v>
+        <v>65662399999.99999</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B162" t="n">
-        <v>63068800000</v>
+        <v>67430200000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B163" t="n">
-        <v>64345500000</v>
+        <v>69116600000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B164" t="n">
-        <v>65662399999.99999</v>
+        <v>71190100000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B165" t="n">
-        <v>67430200000</v>
+        <v>72893300000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B166" t="n">
-        <v>69116600000</v>
+        <v>74350700000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B167" t="n">
-        <v>71190100000</v>
+        <v>74985500000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B168" t="n">
-        <v>72893300000</v>
+        <v>76064400000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B169" t="n">
-        <v>74350700000</v>
+        <v>78003800000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B170" t="n">
-        <v>74985500000</v>
+        <v>79916600000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B171" t="n">
-        <v>76064400000</v>
+        <v>81072700000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B172" t="n">
-        <v>78003800000</v>
+        <v>82576000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B173" t="n">
-        <v>79916600000</v>
+        <v>84718100000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B174" t="n">
-        <v>81072700000</v>
+        <v>84676500000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B175" t="n">
-        <v>82576000000</v>
+        <v>85980600000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B176" t="n">
-        <v>84718100000</v>
+        <v>88936400000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B177" t="n">
-        <v>84676500000</v>
+        <v>92505800000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B178" t="n">
-        <v>85980600000</v>
+        <v>94329900000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B179" t="n">
-        <v>88936400000</v>
+        <v>95150000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B180" t="n">
-        <v>92505800000</v>
+        <v>96601900000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B181" t="n">
-        <v>94329900000</v>
+        <v>98902800000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B182" t="n">
-        <v>95150000000</v>
+        <v>103180100000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B183" t="n">
-        <v>96601900000</v>
+        <v>104615600000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B184" t="n">
-        <v>98902800000</v>
+        <v>106110400000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B185" t="n">
-        <v>103180100000</v>
+        <v>107533900000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B186" t="n">
-        <v>104615600000</v>
+        <v>108889300000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B187" t="n">
-        <v>106110400000</v>
+        <v>111206600000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B188" t="n">
-        <v>107533900000</v>
+        <v>112774400000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B189" t="n">
-        <v>108889300000</v>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+        <v>114718000000</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D189" t="n">
+        <v>32776571428.57143</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B190" t="n">
-        <v>111206600000</v>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+        <v>116196400000</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.2853881278538813</v>
+      </c>
+      <c r="D190" t="n">
+        <v>33161073059.36073</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B191" t="n">
-        <v>112774400000</v>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+        <v>118167500000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D191" t="n">
+        <v>33762142857.14286</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B192" t="n">
-        <v>114718000000</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D192" t="n">
-        <v>32776571428.57143</v>
-      </c>
+        <v>119754800000</v>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B193" t="n">
-        <v>116196400000</v>
+        <v>122541600000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2853881278538813</v>
+        <v>0.2837684449489217</v>
       </c>
       <c r="D193" t="n">
-        <v>33161073059.36073</v>
+        <v>34773439273.55278</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B194" t="n">
-        <v>118167500000</v>
+        <v>125591200000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2822466836014677</v>
       </c>
       <c r="D194" t="n">
-        <v>33762142857.14286</v>
+        <v>35447699689.52864</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B195" t="n">
-        <v>119754800000</v>
+        <v>126668300000</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B196" t="n">
-        <v>122541600000</v>
+        <v>127003700000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2837684449489217</v>
+        <v>0.2803476310625175</v>
       </c>
       <c r="D196" t="n">
-        <v>34773439273.55278</v>
+        <v>35605186431.17466</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B197" t="n">
-        <v>125591200000</v>
+        <v>128626000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2822466836014677</v>
+        <v>0.271665308340125</v>
       </c>
       <c r="D197" t="n">
-        <v>35447699689.52864</v>
+        <v>34943221950.55692</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B198" t="n">
-        <v>126668300000</v>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+        <v>129389900000</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.2737476047084588</v>
+      </c>
+      <c r="D198" t="n">
+        <v>35420175198.46702</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B199" t="n">
-        <v>127003700000</v>
+        <v>131618700000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2803476310625175</v>
+        <v>0.2731494127287626</v>
       </c>
       <c r="D199" t="n">
-        <v>35605186431.17466</v>
+        <v>35951570609.12319</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B200" t="n">
-        <v>128626000000</v>
+        <v>135543000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.271665308340125</v>
+        <v>0.2741979709350151</v>
       </c>
       <c r="D200" t="n">
-        <v>34943221950.55692</v>
+        <v>37165615574.44475</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B201" t="n">
-        <v>129389900000</v>
+        <v>137577100000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.2737476047084588</v>
+        <v>0.2722570106180234</v>
       </c>
       <c r="D201" t="n">
-        <v>35420175198.46702</v>
+        <v>37456329975.49687</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B202" t="n">
-        <v>131618700000</v>
+        <v>139568900000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2731494127287626</v>
+        <v>0.2596053997923157</v>
       </c>
       <c r="D202" t="n">
-        <v>35951570609.12319</v>
+        <v>36232840083.07373</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B203" t="n">
-        <v>135543000000</v>
+        <v>140938600000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2741979709350151</v>
+        <v>0.2351281448389372</v>
       </c>
       <c r="D203" t="n">
-        <v>37165615574.44475</v>
+        <v>33138631554.19704</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B204" t="n">
-        <v>137577100000</v>
+        <v>140465000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2722570106180234</v>
+        <v>0.2391200382592061</v>
       </c>
       <c r="D204" t="n">
-        <v>37456329975.49687</v>
+        <v>33587996174.07939</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B205" t="n">
-        <v>139568900000</v>
+        <v>142533000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2596053997923157</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="D205" t="n">
-        <v>36232840083.07373</v>
+        <v>34262740384.61538</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B206" t="n">
-        <v>140938600000</v>
+        <v>149174300000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2351281448389372</v>
+        <v>0.2437835202340322</v>
       </c>
       <c r="D206" t="n">
-        <v>33138631554.19704</v>
+        <v>36366235982.44759</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B207" t="n">
-        <v>140465000000</v>
+        <v>150478700000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2391200382592061</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="D207" t="n">
-        <v>33587996174.07939</v>
+        <v>37247202970.29703</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B208" t="n">
-        <v>142533000000</v>
+        <v>154237000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.2493765586034913</v>
       </c>
       <c r="D208" t="n">
-        <v>34262740384.61538</v>
+        <v>38463092269.32668</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B209" t="n">
-        <v>149174300000</v>
+        <v>157737800000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.2437835202340322</v>
+        <v>0.241779497098646</v>
       </c>
       <c r="D209" t="n">
-        <v>36366235982.44759</v>
+        <v>38137765957.44681</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B210" t="n">
-        <v>150478700000</v>
+        <v>160058700000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2475247524752475</v>
+        <v>0.243605359317905</v>
       </c>
       <c r="D210" t="n">
-        <v>37247202970.29703</v>
+        <v>38991157125.45676</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B211" t="n">
-        <v>154237000000</v>
+        <v>161309400000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2493765586034913</v>
+        <v>0.2455795677799607</v>
       </c>
       <c r="D211" t="n">
-        <v>38463092269.32668</v>
+        <v>39614292730.8448</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B212" t="n">
-        <v>157737800000</v>
+        <v>164651000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.241779497098646</v>
+        <v>0.2410800385728062</v>
       </c>
       <c r="D212" t="n">
-        <v>38137765957.44681</v>
+        <v>39694069431.05111</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B213" t="n">
-        <v>160058700000</v>
+        <v>166929700000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.243605359317905</v>
+        <v>0.2359603586597451</v>
       </c>
       <c r="D213" t="n">
-        <v>38991157125.45676</v>
+        <v>39388791882.96365</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B214" t="n">
-        <v>161309400000</v>
+        <v>168321900000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2455795677799607</v>
+        <v>0.2337540906965872</v>
       </c>
       <c r="D214" t="n">
-        <v>39614292730.8448</v>
+        <v>39345932678.82188</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B215" t="n">
-        <v>164651000000</v>
+        <v>170334500000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2410800385728062</v>
+        <v>0.2355157795572303</v>
       </c>
       <c r="D215" t="n">
-        <v>39694069431.05111</v>
+        <v>40116462552.99104</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B216" t="n">
-        <v>166929700000</v>
+        <v>173286400000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2359603586597451</v>
+        <v>0.2366863905325444</v>
       </c>
       <c r="D216" t="n">
-        <v>39388791882.96365</v>
+        <v>41014532544.3787</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B217" t="n">
-        <v>168321900000</v>
+        <v>178808400000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2337540906965872</v>
+        <v>0.2409058058299205</v>
       </c>
       <c r="D217" t="n">
-        <v>39345932678.82188</v>
+        <v>43075981691.15876</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B218" t="n">
-        <v>170334500000</v>
+        <v>183975700000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.2355157795572303</v>
+        <v>0.245398773006135</v>
       </c>
       <c r="D218" t="n">
-        <v>40116462552.99104</v>
+        <v>45147411042.94479</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B219" t="n">
-        <v>173286400000</v>
+        <v>185668600000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.2366863905325444</v>
+        <v>0.2474634991338777</v>
       </c>
       <c r="D219" t="n">
-        <v>41014532544.3787</v>
+        <v>45946201435.28829</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B220" t="n">
-        <v>178808400000</v>
+        <v>187076700000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.2409058058299205</v>
+        <v>0.2493143854400399</v>
       </c>
       <c r="D220" t="n">
-        <v>43075981691.15876</v>
+        <v>46640912490.65071</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B221" t="n">
-        <v>183975700000</v>
+        <v>188902300000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.245398773006135</v>
+        <v>0.248015873015873</v>
       </c>
       <c r="D221" t="n">
-        <v>45147411042.94479</v>
+        <v>46850768849.20635</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B222" t="n">
-        <v>185668600000</v>
+        <v>189103700000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2474634991338777</v>
+        <v>0.2400384061449832</v>
       </c>
       <c r="D222" t="n">
-        <v>45946201435.28829</v>
+        <v>45392150744.11906</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B223" t="n">
-        <v>187076700000</v>
+        <v>190961300000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2493143854400399</v>
+        <v>0.2452783909737552</v>
       </c>
       <c r="D223" t="n">
-        <v>46640912490.65071</v>
+        <v>46838680402.25656</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B224" t="n">
-        <v>188902300000</v>
+        <v>195056600000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.248015873015873</v>
+        <v>0.2460629921259843</v>
       </c>
       <c r="D224" t="n">
-        <v>46850768849.20635</v>
+        <v>47996210629.92126</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B225" t="n">
-        <v>189103700000</v>
+        <v>198410700000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2400384061449832</v>
+        <v>0.2494387627837366</v>
       </c>
       <c r="D225" t="n">
-        <v>45392150744.11906</v>
+        <v>49491319531.05512</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B226" t="n">
-        <v>190961300000</v>
+        <v>201584500000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2452783909737552</v>
+        <v>0.2498750624687656</v>
       </c>
       <c r="D226" t="n">
-        <v>46838680402.25656</v>
+        <v>50370939530.23489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B227" t="n">
-        <v>195056600000</v>
+        <v>205945800000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.2460629921259843</v>
+        <v>0.2431906614785992</v>
       </c>
       <c r="D227" t="n">
-        <v>47996210629.92126</v>
+        <v>50084095330.7393</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B228" t="n">
-        <v>198410700000</v>
+        <v>207942700000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.2494387627837366</v>
+        <v>0.2442002442002442</v>
       </c>
       <c r="D228" t="n">
-        <v>49491319531.05512</v>
+        <v>50779658119.65813</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B229" t="n">
-        <v>201584500000</v>
+        <v>212393600000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2498750624687656</v>
+        <v>0.2486943546381497</v>
       </c>
       <c r="D229" t="n">
-        <v>50370939530.23489</v>
+        <v>52821089281.27332</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B230" t="n">
-        <v>205945800000</v>
+        <v>215819800000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.2431906614785992</v>
+        <v>0.2408187838651415</v>
       </c>
       <c r="D230" t="n">
-        <v>50084095330.7393</v>
+        <v>51973461770.01807</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B231" t="n">
-        <v>207942700000</v>
+        <v>217782200000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2442002442002442</v>
+        <v>0.2435460301997077</v>
       </c>
       <c r="D231" t="n">
-        <v>50779658119.65813</v>
+        <v>53039990258.15879</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B232" t="n">
-        <v>212393600000</v>
+        <v>221484100000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.2486943546381497</v>
+        <v>0.2381519409383187</v>
       </c>
       <c r="D232" t="n">
-        <v>52821089281.27332</v>
+        <v>52746868301.97666</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B233" t="n">
-        <v>215819800000</v>
+        <v>222735800000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2408187838651415</v>
+        <v>0.2420135527589545</v>
       </c>
       <c r="D233" t="n">
-        <v>51973461770.01807</v>
+        <v>53905082284.60795</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B234" t="n">
-        <v>217782200000</v>
+        <v>224642300000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.2435460301997077</v>
+        <v>0.2416626389560174</v>
       </c>
       <c r="D234" t="n">
-        <v>53039990258.15879</v>
+        <v>54287651039.14935</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B235" t="n">
-        <v>221484100000</v>
+        <v>227793600000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2381519409383187</v>
+        <v>0.2399808015358771</v>
       </c>
       <c r="D235" t="n">
-        <v>52746868301.97666</v>
+        <v>54666090712.74298</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B236" t="n">
-        <v>222735800000</v>
+        <v>230306000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.2420135527589545</v>
+        <v>0.2376990729736154</v>
       </c>
       <c r="D236" t="n">
-        <v>53905082284.60795</v>
+        <v>54743522700.26147</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B237" t="n">
-        <v>224642300000</v>
+        <v>232646700000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2416626389560174</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="D237" t="n">
-        <v>54287651039.14935</v>
+        <v>54611901408.45071</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B238" t="n">
-        <v>227793600000</v>
+        <v>236009500000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2399808015358771</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="D238" t="n">
-        <v>54666090712.74298</v>
+        <v>54255057471.26437</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B239" t="n">
-        <v>230306000000</v>
+        <v>239598700000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.2376990729736154</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="D239" t="n">
-        <v>54743522700.26147</v>
+        <v>56046479532.16374</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B240" t="n">
-        <v>232646700000</v>
+        <v>240095600000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2347417840375587</v>
+        <v>0.2364625206904706</v>
       </c>
       <c r="D240" t="n">
-        <v>54611901408.45071</v>
+        <v>56773610782.69094</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B241" t="n">
-        <v>236009500000</v>
+        <v>242857800000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2271694684234439</v>
       </c>
       <c r="D241" t="n">
-        <v>54255057471.26437</v>
+        <v>55169877328.48705</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B242" t="n">
-        <v>239598700000</v>
+        <v>239634800000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2339181286549707</v>
+        <v>0.2181025081788441</v>
       </c>
       <c r="D242" t="n">
-        <v>56046479532.16374</v>
+        <v>52264950926.93566</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B243" t="n">
-        <v>240095600000</v>
+        <v>231312700000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2364625206904706</v>
+        <v>0.2143852502947797</v>
       </c>
       <c r="D243" t="n">
-        <v>56773610782.69094</v>
+        <v>49590031085.86129</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B244" t="n">
-        <v>242857800000</v>
+        <v>230560200000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.2271694684234439</v>
+        <v>0.2108370229812355</v>
       </c>
       <c r="D244" t="n">
-        <v>55169877328.48705</v>
+        <v>48610626185.95825</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B245" t="n">
-        <v>239634800000</v>
+        <v>233057600000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.2181025081788441</v>
+        <v>0.2044989775051125</v>
       </c>
       <c r="D245" t="n">
-        <v>52264950926.93566</v>
+        <v>47660040899.7955</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B246" t="n">
-        <v>231312700000</v>
+        <v>232290300000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2143852502947797</v>
+        <v>0.2033760423022168</v>
       </c>
       <c r="D246" t="n">
-        <v>49590031085.86129</v>
+        <v>47242281879.19463</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B247" t="n">
-        <v>230560200000</v>
+        <v>232231100000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.2108370229812355</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D247" t="n">
-        <v>48610626185.95825</v>
+        <v>48890757894.73684</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B248" t="n">
-        <v>233057600000</v>
+        <v>232066900000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.2044989775051125</v>
+        <v>0.2138351331123704</v>
       </c>
       <c r="D248" t="n">
-        <v>47660040899.7955</v>
+        <v>49624056452.47514</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B249" t="n">
-        <v>232290300000</v>
+        <v>233317300000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2033760423022168</v>
+        <v>0.2147028512538646</v>
       </c>
       <c r="D249" t="n">
-        <v>47242281879.19463</v>
+        <v>50093889556.85331</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B250" t="n">
-        <v>232231100000</v>
+        <v>236599100000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2050440844781628</v>
       </c>
       <c r="D250" t="n">
-        <v>48890757894.73684</v>
+        <v>48513245847.85729</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B251" t="n">
-        <v>232066900000</v>
+        <v>237118300000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2138351331123704</v>
+        <v>0.2095118374188142</v>
       </c>
       <c r="D251" t="n">
-        <v>49624056452.47514</v>
+        <v>49679090718.62561</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B252" t="n">
-        <v>233317300000</v>
+        <v>236775500000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2147028512538646</v>
+        <v>0.2153779883695886</v>
       </c>
       <c r="D252" t="n">
-        <v>50093889556.85331</v>
+        <v>50996230885.20353</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B253" t="n">
-        <v>236599100000</v>
+        <v>237770500000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2050440844781628</v>
+        <v>0.2108014671782115</v>
       </c>
       <c r="D253" t="n">
-        <v>48513245847.85729</v>
+        <v>50122370251.69695</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B254" t="n">
-        <v>237118300000</v>
+        <v>238793700000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.2095118374188142</v>
+        <v>0.2074688796680498</v>
       </c>
       <c r="D254" t="n">
-        <v>49679090718.62561</v>
+        <v>49542261410.78838</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B255" t="n">
-        <v>236775500000</v>
+        <v>237425400000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.2153779883695886</v>
+        <v>0.2077706212341575</v>
       </c>
       <c r="D255" t="n">
-        <v>50996230885.20353</v>
+        <v>49330022854.76834</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B256" t="n">
-        <v>237770500000</v>
+        <v>235316800000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2108014671782115</v>
+        <v>0.2131060202450719</v>
       </c>
       <c r="D256" t="n">
-        <v>50122370251.69695</v>
+        <v>50147426744.80554</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B257" t="n">
-        <v>238793700000</v>
+        <v>235152500000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2074688796680498</v>
+        <v>0.2198285337436799</v>
       </c>
       <c r="D257" t="n">
-        <v>49542261410.78838</v>
+        <v>51693229281.16069</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B258" t="n">
-        <v>237425400000</v>
+        <v>235653900000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2077706212341575</v>
+        <v>0.2279202279202279</v>
       </c>
       <c r="D258" t="n">
-        <v>49330022854.76834</v>
+        <v>53710290598.2906</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B259" t="n">
-        <v>235316800000</v>
+        <v>233550400000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2312673450508788</v>
       </c>
       <c r="D259" t="n">
-        <v>50147426744.80554</v>
+        <v>54012580943.57077</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B260" t="n">
-        <v>235152500000</v>
+        <v>235657500000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2198285337436799</v>
+        <v>0.2245677071637099</v>
       </c>
       <c r="D260" t="n">
-        <v>51693229281.16069</v>
+        <v>52921064450.93195</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B261" t="n">
-        <v>235653900000</v>
+        <v>237979700000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2279202279202279</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="D261" t="n">
-        <v>53710290598.2906</v>
+        <v>53478584269.66292</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B262" t="n">
-        <v>233550400000</v>
+        <v>241116000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2312673450508788</v>
+        <v>0.2249870632438635</v>
       </c>
       <c r="D262" t="n">
-        <v>54012580943.57077</v>
+        <v>54247980741.10738</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B263" t="n">
-        <v>235657500000</v>
+        <v>244277100000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.2245677071637099</v>
+        <v>0.222667557336896</v>
       </c>
       <c r="D263" t="n">
-        <v>52921064450.93195</v>
+        <v>54392585170.34068</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B264" t="n">
-        <v>237979700000</v>
+        <v>242554200000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.2247191011235955</v>
+        <v>0.2249718785151856</v>
       </c>
       <c r="D264" t="n">
-        <v>53478584269.66292</v>
+        <v>54567874015.74802</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B265" t="n">
-        <v>241116000000</v>
+        <v>242423800000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.2249870632438635</v>
+        <v>0.2282062984938384</v>
       </c>
       <c r="D265" t="n">
-        <v>54247980741.10738</v>
+        <v>55322638064.81059</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B266" t="n">
-        <v>244277100000</v>
+        <v>247432200000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.222667557336896</v>
+        <v>0.2229803554306866</v>
       </c>
       <c r="D266" t="n">
-        <v>54392585170.34068</v>
+        <v>55172519900.99673</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B267" t="n">
-        <v>242554200000</v>
+        <v>244833700000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.2249718785151856</v>
+        <v>0.2226576416102601</v>
       </c>
       <c r="D267" t="n">
-        <v>54567874015.74802</v>
+        <v>54514094228.71393</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B268" t="n">
-        <v>242423800000</v>
+        <v>243503700000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.2282062984938384</v>
+        <v>0.2209944751381215</v>
       </c>
       <c r="D268" t="n">
-        <v>55322638064.81059</v>
+        <v>53812972375.69061</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B269" t="n">
-        <v>247432200000</v>
+        <v>244259800000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.2229803554306866</v>
+        <v>0.21767522855899</v>
       </c>
       <c r="D269" t="n">
-        <v>55172519900.99673</v>
+        <v>53169307792.77318</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B270" t="n">
-        <v>244833700000</v>
+        <v>244662700000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2226576416102601</v>
+        <v>0.2200704225352113</v>
       </c>
       <c r="D270" t="n">
-        <v>54514094228.71393</v>
+        <v>53843023767.60564</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B271" t="n">
-        <v>243503700000</v>
+        <v>246161800000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2209944751381215</v>
+        <v>0.2227667631989307</v>
       </c>
       <c r="D271" t="n">
-        <v>53812972375.69061</v>
+        <v>54836667409.22254</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B272" t="n">
-        <v>244259800000</v>
+        <v>247645600000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.21767522855899</v>
+        <v>0.2215820961666297</v>
       </c>
       <c r="D272" t="n">
-        <v>53169307792.77318</v>
+        <v>54873831154.44273</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B273" t="n">
-        <v>244662700000</v>
+        <v>248832400000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.2200704225352113</v>
+        <v>0.2216312056737589</v>
       </c>
       <c r="D273" t="n">
-        <v>53843023767.60564</v>
+        <v>55149024822.69504</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B274" t="n">
-        <v>246161800000</v>
+        <v>252335300000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.2227667631989307</v>
+        <v>0.2236786185608518</v>
       </c>
       <c r="D274" t="n">
-        <v>54836667409.22254</v>
+        <v>56442011318.1381</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B275" t="n">
-        <v>247645600000</v>
+        <v>251575400000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2215820961666297</v>
+        <v>0.2243661655822302</v>
       </c>
       <c r="D275" t="n">
-        <v>54873831154.44273</v>
+        <v>56445007852.8158</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B276" t="n">
-        <v>248832400000</v>
+        <v>251598200000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2216312056737589</v>
+        <v>0.2296738631143776</v>
       </c>
       <c r="D276" t="n">
-        <v>55149024822.69504</v>
+        <v>57785530546.62379</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B277" t="n">
-        <v>252335300000</v>
+        <v>256059000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.2236786185608518</v>
+        <v>0.2314546927438954</v>
       </c>
       <c r="D277" t="n">
-        <v>56442011318.1381</v>
+        <v>59266057169.3091</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B278" t="n">
-        <v>251575400000</v>
+        <v>258336900000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.2243661655822302</v>
+        <v>0.2281282080529257</v>
       </c>
       <c r="D278" t="n">
-        <v>56445007852.8158</v>
+        <v>58933934070.94788</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B279" t="n">
-        <v>251598200000</v>
+        <v>258681900000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.2296738631143776</v>
+        <v>0.2289115256953188</v>
       </c>
       <c r="D279" t="n">
-        <v>57785530546.62379</v>
+        <v>59215268398.76388</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B280" t="n">
-        <v>256059000000</v>
+        <v>256407800000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2314546927438954</v>
+        <v>0.2294893861158921</v>
       </c>
       <c r="D280" t="n">
-        <v>59266057169.3091</v>
+        <v>58842868617.32645</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B281" t="n">
-        <v>258336900000</v>
+        <v>259594600000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2281282080529257</v>
+        <v>0.2289115256953188</v>
       </c>
       <c r="D281" t="n">
-        <v>58933934070.94788</v>
+        <v>59424195948.26599</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B282" t="n">
-        <v>258681900000</v>
+        <v>260406300000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2289115256953188</v>
+        <v>0.2268345242145854</v>
       </c>
       <c r="D282" t="n">
-        <v>59215268398.76388</v>
+        <v>59069139162.9806</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B283" t="n">
-        <v>256407800000</v>
+        <v>265362400000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.2294893861158921</v>
+        <v>0.2184598580010923</v>
       </c>
       <c r="D283" t="n">
-        <v>58842868617.32645</v>
+        <v>57971032222.82906</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B284" t="n">
-        <v>259594600000</v>
+        <v>267910800000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2289115256953188</v>
+        <v>0.2213368747233289</v>
       </c>
       <c r="D284" t="n">
-        <v>59424195948.26599</v>
+        <v>59298539176.62683</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B285" t="n">
-        <v>260406300000</v>
+        <v>267306900000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2268345242145854</v>
+        <v>0.2206433961431535</v>
       </c>
       <c r="D285" t="n">
-        <v>59069139162.9806</v>
+        <v>58979502228.49831</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B286" t="n">
-        <v>265362400000</v>
+        <v>265307900000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.2184598580010923</v>
+        <v>0.2176515398846447</v>
       </c>
       <c r="D286" t="n">
-        <v>57971032222.82906</v>
+        <v>57744672978.56133</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B287" t="n">
-        <v>267910800000</v>
+        <v>265180300000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2213368747233289</v>
+        <v>0.2153872663048161</v>
       </c>
       <c r="D287" t="n">
-        <v>59298539176.62683</v>
+        <v>57116459894.89101</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B288" t="n">
-        <v>267306900000</v>
+        <v>265374300000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2206433961431535</v>
+        <v>0.2146014850422765</v>
       </c>
       <c r="D288" t="n">
-        <v>58979502228.49831</v>
+        <v>56949718872.0546</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B289" t="n">
-        <v>265307900000</v>
+        <v>269664000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2176515398846447</v>
+        <v>0.2173676774263667</v>
       </c>
       <c r="D289" t="n">
-        <v>57744672978.56133</v>
+        <v>58616237365.50375</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B290" t="n">
-        <v>265180300000</v>
+        <v>269822900000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2153872663048161</v>
+        <v>0.2149613069647463</v>
       </c>
       <c r="D290" t="n">
-        <v>57116459894.89101</v>
+        <v>58001483233.01805</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B291" t="n">
-        <v>265374300000</v>
+        <v>267555100000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2146014850422765</v>
+        <v>0.2131060202450719</v>
       </c>
       <c r="D291" t="n">
-        <v>56949718872.0546</v>
+        <v>57017602557.27224</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B292" t="n">
-        <v>269664000000</v>
+        <v>268358200000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.2173676774263667</v>
+        <v>0.2147535702781058</v>
       </c>
       <c r="D292" t="n">
-        <v>58616237365.50375</v>
+        <v>57630881563.40598</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B293" t="n">
-        <v>269822900000</v>
+        <v>272180300000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.2149613069647463</v>
+        <v>0.2236185961224536</v>
       </c>
       <c r="D293" t="n">
-        <v>58001483233.01805</v>
+        <v>60864576578.18825</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B294" t="n">
-        <v>267555100000</v>
+        <v>271529200000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2216852512802323</v>
       </c>
       <c r="D294" t="n">
-        <v>57017602557.27224</v>
+        <v>60194018931.92046</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B295" t="n">
-        <v>268358200000</v>
+        <v>272924600000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.2147535702781058</v>
+        <v>0.2264954361169622</v>
       </c>
       <c r="D295" t="n">
-        <v>57630881563.40598</v>
+        <v>61816176304.04747</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B296" t="n">
-        <v>272180300000</v>
+        <v>276535800000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2236185961224536</v>
+        <v>0.2284722063560968</v>
       </c>
       <c r="D296" t="n">
-        <v>60864576578.18825</v>
+        <v>63180744362.4483</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B297" t="n">
-        <v>271529200000</v>
+        <v>278050100000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.2216852512802323</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="D297" t="n">
-        <v>60194018931.92046</v>
+        <v>63772958715.59633</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B298" t="n">
-        <v>272924600000</v>
+        <v>281820600000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.2264954361169622</v>
+        <v>0.2325040688212044</v>
       </c>
       <c r="D298" t="n">
-        <v>61816176304.04747</v>
+        <v>65524436177.6331</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B299" t="n">
-        <v>276535800000</v>
+        <v>284425800000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.2284722063560968</v>
+        <v>0.234246896228625</v>
       </c>
       <c r="D299" t="n">
-        <v>63180744362.4483</v>
+        <v>66625860857.34364</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B300" t="n">
-        <v>278050100000</v>
+        <v>282246800000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2293577981651376</v>
+        <v>0.2364066193853428</v>
       </c>
       <c r="D300" t="n">
-        <v>63772958715.59633</v>
+        <v>66725011820.33096</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B301" t="n">
-        <v>281820600000</v>
+        <v>288972600000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.2325040688212044</v>
+        <v>0.2374394529395004</v>
       </c>
       <c r="D301" t="n">
-        <v>65524436177.6331</v>
+        <v>68613496058.50509</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B302" t="n">
-        <v>284425800000</v>
+        <v>296334000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.234246896228625</v>
+        <v>0.235626767200754</v>
       </c>
       <c r="D302" t="n">
-        <v>66625860857.34364</v>
+        <v>69824222431.66824</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B303" t="n">
-        <v>282246800000</v>
+        <v>300961000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2364066193853428</v>
+        <v>0.2376425855513308</v>
       </c>
       <c r="D303" t="n">
-        <v>66725011820.33096</v>
+        <v>71521150190.11406</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B304" t="n">
-        <v>288972600000</v>
+        <v>303450500000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2374394529395004</v>
+        <v>0.2409058058299205</v>
       </c>
       <c r="D304" t="n">
-        <v>68613496058.50509</v>
+        <v>73102987231.99229</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B305" t="n">
-        <v>296334000000</v>
+        <v>310632900000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.235626767200754</v>
+        <v>0.2481697481077057</v>
       </c>
       <c r="D305" t="n">
-        <v>69824222431.66824</v>
+        <v>77089688546.96614</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B306" t="n">
-        <v>300961000000</v>
+        <v>313592000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.2376425855513308</v>
+        <v>0.246669955599408</v>
       </c>
       <c r="D306" t="n">
-        <v>71521150190.11406</v>
+        <v>77353724716.32954</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B307" t="n">
-        <v>303450500000</v>
+        <v>317231100000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.2409058058299205</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D307" t="n">
-        <v>73102987231.99229</v>
+        <v>74642611764.70589</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B308" t="n">
-        <v>310632900000</v>
+        <v>326471600000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2481697481077057</v>
+        <v>0.2321262766945218</v>
       </c>
       <c r="D308" t="n">
-        <v>77089688546.96614</v>
+        <v>75782636954.50325</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B309" t="n">
-        <v>313592000000</v>
+        <v>331851200000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.246669955599408</v>
+        <v>0.2430724355858046</v>
       </c>
       <c r="D309" t="n">
-        <v>77353724716.32954</v>
+        <v>80663879436.07195</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B310" t="n">
-        <v>317231100000</v>
+        <v>329756900000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.24919013207077</v>
       </c>
       <c r="D310" t="n">
-        <v>74642611764.70589</v>
+        <v>82172165462.2477</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B311" t="n">
-        <v>326471600000</v>
+        <v>332953100000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.2321262766945218</v>
+        <v>0.2529084471421346</v>
       </c>
       <c r="D311" t="n">
-        <v>75782636954.50325</v>
+        <v>84206651492.15984</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B312" t="n">
-        <v>331851200000</v>
+        <v>328750600000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2430724355858046</v>
+        <v>0.261437908496732</v>
       </c>
       <c r="D312" t="n">
-        <v>80663879436.07195</v>
+        <v>85947869281.04576</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B313" t="n">
-        <v>329756900000</v>
+        <v>330688400000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.24919013207077</v>
+        <v>0.2601456815816858</v>
       </c>
       <c r="D313" t="n">
-        <v>82172165462.2477</v>
+        <v>86027159209.15714</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B314" t="n">
-        <v>332953100000</v>
+        <v>333976700000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.2529084471421346</v>
+        <v>0.2770083102493075</v>
       </c>
       <c r="D314" t="n">
-        <v>84206651492.15984</v>
+        <v>92514321329.63989</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B315" t="n">
-        <v>328750600000</v>
+        <v>332090100000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.261437908496732</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="D315" t="n">
-        <v>85947869281.04576</v>
+        <v>91233543956.04395</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B316" t="n">
-        <v>330688400000</v>
+        <v>338119300000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.2601456815816858</v>
+        <v>0.2834467120181406</v>
       </c>
       <c r="D316" t="n">
-        <v>86027159209.15714</v>
+        <v>95838803854.87529</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B317" t="n">
-        <v>333976700000</v>
+        <v>343601000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.2770083102493075</v>
+        <v>0.2924831822170225</v>
       </c>
       <c r="D317" t="n">
-        <v>92514321329.63989</v>
+        <v>100497513892.9512</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B318" t="n">
-        <v>332090100000</v>
+        <v>344694800000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.3094059405940594</v>
       </c>
       <c r="D318" t="n">
-        <v>91233543956.04395</v>
+        <v>106650618811.8812</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B319" t="n">
-        <v>338119300000</v>
+        <v>344960700000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.2834467120181406</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="D319" t="n">
-        <v>95838803854.87529</v>
+        <v>102973343283.5821</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B320" t="n">
-        <v>343601000000</v>
+        <v>348894400000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2924831822170225</v>
+        <v>0.2868617326448651</v>
       </c>
       <c r="D320" t="n">
-        <v>100497513892.9512</v>
+        <v>100084452094.0906</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B321" t="n">
-        <v>344694800000</v>
+        <v>348499500000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.3094059405940594</v>
+        <v>0.2793296089385475</v>
       </c>
       <c r="D321" t="n">
-        <v>106650618811.8812</v>
+        <v>97346229050.27933</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B322" t="n">
-        <v>344960700000</v>
+        <v>355544700000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.2985074626865671</v>
+        <v>0.2896032435563278</v>
       </c>
       <c r="D322" t="n">
-        <v>102973343283.5821</v>
+        <v>102966898349.2615</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B323" t="n">
-        <v>348894400000</v>
+        <v>366841200000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2868617326448651</v>
+        <v>0.2680965147453083</v>
       </c>
       <c r="D323" t="n">
-        <v>100084452094.0906</v>
+        <v>98348847184.9866</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B324" t="n">
-        <v>348499500000</v>
+        <v>365782600000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2793296089385475</v>
+        <v>0.2544464517442304</v>
       </c>
       <c r="D324" t="n">
-        <v>97346229050.27933</v>
+        <v>93072084679.77914</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B325" t="n">
-        <v>355544700000</v>
+        <v>375249300000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2896032435563278</v>
+        <v>0.2649708532061473</v>
       </c>
       <c r="D325" t="n">
-        <v>102966898349.2615</v>
+        <v>99430127186.00954</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B326" t="n">
-        <v>366841200000</v>
+        <v>389044200000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.2680965147453083</v>
+        <v>0.2464875523786049</v>
       </c>
       <c r="D326" t="n">
-        <v>98348847184.9866</v>
+        <v>95894552625.09242</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B327" t="n">
-        <v>365782600000</v>
+        <v>393428300000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.2544464517442304</v>
+        <v>0.2407318247472316</v>
       </c>
       <c r="D327" t="n">
-        <v>93072084679.77914</v>
+        <v>94710712566.20125</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B328" t="n">
-        <v>375249300000</v>
+        <v>399951000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.2649708532061473</v>
+        <v>0.2373605506764776</v>
       </c>
       <c r="D328" t="n">
-        <v>99430127186.00954</v>
+        <v>94932589603.60788</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B329" t="n">
-        <v>389044200000</v>
+        <v>407642900000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.2464875523786049</v>
+        <v>0.2388801299507907</v>
       </c>
       <c r="D329" t="n">
-        <v>95894552625.09242</v>
+        <v>97377788925.51717</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B330" t="n">
-        <v>393428300000</v>
+        <v>407514900000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.2407318247472316</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="D330" t="n">
-        <v>94710712566.20125</v>
+        <v>103957882653.0612</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B331" t="n">
-        <v>399951000000</v>
+        <v>411136000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.2373605506764776</v>
+        <v>0.255303939339784</v>
       </c>
       <c r="D331" t="n">
-        <v>94932589603.60788</v>
+        <v>104964640404.4014</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B332" t="n">
-        <v>407642900000</v>
+        <v>413626300000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.2388801299507907</v>
+        <v>0.2657595407675136</v>
       </c>
       <c r="D332" t="n">
-        <v>97377788925.51717</v>
+        <v>109925135537.3658</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B333" t="n">
-        <v>407514900000</v>
+        <v>420072500000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.2636505048907169</v>
       </c>
       <c r="D333" t="n">
-        <v>103957882653.0612</v>
+        <v>110752326715.7057</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B334" t="n">
-        <v>411136000000</v>
+        <v>425299600000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.255303939339784</v>
+        <v>0.2656818725258376</v>
       </c>
       <c r="D334" t="n">
-        <v>104964640404.4014</v>
+        <v>112994394112.4897</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B335" t="n">
-        <v>413626300000</v>
+        <v>424657800000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.2657595407675136</v>
+        <v>0.2663896214603479</v>
       </c>
       <c r="D335" t="n">
-        <v>109925135537.3658</v>
+        <v>113124430592.1841</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B336" t="n">
-        <v>420072500000</v>
+        <v>424180500000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.2636505048907169</v>
+        <v>0.2642775971880864</v>
       </c>
       <c r="D336" t="n">
-        <v>110752326715.7057</v>
+        <v>112101403314.0411</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B337" t="n">
-        <v>425299600000</v>
+        <v>426196200000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.2656818725258376</v>
+        <v>0.2642077729926814</v>
       </c>
       <c r="D337" t="n">
-        <v>112994394112.4897</v>
+        <v>112604348859.9435</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B338" t="n">
-        <v>424657800000</v>
+        <v>428392900000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2663896214603479</v>
+        <v>0.268651102812777</v>
       </c>
       <c r="D338" t="n">
-        <v>113124430592.1841</v>
+        <v>115088225022.1637</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B339" t="n">
-        <v>424180500000</v>
+        <v>423594100000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.2642775971880864</v>
+        <v>0.2647884340412011</v>
       </c>
       <c r="D339" t="n">
-        <v>112101403314.0411</v>
+        <v>112162818408.0919</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B340" t="n">
-        <v>426196200000</v>
+        <v>420351000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.2642077729926814</v>
+        <v>0.270929287455974</v>
       </c>
       <c r="D340" t="n">
-        <v>112604348859.9435</v>
+        <v>113885396911.4061</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B341" t="n">
-        <v>428392900000</v>
+        <v>426096800000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.268651102812777</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="D341" t="n">
-        <v>115088225022.1637</v>
+        <v>114542150537.6344</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B342" t="n">
-        <v>423594100000</v>
+        <v>427779500000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.2647884340412011</v>
+        <v>0.2590673575129534</v>
       </c>
       <c r="D342" t="n">
-        <v>112162818408.0919</v>
+        <v>110823704663.2124</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B343" t="n">
-        <v>420351000000</v>
+        <v>427304600000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.270929287455974</v>
+        <v>0.2577585318074028</v>
       </c>
       <c r="D343" t="n">
-        <v>113885396911.4061</v>
+        <v>110141406330.5495</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B344" t="n">
-        <v>426096800000</v>
+        <v>428143000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.265653640783147</v>
       </c>
       <c r="D344" t="n">
-        <v>114542150537.6344</v>
+        <v>113737746725.8189</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B345" t="n">
-        <v>427779500000</v>
+        <v>422718500000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.2590673575129534</v>
+        <v>0.2628397203385375</v>
       </c>
       <c r="D345" t="n">
-        <v>110823704663.2124</v>
+        <v>111107212321.9261</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B346" t="n">
-        <v>427304600000</v>
+        <v>428997100000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.2577585318074028</v>
+        <v>0.2756035718222908</v>
       </c>
       <c r="D346" t="n">
-        <v>110141406330.5495</v>
+        <v>118233133061.4045</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B347" t="n">
-        <v>428143000000</v>
+        <v>428509000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.265653640783147</v>
+        <v>0.2751031636863824</v>
       </c>
       <c r="D347" t="n">
-        <v>113737746725.8189</v>
+        <v>117884181568.088</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B348" t="n">
-        <v>422718500000</v>
+        <v>432279500000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.2628397203385375</v>
+        <v>0.2721680910130096</v>
       </c>
       <c r="D348" t="n">
-        <v>111107212321.9261</v>
+        <v>117652686299.0583</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B349" t="n">
-        <v>428997100000</v>
+        <v>441510400000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2756035718222908</v>
+        <v>0.2824938557586373</v>
       </c>
       <c r="D349" t="n">
-        <v>118233133061.4045</v>
+        <v>124723975253.5383</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B350" t="n">
-        <v>428509000000</v>
+        <v>451988000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2751031636863824</v>
+        <v>0.2699856907583898</v>
       </c>
       <c r="D350" t="n">
-        <v>117884181568.088</v>
+        <v>122030292394.5031</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B351" t="n">
-        <v>432279500000</v>
+        <v>452665300000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.2721680910130096</v>
+        <v>0.2761286759629987</v>
       </c>
       <c r="D351" t="n">
-        <v>117652686299.0583</v>
+        <v>124993869943.3936</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B352" t="n">
-        <v>441510400000</v>
+        <v>451648100000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2824938557586373</v>
+        <v>0.2878691922390466</v>
       </c>
       <c r="D352" t="n">
-        <v>124723975253.5383</v>
+        <v>130015573723.3001</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B353" t="n">
-        <v>451988000000</v>
+        <v>453020900000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.2699856907583898</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D353" t="n">
-        <v>122030292394.5031</v>
+        <v>134827648809.5238</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B354" t="n">
-        <v>452665300000</v>
+        <v>463405400000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.2761286759629987</v>
+        <v>0.2925430769680836</v>
       </c>
       <c r="D354" t="n">
-        <v>124993869943.3936</v>
+        <v>135566041599.6255</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B355" t="n">
-        <v>451648100000</v>
+        <v>466954000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.2878691922390466</v>
+        <v>0.2945941964943291</v>
       </c>
       <c r="D355" t="n">
-        <v>130015573723.3001</v>
+        <v>137561938429.8129</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B356" t="n">
-        <v>453020900000</v>
+        <v>467679200000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.2926115581565472</v>
       </c>
       <c r="D356" t="n">
-        <v>134827648809.5238</v>
+        <v>136848339429.4075</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B357" t="n">
-        <v>463405400000</v>
+        <v>475676200000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2925430769680836</v>
+        <v>0.2809935933460717</v>
       </c>
       <c r="D357" t="n">
-        <v>135566041599.6255</v>
+        <v>133661964707.2047</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B358" t="n">
-        <v>466954000000</v>
+        <v>486082000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.2945941964943291</v>
+        <v>0.2692514808831449</v>
       </c>
       <c r="D358" t="n">
-        <v>137561938429.8129</v>
+        <v>130878298330.6408</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B359" t="n">
-        <v>467679200000</v>
+        <v>488335100000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.2926115581565472</v>
+        <v>0.2767629801837706</v>
       </c>
       <c r="D359" t="n">
-        <v>136848339429.4075</v>
+        <v>135153077604.3396</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B360" t="n">
-        <v>475676200000</v>
+        <v>482394300000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.2809935933460717</v>
+        <v>0.2661698163428267</v>
       </c>
       <c r="D360" t="n">
-        <v>133661964707.2047</v>
+        <v>128398802235.8264</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B361" t="n">
-        <v>486082000000</v>
+        <v>487757500000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2692514808831449</v>
+        <v>0.262501640635254</v>
       </c>
       <c r="D361" t="n">
-        <v>130878298330.6408</v>
+        <v>128037143982.1499</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B362" t="n">
-        <v>488335100000</v>
+        <v>499917100000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2767629801837706</v>
+        <v>0.2677232812165346</v>
       </c>
       <c r="D362" t="n">
-        <v>135153077604.3396</v>
+        <v>133839446348.2545</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B363" t="n">
-        <v>482394300000</v>
+        <v>492686800000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2661698163428267</v>
+        <v>0.2647603918453799</v>
       </c>
       <c r="D363" t="n">
-        <v>128398802235.8264</v>
+        <v>130443950225.0463</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B364" t="n">
-        <v>487757500000</v>
+        <v>492045800000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.262501640635254</v>
+        <v>0.2702337521956493</v>
       </c>
       <c r="D364" t="n">
-        <v>128037143982.1499</v>
+        <v>132967382786.11</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B365" t="n">
-        <v>499917100000</v>
+        <v>500886500000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.2677232812165346</v>
+        <v>0.2659786685107854</v>
       </c>
       <c r="D365" t="n">
-        <v>133839446348.2545</v>
+        <v>133225124345.0275</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B366" t="n">
-        <v>492686800000</v>
+        <v>495523000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.2647603918453799</v>
+        <v>0.2563773875144212</v>
       </c>
       <c r="D366" t="n">
-        <v>130443950225.0463</v>
+        <v>127040892193.3086</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B367" t="n">
-        <v>492045800000</v>
+        <v>503946600000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.2702337521956493</v>
+        <v>0.2560491614389963</v>
       </c>
       <c r="D367" t="n">
-        <v>132967382786.11</v>
+        <v>129035104340.0333</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B368" t="n">
-        <v>500886500000</v>
+        <v>511333300000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.2659786685107854</v>
+        <v>0.2513383768567622</v>
       </c>
       <c r="D368" t="n">
-        <v>133225124345.0275</v>
+        <v>128517681654.8119</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B369" t="n">
-        <v>495523000000</v>
+        <v>514689500000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.2563773875144212</v>
+        <v>0.2494076568150642</v>
       </c>
       <c r="D369" t="n">
-        <v>127040892193.3086</v>
+        <v>128367502182.317</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B370" t="n">
-        <v>503946600000</v>
+        <v>520998200000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.2560491614389963</v>
+        <v>0.25552574421873</v>
       </c>
       <c r="D370" t="n">
-        <v>129035104340.0333</v>
+        <v>133128452791.6188</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B371" t="n">
-        <v>511333300000</v>
+        <v>518500600000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.2513383768567622</v>
+        <v>0.2576323586242432</v>
       </c>
       <c r="D371" t="n">
-        <v>128517681654.8119</v>
+        <v>133582532526.0853</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B372" t="n">
-        <v>514689500000</v>
+        <v>522499500000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.2494076568150642</v>
+        <v>0.2624052061192894</v>
       </c>
       <c r="D372" t="n">
-        <v>128367502182.317</v>
+        <v>137106588994.7257</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B373" t="n">
-        <v>520998200000</v>
+        <v>527619300000.0001</v>
       </c>
       <c r="C373" t="n">
-        <v>0.25552574421873</v>
+        <v>0.2681540276734957</v>
       </c>
       <c r="D373" t="n">
-        <v>133128452791.6188</v>
+        <v>141483240373.2704</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B374" t="n">
-        <v>518500600000</v>
+        <v>530065699999.9999</v>
       </c>
       <c r="C374" t="n">
-        <v>0.2576323586242432</v>
+        <v>0.269774468544297</v>
       </c>
       <c r="D374" t="n">
-        <v>133582532526.0853</v>
+        <v>142998192511.0607</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B375" t="n">
-        <v>522499500000</v>
+        <v>526010900000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.2624052061192894</v>
+        <v>0.269432843863667</v>
       </c>
       <c r="D375" t="n">
-        <v>137106588994.7257</v>
+        <v>141724612690.287</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B376" t="n">
-        <v>527619300000.0001</v>
+        <v>530669400000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.2681540276734957</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="D376" t="n">
-        <v>141483240373.2704</v>
+        <v>145788296703.2967</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B377" t="n">
-        <v>530065699999.9999</v>
+        <v>534103300000.0001</v>
       </c>
       <c r="C377" t="n">
-        <v>0.269774468544297</v>
+        <v>0.279290601871247</v>
       </c>
       <c r="D377" t="n">
-        <v>142998192511.0607</v>
+        <v>149170032118.4193</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B378" t="n">
-        <v>526010900000</v>
+        <v>536555400000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.269432843863667</v>
+        <v>0.2714293469409912</v>
       </c>
       <c r="D378" t="n">
-        <v>141724612690.287</v>
+        <v>145636881819.6623</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B379" t="n">
-        <v>530669400000</v>
+        <v>532349000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2759229623089233</v>
       </c>
       <c r="D379" t="n">
-        <v>145788296703.2967</v>
+        <v>146887313062.193</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B380" t="n">
-        <v>534103300000.0001</v>
+        <v>536553500000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.279290601871247</v>
+        <v>0.2808121086181236</v>
       </c>
       <c r="D380" t="n">
-        <v>149170032118.4193</v>
+        <v>150670719721.4344</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B381" t="n">
-        <v>536555400000</v>
+        <v>542158300000.0001</v>
       </c>
       <c r="C381" t="n">
-        <v>0.2714293469409912</v>
+        <v>0.2753303964757709</v>
       </c>
       <c r="D381" t="n">
-        <v>145636881819.6623</v>
+        <v>149272659691.63</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B382" t="n">
-        <v>532349000000</v>
+        <v>547957300000.0001</v>
       </c>
       <c r="C382" t="n">
-        <v>0.2759229623089233</v>
+        <v>0.2838489923360772</v>
       </c>
       <c r="D382" t="n">
-        <v>146887313062.193</v>
+        <v>155537127448.1976</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B383" t="n">
-        <v>536553500000</v>
+        <v>547775100000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.2808121086181236</v>
+        <v>0.2838651073010106</v>
       </c>
       <c r="D383" t="n">
-        <v>150670719721.4344</v>
+        <v>155494237538.3218</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B384" t="n">
-        <v>542158300000.0001</v>
+        <v>553402900000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.2753303964757709</v>
+        <v>0.2845354958031014</v>
       </c>
       <c r="D384" t="n">
-        <v>149272659691.63</v>
+        <v>157462768530.3742</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B385" t="n">
-        <v>547957300000.0001</v>
+        <v>562252500000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.2838489923360772</v>
+        <v>0.2884670859054982</v>
       </c>
       <c r="D385" t="n">
-        <v>155537127448.1976</v>
+        <v>162191340218.0811</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B386" t="n">
-        <v>547775100000</v>
+        <v>564578400000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.2838651073010106</v>
+        <v>0.2858122784954841</v>
       </c>
       <c r="D386" t="n">
-        <v>155494237538.3218</v>
+        <v>161363438893.3348</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B387" t="n">
-        <v>553402900000</v>
+        <v>563984600000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.2845354958031014</v>
+        <v>0.2870264064293915</v>
       </c>
       <c r="D387" t="n">
-        <v>157462768530.3742</v>
+        <v>161878473019.5178</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B388" t="n">
-        <v>562252500000</v>
+        <v>569376400000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.2884670859054982</v>
+        <v>0.287463707706902</v>
       </c>
       <c r="D388" t="n">
-        <v>162191340218.0811</v>
+        <v>163675051024.8081</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B389" t="n">
-        <v>564578400000</v>
+        <v>577837000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2858122784954841</v>
+        <v>0.2891259721860815</v>
       </c>
       <c r="D389" t="n">
-        <v>161363438893.3348</v>
+        <v>167067684390.0888</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B390" t="n">
-        <v>563984600000</v>
+        <v>575260100000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.2870264064293915</v>
+        <v>0.288334006112681</v>
       </c>
       <c r="D390" t="n">
-        <v>161878473019.5178</v>
+        <v>165867049189.7815</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B391" t="n">
-        <v>569376400000</v>
+        <v>576437600000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.287463707706902</v>
+        <v>0.2916897587725695</v>
       </c>
       <c r="D391" t="n">
-        <v>163675051024.8081</v>
+        <v>168140944491.4389</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B392" t="n">
-        <v>577837000000</v>
+        <v>580493600000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.2891259721860815</v>
+        <v>0.2919708029197081</v>
       </c>
       <c r="D392" t="n">
-        <v>167067684390.0888</v>
+        <v>169487182481.7518</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B393" t="n">
-        <v>575260100000</v>
+        <v>584491000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.288334006112681</v>
+        <v>0.2802297884265098</v>
       </c>
       <c r="D393" t="n">
-        <v>165867049189.7815</v>
+        <v>163791789267.1991</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B394" t="n">
-        <v>576437600000</v>
+        <v>591059200000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.2916897587725695</v>
+        <v>0.2727917507774565</v>
       </c>
       <c r="D394" t="n">
-        <v>168140944491.4389</v>
+        <v>161236073981.1228</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B395" t="n">
-        <v>580493600000</v>
+        <v>594225800000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2919708029197081</v>
+        <v>0.263005628320446</v>
       </c>
       <c r="D395" t="n">
-        <v>169487182481.7518</v>
+        <v>156284729893.2197</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B396" t="n">
-        <v>584491000000</v>
+        <v>599648600000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.2802297884265098</v>
+        <v>0.2569769234722722</v>
       </c>
       <c r="D396" t="n">
-        <v>163791789267.1991</v>
+        <v>154095852392.4552</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B397" t="n">
-        <v>591059200000</v>
+        <v>609642700000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.2727917507774565</v>
+        <v>0.2569307057886488</v>
       </c>
       <c r="D397" t="n">
-        <v>161236073981.1228</v>
+        <v>156635929189.8975</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B398" t="n">
-        <v>594225800000</v>
+        <v>619369400000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.263005628320446</v>
+        <v>0.2545565624681804</v>
       </c>
       <c r="D398" t="n">
-        <v>156284729893.2197</v>
+        <v>157664545361.9794</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B399" t="n">
-        <v>599648600000</v>
+        <v>627591700000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.2569769234722722</v>
+        <v>0.2514711059699241</v>
       </c>
       <c r="D399" t="n">
-        <v>154095852392.4552</v>
+        <v>157821178896.5448</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B400" t="n">
-        <v>609642700000</v>
+        <v>639063300000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.2569307057886488</v>
+        <v>0.2514774299006664</v>
       </c>
       <c r="D400" t="n">
-        <v>156635929189.8975</v>
+        <v>160709996227.8385</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B401" t="n">
-        <v>619369400000</v>
+        <v>647371500000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.2545565624681804</v>
+        <v>0.2594235608477962</v>
       </c>
       <c r="D401" t="n">
-        <v>157664545361.9794</v>
+        <v>167943419721.3791</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B402" t="n">
-        <v>627591700000</v>
+        <v>651276400000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.2514711059699241</v>
+        <v>0.2596862989508674</v>
       </c>
       <c r="D402" t="n">
-        <v>157821178896.5448</v>
+        <v>169127557910.0447</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B403" t="n">
-        <v>639063300000</v>
+        <v>658167100000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.2514774299006664</v>
+        <v>0.2652871733651678</v>
       </c>
       <c r="D403" t="n">
-        <v>160709996227.8385</v>
+        <v>174603289560.9497</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B404" t="n">
-        <v>647371500000</v>
+        <v>660074100000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.2594235608477962</v>
+        <v>0.2658867322520606</v>
       </c>
       <c r="D404" t="n">
-        <v>167943419721.3791</v>
+        <v>175504945493.2199</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B405" t="n">
-        <v>651276400000</v>
+        <v>663528800000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.2596862989508674</v>
+        <v>0.2550630005611386</v>
       </c>
       <c r="D405" t="n">
-        <v>169127557910.0447</v>
+        <v>169241646686.7316</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B406" t="n">
-        <v>658167100000</v>
+        <v>680513800000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.2652871733651678</v>
+        <v>0.2550044625780951</v>
       </c>
       <c r="D406" t="n">
-        <v>174603289560.9497</v>
+        <v>173534055845.9773</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B407" t="n">
-        <v>660074100000</v>
+        <v>681415100000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.2658867322520606</v>
+        <v>0.259000259000259</v>
       </c>
       <c r="D407" t="n">
-        <v>175504945493.2199</v>
+        <v>176486687386.6874</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B408" t="n">
-        <v>663528800000</v>
+        <v>686142200000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.2550630005611386</v>
+        <v>0.2584112874050338</v>
       </c>
       <c r="D408" t="n">
-        <v>169241646686.7316</v>
+        <v>177306889244.9222</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B409" t="n">
-        <v>680513800000</v>
+        <v>692268100000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.2550044625780951</v>
+        <v>0.2571288987169268</v>
       </c>
       <c r="D409" t="n">
-        <v>173534055845.9773</v>
+        <v>178002134169.8593</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B410" t="n">
-        <v>681415100000</v>
+        <v>696747800000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.259000259000259</v>
+        <v>0.2528572873470213</v>
       </c>
       <c r="D410" t="n">
-        <v>176486687386.6874</v>
+        <v>176177758673.0049</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B411" t="n">
-        <v>686142200000</v>
+        <v>702928000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.2584112874050338</v>
+        <v>0.2562459961563101</v>
       </c>
       <c r="D411" t="n">
-        <v>177306889244.9222</v>
+        <v>180122485586.1627</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B412" t="n">
-        <v>692268100000</v>
+        <v>704187600000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.2571288987169268</v>
+        <v>0.2662052442433116</v>
       </c>
       <c r="D412" t="n">
-        <v>178002134169.8593</v>
+        <v>187458432051.1114</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B413" t="n">
-        <v>696747800000</v>
+        <v>713745100000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.2528572873470213</v>
+        <v>0.2672296304214211</v>
       </c>
       <c r="D413" t="n">
-        <v>176177758673.0049</v>
+        <v>190733839288.1003</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B414" t="n">
-        <v>702928000000</v>
+        <v>718977500000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.2562459961563101</v>
+        <v>0.2599563273370074</v>
       </c>
       <c r="D414" t="n">
-        <v>180122485586.1627</v>
+        <v>186902750337.9432</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B415" t="n">
-        <v>704187600000</v>
+        <v>734277300000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.2662052442433116</v>
+        <v>0.2593024763386491</v>
       </c>
       <c r="D415" t="n">
-        <v>187458432051.1114</v>
+        <v>190399922209.2571</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B416" t="n">
-        <v>713745100000</v>
+        <v>738121300000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.2672296304214211</v>
+        <v>0.2624809701296656</v>
       </c>
       <c r="D416" t="n">
-        <v>190733839288.1003</v>
+        <v>193742794897.3699</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B417" t="n">
-        <v>718977500000</v>
+        <v>740007400000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.2599563273370074</v>
+        <v>0.2650129856362962</v>
       </c>
       <c r="D417" t="n">
-        <v>186902750337.9432</v>
+        <v>196111570466.9529</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B418" t="n">
-        <v>734277300000</v>
+        <v>742339100000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.2593024763386491</v>
+        <v>0.2668944165688054</v>
       </c>
       <c r="D418" t="n">
-        <v>190399922209.2571</v>
+        <v>198126160990.7121</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B419" t="n">
-        <v>738121300000</v>
+        <v>742436600000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.2624809701296656</v>
+        <v>0.2610284521012791</v>
       </c>
       <c r="D419" t="n">
-        <v>193742794897.3699</v>
+        <v>193797076481.3365</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B420" t="n">
-        <v>740007400000</v>
+        <v>740616900000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2650129856362962</v>
+        <v>0.261110240743642</v>
       </c>
       <c r="D420" t="n">
-        <v>196111570466.9529</v>
+        <v>193382657057.8098</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B421" t="n">
-        <v>742339100000</v>
+        <v>747274700000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.2668944165688054</v>
+        <v>0.2605455824496496</v>
       </c>
       <c r="D421" t="n">
-        <v>198126160990.7121</v>
+        <v>194699121961.3872</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B422" t="n">
-        <v>742436600000</v>
+        <v>761155500000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.2610284521012791</v>
+        <v>0.2658231212950903</v>
       </c>
       <c r="D422" t="n">
-        <v>193797076481.3365</v>
+        <v>202332730800.9251</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B423" t="n">
-        <v>740616900000</v>
+        <v>767259500000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.261110240743642</v>
+        <v>0.274649821477616</v>
       </c>
       <c r="D423" t="n">
-        <v>193382657057.8098</v>
+        <v>210727684702.0049</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B424" t="n">
-        <v>747274700000</v>
+        <v>769309300000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.2605455824496496</v>
+        <v>0.2758392408904091</v>
       </c>
       <c r="D424" t="n">
-        <v>194699121961.3872</v>
+        <v>212205693321.932</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B425" t="n">
-        <v>761155500000</v>
+        <v>778131000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.2658231212950903</v>
+        <v>0.2769162605228179</v>
       </c>
       <c r="D425" t="n">
-        <v>202332730800.9251</v>
+        <v>215477126716.8808</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B426" t="n">
-        <v>767259500000</v>
+        <v>773540400000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.274649821477616</v>
+        <v>0.2829574714920348</v>
       </c>
       <c r="D426" t="n">
-        <v>210727684702.0049</v>
+        <v>218879035680.9372</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B427" t="n">
-        <v>769309300000</v>
+        <v>789848000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.2758392408904091</v>
+        <v>0.2871500358937545</v>
       </c>
       <c r="D427" t="n">
-        <v>212205693321.932</v>
+        <v>226804881550.6102</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B428" t="n">
-        <v>778131000000</v>
+        <v>798794500000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.2769162605228179</v>
+        <v>0.2814443725197714</v>
       </c>
       <c r="D428" t="n">
-        <v>215477126716.8808</v>
+        <v>224816216824.7446</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B429" t="n">
-        <v>773540400000</v>
+        <v>797691600000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.2829574714920348</v>
+        <v>0.2802297884265098</v>
       </c>
       <c r="D429" t="n">
-        <v>218879035680.9372</v>
+        <v>223536948297.604</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B430" t="n">
-        <v>789848000000</v>
+        <v>808309200000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.2871500358937545</v>
+        <v>0.2832540222071153</v>
       </c>
       <c r="D430" t="n">
-        <v>226804881550.6102</v>
+        <v>228956832087.0156</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B431" t="n">
-        <v>798794500000</v>
+        <v>798852700000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.2814443725197714</v>
+        <v>0.2845193046348195</v>
       </c>
       <c r="D431" t="n">
-        <v>224816216824.7446</v>
+        <v>227289014709.6481</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B432" t="n">
-        <v>797691600000</v>
+        <v>798915300000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.2802297884265098</v>
+        <v>0.2864180557942372</v>
       </c>
       <c r="D432" t="n">
-        <v>223536948297.604</v>
+        <v>228823766970.2698</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B433" t="n">
-        <v>808309200000</v>
+        <v>809904800000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.2832540222071153</v>
+        <v>0.2877532228360958</v>
       </c>
       <c r="D433" t="n">
-        <v>228956832087.0156</v>
+        <v>233052716390.4236</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B434" t="n">
-        <v>798852700000</v>
+        <v>819159600000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.2845193046348195</v>
+        <v>0.2927571871889455</v>
       </c>
       <c r="D434" t="n">
-        <v>227289014709.6481</v>
+        <v>239814860354.8217</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B435" t="n">
-        <v>798915300000</v>
+        <v>810881400000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.2864180557942372</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="D435" t="n">
-        <v>228823766970.2698</v>
+        <v>233515161987.041</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B436" t="n">
-        <v>809904800000</v>
+        <v>814795000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.2877532228360958</v>
+        <v>0.2867465733784481</v>
       </c>
       <c r="D436" t="n">
-        <v>233052716390.4236</v>
+        <v>233639674255.8926</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B437" t="n">
-        <v>819159600000</v>
+        <v>819928800000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.2927571871889455</v>
+        <v>0.2782647410746584</v>
       </c>
       <c r="D437" t="n">
-        <v>239814860354.8217</v>
+        <v>228157275231.6554</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B438" t="n">
-        <v>810881400000</v>
+        <v>822588500000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.2879769618430525</v>
+        <v>0.28109627547435</v>
       </c>
       <c r="D438" t="n">
-        <v>233515161987.041</v>
+        <v>231226563598.0323</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B439" t="n">
-        <v>814795000000</v>
+        <v>827771700000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.2867465733784481</v>
+        <v>0.2737925747453729</v>
       </c>
       <c r="D439" t="n">
-        <v>233639674255.8926</v>
+        <v>226637745044.3544</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B440" t="n">
-        <v>819928800000</v>
+        <v>831331100000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.2782647410746584</v>
+        <v>0.2729034194798461</v>
       </c>
       <c r="D440" t="n">
-        <v>228157275231.6554</v>
+        <v>226873099909.9419</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B441" t="n">
-        <v>822588500000</v>
+        <v>829881400000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.28109627547435</v>
+        <v>0.2776158352072402</v>
       </c>
       <c r="D441" t="n">
-        <v>231226563598.0323</v>
+        <v>230388217983.9538</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B442" t="n">
-        <v>827771700000</v>
+        <v>830645300000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.2737925747453729</v>
+        <v>0.2752849198920883</v>
       </c>
       <c r="D442" t="n">
-        <v>226637745044.3544</v>
+        <v>228664124869.2397</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B443" t="n">
-        <v>831331100000</v>
+        <v>823486200000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.2729034194798461</v>
+        <v>0.2690196922414721</v>
       </c>
       <c r="D443" t="n">
-        <v>226873099909.9419</v>
+        <v>221534004089.0993</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B444" t="n">
-        <v>829881400000</v>
+        <v>827009200000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.2776158352072402</v>
+        <v>0.2692007429940507</v>
       </c>
       <c r="D444" t="n">
-        <v>230388217983.9538</v>
+        <v>222631491102.9154</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B445" t="n">
-        <v>830645300000</v>
+        <v>826435700000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.2752849198920883</v>
+        <v>0.2678810608090008</v>
       </c>
       <c r="D445" t="n">
-        <v>228664124869.2397</v>
+        <v>221386472006.4292</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B446" t="n">
-        <v>823486200000</v>
+        <v>843241500000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.2690196922414721</v>
+        <v>0.275671950379049</v>
       </c>
       <c r="D446" t="n">
-        <v>221534004089.0993</v>
+        <v>232458028945.5548</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B447" t="n">
-        <v>827009200000</v>
+        <v>847555800000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.2692007429940507</v>
+        <v>0.2762812543168946</v>
       </c>
       <c r="D447" t="n">
-        <v>222631491102.9154</v>
+        <v>234163779527.5591</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B448" t="n">
-        <v>826435700000</v>
+        <v>850468400000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.2678810608090008</v>
+        <v>0.2754896829113749</v>
       </c>
       <c r="D448" t="n">
-        <v>221386472006.4292</v>
+        <v>234295269842.1444</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B449" t="n">
-        <v>843241500000</v>
+        <v>858786600000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.275671950379049</v>
+        <v>0.2780326410320572</v>
       </c>
       <c r="D449" t="n">
-        <v>232458028945.5548</v>
+        <v>238770706480.9409</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B450" t="n">
-        <v>847555800000</v>
+        <v>857292600000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.2762812543168946</v>
+        <v>0.2760829353137683</v>
       </c>
       <c r="D450" t="n">
-        <v>234163779527.5591</v>
+        <v>236683857430.7722</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B451" t="n">
-        <v>850468400000</v>
+        <v>862395800000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.2754896829113749</v>
+        <v>0.28055999775552</v>
       </c>
       <c r="D451" t="n">
-        <v>234295269842.1444</v>
+        <v>241953763712.3699</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B452" t="n">
-        <v>858786600000</v>
+        <v>862518000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.2780326410320572</v>
+        <v>0.2852822868228111</v>
       </c>
       <c r="D452" t="n">
-        <v>238770706480.9409</v>
+        <v>246061107465.8374</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B453" t="n">
-        <v>857292600000</v>
+        <v>859848500000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.2760829353137683</v>
+        <v>0.2835672763363108</v>
       </c>
       <c r="D453" t="n">
-        <v>236683857430.7722</v>
+        <v>243824897206.8623</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B454" t="n">
-        <v>862395800000</v>
+        <v>866261200000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.28055999775552</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="D454" t="n">
-        <v>241953763712.3699</v>
+        <v>249463268538.5169</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B455" t="n">
-        <v>862518000000</v>
+        <v>867102200000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.2852822868228111</v>
+        <v>0.2841231958177066</v>
       </c>
       <c r="D455" t="n">
-        <v>246061107465.8374</v>
+        <v>246363848164.5641</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B456" t="n">
-        <v>859848500000</v>
+        <v>868743800000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.2835672763363108</v>
+        <v>0.2881014116969173</v>
       </c>
       <c r="D456" t="n">
-        <v>243824897206.8623</v>
+        <v>250286315182.9444</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B457" t="n">
-        <v>866261200000</v>
+        <v>878149200000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.2879769618430525</v>
+        <v>0.289863474303603</v>
       </c>
       <c r="D457" t="n">
-        <v>249463268538.5169</v>
+        <v>254543378068.9295</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B458" t="n">
-        <v>867102200000</v>
+        <v>887268200000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.2841231958177066</v>
+        <v>0.290098923732993</v>
       </c>
       <c r="D458" t="n">
-        <v>246363848164.5641</v>
+        <v>257395549882.5099</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B459" t="n">
-        <v>868743800000</v>
+        <v>898172000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.2881014116969173</v>
+        <v>0.2887753039360074</v>
       </c>
       <c r="D459" t="n">
-        <v>250286315182.9444</v>
+        <v>259369892286.8116</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B460" t="n">
-        <v>878149200000</v>
+        <v>939849200000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.289863474303603</v>
+        <v>0.2824140755175238</v>
       </c>
       <c r="D460" t="n">
-        <v>254543378068.9295</v>
+        <v>265426642943.8843</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B461" t="n">
-        <v>887268200000</v>
+        <v>991256800000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.290098923732993</v>
+        <v>0.2871500358937545</v>
       </c>
       <c r="D461" t="n">
-        <v>257395549882.5099</v>
+        <v>284639425699.9282</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B462" t="n">
-        <v>898172000000</v>
+        <v>1005498800000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.2887753039360074</v>
+        <v>0.2851358672407402</v>
       </c>
       <c r="D462" t="n">
-        <v>259369892286.8116</v>
+        <v>286703772347.5236</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B463" t="n">
-        <v>939849200000</v>
+        <v>1019175100000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.2824140755175238</v>
+        <v>0.2889254861171304</v>
       </c>
       <c r="D463" t="n">
-        <v>265426642943.8843</v>
+        <v>294465661205.975</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B464" t="n">
-        <v>991256800000</v>
+        <v>1029648400000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.2871500358937545</v>
+        <v>0.2938151902453356</v>
       </c>
       <c r="D464" t="n">
-        <v>284639425699.9282</v>
+        <v>302526340531.8055</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B465" t="n">
-        <v>1005498800000</v>
+        <v>1045486200000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.2851358672407402</v>
+        <v>0.2980714775403142</v>
       </c>
       <c r="D465" t="n">
-        <v>286703772347.5236</v>
+        <v>311629616382.0084</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B466" t="n">
-        <v>1019175100000</v>
+        <v>1058798600000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.2889254861171304</v>
+        <v>0.2916302128900554</v>
       </c>
       <c r="D466" t="n">
-        <v>294465661205.975</v>
+        <v>308777661125.6926</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B467" t="n">
-        <v>1029648400000</v>
+        <v>1069591500000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.2938151902453356</v>
+        <v>0.293728888236158</v>
       </c>
       <c r="D467" t="n">
-        <v>302526340531.8055</v>
+        <v>314169922161.8446</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B468" t="n">
-        <v>1045486200000</v>
+        <v>1085379100000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.2980714775403142</v>
+        <v>0.3025901718712176</v>
       </c>
       <c r="D468" t="n">
-        <v>311629616382.0084</v>
+        <v>328425048414.4275</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B469" t="n">
-        <v>1058798600000</v>
+        <v>1106226900000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.2916302128900554</v>
+        <v>0.3114391603600237</v>
       </c>
       <c r="D469" t="n">
-        <v>308777661125.6926</v>
+        <v>344522376903.6719</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B470" t="n">
-        <v>1069591500000</v>
+        <v>1131956800000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.293728888236158</v>
+        <v>0.3050640634533252</v>
       </c>
       <c r="D470" t="n">
-        <v>314169922161.8446</v>
+        <v>345319341061.6229</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B471" t="n">
-        <v>1085379100000</v>
+        <v>1143578000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.3025901718712176</v>
+        <v>0.3022243713733075</v>
       </c>
       <c r="D471" t="n">
-        <v>328425048414.4275</v>
+        <v>345617142166.3443</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B472" t="n">
-        <v>1106226900000</v>
+        <v>1164245000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.3114391603600237</v>
+        <v>0.2994460248540201</v>
       </c>
       <c r="D472" t="n">
-        <v>344522376903.6719</v>
+        <v>348628537206.1686</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B473" t="n">
-        <v>1131956800000</v>
+        <v>1175803700000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.3050640634533252</v>
+        <v>0.3081759068076058</v>
       </c>
       <c r="D473" t="n">
-        <v>345319341061.6229</v>
+        <v>362354371475.2381</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B474" t="n">
-        <v>1143578000000</v>
+        <v>1183982300000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.3022243713733075</v>
+        <v>0.3081759068076058</v>
       </c>
       <c r="D474" t="n">
-        <v>345617142166.3443</v>
+        <v>364874818946.6548</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B475" t="n">
-        <v>1164245000000</v>
+        <v>1200106600000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.2994460248540201</v>
+        <v>0.3069556142181841</v>
       </c>
       <c r="D475" t="n">
-        <v>348628537206.1686</v>
+        <v>368379458530.2966</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B476" t="n">
-        <v>1175803700000</v>
+        <v>1225628400000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.3081759068076058</v>
+        <v>0.310096750186058</v>
       </c>
       <c r="D476" t="n">
-        <v>362354371475.2381</v>
+        <v>380063383775.738</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B477" t="n">
-        <v>1183982300000</v>
+        <v>1239960200000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.3081759068076058</v>
+        <v>0.312275551947038</v>
       </c>
       <c r="D477" t="n">
-        <v>364874818946.6548</v>
+        <v>387209255847.3597</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B478" t="n">
-        <v>1200106600000</v>
+        <v>1257625900000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.3069556142181841</v>
+        <v>0.3103565997330933</v>
       </c>
       <c r="D478" t="n">
-        <v>368379458530.2966</v>
+        <v>390312498060.2712</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B479" t="n">
-        <v>1225628400000</v>
+        <v>1258657100000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.310096750186058</v>
+        <v>0.3167463811725951</v>
       </c>
       <c r="D479" t="n">
-        <v>380063383775.738</v>
+        <v>398675081562.1932</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B480" t="n">
-        <v>1239960200000</v>
+        <v>1267713100000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.312275551947038</v>
+        <v>0.3173494970010473</v>
       </c>
       <c r="D480" t="n">
-        <v>387209255847.3597</v>
+        <v>402308114626.6383</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B481" t="n">
-        <v>1257625900000</v>
+        <v>1299480800000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.3103565997330933</v>
+        <v>0.3228305785123967</v>
       </c>
       <c r="D481" t="n">
-        <v>390312498060.2712</v>
+        <v>419512138429.7521</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B482" t="n">
-        <v>1258657100000</v>
+        <v>1321141500000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.3167463811725951</v>
+        <v>0.3171180313312615</v>
       </c>
       <c r="D482" t="n">
-        <v>398675081562.1932</v>
+        <v>418957791590.0298</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B483" t="n">
-        <v>1267713100000</v>
+        <v>1326756000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.3173494970010473</v>
+        <v>0.3120319520718922</v>
       </c>
       <c r="D483" t="n">
-        <v>402308114626.6383</v>
+        <v>413990264603.0953</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B484" t="n">
-        <v>1299480800000</v>
+        <v>1333664400000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.3228305785123967</v>
+        <v>0.3134992789516584</v>
       </c>
       <c r="D484" t="n">
-        <v>419512138429.7521</v>
+        <v>418102827763.4962</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B485" t="n">
-        <v>1321141500000</v>
+        <v>1356168100000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.3171180313312615</v>
+        <v>0.2992936669460074</v>
       </c>
       <c r="D485" t="n">
-        <v>418957791590.0298</v>
+        <v>405892523644.1996</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B486" t="n">
-        <v>1326756000000</v>
+        <v>1365393800000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.3120319520718922</v>
+        <v>0.3011594639361542</v>
       </c>
       <c r="D486" t="n">
-        <v>413990264603.0953</v>
+        <v>411201264869.7485</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B487" t="n">
-        <v>1333664400000</v>
+        <v>1377815600000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.3134992789516584</v>
+        <v>0.2873315518777117</v>
       </c>
       <c r="D487" t="n">
-        <v>418102827763.4962</v>
+        <v>395889894549.3205</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B488" t="n">
-        <v>1356168100000</v>
+        <v>1382673300000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.2992936669460074</v>
+        <v>0.2943947244465379</v>
       </c>
       <c r="D488" t="n">
-        <v>405892523644.1996</v>
+        <v>407051725153.0853</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B489" t="n">
-        <v>1365393800000</v>
+        <v>1397990400000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.3011594639361542</v>
+        <v>0.3005981903988938</v>
       </c>
       <c r="D489" t="n">
-        <v>411201264869.7485</v>
+        <v>420233384435.0257</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B490" t="n">
-        <v>1377815600000</v>
+        <v>1388676700000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.2873315518777117</v>
+        <v>0.2811911256080758</v>
       </c>
       <c r="D490" t="n">
-        <v>395889894549.3205</v>
+        <v>390483564378.7082</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B491" t="n">
-        <v>1382673300000</v>
+        <v>1399005700000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.2943947244465379</v>
+        <v>0.2847137203541839</v>
       </c>
       <c r="D491" t="n">
-        <v>407051725153.0853</v>
+        <v>398316117643.7092</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B492" t="n">
-        <v>1397990400000</v>
+        <v>1378892900000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.3005981903988938</v>
+        <v>0.2936072885073299</v>
       </c>
       <c r="D492" t="n">
-        <v>420233384435.0257</v>
+        <v>404853005511.0089</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B493" t="n">
-        <v>1388676700000</v>
+        <v>1362510300000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.2811911256080758</v>
+        <v>0.2850627137970353</v>
       </c>
       <c r="D493" t="n">
-        <v>390483564378.7082</v>
+        <v>388400883694.4128</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B494" t="n">
-        <v>1399005700000</v>
+        <v>1330227600000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.2847137203541839</v>
+        <v>0.2902496437185623</v>
       </c>
       <c r="D494" t="n">
-        <v>398316117643.7092</v>
+        <v>386098086964.5982</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B495" t="n">
-        <v>1378892900000</v>
+        <v>1303847700000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.2936072885073299</v>
+        <v>0.2740995145697597</v>
       </c>
       <c r="D495" t="n">
-        <v>404853005511.0089</v>
+        <v>357384021642.8977</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B496" t="n">
-        <v>1362510300000</v>
+        <v>1278852800000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.2850627137970353</v>
+        <v>0.2781563795165642</v>
       </c>
       <c r="D496" t="n">
-        <v>388400883694.4128</v>
+        <v>355721064782.6208</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B497" t="n">
-        <v>1330227600000</v>
+        <v>1287306800000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.2902496437185623</v>
+        <v>0.2767246866092924</v>
       </c>
       <c r="D497" t="n">
-        <v>386098086964.5982</v>
+        <v>356229570800.011</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B498" t="n">
-        <v>1303847700000</v>
+        <v>1275909800000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.2740995145697597</v>
+        <v>0.2691500242235022</v>
       </c>
       <c r="D498" t="n">
-        <v>357384021642.8977</v>
+        <v>343411153577.0038</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B499" t="n">
-        <v>1278852800000</v>
+        <v>1276966700000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.2781563795165642</v>
+        <v>0.2707678977580418</v>
       </c>
       <c r="D499" t="n">
-        <v>355721064782.6208</v>
+        <v>345761588866.024</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B500" t="n">
-        <v>1287306800000</v>
+        <v>1274803200000</v>
       </c>
       <c r="C500" t="n">
-        <v>0.2767246866092924</v>
+        <v>0.2729779160865886</v>
       </c>
       <c r="D500" t="n">
-        <v>356229570800.011</v>
+        <v>347993120956.5146</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B501" t="n">
-        <v>1275909800000</v>
+        <v>1280927000000</v>
       </c>
       <c r="C501" t="n">
-        <v>0.2691500242235022</v>
+        <v>0.2633935626613285</v>
       </c>
       <c r="D501" t="n">
-        <v>343411153577.0038</v>
+        <v>337387926039.0875</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Israel_M2 (ILS)</t>
+  </si>
+  <si>
+    <t>Israel_FX (USD)</t>
+  </si>
+  <si>
+    <t>Israel_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6281 +385,5891 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Israel_M2 (ILS)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Israel_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Israel_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>29952</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>20100000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>29983</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>21200000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30011</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>22400000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30042</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>24400000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30072</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>25800000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30103</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>27400000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30133</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>28300000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30164</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>31500000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30195</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>37700000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30225</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>42900000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30256</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>50500000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30286</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>57600000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30317</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>58400000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30348</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>67900000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30376</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>71400000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>30407</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>76800000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>30437</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>83200000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>30468</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>87000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>30498</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>90400000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>30529</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>94400000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>30560</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>100400000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>30590</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>103200000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>30621</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>112800000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>30651</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>123100000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>30682</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>149900000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>30713</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>188300000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>30742</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>214100000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>30773</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>268400000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>30803</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>287700000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>30834</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>326200000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>30864</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>324000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>30895</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>366900000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>30926</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>449600000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>30956</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>506100000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>30987</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>600900000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>31017</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>729300000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>31048</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>804800000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>31079</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>883100000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>31107</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1008800000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>31138</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1343600000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>31168</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1455100000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>31199</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1611800000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>31229</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2390300000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>31260</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2883600000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>31291</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3232400000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>31321</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>3552400000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>31352</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>4045200000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>31382</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>4300300000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>31413</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>4423400000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>31444</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>4843400000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>31472</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>4944300000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>31503</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>4975800000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>31533</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>4955000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>31564</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>4892600000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>31594</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>5162900000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>31625</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>5666500000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>31656</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>6023600000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>31686</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>6486700000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>31717</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>6774600000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>31747</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>7194000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>31778</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>7233700000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>31809</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>7485200000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>31837</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>8006600000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>31868</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>8666200000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>31898</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>8987900000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>31929</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>9338900000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>31959</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>9721300000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>31990</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>9920900000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>32021</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>10101100000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>32051</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>10183000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>32082</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>10456700000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>32112</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>10659200000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>32143</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>10686600000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>32174</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>11061500000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>32203</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>11315300000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>32234</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>11584000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>32264</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>11812800000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>32295</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>12042800000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>32325</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>12432900000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>32356</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>12798400000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>32387</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>13126100000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>32417</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>12575400000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>32448</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>11661600000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>32478</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>10968800000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>32509</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>11571700000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>32540</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>12097900000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>32568</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>12642800000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>32599</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>13132600000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>32629</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>13363800000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>32660</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>13219100000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>32690</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>13463900000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>32721</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>13730700000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>32752</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>14105400000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>32782</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>13989700000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>32813</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>14209300000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>32843</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>14309800000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>32874</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>14724700000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>32905</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>14963200000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>32933</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>15431400000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>32964</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>16138000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>32994</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>16635400000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>33025</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>16781900000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>33055</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>16944900000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>33086</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>17696500000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>33117</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>17588200000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>33147</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>18058500000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>33178</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>18841900000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>33208</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>19747400000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>33239</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>21585500000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>33270</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>21909800000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>33298</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>22306000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>33329</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>22120900000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>33359</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>22389300000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>33390</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>21894200000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>33420</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>22203400000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>33451</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>23584900000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>33482</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>23049100000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>33512</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>22056200000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>33543</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>23364100000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>33573</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>23756900000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>33604</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>24855800000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>33635</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>25303700000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>33664</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>25384700000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>33695</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>25976000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>33725</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>25857300000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>33756</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>25537000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>33786</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>26018600000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>33817</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>26302600000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>33848</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>27750300000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>33878</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>28727300000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>33909</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>29292600000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>33939</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>29665300000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>33970</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>30386200000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>34001</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>30157900000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>34029</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>30936400000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>34060</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>31145600000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>34090</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>32327900000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>34121</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>33096800000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>34151</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>34239600000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>34182</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>35644800000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>34213</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>37388100000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>34243</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>38572400000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>34274</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>41261500000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>34304</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>43613300000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>34335</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>45755600000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>34366</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>46547200000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>34394</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>50127100000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>34425</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>50872500000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>34455</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>51106500000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>34486</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>52393400000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>34516</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>54863900000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>34547</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>55873000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>34578</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>57834200000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>34608</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>56778900000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>34639</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>57538500000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>34669</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>59590000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>34700</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>61388900000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>34731</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>63068800000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>34759</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>64345500000</v>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
         <v>34790</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>65662399999.99999</v>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
         <v>34820</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>67430200000</v>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
         <v>34851</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>69116600000</v>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
         <v>34881</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>71190100000</v>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
         <v>34912</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>72893300000</v>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>34943</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>74350700000</v>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
         <v>34973</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>74985500000</v>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
         <v>35004</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>76064400000</v>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>35034</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>78003800000</v>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
         <v>35065</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>79916600000</v>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
         <v>35096</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>81072700000</v>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
         <v>35125</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>82576000000</v>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
         <v>35156</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>84718100000</v>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
         <v>35186</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>84676500000</v>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
         <v>35217</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>85980600000</v>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
         <v>35247</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>88936400000</v>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35278</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>92505800000</v>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35309</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>94329900000</v>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35339</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>95150000000</v>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35370</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>96601900000</v>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35400</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>98902800000</v>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35431</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>103180100000</v>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35462</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>104615600000</v>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35490</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>106110400000</v>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35521</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>107533900000</v>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35551</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>108889300000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35582</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>111206600000</v>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35612</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>112774400000</v>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35643</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>114718000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>32776571428.57143</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35674</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>116196400000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.2853881278538813</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>33161073059.36073</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35704</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>118167500000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>33762142857.14286</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35735</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>119754800000</v>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35765</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>122541600000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.2837684449489217</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>34773439273.55278</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35796</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>125591200000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.2822466836014677</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>35447699689.52864</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35827</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>126668300000</v>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35855</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>127003700000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.2803476310625175</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>35605186431.17466</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35886</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>128626000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.271665308340125</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>34943221950.55692</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>35916</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>129389900000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.2737476047084588</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>35420175198.46702</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>35947</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>131618700000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.2731494127287626</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>35951570609.12319</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>35977</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>135543000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.2741979709350151</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>37165615574.44475</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36008</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>137577100000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.2722570106180234</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>37456329975.49687</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36039</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>139568900000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.2596053997923157</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>36232840083.07373</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36069</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>140938600000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.2351281448389372</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>33138631554.19704</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36100</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>140465000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.2391200382592061</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>33587996174.07939</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36130</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>142533000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.2403846153846154</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>34262740384.61538</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36161</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>149174300000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.2437835202340322</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>36366235982.44759</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36192</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>150478700000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.2475247524752475</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>37247202970.29703</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36220</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>154237000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.2493765586034913</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>38463092269.32668</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36251</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>157737800000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.241779497098646</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>38137765957.44681</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36281</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>160058700000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.243605359317905</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>38991157125.45676</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36312</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>161309400000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.2455795677799607</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>39614292730.8448</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36342</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>164651000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2410800385728062</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>39694069431.05111</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36373</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>166929700000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.2359603586597451</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>39388791882.96365</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36404</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>168321900000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.2337540906965872</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>39345932678.82188</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36434</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>170334500000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.2355157795572303</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>40116462552.99104</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36465</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>173286400000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.2366863905325444</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>41014532544.3787</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36495</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>178808400000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.2409058058299205</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>43075981691.15876</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36526</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>183975700000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.245398773006135</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>45147411042.94479</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36557</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>185668600000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.2474634991338777</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>45946201435.28829</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36586</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>187076700000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.2493143854400399</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>46640912490.65071</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36617</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>188902300000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.248015873015873</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>46850768849.20635</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36647</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>189103700000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.2400384061449832</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>45392150744.11906</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36678</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>190961300000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.2452783909737552</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>46838680402.25656</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36708</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>195056600000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.2460629921259843</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>47996210629.92126</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36739</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>198410700000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.2494387627837366</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>49491319531.05512</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36770</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>201584500000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.2498750624687656</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>50370939530.23489</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36800</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>205945800000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.2431906614785992</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>50084095330.7393</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36831</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>207942700000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.2442002442002442</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>50779658119.65813</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36861</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>212393600000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.2486943546381497</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>52821089281.27332</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36892</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>215819800000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.2408187838651415</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>51973461770.01807</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>36923</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>217782200000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.2435460301997077</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>53039990258.15879</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>36951</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>221484100000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.2381519409383187</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>52746868301.97666</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>36982</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>222735800000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.2420135527589545</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>53905082284.60795</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37012</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>224642300000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.2416626389560174</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>54287651039.14935</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37043</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>227793600000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.2399808015358771</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>54666090712.74298</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37073</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>230306000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.2376990729736154</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>54743522700.26147</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37104</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>232646700000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.2347417840375587</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>54611901408.45071</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37135</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>236009500000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.2298850574712644</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>54255057471.26437</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37165</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>239598700000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.2339181286549707</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>56046479532.16374</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37196</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>240095600000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.2364625206904706</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>56773610782.69094</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37226</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>242857800000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.2271694684234439</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>55169877328.48705</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37257</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>239634800000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.2181025081788441</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>52264950926.93566</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37288</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>231312700000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.2143852502947797</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>49590031085.86129</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37316</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>230560200000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.2108370229812355</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>48610626185.95825</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37347</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>233057600000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.2044989775051125</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>47660040899.7955</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37377</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>232290300000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.2033760423022168</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>47242281879.19463</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37408</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>232231100000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.2105263157894737</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>48890757894.73684</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37438</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>232066900000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.2138351331123704</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>49624056452.47514</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37469</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>233317300000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.2147028512538646</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>50093889556.85331</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37500</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>236599100000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.2050440844781628</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>48513245847.85729</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37530</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>237118300000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.2095118374188142</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>49679090718.62561</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37561</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>236775500000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.2153779883695886</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>50996230885.20353</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37591</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>237770500000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.2108014671782115</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>50122370251.69695</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37622</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>238793700000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.2074688796680498</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>49542261410.78838</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37653</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>237425400000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.2077706212341575</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>49330022854.76834</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37681</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>235316800000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.2131060202450719</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>50147426744.80554</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37712</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>235152500000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.2198285337436799</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>51693229281.16069</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37742</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>235653900000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.2279202279202279</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>53710290598.2906</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37773</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>233550400000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.2312673450508788</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>54012580943.57077</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37803</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>235657500000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.2245677071637099</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>52921064450.93195</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37834</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>237979700000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.2247191011235955</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>53478584269.66292</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37865</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>241116000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.2249870632438635</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>54247980741.10738</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37895</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>244277100000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.222667557336896</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>54392585170.34068</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>37926</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>242554200000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.2249718785151856</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>54567874015.74802</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>37956</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>242423800000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.2282062984938384</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>55322638064.81059</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>37987</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>247432200000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.2229803554306866</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>55172519900.99673</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38018</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>244833700000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.2226576416102601</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>54514094228.71393</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38047</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>243503700000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.2209944751381215</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>53812972375.69061</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38078</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>244259800000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.21767522855899</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>53169307792.77318</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38108</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>244662700000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.2200704225352113</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>53843023767.60564</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38139</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>246161800000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.2227667631989307</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>54836667409.22254</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38169</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>247645600000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.2215820961666297</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>54873831154.44273</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38200</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>248832400000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.2216312056737589</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>55149024822.69504</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38231</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>252335300000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.2236786185608518</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>56442011318.1381</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38261</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>251575400000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.2243661655822302</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>56445007852.8158</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38292</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>251598200000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.2296738631143776</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>57785530546.62379</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38322</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>256059000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.2314546927438954</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>59266057169.3091</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38353</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>258336900000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.2281282080529257</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>58933934070.94788</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38384</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>258681900000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.2289115256953188</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>59215268398.76388</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38412</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>256407800000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.2294893861158921</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>58842868617.32645</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38443</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>259594600000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.2289115256953188</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>59424195948.26599</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38473</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>260406300000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.2268345242145854</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>59069139162.9806</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38504</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>265362400000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.2184598580010923</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>57971032222.82906</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38534</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>267910800000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.2213368747233289</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>59298539176.62683</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38565</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>267306900000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.2206433961431535</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>58979502228.49831</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38596</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>265307900000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.2176515398846447</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>57744672978.56133</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38626</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>265180300000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.2153872663048161</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>57116459894.89101</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38657</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>265374300000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.2146014850422765</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>56949718872.0546</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38687</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>269664000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.2173676774263667</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>58616237365.50375</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38718</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>269822900000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.2149613069647463</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>58001483233.01805</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38749</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>267555100000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.2131060202450719</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>57017602557.27224</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38777</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>268358200000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.2147535702781058</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>57630881563.40598</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38808</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>272180300000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.2236185961224536</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>60864576578.18825</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38838</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>271529200000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.2216852512802323</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>60194018931.92046</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38869</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>272924600000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.2264954361169622</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>61816176304.04747</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38899</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>276535800000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.2284722063560968</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>63180744362.4483</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>38930</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>278050100000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.2293577981651376</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>63772958715.59633</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>38961</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>281820600000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.2325040688212044</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>65524436177.6331</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>38991</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>284425800000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.234246896228625</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>66625860857.34364</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39022</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>282246800000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.2364066193853428</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>66725011820.33096</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39052</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>288972600000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.2374394529395004</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>68613496058.50509</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39083</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>296334000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.235626767200754</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>69824222431.66824</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39114</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>300961000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.2376425855513308</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>71521150190.11406</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39142</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>303450500000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.2409058058299205</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>73102987231.99229</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39173</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>310632900000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.2481697481077057</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>77089688546.96614</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39203</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>313592000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.246669955599408</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>77353724716.32954</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39234</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>317231100000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.2352941176470588</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>74642611764.70589</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39264</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>326471600000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.2321262766945218</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>75782636954.50325</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39295</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>331851200000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.2430724355858046</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>80663879436.07195</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39326</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>329756900000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.24919013207077</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>82172165462.2477</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39356</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>332953100000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.2529084471421346</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>84206651492.15984</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39387</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>328750600000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.261437908496732</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>85947869281.04576</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39417</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>330688400000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.2601456815816858</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>86027159209.15714</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39448</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>333976700000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.2770083102493075</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>92514321329.63989</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39479</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>332090100000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.2747252747252747</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>91233543956.04395</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39508</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>338119300000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.2834467120181406</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>95838803854.87529</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39539</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>343601000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.2924831822170225</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>100497513892.9512</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39569</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>344694800000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.3094059405940594</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>106650618811.8812</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39600</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>344960700000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.2985074626865671</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>102973343283.5821</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39630</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>348894400000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.2868617326448651</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>100084452094.0906</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39661</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>348499500000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.2793296089385475</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>97346229050.27933</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39692</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>355544700000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.2896032435563278</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>102966898349.2615</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39722</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>366841200000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.2680965147453083</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>98348847184.9866</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39753</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>365782600000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.2544464517442304</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>93072084679.77914</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39783</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>375249300000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.2649708532061473</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>99430127186.00954</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39814</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>389044200000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.2464875523786049</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>95894552625.09242</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39845</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>393428300000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.2407318247472316</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>94710712566.20125</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39873</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>399951000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.2373605506764776</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>94932589603.60788</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39904</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>407642900000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.2388801299507907</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>97377788925.51717</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>39934</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>407514900000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.2551020408163265</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>103957882653.0612</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>39965</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>411136000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.255303939339784</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>104964640404.4014</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>39995</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>413626300000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.2657595407675136</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>109925135537.3658</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40026</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>420072500000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.2636505048907169</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>110752326715.7057</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40057</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>425299600000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.2656818725258376</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>112994394112.4897</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40087</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>424657800000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.2663896214603479</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>113124430592.1841</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40118</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>424180500000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.2642775971880864</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>112101403314.0411</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40148</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>426196200000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.2642077729926814</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>112604348859.9435</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40179</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>428392900000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.268651102812777</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>115088225022.1637</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40210</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>423594100000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.2647884340412011</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>112162818408.0919</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40238</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>420351000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.270929287455974</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>113885396911.4061</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40269</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>426096800000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.2688172043010753</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>114542150537.6344</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40299</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>427779500000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.2590673575129534</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>110823704663.2124</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40330</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>427304600000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.2577585318074028</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>110141406330.5495</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40360</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>428143000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.265653640783147</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>113737746725.8189</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40391</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>422718500000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.2628397203385375</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>111107212321.9261</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40422</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>428997100000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.2756035718222908</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>118233133061.4045</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40452</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>428509000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.2751031636863824</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>117884181568.088</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40483</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>432279500000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.2721680910130096</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>117652686299.0583</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40513</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>441510400000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.2824938557586373</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>124723975253.5383</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40544</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>451988000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.2699856907583898</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>122030292394.5031</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40575</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>452665300000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.2761286759629987</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>124993869943.3936</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40603</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>451648100000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.2878691922390466</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>130015573723.3001</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40634</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>453020900000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.2976190476190476</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>134827648809.5238</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40664</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>463405400000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.2925430769680836</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>135566041599.6255</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40695</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>466954000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.2945941964943291</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>137561938429.8129</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40725</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>467679200000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.2926115581565472</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>136848339429.4075</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40756</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>475676200000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.2809935933460717</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>133661964707.2047</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40787</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>486082000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.2692514808831449</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>130878298330.6408</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40817</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>488335100000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.2767629801837706</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>135153077604.3396</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40848</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>482394300000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.2661698163428267</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>128398802235.8264</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40878</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>487757500000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.262501640635254</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>128037143982.1499</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>40909</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>499917100000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.2677232812165346</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>133839446348.2545</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>40940</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>492686800000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.2647603918453799</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>130443950225.0463</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>40969</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>492045800000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.2702337521956493</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>132967382786.11</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41000</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>500886500000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.2659786685107854</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>133225124345.0275</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41030</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>495523000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.2563773875144212</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>127040892193.3086</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41061</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>503946600000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.2560491614389963</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>129035104340.0333</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41091</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>511333300000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.2513383768567622</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>128517681654.8119</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41122</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>514689500000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.2494076568150642</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>128367502182.317</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41153</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>520998200000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.25552574421873</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>133128452791.6188</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41183</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>518500600000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.2576323586242432</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>133582532526.0853</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41214</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>522499500000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.2624052061192894</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>137106588994.7257</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41244</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>527619300000.0001</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.2681540276734957</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>141483240373.2704</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41275</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>530065699999.9999</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.269774468544297</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>142998192511.0607</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41306</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>526010900000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.269432843863667</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>141724612690.287</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41334</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>530669400000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.2747252747252747</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>145788296703.2967</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41365</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>534103300000.0001</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.279290601871247</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>149170032118.4193</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41395</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>536555400000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.2714293469409912</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>145636881819.6623</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41426</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>532349000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.2759229623089233</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>146887313062.193</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41456</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>536553500000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.2808121086181236</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>150670719721.4344</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41487</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>542158300000.0001</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.2753303964757709</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>149272659691.63</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41518</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>547957300000.0001</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.2838489923360772</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>155537127448.1976</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41548</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>547775100000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.2838651073010106</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>155494237538.3218</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41579</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>553402900000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.2845354958031014</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>157462768530.3742</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41609</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>562252500000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.2884670859054982</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>162191340218.0811</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41640</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>564578400000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.2858122784954841</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>161363438893.3348</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41671</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>563984600000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.2870264064293915</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>161878473019.5178</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41699</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>569376400000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.287463707706902</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>163675051024.8081</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41730</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>577837000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.2891259721860815</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>167067684390.0888</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41760</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>575260100000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.288334006112681</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>165867049189.7815</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41791</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>576437600000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.2916897587725695</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>168140944491.4389</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41821</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>580493600000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.2919708029197081</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>169487182481.7518</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41852</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>584491000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.2802297884265098</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>163791789267.1991</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41883</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>591059200000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.2727917507774565</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>161236073981.1228</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>41913</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>594225800000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.263005628320446</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>156284729893.2197</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>41944</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>599648600000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.2569769234722722</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>154095852392.4552</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>41974</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>609642700000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.2569307057886488</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>156635929189.8975</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42005</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>619369400000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.2545565624681804</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>157664545361.9794</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42036</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>627591700000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.2514711059699241</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>157821178896.5448</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42064</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>639063300000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.2514774299006664</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>160709996227.8385</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42095</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>647371500000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.2594235608477962</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>167943419721.3791</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42125</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>651276400000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.2596862989508674</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>169127557910.0447</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42156</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>658167100000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.2652871733651678</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>174603289560.9497</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42186</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>660074100000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.2658867322520606</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>175504945493.2199</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42217</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>663528800000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.2550630005611386</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>169241646686.7316</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42248</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>680513800000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.2550044625780951</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>173534055845.9773</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42278</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>681415100000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.259000259000259</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>176486687386.6874</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42309</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>686142200000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.2584112874050338</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>177306889244.9222</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42339</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>692268100000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.2571288987169268</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>178002134169.8593</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42370</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>696747800000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.2528572873470213</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>176177758673.0049</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42401</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>702928000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.2562459961563101</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>180122485586.1627</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42430</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>704187600000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.2662052442433116</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>187458432051.1114</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42461</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>713745100000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.2672296304214211</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>190733839288.1003</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42491</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>718977500000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.2599563273370074</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>186902750337.9432</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42522</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>734277300000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.2593024763386491</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>190399922209.2571</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42552</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>738121300000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.2624809701296656</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>193742794897.3699</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42583</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>740007400000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.2650129856362962</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>196111570466.9529</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42614</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>742339100000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.2668944165688054</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>198126160990.7121</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42644</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>742436600000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.2610284521012791</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>193797076481.3365</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42675</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>740616900000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.261110240743642</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>193382657057.8098</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42705</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>747274700000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.2605455824496496</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>194699121961.3872</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42736</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>761155500000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.2658231212950903</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>202332730800.9251</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42767</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>767259500000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.274649821477616</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>210727684702.0049</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42795</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>769309300000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.2758392408904091</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>212205693321.932</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42826</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>778131000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.2769162605228179</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>215477126716.8808</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42856</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>773540400000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.2829574714920348</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>218879035680.9372</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42887</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>789848000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.2871500358937545</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>226804881550.6102</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>42917</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>798794500000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.2814443725197714</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>224816216824.7446</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>42948</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>797691600000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.2802297884265098</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>223536948297.604</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>42979</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>808309200000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.2832540222071153</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>228956832087.0156</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43009</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>798852700000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.2845193046348195</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>227289014709.6481</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43040</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>798915300000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.2864180557942372</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>228823766970.2698</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43070</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>809904800000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.2877532228360958</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>233052716390.4236</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43101</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>819159600000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.2927571871889455</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>239814860354.8217</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43132</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>810881400000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.2879769618430525</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>233515161987.041</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43160</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>814795000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.2867465733784481</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>233639674255.8926</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43191</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>819928800000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.2782647410746584</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>228157275231.6554</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43221</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>822588500000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.28109627547435</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>231226563598.0323</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43252</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>827771700000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.2737925747453729</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>226637745044.3544</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43282</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>831331100000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.2729034194798461</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>226873099909.9419</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43313</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>829881400000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.2776158352072402</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>230388217983.9538</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43344</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>830645300000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.2752849198920883</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>228664124869.2397</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43374</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>823486200000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.2690196922414721</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>221534004089.0993</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43405</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>827009200000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.2692007429940507</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>222631491102.9154</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43435</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>826435700000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.2678810608090008</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>221386472006.4292</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43466</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>843241500000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.275671950379049</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>232458028945.5548</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43497</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>847555800000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.2762812543168946</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>234163779527.5591</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43525</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>850468400000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.2754896829113749</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>234295269842.1444</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43556</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>858786600000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.2780326410320572</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>238770706480.9409</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43586</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>857292600000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.2760829353137683</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>236683857430.7722</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43617</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>862395800000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.28055999775552</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>241953763712.3699</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43647</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>862518000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.2852822868228111</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>246061107465.8374</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43678</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>859848500000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.2835672763363108</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>243824897206.8623</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43709</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>866261200000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.2879769618430525</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>249463268538.5169</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43739</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>867102200000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.2841231958177066</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>246363848164.5641</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43770</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>868743800000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.2881014116969173</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>250286315182.9444</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43800</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>878149200000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.289863474303603</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>254543378068.9295</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43831</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>887268200000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.290098923732993</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>257395549882.5099</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43862</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>898172000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.2887753039360074</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>259369892286.8116</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43891</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>939849200000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.2824140755175238</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>265426642943.8843</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>43922</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>991256800000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.2871500358937545</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>284639425699.9282</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>43952</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>1005498800000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.2851358672407402</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>286703772347.5236</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>43983</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>1019175100000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.2889254861171304</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>294465661205.975</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44013</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>1029648400000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.2938151902453356</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>302526340531.8055</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44044</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>1045486200000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.2980714775403142</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>311629616382.0084</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44075</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>1058798600000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.2916302128900554</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>308777661125.6926</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44105</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>1069591500000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.293728888236158</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>314169922161.8446</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44136</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>1085379100000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.3025901718712176</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>328425048414.4275</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44166</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>1106226900000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.3114391603600237</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>344522376903.6719</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44197</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>1131956800000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.3050640634533252</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>345319341061.6229</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44228</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>1143578000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.3022243713733075</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>345617142166.3443</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44256</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>1164245000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.2994460248540201</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>348628537206.1686</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44287</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>1175803700000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.3081759068076058</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>362354371475.2381</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44317</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>1183982300000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.3081759068076058</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>364874818946.6548</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44348</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>1200106600000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.3069556142181841</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>368379458530.2966</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44378</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>1225628400000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>0.310096750186058</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>380063383775.738</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44409</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>1239960200000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>0.312275551947038</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>387209255847.3597</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44440</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>1257625900000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>0.3103565997330933</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>390312498060.2712</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44470</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>1258657100000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>0.3167463811725951</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>398675081562.1932</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44501</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>1267713100000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>0.3173494970010473</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>402308114626.6383</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44531</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>1299480800000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>0.3228305785123967</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>419512138429.7521</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44562</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>1321141500000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>0.3171180313312615</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>418957791590.0298</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44593</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>1326756000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>0.3120319520718922</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>413990264603.0953</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44621</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>1333664400000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>0.3134992789516584</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>418102827763.4962</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44652</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>1356168100000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>0.2992936669460074</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>405892523644.1996</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44682</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>1365393800000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>0.3011594639361542</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>411201264869.7485</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44713</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>1377815600000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>0.2873315518777117</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>395889894549.3205</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44743</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>1382673300000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>0.2943947244465379</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>407051725153.0853</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44774</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>1397990400000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>0.3005981903988938</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>420233384435.0257</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44805</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>1388676700000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>0.2811911256080758</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>390483564378.7082</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44835</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>1399005700000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>0.2847137203541839</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>398316117643.7092</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44866</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>1378892900000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>0.2936072885073299</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>404853005511.0089</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44896</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>1362510300000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>0.2850627137970353</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>388400883694.4128</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>44927</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>1330227600000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>0.2902496437185623</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>386098086964.5982</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>44958</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>1303847700000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>0.2740995145697597</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>357384021642.8977</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>44986</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>1278852800000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>0.2781563795165642</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>355721064782.6208</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45017</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>1287306800000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>0.2767246866092924</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>356229570800.011</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45047</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>1275909800000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>0.2691500242235022</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>343411153577.0038</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45078</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>1276966700000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>0.2707678977580418</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>345761588866.024</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45108</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>1274803200000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>0.2729779160865886</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D500">
         <v>347993120956.5146</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
         <v>45139</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>1280927000000</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>0.2633935626613285</v>
       </c>
-      <c r="D501" t="n">
+      <c r="D501">
         <v>337387926039.0875</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Israel_M2 (ILS)</t>
-  </si>
-  <si>
-    <t>Israel_FX (USD)</t>
-  </si>
-  <si>
-    <t>Israel_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,5891 +426,6285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>29952</v>
-      </c>
-      <c r="B2">
-        <v>20100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Israel_M2 (ILS)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Israel_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Israel_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>29983</v>
       </c>
-      <c r="B3">
+      <c r="B2" t="n">
         <v>21200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30011</v>
       </c>
-      <c r="B4">
+      <c r="B3" t="n">
         <v>22400000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30042</v>
       </c>
-      <c r="B5">
+      <c r="B4" t="n">
         <v>24400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30072</v>
       </c>
-      <c r="B6">
+      <c r="B5" t="n">
         <v>25800000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30103</v>
       </c>
-      <c r="B7">
+      <c r="B6" t="n">
         <v>27400000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="B8">
+      <c r="B7" t="n">
         <v>28300000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>30164</v>
       </c>
-      <c r="B9">
+      <c r="B8" t="n">
         <v>31500000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>30195</v>
       </c>
-      <c r="B10">
+      <c r="B9" t="n">
         <v>37700000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="B11">
+      <c r="B10" t="n">
         <v>42900000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>30256</v>
       </c>
-      <c r="B12">
+      <c r="B11" t="n">
         <v>50500000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>30286</v>
       </c>
-      <c r="B13">
+      <c r="B12" t="n">
         <v>57600000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="B14">
+      <c r="B13" t="n">
         <v>58400000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>30348</v>
       </c>
-      <c r="B15">
+      <c r="B14" t="n">
         <v>67900000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>30376</v>
       </c>
-      <c r="B16">
+      <c r="B15" t="n">
         <v>71400000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="B17">
+      <c r="B16" t="n">
         <v>76800000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>30437</v>
       </c>
-      <c r="B18">
+      <c r="B17" t="n">
         <v>83200000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>30468</v>
       </c>
-      <c r="B19">
+      <c r="B18" t="n">
         <v>87000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="B20">
+      <c r="B19" t="n">
         <v>90400000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>30529</v>
       </c>
-      <c r="B21">
+      <c r="B20" t="n">
         <v>94400000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>30560</v>
       </c>
-      <c r="B22">
+      <c r="B21" t="n">
         <v>100400000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="B23">
+      <c r="B22" t="n">
         <v>103200000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>30621</v>
       </c>
-      <c r="B24">
+      <c r="B23" t="n">
         <v>112800000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>30651</v>
       </c>
-      <c r="B25">
+      <c r="B24" t="n">
         <v>123100000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="B26">
+      <c r="B25" t="n">
         <v>149900000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="B27">
+      <c r="B26" t="n">
         <v>188300000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>30742</v>
       </c>
-      <c r="B28">
+      <c r="B27" t="n">
         <v>214100000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="B29">
+      <c r="B28" t="n">
         <v>268400000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>30803</v>
       </c>
-      <c r="B30">
+      <c r="B29" t="n">
         <v>287700000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="B31">
+      <c r="B30" t="n">
         <v>326200000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B32">
+      <c r="B31" t="n">
         <v>324000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="B33">
+      <c r="B32" t="n">
         <v>366900000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="B34">
+      <c r="B33" t="n">
         <v>449600000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B35">
+      <c r="B34" t="n">
         <v>506100000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="B36">
+      <c r="B35" t="n">
         <v>600900000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="B37">
+      <c r="B36" t="n">
         <v>729300000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B38">
+      <c r="B37" t="n">
         <v>804800000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B39">
+      <c r="B38" t="n">
         <v>883100000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B40">
+      <c r="B39" t="n">
         <v>1008800000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B41">
+      <c r="B40" t="n">
         <v>1343600000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B42">
+      <c r="B41" t="n">
         <v>1455100000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B43">
+      <c r="B42" t="n">
         <v>1611800000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B44">
+      <c r="B43" t="n">
         <v>2390300000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B45">
+      <c r="B44" t="n">
         <v>2883600000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B46">
+      <c r="B45" t="n">
         <v>3232400000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B47">
+      <c r="B46" t="n">
         <v>3552400000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B48">
+      <c r="B47" t="n">
         <v>4045200000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B49">
+      <c r="B48" t="n">
         <v>4300300000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B50">
+      <c r="B49" t="n">
         <v>4423400000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B51">
+      <c r="B50" t="n">
         <v>4843400000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B52">
+      <c r="B51" t="n">
         <v>4944300000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B53">
+      <c r="B52" t="n">
         <v>4975800000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B54">
+      <c r="B53" t="n">
         <v>4955000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B55">
+      <c r="B54" t="n">
         <v>4892600000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B56">
+      <c r="B55" t="n">
         <v>5162900000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B57">
+      <c r="B56" t="n">
         <v>5666500000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B58">
+      <c r="B57" t="n">
         <v>6023600000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B59">
+      <c r="B58" t="n">
         <v>6486700000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B60">
+      <c r="B59" t="n">
         <v>6774600000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B61">
+      <c r="B60" t="n">
         <v>7194000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B62">
+      <c r="B61" t="n">
         <v>7233700000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B63">
+      <c r="B62" t="n">
         <v>7485200000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B64">
+      <c r="B63" t="n">
         <v>8006600000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B65">
+      <c r="B64" t="n">
         <v>8666200000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B66">
+      <c r="B65" t="n">
         <v>8987900000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B67">
+      <c r="B66" t="n">
         <v>9338900000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B68">
+      <c r="B67" t="n">
         <v>9721300000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B69">
+      <c r="B68" t="n">
         <v>9920900000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B70">
+      <c r="B69" t="n">
         <v>10101100000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B71">
+      <c r="B70" t="n">
         <v>10183000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B72">
+      <c r="B71" t="n">
         <v>10456700000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B73">
+      <c r="B72" t="n">
         <v>10659200000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B74">
+      <c r="B73" t="n">
         <v>10686600000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B75">
+      <c r="B74" t="n">
         <v>11061500000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B76">
+      <c r="B75" t="n">
         <v>11315300000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B77">
+      <c r="B76" t="n">
         <v>11584000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B78">
+      <c r="B77" t="n">
         <v>11812800000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B79">
+      <c r="B78" t="n">
         <v>12042800000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B80">
+      <c r="B79" t="n">
         <v>12432900000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B81">
+      <c r="B80" t="n">
         <v>12798400000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B82">
+      <c r="B81" t="n">
         <v>13126100000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B83">
+      <c r="B82" t="n">
         <v>12575400000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B84">
+      <c r="B83" t="n">
         <v>11661600000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B85">
+      <c r="B84" t="n">
         <v>10968800000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B86">
+      <c r="B85" t="n">
         <v>11571700000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B87">
+      <c r="B86" t="n">
         <v>12097900000</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B88">
+      <c r="B87" t="n">
         <v>12642800000</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B89">
+      <c r="B88" t="n">
         <v>13132600000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B90">
+      <c r="B89" t="n">
         <v>13363800000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B91">
+      <c r="B90" t="n">
         <v>13219100000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B92">
+      <c r="B91" t="n">
         <v>13463900000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B93">
+      <c r="B92" t="n">
         <v>13730700000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B94">
+      <c r="B93" t="n">
         <v>14105400000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B95">
+      <c r="B94" t="n">
         <v>13989700000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B96">
+      <c r="B95" t="n">
         <v>14209300000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B97">
+      <c r="B96" t="n">
         <v>14309800000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B98">
+      <c r="B97" t="n">
         <v>14724700000</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B99">
+      <c r="B98" t="n">
         <v>14963200000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B100">
+      <c r="B99" t="n">
         <v>15431400000</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B101">
+      <c r="B100" t="n">
         <v>16138000000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B102">
+      <c r="B101" t="n">
         <v>16635400000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B103">
+      <c r="B102" t="n">
         <v>16781900000</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B104">
+      <c r="B103" t="n">
         <v>16944900000</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B105">
+      <c r="B104" t="n">
         <v>17696500000</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B106">
+      <c r="B105" t="n">
         <v>17588200000</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B107">
+      <c r="B106" t="n">
         <v>18058500000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B108">
+      <c r="B107" t="n">
         <v>18841900000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B109">
+      <c r="B108" t="n">
         <v>19747400000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B110">
+      <c r="B109" t="n">
         <v>21585500000</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B111">
+      <c r="B110" t="n">
         <v>21909800000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B112">
+      <c r="B111" t="n">
         <v>22306000000</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B113">
+      <c r="B112" t="n">
         <v>22120900000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B114">
+      <c r="B113" t="n">
         <v>22389300000</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B115">
+      <c r="B114" t="n">
         <v>21894200000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B116">
+      <c r="B115" t="n">
         <v>22203400000</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B117">
+      <c r="B116" t="n">
         <v>23584900000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B118">
+      <c r="B117" t="n">
         <v>23049100000</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B119">
+      <c r="B118" t="n">
         <v>22056200000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B120">
+      <c r="B119" t="n">
         <v>23364100000</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B121">
+      <c r="B120" t="n">
         <v>23756900000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B122">
+      <c r="B121" t="n">
         <v>24855800000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B123">
+      <c r="B122" t="n">
         <v>25303700000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B124">
+      <c r="B123" t="n">
         <v>25384700000</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B125">
+      <c r="B124" t="n">
         <v>25976000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B126">
+      <c r="B125" t="n">
         <v>25857300000</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B127">
+      <c r="B126" t="n">
         <v>25537000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B128">
+      <c r="B127" t="n">
         <v>26018600000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B129">
+      <c r="B128" t="n">
         <v>26302600000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B130">
+      <c r="B129" t="n">
         <v>27750300000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B131">
+      <c r="B130" t="n">
         <v>28727300000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B132">
+      <c r="B131" t="n">
         <v>29292600000</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B133">
+      <c r="B132" t="n">
         <v>29665300000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B134">
+      <c r="B133" t="n">
         <v>30386200000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B135">
+      <c r="B134" t="n">
         <v>30157900000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B136">
+      <c r="B135" t="n">
         <v>30936400000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B137">
+      <c r="B136" t="n">
         <v>31145600000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B138">
+      <c r="B137" t="n">
         <v>32327900000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B139">
+      <c r="B138" t="n">
         <v>33096800000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B140">
+      <c r="B139" t="n">
         <v>34239600000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B141">
+      <c r="B140" t="n">
         <v>35644800000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B142">
+      <c r="B141" t="n">
         <v>37388100000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B143">
+      <c r="B142" t="n">
         <v>38572400000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B144">
+      <c r="B143" t="n">
         <v>41261500000</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="2">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B145">
+      <c r="B144" t="n">
         <v>43613300000</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="2">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B146">
+      <c r="B145" t="n">
         <v>45755600000</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="2">
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B147">
+      <c r="B146" t="n">
         <v>46547200000</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="2">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B148">
+      <c r="B147" t="n">
         <v>50127100000</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2">
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B149">
+      <c r="B148" t="n">
         <v>50872500000</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="2">
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B150">
+      <c r="B149" t="n">
         <v>51106500000</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2">
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B151">
+      <c r="B150" t="n">
         <v>52393400000</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2">
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B152">
+      <c r="B151" t="n">
         <v>54863900000</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2">
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B153">
+      <c r="B152" t="n">
         <v>55873000000</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B154">
+      <c r="B153" t="n">
         <v>57834200000</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2">
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B155">
+      <c r="B154" t="n">
         <v>56778900000</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2">
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B156">
+      <c r="B155" t="n">
         <v>57538500000</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2">
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B157">
+      <c r="B156" t="n">
         <v>59590000000</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2">
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B158">
+      <c r="B157" t="n">
         <v>61388900000</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2">
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B159">
+      <c r="B158" t="n">
         <v>63068800000</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2">
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B160">
+      <c r="B159" t="n">
         <v>64345500000</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2">
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B161">
+      <c r="B160" t="n">
         <v>65662399999.99999</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="2">
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B162">
+      <c r="B161" t="n">
         <v>67430200000</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2">
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B163">
+      <c r="B162" t="n">
         <v>69116600000</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2">
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B164">
+      <c r="B163" t="n">
         <v>71190100000</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2">
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B165">
+      <c r="B164" t="n">
         <v>72893300000</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2">
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B166">
+      <c r="B165" t="n">
         <v>74350700000</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2">
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B167">
+      <c r="B166" t="n">
         <v>74985500000</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2">
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B168">
+      <c r="B167" t="n">
         <v>76064400000</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2">
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B169">
+      <c r="B168" t="n">
         <v>78003800000</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2">
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B170">
+      <c r="B169" t="n">
         <v>79916600000</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2">
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B171">
+      <c r="B170" t="n">
         <v>81072700000</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2">
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B172">
+      <c r="B171" t="n">
         <v>82576000000</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2">
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B173">
+      <c r="B172" t="n">
         <v>84718100000</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2">
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B174">
+      <c r="B173" t="n">
         <v>84676500000</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2">
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B175">
+      <c r="B174" t="n">
         <v>85980600000</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2">
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B176">
+      <c r="B175" t="n">
         <v>88936400000</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B177">
+      <c r="B176" t="n">
         <v>92505800000</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B178">
+      <c r="B177" t="n">
         <v>94329900000</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B179">
+      <c r="B178" t="n">
         <v>95150000000</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B180">
+      <c r="B179" t="n">
         <v>96601900000</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B181">
+      <c r="B180" t="n">
         <v>98902800000</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B182">
+      <c r="B181" t="n">
         <v>103180100000</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B183">
+      <c r="B182" t="n">
         <v>104615600000</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B184">
+      <c r="B183" t="n">
         <v>106110400000</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B185">
+      <c r="B184" t="n">
         <v>107533900000</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B186">
+      <c r="B185" t="n">
         <v>108889300000</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B187">
+      <c r="B186" t="n">
         <v>111206600000</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B188">
+      <c r="B187" t="n">
         <v>112774400000</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B189">
+      <c r="B188" t="n">
         <v>114718000000</v>
       </c>
-      <c r="C189">
+      <c r="C188" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D189">
+      <c r="D188" t="n">
         <v>32776571428.57143</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B190">
+      <c r="B189" t="n">
         <v>116196400000</v>
       </c>
-      <c r="C190">
+      <c r="C189" t="n">
         <v>0.2853881278538813</v>
       </c>
-      <c r="D190">
+      <c r="D189" t="n">
         <v>33161073059.36073</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B191">
+      <c r="B190" t="n">
         <v>118167500000</v>
       </c>
-      <c r="C191">
+      <c r="C190" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D191">
+      <c r="D190" t="n">
         <v>33762142857.14286</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B192">
+      <c r="B191" t="n">
         <v>119754800000</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B193">
+      <c r="B192" t="n">
         <v>122541600000</v>
       </c>
-      <c r="C193">
+      <c r="C192" t="n">
         <v>0.2837684449489217</v>
       </c>
-      <c r="D193">
+      <c r="D192" t="n">
         <v>34773439273.55278</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B194">
+      <c r="B193" t="n">
         <v>125591200000</v>
       </c>
-      <c r="C194">
+      <c r="C193" t="n">
         <v>0.2822466836014677</v>
       </c>
-      <c r="D194">
+      <c r="D193" t="n">
         <v>35447699689.52864</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B195">
+      <c r="B194" t="n">
         <v>126668300000</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B196">
+      <c r="B195" t="n">
         <v>127003700000</v>
       </c>
-      <c r="C196">
+      <c r="C195" t="n">
         <v>0.2803476310625175</v>
       </c>
-      <c r="D196">
+      <c r="D195" t="n">
         <v>35605186431.17466</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B197">
+      <c r="B196" t="n">
         <v>128626000000</v>
       </c>
-      <c r="C197">
+      <c r="C196" t="n">
         <v>0.271665308340125</v>
       </c>
-      <c r="D197">
+      <c r="D196" t="n">
         <v>34943221950.55692</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B198">
+      <c r="B197" t="n">
         <v>129389900000</v>
       </c>
-      <c r="C198">
+      <c r="C197" t="n">
         <v>0.2737476047084588</v>
       </c>
-      <c r="D198">
+      <c r="D197" t="n">
         <v>35420175198.46702</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B199">
+      <c r="B198" t="n">
         <v>131618700000</v>
       </c>
-      <c r="C199">
+      <c r="C198" t="n">
         <v>0.2731494127287626</v>
       </c>
-      <c r="D199">
+      <c r="D198" t="n">
         <v>35951570609.12319</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B200">
+      <c r="B199" t="n">
         <v>135543000000</v>
       </c>
-      <c r="C200">
+      <c r="C199" t="n">
         <v>0.2741979709350151</v>
       </c>
-      <c r="D200">
+      <c r="D199" t="n">
         <v>37165615574.44475</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B201">
+      <c r="B200" t="n">
         <v>137577100000</v>
       </c>
-      <c r="C201">
+      <c r="C200" t="n">
         <v>0.2722570106180234</v>
       </c>
-      <c r="D201">
+      <c r="D200" t="n">
         <v>37456329975.49687</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B202">
+      <c r="B201" t="n">
         <v>139568900000</v>
       </c>
-      <c r="C202">
+      <c r="C201" t="n">
         <v>0.2596053997923157</v>
       </c>
-      <c r="D202">
+      <c r="D201" t="n">
         <v>36232840083.07373</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B203">
+      <c r="B202" t="n">
         <v>140938600000</v>
       </c>
-      <c r="C203">
+      <c r="C202" t="n">
         <v>0.2351281448389372</v>
       </c>
-      <c r="D203">
+      <c r="D202" t="n">
         <v>33138631554.19704</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B204">
+      <c r="B203" t="n">
         <v>140465000000</v>
       </c>
-      <c r="C204">
+      <c r="C203" t="n">
         <v>0.2391200382592061</v>
       </c>
-      <c r="D204">
+      <c r="D203" t="n">
         <v>33587996174.07939</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B205">
+      <c r="B204" t="n">
         <v>142533000000</v>
       </c>
-      <c r="C205">
+      <c r="C204" t="n">
         <v>0.2403846153846154</v>
       </c>
-      <c r="D205">
+      <c r="D204" t="n">
         <v>34262740384.61538</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B206">
+      <c r="B205" t="n">
         <v>149174300000</v>
       </c>
-      <c r="C206">
+      <c r="C205" t="n">
         <v>0.2437835202340322</v>
       </c>
-      <c r="D206">
+      <c r="D205" t="n">
         <v>36366235982.44759</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B207">
+      <c r="B206" t="n">
         <v>150478700000</v>
       </c>
-      <c r="C207">
+      <c r="C206" t="n">
         <v>0.2475247524752475</v>
       </c>
-      <c r="D207">
+      <c r="D206" t="n">
         <v>37247202970.29703</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B208">
+      <c r="B207" t="n">
         <v>154237000000</v>
       </c>
-      <c r="C208">
+      <c r="C207" t="n">
         <v>0.2493765586034913</v>
       </c>
-      <c r="D208">
+      <c r="D207" t="n">
         <v>38463092269.32668</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B209">
+      <c r="B208" t="n">
         <v>157737800000</v>
       </c>
-      <c r="C209">
+      <c r="C208" t="n">
         <v>0.241779497098646</v>
       </c>
-      <c r="D209">
+      <c r="D208" t="n">
         <v>38137765957.44681</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B210">
+      <c r="B209" t="n">
         <v>160058700000</v>
       </c>
-      <c r="C210">
+      <c r="C209" t="n">
         <v>0.243605359317905</v>
       </c>
-      <c r="D210">
+      <c r="D209" t="n">
         <v>38991157125.45676</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B211">
+      <c r="B210" t="n">
         <v>161309400000</v>
       </c>
-      <c r="C211">
+      <c r="C210" t="n">
         <v>0.2455795677799607</v>
       </c>
-      <c r="D211">
+      <c r="D210" t="n">
         <v>39614292730.8448</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B212">
+      <c r="B211" t="n">
         <v>164651000000</v>
       </c>
-      <c r="C212">
+      <c r="C211" t="n">
         <v>0.2410800385728062</v>
       </c>
-      <c r="D212">
+      <c r="D211" t="n">
         <v>39694069431.05111</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B213">
+      <c r="B212" t="n">
         <v>166929700000</v>
       </c>
-      <c r="C213">
+      <c r="C212" t="n">
         <v>0.2359603586597451</v>
       </c>
-      <c r="D213">
+      <c r="D212" t="n">
         <v>39388791882.96365</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B214">
+      <c r="B213" t="n">
         <v>168321900000</v>
       </c>
-      <c r="C214">
+      <c r="C213" t="n">
         <v>0.2337540906965872</v>
       </c>
-      <c r="D214">
+      <c r="D213" t="n">
         <v>39345932678.82188</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B215">
+      <c r="B214" t="n">
         <v>170334500000</v>
       </c>
-      <c r="C215">
+      <c r="C214" t="n">
         <v>0.2355157795572303</v>
       </c>
-      <c r="D215">
+      <c r="D214" t="n">
         <v>40116462552.99104</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B216">
+      <c r="B215" t="n">
         <v>173286400000</v>
       </c>
-      <c r="C216">
+      <c r="C215" t="n">
         <v>0.2366863905325444</v>
       </c>
-      <c r="D216">
+      <c r="D215" t="n">
         <v>41014532544.3787</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B217">
+      <c r="B216" t="n">
         <v>178808400000</v>
       </c>
-      <c r="C217">
+      <c r="C216" t="n">
         <v>0.2409058058299205</v>
       </c>
-      <c r="D217">
+      <c r="D216" t="n">
         <v>43075981691.15876</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B218">
+      <c r="B217" t="n">
         <v>183975700000</v>
       </c>
-      <c r="C218">
+      <c r="C217" t="n">
         <v>0.245398773006135</v>
       </c>
-      <c r="D218">
+      <c r="D217" t="n">
         <v>45147411042.94479</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B219">
+      <c r="B218" t="n">
         <v>185668600000</v>
       </c>
-      <c r="C219">
+      <c r="C218" t="n">
         <v>0.2474634991338777</v>
       </c>
-      <c r="D219">
+      <c r="D218" t="n">
         <v>45946201435.28829</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B220">
+      <c r="B219" t="n">
         <v>187076700000</v>
       </c>
-      <c r="C220">
+      <c r="C219" t="n">
         <v>0.2493143854400399</v>
       </c>
-      <c r="D220">
+      <c r="D219" t="n">
         <v>46640912490.65071</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B221">
+      <c r="B220" t="n">
         <v>188902300000</v>
       </c>
-      <c r="C221">
+      <c r="C220" t="n">
         <v>0.248015873015873</v>
       </c>
-      <c r="D221">
+      <c r="D220" t="n">
         <v>46850768849.20635</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B222">
+      <c r="B221" t="n">
         <v>189103700000</v>
       </c>
-      <c r="C222">
+      <c r="C221" t="n">
         <v>0.2400384061449832</v>
       </c>
-      <c r="D222">
+      <c r="D221" t="n">
         <v>45392150744.11906</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B223">
+      <c r="B222" t="n">
         <v>190961300000</v>
       </c>
-      <c r="C223">
+      <c r="C222" t="n">
         <v>0.2452783909737552</v>
       </c>
-      <c r="D223">
+      <c r="D222" t="n">
         <v>46838680402.25656</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B224">
+      <c r="B223" t="n">
         <v>195056600000</v>
       </c>
-      <c r="C224">
+      <c r="C223" t="n">
         <v>0.2460629921259843</v>
       </c>
-      <c r="D224">
+      <c r="D223" t="n">
         <v>47996210629.92126</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B225">
+      <c r="B224" t="n">
         <v>198410700000</v>
       </c>
-      <c r="C225">
+      <c r="C224" t="n">
         <v>0.2494387627837366</v>
       </c>
-      <c r="D225">
+      <c r="D224" t="n">
         <v>49491319531.05512</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B226">
+      <c r="B225" t="n">
         <v>201584500000</v>
       </c>
-      <c r="C226">
+      <c r="C225" t="n">
         <v>0.2498750624687656</v>
       </c>
-      <c r="D226">
+      <c r="D225" t="n">
         <v>50370939530.23489</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B227">
+      <c r="B226" t="n">
         <v>205945800000</v>
       </c>
-      <c r="C227">
+      <c r="C226" t="n">
         <v>0.2431906614785992</v>
       </c>
-      <c r="D227">
+      <c r="D226" t="n">
         <v>50084095330.7393</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B228">
+      <c r="B227" t="n">
         <v>207942700000</v>
       </c>
-      <c r="C228">
+      <c r="C227" t="n">
         <v>0.2442002442002442</v>
       </c>
-      <c r="D228">
+      <c r="D227" t="n">
         <v>50779658119.65813</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B229">
+      <c r="B228" t="n">
         <v>212393600000</v>
       </c>
-      <c r="C229">
+      <c r="C228" t="n">
         <v>0.2486943546381497</v>
       </c>
-      <c r="D229">
+      <c r="D228" t="n">
         <v>52821089281.27332</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B230">
+      <c r="B229" t="n">
         <v>215819800000</v>
       </c>
-      <c r="C230">
+      <c r="C229" t="n">
         <v>0.2408187838651415</v>
       </c>
-      <c r="D230">
+      <c r="D229" t="n">
         <v>51973461770.01807</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B231">
+      <c r="B230" t="n">
         <v>217782200000</v>
       </c>
-      <c r="C231">
+      <c r="C230" t="n">
         <v>0.2435460301997077</v>
       </c>
-      <c r="D231">
+      <c r="D230" t="n">
         <v>53039990258.15879</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B232">
+      <c r="B231" t="n">
         <v>221484100000</v>
       </c>
-      <c r="C232">
+      <c r="C231" t="n">
         <v>0.2381519409383187</v>
       </c>
-      <c r="D232">
+      <c r="D231" t="n">
         <v>52746868301.97666</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B233">
+      <c r="B232" t="n">
         <v>222735800000</v>
       </c>
-      <c r="C233">
+      <c r="C232" t="n">
         <v>0.2420135527589545</v>
       </c>
-      <c r="D233">
+      <c r="D232" t="n">
         <v>53905082284.60795</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B234">
+      <c r="B233" t="n">
         <v>224642300000</v>
       </c>
-      <c r="C234">
+      <c r="C233" t="n">
         <v>0.2416626389560174</v>
       </c>
-      <c r="D234">
+      <c r="D233" t="n">
         <v>54287651039.14935</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B235">
+      <c r="B234" t="n">
         <v>227793600000</v>
       </c>
-      <c r="C235">
+      <c r="C234" t="n">
         <v>0.2399808015358771</v>
       </c>
-      <c r="D235">
+      <c r="D234" t="n">
         <v>54666090712.74298</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B236">
+      <c r="B235" t="n">
         <v>230306000000</v>
       </c>
-      <c r="C236">
+      <c r="C235" t="n">
         <v>0.2376990729736154</v>
       </c>
-      <c r="D236">
+      <c r="D235" t="n">
         <v>54743522700.26147</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B237">
+      <c r="B236" t="n">
         <v>232646700000</v>
       </c>
-      <c r="C237">
+      <c r="C236" t="n">
         <v>0.2347417840375587</v>
       </c>
-      <c r="D237">
+      <c r="D236" t="n">
         <v>54611901408.45071</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B238">
+      <c r="B237" t="n">
         <v>236009500000</v>
       </c>
-      <c r="C238">
+      <c r="C237" t="n">
         <v>0.2298850574712644</v>
       </c>
-      <c r="D238">
+      <c r="D237" t="n">
         <v>54255057471.26437</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B239">
+      <c r="B238" t="n">
         <v>239598700000</v>
       </c>
-      <c r="C239">
+      <c r="C238" t="n">
         <v>0.2339181286549707</v>
       </c>
-      <c r="D239">
+      <c r="D238" t="n">
         <v>56046479532.16374</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B240">
+      <c r="B239" t="n">
         <v>240095600000</v>
       </c>
-      <c r="C240">
+      <c r="C239" t="n">
         <v>0.2364625206904706</v>
       </c>
-      <c r="D240">
+      <c r="D239" t="n">
         <v>56773610782.69094</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B241">
+      <c r="B240" t="n">
         <v>242857800000</v>
       </c>
-      <c r="C241">
+      <c r="C240" t="n">
         <v>0.2271694684234439</v>
       </c>
-      <c r="D241">
+      <c r="D240" t="n">
         <v>55169877328.48705</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B242">
+      <c r="B241" t="n">
         <v>239634800000</v>
       </c>
-      <c r="C242">
+      <c r="C241" t="n">
         <v>0.2181025081788441</v>
       </c>
-      <c r="D242">
+      <c r="D241" t="n">
         <v>52264950926.93566</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B243">
+      <c r="B242" t="n">
         <v>231312700000</v>
       </c>
-      <c r="C243">
+      <c r="C242" t="n">
         <v>0.2143852502947797</v>
       </c>
-      <c r="D243">
+      <c r="D242" t="n">
         <v>49590031085.86129</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B244">
+      <c r="B243" t="n">
         <v>230560200000</v>
       </c>
-      <c r="C244">
+      <c r="C243" t="n">
         <v>0.2108370229812355</v>
       </c>
-      <c r="D244">
+      <c r="D243" t="n">
         <v>48610626185.95825</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B245">
+      <c r="B244" t="n">
         <v>233057600000</v>
       </c>
-      <c r="C245">
+      <c r="C244" t="n">
         <v>0.2044989775051125</v>
       </c>
-      <c r="D245">
+      <c r="D244" t="n">
         <v>47660040899.7955</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B246">
+      <c r="B245" t="n">
         <v>232290300000</v>
       </c>
-      <c r="C246">
+      <c r="C245" t="n">
         <v>0.2033760423022168</v>
       </c>
-      <c r="D246">
+      <c r="D245" t="n">
         <v>47242281879.19463</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B247">
+      <c r="B246" t="n">
         <v>232231100000</v>
       </c>
-      <c r="C247">
+      <c r="C246" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="D247">
+      <c r="D246" t="n">
         <v>48890757894.73684</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B248">
+      <c r="B247" t="n">
         <v>232066900000</v>
       </c>
-      <c r="C248">
+      <c r="C247" t="n">
         <v>0.2138351331123704</v>
       </c>
-      <c r="D248">
+      <c r="D247" t="n">
         <v>49624056452.47514</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B249">
+      <c r="B248" t="n">
         <v>233317300000</v>
       </c>
-      <c r="C249">
+      <c r="C248" t="n">
         <v>0.2147028512538646</v>
       </c>
-      <c r="D249">
+      <c r="D248" t="n">
         <v>50093889556.85331</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B250">
+      <c r="B249" t="n">
         <v>236599100000</v>
       </c>
-      <c r="C250">
+      <c r="C249" t="n">
         <v>0.2050440844781628</v>
       </c>
-      <c r="D250">
+      <c r="D249" t="n">
         <v>48513245847.85729</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B251">
+      <c r="B250" t="n">
         <v>237118300000</v>
       </c>
-      <c r="C251">
+      <c r="C250" t="n">
         <v>0.2095118374188142</v>
       </c>
-      <c r="D251">
+      <c r="D250" t="n">
         <v>49679090718.62561</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B252">
+      <c r="B251" t="n">
         <v>236775500000</v>
       </c>
-      <c r="C252">
+      <c r="C251" t="n">
         <v>0.2153779883695886</v>
       </c>
-      <c r="D252">
+      <c r="D251" t="n">
         <v>50996230885.20353</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B253">
+      <c r="B252" t="n">
         <v>237770500000</v>
       </c>
-      <c r="C253">
+      <c r="C252" t="n">
         <v>0.2108014671782115</v>
       </c>
-      <c r="D253">
+      <c r="D252" t="n">
         <v>50122370251.69695</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B254">
+      <c r="B253" t="n">
         <v>238793700000</v>
       </c>
-      <c r="C254">
+      <c r="C253" t="n">
         <v>0.2074688796680498</v>
       </c>
-      <c r="D254">
+      <c r="D253" t="n">
         <v>49542261410.78838</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B255">
+      <c r="B254" t="n">
         <v>237425400000</v>
       </c>
-      <c r="C255">
+      <c r="C254" t="n">
         <v>0.2077706212341575</v>
       </c>
-      <c r="D255">
+      <c r="D254" t="n">
         <v>49330022854.76834</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B256">
+      <c r="B255" t="n">
         <v>235316800000</v>
       </c>
-      <c r="C256">
+      <c r="C255" t="n">
         <v>0.2131060202450719</v>
       </c>
-      <c r="D256">
+      <c r="D255" t="n">
         <v>50147426744.80554</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B257">
+      <c r="B256" t="n">
         <v>235152500000</v>
       </c>
-      <c r="C257">
+      <c r="C256" t="n">
         <v>0.2198285337436799</v>
       </c>
-      <c r="D257">
+      <c r="D256" t="n">
         <v>51693229281.16069</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B258">
+      <c r="B257" t="n">
         <v>235653900000</v>
       </c>
-      <c r="C258">
+      <c r="C257" t="n">
         <v>0.2279202279202279</v>
       </c>
-      <c r="D258">
+      <c r="D257" t="n">
         <v>53710290598.2906</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B259">
+      <c r="B258" t="n">
         <v>233550400000</v>
       </c>
-      <c r="C259">
+      <c r="C258" t="n">
         <v>0.2312673450508788</v>
       </c>
-      <c r="D259">
+      <c r="D258" t="n">
         <v>54012580943.57077</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B260">
+      <c r="B259" t="n">
         <v>235657500000</v>
       </c>
-      <c r="C260">
+      <c r="C259" t="n">
         <v>0.2245677071637099</v>
       </c>
-      <c r="D260">
+      <c r="D259" t="n">
         <v>52921064450.93195</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B261">
+      <c r="B260" t="n">
         <v>237979700000</v>
       </c>
-      <c r="C261">
+      <c r="C260" t="n">
         <v>0.2247191011235955</v>
       </c>
-      <c r="D261">
+      <c r="D260" t="n">
         <v>53478584269.66292</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B262">
+      <c r="B261" t="n">
         <v>241116000000</v>
       </c>
-      <c r="C262">
+      <c r="C261" t="n">
         <v>0.2249870632438635</v>
       </c>
-      <c r="D262">
+      <c r="D261" t="n">
         <v>54247980741.10738</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B263">
+      <c r="B262" t="n">
         <v>244277100000</v>
       </c>
-      <c r="C263">
+      <c r="C262" t="n">
         <v>0.222667557336896</v>
       </c>
-      <c r="D263">
+      <c r="D262" t="n">
         <v>54392585170.34068</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B264">
+      <c r="B263" t="n">
         <v>242554200000</v>
       </c>
-      <c r="C264">
+      <c r="C263" t="n">
         <v>0.2249718785151856</v>
       </c>
-      <c r="D264">
+      <c r="D263" t="n">
         <v>54567874015.74802</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B265">
+      <c r="B264" t="n">
         <v>242423800000</v>
       </c>
-      <c r="C265">
+      <c r="C264" t="n">
         <v>0.2282062984938384</v>
       </c>
-      <c r="D265">
+      <c r="D264" t="n">
         <v>55322638064.81059</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B266">
+      <c r="B265" t="n">
         <v>247432200000</v>
       </c>
-      <c r="C266">
+      <c r="C265" t="n">
         <v>0.2229803554306866</v>
       </c>
-      <c r="D266">
+      <c r="D265" t="n">
         <v>55172519900.99673</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B267">
+      <c r="B266" t="n">
         <v>244833700000</v>
       </c>
-      <c r="C267">
+      <c r="C266" t="n">
         <v>0.2226576416102601</v>
       </c>
-      <c r="D267">
+      <c r="D266" t="n">
         <v>54514094228.71393</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B268">
+      <c r="B267" t="n">
         <v>243503700000</v>
       </c>
-      <c r="C268">
+      <c r="C267" t="n">
         <v>0.2209944751381215</v>
       </c>
-      <c r="D268">
+      <c r="D267" t="n">
         <v>53812972375.69061</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B269">
+      <c r="B268" t="n">
         <v>244259800000</v>
       </c>
-      <c r="C269">
+      <c r="C268" t="n">
         <v>0.21767522855899</v>
       </c>
-      <c r="D269">
+      <c r="D268" t="n">
         <v>53169307792.77318</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B270">
+      <c r="B269" t="n">
         <v>244662700000</v>
       </c>
-      <c r="C270">
+      <c r="C269" t="n">
         <v>0.2200704225352113</v>
       </c>
-      <c r="D270">
+      <c r="D269" t="n">
         <v>53843023767.60564</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B271">
+      <c r="B270" t="n">
         <v>246161800000</v>
       </c>
-      <c r="C271">
+      <c r="C270" t="n">
         <v>0.2227667631989307</v>
       </c>
-      <c r="D271">
+      <c r="D270" t="n">
         <v>54836667409.22254</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B272">
+      <c r="B271" t="n">
         <v>247645600000</v>
       </c>
-      <c r="C272">
+      <c r="C271" t="n">
         <v>0.2215820961666297</v>
       </c>
-      <c r="D272">
+      <c r="D271" t="n">
         <v>54873831154.44273</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B273">
+      <c r="B272" t="n">
         <v>248832400000</v>
       </c>
-      <c r="C273">
+      <c r="C272" t="n">
         <v>0.2216312056737589</v>
       </c>
-      <c r="D273">
+      <c r="D272" t="n">
         <v>55149024822.69504</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B274">
+      <c r="B273" t="n">
         <v>252335300000</v>
       </c>
-      <c r="C274">
+      <c r="C273" t="n">
         <v>0.2236786185608518</v>
       </c>
-      <c r="D274">
+      <c r="D273" t="n">
         <v>56442011318.1381</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B275">
+      <c r="B274" t="n">
         <v>251575400000</v>
       </c>
-      <c r="C275">
+      <c r="C274" t="n">
         <v>0.2243661655822302</v>
       </c>
-      <c r="D275">
+      <c r="D274" t="n">
         <v>56445007852.8158</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B276">
+      <c r="B275" t="n">
         <v>251598200000</v>
       </c>
-      <c r="C276">
+      <c r="C275" t="n">
         <v>0.2296738631143776</v>
       </c>
-      <c r="D276">
+      <c r="D275" t="n">
         <v>57785530546.62379</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B277">
+      <c r="B276" t="n">
         <v>256059000000</v>
       </c>
-      <c r="C277">
+      <c r="C276" t="n">
         <v>0.2314546927438954</v>
       </c>
-      <c r="D277">
+      <c r="D276" t="n">
         <v>59266057169.3091</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B278">
+      <c r="B277" t="n">
         <v>258336900000</v>
       </c>
-      <c r="C278">
+      <c r="C277" t="n">
         <v>0.2281282080529257</v>
       </c>
-      <c r="D278">
+      <c r="D277" t="n">
         <v>58933934070.94788</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B279">
+      <c r="B278" t="n">
         <v>258681900000</v>
       </c>
-      <c r="C279">
+      <c r="C278" t="n">
         <v>0.2289115256953188</v>
       </c>
-      <c r="D279">
+      <c r="D278" t="n">
         <v>59215268398.76388</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B280">
+      <c r="B279" t="n">
         <v>256407800000</v>
       </c>
-      <c r="C280">
+      <c r="C279" t="n">
         <v>0.2294893861158921</v>
       </c>
-      <c r="D280">
+      <c r="D279" t="n">
         <v>58842868617.32645</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B281">
+      <c r="B280" t="n">
         <v>259594600000</v>
       </c>
-      <c r="C281">
+      <c r="C280" t="n">
         <v>0.2289115256953188</v>
       </c>
-      <c r="D281">
+      <c r="D280" t="n">
         <v>59424195948.26599</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B282">
+      <c r="B281" t="n">
         <v>260406300000</v>
       </c>
-      <c r="C282">
+      <c r="C281" t="n">
         <v>0.2268345242145854</v>
       </c>
-      <c r="D282">
+      <c r="D281" t="n">
         <v>59069139162.9806</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B283">
+      <c r="B282" t="n">
         <v>265362400000</v>
       </c>
-      <c r="C283">
+      <c r="C282" t="n">
         <v>0.2184598580010923</v>
       </c>
-      <c r="D283">
+      <c r="D282" t="n">
         <v>57971032222.82906</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B284">
+      <c r="B283" t="n">
         <v>267910800000</v>
       </c>
-      <c r="C284">
+      <c r="C283" t="n">
         <v>0.2213368747233289</v>
       </c>
-      <c r="D284">
+      <c r="D283" t="n">
         <v>59298539176.62683</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B285">
+      <c r="B284" t="n">
         <v>267306900000</v>
       </c>
-      <c r="C285">
+      <c r="C284" t="n">
         <v>0.2206433961431535</v>
       </c>
-      <c r="D285">
+      <c r="D284" t="n">
         <v>58979502228.49831</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B286">
+      <c r="B285" t="n">
         <v>265307900000</v>
       </c>
-      <c r="C286">
+      <c r="C285" t="n">
         <v>0.2176515398846447</v>
       </c>
-      <c r="D286">
+      <c r="D285" t="n">
         <v>57744672978.56133</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B287">
+      <c r="B286" t="n">
         <v>265180300000</v>
       </c>
-      <c r="C287">
+      <c r="C286" t="n">
         <v>0.2153872663048161</v>
       </c>
-      <c r="D287">
+      <c r="D286" t="n">
         <v>57116459894.89101</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B288">
+      <c r="B287" t="n">
         <v>265374300000</v>
       </c>
-      <c r="C288">
+      <c r="C287" t="n">
         <v>0.2146014850422765</v>
       </c>
-      <c r="D288">
+      <c r="D287" t="n">
         <v>56949718872.0546</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B289">
+      <c r="B288" t="n">
         <v>269664000000</v>
       </c>
-      <c r="C289">
+      <c r="C288" t="n">
         <v>0.2173676774263667</v>
       </c>
-      <c r="D289">
+      <c r="D288" t="n">
         <v>58616237365.50375</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B290">
+      <c r="B289" t="n">
         <v>269822900000</v>
       </c>
-      <c r="C290">
+      <c r="C289" t="n">
         <v>0.2149613069647463</v>
       </c>
-      <c r="D290">
+      <c r="D289" t="n">
         <v>58001483233.01805</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B291">
+      <c r="B290" t="n">
         <v>267555100000</v>
       </c>
-      <c r="C291">
+      <c r="C290" t="n">
         <v>0.2131060202450719</v>
       </c>
-      <c r="D291">
+      <c r="D290" t="n">
         <v>57017602557.27224</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B292">
+      <c r="B291" t="n">
         <v>268358200000</v>
       </c>
-      <c r="C292">
+      <c r="C291" t="n">
         <v>0.2147535702781058</v>
       </c>
-      <c r="D292">
+      <c r="D291" t="n">
         <v>57630881563.40598</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B293">
+      <c r="B292" t="n">
         <v>272180300000</v>
       </c>
-      <c r="C293">
+      <c r="C292" t="n">
         <v>0.2236185961224536</v>
       </c>
-      <c r="D293">
+      <c r="D292" t="n">
         <v>60864576578.18825</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B294">
+      <c r="B293" t="n">
         <v>271529200000</v>
       </c>
-      <c r="C294">
+      <c r="C293" t="n">
         <v>0.2216852512802323</v>
       </c>
-      <c r="D294">
+      <c r="D293" t="n">
         <v>60194018931.92046</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B295">
+      <c r="B294" t="n">
         <v>272924600000</v>
       </c>
-      <c r="C295">
+      <c r="C294" t="n">
         <v>0.2264954361169622</v>
       </c>
-      <c r="D295">
+      <c r="D294" t="n">
         <v>61816176304.04747</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B296">
+      <c r="B295" t="n">
         <v>276535800000</v>
       </c>
-      <c r="C296">
+      <c r="C295" t="n">
         <v>0.2284722063560968</v>
       </c>
-      <c r="D296">
+      <c r="D295" t="n">
         <v>63180744362.4483</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B297">
+      <c r="B296" t="n">
         <v>278050100000</v>
       </c>
-      <c r="C297">
+      <c r="C296" t="n">
         <v>0.2293577981651376</v>
       </c>
-      <c r="D297">
+      <c r="D296" t="n">
         <v>63772958715.59633</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B298">
+      <c r="B297" t="n">
         <v>281820600000</v>
       </c>
-      <c r="C298">
+      <c r="C297" t="n">
         <v>0.2325040688212044</v>
       </c>
-      <c r="D298">
+      <c r="D297" t="n">
         <v>65524436177.6331</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B299">
+      <c r="B298" t="n">
         <v>284425800000</v>
       </c>
-      <c r="C299">
+      <c r="C298" t="n">
         <v>0.234246896228625</v>
       </c>
-      <c r="D299">
+      <c r="D298" t="n">
         <v>66625860857.34364</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B300">
+      <c r="B299" t="n">
         <v>282246800000</v>
       </c>
-      <c r="C300">
+      <c r="C299" t="n">
         <v>0.2364066193853428</v>
       </c>
-      <c r="D300">
+      <c r="D299" t="n">
         <v>66725011820.33096</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B301">
+      <c r="B300" t="n">
         <v>288972600000</v>
       </c>
-      <c r="C301">
+      <c r="C300" t="n">
         <v>0.2374394529395004</v>
       </c>
-      <c r="D301">
+      <c r="D300" t="n">
         <v>68613496058.50509</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B302">
+      <c r="B301" t="n">
         <v>296334000000</v>
       </c>
-      <c r="C302">
+      <c r="C301" t="n">
         <v>0.235626767200754</v>
       </c>
-      <c r="D302">
+      <c r="D301" t="n">
         <v>69824222431.66824</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B303">
+      <c r="B302" t="n">
         <v>300961000000</v>
       </c>
-      <c r="C303">
+      <c r="C302" t="n">
         <v>0.2376425855513308</v>
       </c>
-      <c r="D303">
+      <c r="D302" t="n">
         <v>71521150190.11406</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B304">
+      <c r="B303" t="n">
         <v>303450500000</v>
       </c>
-      <c r="C304">
+      <c r="C303" t="n">
         <v>0.2409058058299205</v>
       </c>
-      <c r="D304">
+      <c r="D303" t="n">
         <v>73102987231.99229</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B305">
+      <c r="B304" t="n">
         <v>310632900000</v>
       </c>
-      <c r="C305">
+      <c r="C304" t="n">
         <v>0.2481697481077057</v>
       </c>
-      <c r="D305">
+      <c r="D304" t="n">
         <v>77089688546.96614</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B306">
+      <c r="B305" t="n">
         <v>313592000000</v>
       </c>
-      <c r="C306">
+      <c r="C305" t="n">
         <v>0.246669955599408</v>
       </c>
-      <c r="D306">
+      <c r="D305" t="n">
         <v>77353724716.32954</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B307">
+      <c r="B306" t="n">
         <v>317231100000</v>
       </c>
-      <c r="C307">
+      <c r="C306" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="D307">
+      <c r="D306" t="n">
         <v>74642611764.70589</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B308">
+      <c r="B307" t="n">
         <v>326471600000</v>
       </c>
-      <c r="C308">
+      <c r="C307" t="n">
         <v>0.2321262766945218</v>
       </c>
-      <c r="D308">
+      <c r="D307" t="n">
         <v>75782636954.50325</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B309">
+      <c r="B308" t="n">
         <v>331851200000</v>
       </c>
-      <c r="C309">
+      <c r="C308" t="n">
         <v>0.2430724355858046</v>
       </c>
-      <c r="D309">
+      <c r="D308" t="n">
         <v>80663879436.07195</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B310">
+      <c r="B309" t="n">
         <v>329756900000</v>
       </c>
-      <c r="C310">
+      <c r="C309" t="n">
         <v>0.24919013207077</v>
       </c>
-      <c r="D310">
+      <c r="D309" t="n">
         <v>82172165462.2477</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B311">
+      <c r="B310" t="n">
         <v>332953100000</v>
       </c>
-      <c r="C311">
+      <c r="C310" t="n">
         <v>0.2529084471421346</v>
       </c>
-      <c r="D311">
+      <c r="D310" t="n">
         <v>84206651492.15984</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B312">
+      <c r="B311" t="n">
         <v>328750600000</v>
       </c>
-      <c r="C312">
+      <c r="C311" t="n">
         <v>0.261437908496732</v>
       </c>
-      <c r="D312">
+      <c r="D311" t="n">
         <v>85947869281.04576</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B313">
+      <c r="B312" t="n">
         <v>330688400000</v>
       </c>
-      <c r="C313">
+      <c r="C312" t="n">
         <v>0.2601456815816858</v>
       </c>
-      <c r="D313">
+      <c r="D312" t="n">
         <v>86027159209.15714</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B314">
+      <c r="B313" t="n">
         <v>333976700000</v>
       </c>
-      <c r="C314">
+      <c r="C313" t="n">
         <v>0.2770083102493075</v>
       </c>
-      <c r="D314">
+      <c r="D313" t="n">
         <v>92514321329.63989</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B315">
+      <c r="B314" t="n">
         <v>332090100000</v>
       </c>
-      <c r="C315">
+      <c r="C314" t="n">
         <v>0.2747252747252747</v>
       </c>
-      <c r="D315">
+      <c r="D314" t="n">
         <v>91233543956.04395</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B316">
+      <c r="B315" t="n">
         <v>338119300000</v>
       </c>
-      <c r="C316">
+      <c r="C315" t="n">
         <v>0.2834467120181406</v>
       </c>
-      <c r="D316">
+      <c r="D315" t="n">
         <v>95838803854.87529</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B317">
+      <c r="B316" t="n">
         <v>343601000000</v>
       </c>
-      <c r="C317">
+      <c r="C316" t="n">
         <v>0.2924831822170225</v>
       </c>
-      <c r="D317">
+      <c r="D316" t="n">
         <v>100497513892.9512</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B318">
+      <c r="B317" t="n">
         <v>344694800000</v>
       </c>
-      <c r="C318">
+      <c r="C317" t="n">
         <v>0.3094059405940594</v>
       </c>
-      <c r="D318">
+      <c r="D317" t="n">
         <v>106650618811.8812</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B319">
+      <c r="B318" t="n">
         <v>344960700000</v>
       </c>
-      <c r="C319">
+      <c r="C318" t="n">
         <v>0.2985074626865671</v>
       </c>
-      <c r="D319">
+      <c r="D318" t="n">
         <v>102973343283.5821</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B320">
+      <c r="B319" t="n">
         <v>348894400000</v>
       </c>
-      <c r="C320">
+      <c r="C319" t="n">
         <v>0.2868617326448651</v>
       </c>
-      <c r="D320">
+      <c r="D319" t="n">
         <v>100084452094.0906</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B321">
+      <c r="B320" t="n">
         <v>348499500000</v>
       </c>
-      <c r="C321">
+      <c r="C320" t="n">
         <v>0.2793296089385475</v>
       </c>
-      <c r="D321">
+      <c r="D320" t="n">
         <v>97346229050.27933</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B322">
+      <c r="B321" t="n">
         <v>355544700000</v>
       </c>
-      <c r="C322">
+      <c r="C321" t="n">
         <v>0.2896032435563278</v>
       </c>
-      <c r="D322">
+      <c r="D321" t="n">
         <v>102966898349.2615</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B323">
+      <c r="B322" t="n">
         <v>366841200000</v>
       </c>
-      <c r="C323">
+      <c r="C322" t="n">
         <v>0.2680965147453083</v>
       </c>
-      <c r="D323">
+      <c r="D322" t="n">
         <v>98348847184.9866</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B324">
+      <c r="B323" t="n">
         <v>365782600000</v>
       </c>
-      <c r="C324">
+      <c r="C323" t="n">
         <v>0.2544464517442304</v>
       </c>
-      <c r="D324">
+      <c r="D323" t="n">
         <v>93072084679.77914</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B325">
+      <c r="B324" t="n">
         <v>375249300000</v>
       </c>
-      <c r="C325">
+      <c r="C324" t="n">
         <v>0.2649708532061473</v>
       </c>
-      <c r="D325">
+      <c r="D324" t="n">
         <v>99430127186.00954</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B326">
+      <c r="B325" t="n">
         <v>389044200000</v>
       </c>
-      <c r="C326">
+      <c r="C325" t="n">
         <v>0.2464875523786049</v>
       </c>
-      <c r="D326">
+      <c r="D325" t="n">
         <v>95894552625.09242</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B327">
+      <c r="B326" t="n">
         <v>393428300000</v>
       </c>
-      <c r="C327">
+      <c r="C326" t="n">
         <v>0.2407318247472316</v>
       </c>
-      <c r="D327">
+      <c r="D326" t="n">
         <v>94710712566.20125</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B328">
+      <c r="B327" t="n">
         <v>399951000000</v>
       </c>
-      <c r="C328">
+      <c r="C327" t="n">
         <v>0.2373605506764776</v>
       </c>
-      <c r="D328">
+      <c r="D327" t="n">
         <v>94932589603.60788</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B329">
+      <c r="B328" t="n">
         <v>407642900000</v>
       </c>
-      <c r="C329">
+      <c r="C328" t="n">
         <v>0.2388801299507907</v>
       </c>
-      <c r="D329">
+      <c r="D328" t="n">
         <v>97377788925.51717</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B330">
+      <c r="B329" t="n">
         <v>407514900000</v>
       </c>
-      <c r="C330">
+      <c r="C329" t="n">
         <v>0.2551020408163265</v>
       </c>
-      <c r="D330">
+      <c r="D329" t="n">
         <v>103957882653.0612</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B331">
+      <c r="B330" t="n">
         <v>411136000000</v>
       </c>
-      <c r="C331">
+      <c r="C330" t="n">
         <v>0.255303939339784</v>
       </c>
-      <c r="D331">
+      <c r="D330" t="n">
         <v>104964640404.4014</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B332">
+      <c r="B331" t="n">
         <v>413626300000</v>
       </c>
-      <c r="C332">
+      <c r="C331" t="n">
         <v>0.2657595407675136</v>
       </c>
-      <c r="D332">
+      <c r="D331" t="n">
         <v>109925135537.3658</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B333">
+      <c r="B332" t="n">
         <v>420072500000</v>
       </c>
-      <c r="C333">
+      <c r="C332" t="n">
         <v>0.2636505048907169</v>
       </c>
-      <c r="D333">
+      <c r="D332" t="n">
         <v>110752326715.7057</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B334">
+      <c r="B333" t="n">
         <v>425299600000</v>
       </c>
-      <c r="C334">
+      <c r="C333" t="n">
         <v>0.2656818725258376</v>
       </c>
-      <c r="D334">
+      <c r="D333" t="n">
         <v>112994394112.4897</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B335">
+      <c r="B334" t="n">
         <v>424657800000</v>
       </c>
-      <c r="C335">
+      <c r="C334" t="n">
         <v>0.2663896214603479</v>
       </c>
-      <c r="D335">
+      <c r="D334" t="n">
         <v>113124430592.1841</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B336">
+      <c r="B335" t="n">
         <v>424180500000</v>
       </c>
-      <c r="C336">
+      <c r="C335" t="n">
         <v>0.2642775971880864</v>
       </c>
-      <c r="D336">
+      <c r="D335" t="n">
         <v>112101403314.0411</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B337">
+      <c r="B336" t="n">
         <v>426196200000</v>
       </c>
-      <c r="C337">
+      <c r="C336" t="n">
         <v>0.2642077729926814</v>
       </c>
-      <c r="D337">
+      <c r="D336" t="n">
         <v>112604348859.9435</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B338">
+      <c r="B337" t="n">
         <v>428392900000</v>
       </c>
-      <c r="C338">
+      <c r="C337" t="n">
         <v>0.268651102812777</v>
       </c>
-      <c r="D338">
+      <c r="D337" t="n">
         <v>115088225022.1637</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B339">
+      <c r="B338" t="n">
         <v>423594100000</v>
       </c>
-      <c r="C339">
+      <c r="C338" t="n">
         <v>0.2647884340412011</v>
       </c>
-      <c r="D339">
+      <c r="D338" t="n">
         <v>112162818408.0919</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B340">
+      <c r="B339" t="n">
         <v>420351000000</v>
       </c>
-      <c r="C340">
+      <c r="C339" t="n">
         <v>0.270929287455974</v>
       </c>
-      <c r="D340">
+      <c r="D339" t="n">
         <v>113885396911.4061</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B341">
+      <c r="B340" t="n">
         <v>426096800000</v>
       </c>
-      <c r="C341">
+      <c r="C340" t="n">
         <v>0.2688172043010753</v>
       </c>
-      <c r="D341">
+      <c r="D340" t="n">
         <v>114542150537.6344</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B342">
+      <c r="B341" t="n">
         <v>427779500000</v>
       </c>
-      <c r="C342">
+      <c r="C341" t="n">
         <v>0.2590673575129534</v>
       </c>
-      <c r="D342">
+      <c r="D341" t="n">
         <v>110823704663.2124</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B343">
+      <c r="B342" t="n">
         <v>427304600000</v>
       </c>
-      <c r="C343">
+      <c r="C342" t="n">
         <v>0.2577585318074028</v>
       </c>
-      <c r="D343">
+      <c r="D342" t="n">
         <v>110141406330.5495</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B344">
+      <c r="B343" t="n">
         <v>428143000000</v>
       </c>
-      <c r="C344">
+      <c r="C343" t="n">
         <v>0.265653640783147</v>
       </c>
-      <c r="D344">
+      <c r="D343" t="n">
         <v>113737746725.8189</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B345">
+      <c r="B344" t="n">
         <v>422718500000</v>
       </c>
-      <c r="C345">
+      <c r="C344" t="n">
         <v>0.2628397203385375</v>
       </c>
-      <c r="D345">
+      <c r="D344" t="n">
         <v>111107212321.9261</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B346">
+      <c r="B345" t="n">
         <v>428997100000</v>
       </c>
-      <c r="C346">
+      <c r="C345" t="n">
         <v>0.2756035718222908</v>
       </c>
-      <c r="D346">
+      <c r="D345" t="n">
         <v>118233133061.4045</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B347">
+      <c r="B346" t="n">
         <v>428509000000</v>
       </c>
-      <c r="C347">
+      <c r="C346" t="n">
         <v>0.2751031636863824</v>
       </c>
-      <c r="D347">
+      <c r="D346" t="n">
         <v>117884181568.088</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B348">
+      <c r="B347" t="n">
         <v>432279500000</v>
       </c>
-      <c r="C348">
+      <c r="C347" t="n">
         <v>0.2721680910130096</v>
       </c>
-      <c r="D348">
+      <c r="D347" t="n">
         <v>117652686299.0583</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B349">
+      <c r="B348" t="n">
         <v>441510400000</v>
       </c>
-      <c r="C349">
+      <c r="C348" t="n">
         <v>0.2824938557586373</v>
       </c>
-      <c r="D349">
+      <c r="D348" t="n">
         <v>124723975253.5383</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B350">
+      <c r="B349" t="n">
         <v>451988000000</v>
       </c>
-      <c r="C350">
+      <c r="C349" t="n">
         <v>0.2699856907583898</v>
       </c>
-      <c r="D350">
+      <c r="D349" t="n">
         <v>122030292394.5031</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B351">
+      <c r="B350" t="n">
         <v>452665300000</v>
       </c>
-      <c r="C351">
+      <c r="C350" t="n">
         <v>0.2761286759629987</v>
       </c>
-      <c r="D351">
+      <c r="D350" t="n">
         <v>124993869943.3936</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B352">
+      <c r="B351" t="n">
         <v>451648100000</v>
       </c>
-      <c r="C352">
+      <c r="C351" t="n">
         <v>0.2878691922390466</v>
       </c>
-      <c r="D352">
+      <c r="D351" t="n">
         <v>130015573723.3001</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B353">
+      <c r="B352" t="n">
         <v>453020900000</v>
       </c>
-      <c r="C353">
+      <c r="C352" t="n">
         <v>0.2976190476190476</v>
       </c>
-      <c r="D353">
+      <c r="D352" t="n">
         <v>134827648809.5238</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B354">
+      <c r="B353" t="n">
         <v>463405400000</v>
       </c>
-      <c r="C354">
+      <c r="C353" t="n">
         <v>0.2925430769680836</v>
       </c>
-      <c r="D354">
+      <c r="D353" t="n">
         <v>135566041599.6255</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B355">
+      <c r="B354" t="n">
         <v>466954000000</v>
       </c>
-      <c r="C355">
+      <c r="C354" t="n">
         <v>0.2945941964943291</v>
       </c>
-      <c r="D355">
+      <c r="D354" t="n">
         <v>137561938429.8129</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B356">
+      <c r="B355" t="n">
         <v>467679200000</v>
       </c>
-      <c r="C356">
+      <c r="C355" t="n">
         <v>0.2926115581565472</v>
       </c>
-      <c r="D356">
+      <c r="D355" t="n">
         <v>136848339429.4075</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B357">
+      <c r="B356" t="n">
         <v>475676200000</v>
       </c>
-      <c r="C357">
+      <c r="C356" t="n">
         <v>0.2809935933460717</v>
       </c>
-      <c r="D357">
+      <c r="D356" t="n">
         <v>133661964707.2047</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B358">
+      <c r="B357" t="n">
         <v>486082000000</v>
       </c>
-      <c r="C358">
+      <c r="C357" t="n">
         <v>0.2692514808831449</v>
       </c>
-      <c r="D358">
+      <c r="D357" t="n">
         <v>130878298330.6408</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B359">
+      <c r="B358" t="n">
         <v>488335100000</v>
       </c>
-      <c r="C359">
+      <c r="C358" t="n">
         <v>0.2767629801837706</v>
       </c>
-      <c r="D359">
+      <c r="D358" t="n">
         <v>135153077604.3396</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B360">
+      <c r="B359" t="n">
         <v>482394300000</v>
       </c>
-      <c r="C360">
+      <c r="C359" t="n">
         <v>0.2661698163428267</v>
       </c>
-      <c r="D360">
+      <c r="D359" t="n">
         <v>128398802235.8264</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B361">
+      <c r="B360" t="n">
         <v>487757500000</v>
       </c>
-      <c r="C361">
+      <c r="C360" t="n">
         <v>0.262501640635254</v>
       </c>
-      <c r="D361">
+      <c r="D360" t="n">
         <v>128037143982.1499</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B362">
+      <c r="B361" t="n">
         <v>499917100000</v>
       </c>
-      <c r="C362">
+      <c r="C361" t="n">
         <v>0.2677232812165346</v>
       </c>
-      <c r="D362">
+      <c r="D361" t="n">
         <v>133839446348.2545</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B363">
+      <c r="B362" t="n">
         <v>492686800000</v>
       </c>
-      <c r="C363">
+      <c r="C362" t="n">
         <v>0.2647603918453799</v>
       </c>
-      <c r="D363">
+      <c r="D362" t="n">
         <v>130443950225.0463</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B364">
+      <c r="B363" t="n">
         <v>492045800000</v>
       </c>
-      <c r="C364">
+      <c r="C363" t="n">
         <v>0.2702337521956493</v>
       </c>
-      <c r="D364">
+      <c r="D363" t="n">
         <v>132967382786.11</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B365">
+      <c r="B364" t="n">
         <v>500886500000</v>
       </c>
-      <c r="C365">
+      <c r="C364" t="n">
         <v>0.2659786685107854</v>
       </c>
-      <c r="D365">
+      <c r="D364" t="n">
         <v>133225124345.0275</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B366">
+      <c r="B365" t="n">
         <v>495523000000</v>
       </c>
-      <c r="C366">
+      <c r="C365" t="n">
         <v>0.2563773875144212</v>
       </c>
-      <c r="D366">
+      <c r="D365" t="n">
         <v>127040892193.3086</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B367">
+      <c r="B366" t="n">
         <v>503946600000</v>
       </c>
-      <c r="C367">
+      <c r="C366" t="n">
         <v>0.2560491614389963</v>
       </c>
-      <c r="D367">
+      <c r="D366" t="n">
         <v>129035104340.0333</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B368">
+      <c r="B367" t="n">
         <v>511333300000</v>
       </c>
-      <c r="C368">
+      <c r="C367" t="n">
         <v>0.2513383768567622</v>
       </c>
-      <c r="D368">
+      <c r="D367" t="n">
         <v>128517681654.8119</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B369">
+      <c r="B368" t="n">
         <v>514689500000</v>
       </c>
-      <c r="C369">
+      <c r="C368" t="n">
         <v>0.2494076568150642</v>
       </c>
-      <c r="D369">
+      <c r="D368" t="n">
         <v>128367502182.317</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B370">
+      <c r="B369" t="n">
         <v>520998200000</v>
       </c>
-      <c r="C370">
+      <c r="C369" t="n">
         <v>0.25552574421873</v>
       </c>
-      <c r="D370">
+      <c r="D369" t="n">
         <v>133128452791.6188</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B371">
+      <c r="B370" t="n">
         <v>518500600000</v>
       </c>
-      <c r="C371">
+      <c r="C370" t="n">
         <v>0.2576323586242432</v>
       </c>
-      <c r="D371">
+      <c r="D370" t="n">
         <v>133582532526.0853</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B372">
+      <c r="B371" t="n">
         <v>522499500000</v>
       </c>
-      <c r="C372">
+      <c r="C371" t="n">
         <v>0.2624052061192894</v>
       </c>
-      <c r="D372">
+      <c r="D371" t="n">
         <v>137106588994.7257</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B373">
+      <c r="B372" t="n">
         <v>527619300000.0001</v>
       </c>
-      <c r="C373">
+      <c r="C372" t="n">
         <v>0.2681540276734957</v>
       </c>
-      <c r="D373">
+      <c r="D372" t="n">
         <v>141483240373.2704</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B374">
+      <c r="B373" t="n">
         <v>530065699999.9999</v>
       </c>
-      <c r="C374">
+      <c r="C373" t="n">
         <v>0.269774468544297</v>
       </c>
-      <c r="D374">
+      <c r="D373" t="n">
         <v>142998192511.0607</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B375">
+      <c r="B374" t="n">
         <v>526010900000</v>
       </c>
-      <c r="C375">
+      <c r="C374" t="n">
         <v>0.269432843863667</v>
       </c>
-      <c r="D375">
+      <c r="D374" t="n">
         <v>141724612690.287</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B376">
+      <c r="B375" t="n">
         <v>530669400000</v>
       </c>
-      <c r="C376">
+      <c r="C375" t="n">
         <v>0.2747252747252747</v>
       </c>
-      <c r="D376">
+      <c r="D375" t="n">
         <v>145788296703.2967</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B377">
+      <c r="B376" t="n">
         <v>534103300000.0001</v>
       </c>
-      <c r="C377">
+      <c r="C376" t="n">
         <v>0.279290601871247</v>
       </c>
-      <c r="D377">
+      <c r="D376" t="n">
         <v>149170032118.4193</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B378">
+      <c r="B377" t="n">
         <v>536555400000</v>
       </c>
-      <c r="C378">
+      <c r="C377" t="n">
         <v>0.2714293469409912</v>
       </c>
-      <c r="D378">
+      <c r="D377" t="n">
         <v>145636881819.6623</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B379">
+      <c r="B378" t="n">
         <v>532349000000</v>
       </c>
-      <c r="C379">
+      <c r="C378" t="n">
         <v>0.2759229623089233</v>
       </c>
-      <c r="D379">
+      <c r="D378" t="n">
         <v>146887313062.193</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B380">
+      <c r="B379" t="n">
         <v>536553500000</v>
       </c>
-      <c r="C380">
+      <c r="C379" t="n">
         <v>0.2808121086181236</v>
       </c>
-      <c r="D380">
+      <c r="D379" t="n">
         <v>150670719721.4344</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B381">
+      <c r="B380" t="n">
         <v>542158300000.0001</v>
       </c>
-      <c r="C381">
+      <c r="C380" t="n">
         <v>0.2753303964757709</v>
       </c>
-      <c r="D381">
+      <c r="D380" t="n">
         <v>149272659691.63</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B382">
+      <c r="B381" t="n">
         <v>547957300000.0001</v>
       </c>
-      <c r="C382">
+      <c r="C381" t="n">
         <v>0.2838489923360772</v>
       </c>
-      <c r="D382">
+      <c r="D381" t="n">
         <v>155537127448.1976</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B383">
+      <c r="B382" t="n">
         <v>547775100000</v>
       </c>
-      <c r="C383">
+      <c r="C382" t="n">
         <v>0.2838651073010106</v>
       </c>
-      <c r="D383">
+      <c r="D382" t="n">
         <v>155494237538.3218</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B384">
+      <c r="B383" t="n">
         <v>553402900000</v>
       </c>
-      <c r="C384">
+      <c r="C383" t="n">
         <v>0.2845354958031014</v>
       </c>
-      <c r="D384">
+      <c r="D383" t="n">
         <v>157462768530.3742</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B385">
+      <c r="B384" t="n">
         <v>562252500000</v>
       </c>
-      <c r="C385">
+      <c r="C384" t="n">
         <v>0.2884670859054982</v>
       </c>
-      <c r="D385">
+      <c r="D384" t="n">
         <v>162191340218.0811</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B386">
+      <c r="B385" t="n">
         <v>564578400000</v>
       </c>
-      <c r="C386">
+      <c r="C385" t="n">
         <v>0.2858122784954841</v>
       </c>
-      <c r="D386">
+      <c r="D385" t="n">
         <v>161363438893.3348</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B387">
+      <c r="B386" t="n">
         <v>563984600000</v>
       </c>
-      <c r="C387">
+      <c r="C386" t="n">
         <v>0.2870264064293915</v>
       </c>
-      <c r="D387">
+      <c r="D386" t="n">
         <v>161878473019.5178</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B388">
+      <c r="B387" t="n">
         <v>569376400000</v>
       </c>
-      <c r="C388">
+      <c r="C387" t="n">
         <v>0.287463707706902</v>
       </c>
-      <c r="D388">
+      <c r="D387" t="n">
         <v>163675051024.8081</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B389">
+      <c r="B388" t="n">
         <v>577837000000</v>
       </c>
-      <c r="C389">
+      <c r="C388" t="n">
         <v>0.2891259721860815</v>
       </c>
-      <c r="D389">
+      <c r="D388" t="n">
         <v>167067684390.0888</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B390">
+      <c r="B389" t="n">
         <v>575260100000</v>
       </c>
-      <c r="C390">
+      <c r="C389" t="n">
         <v>0.288334006112681</v>
       </c>
-      <c r="D390">
+      <c r="D389" t="n">
         <v>165867049189.7815</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B391">
+      <c r="B390" t="n">
         <v>576437600000</v>
       </c>
-      <c r="C391">
+      <c r="C390" t="n">
         <v>0.2916897587725695</v>
       </c>
-      <c r="D391">
+      <c r="D390" t="n">
         <v>168140944491.4389</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B392">
+      <c r="B391" t="n">
         <v>580493600000</v>
       </c>
-      <c r="C392">
+      <c r="C391" t="n">
         <v>0.2919708029197081</v>
       </c>
-      <c r="D392">
+      <c r="D391" t="n">
         <v>169487182481.7518</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B393">
+      <c r="B392" t="n">
         <v>584491000000</v>
       </c>
-      <c r="C393">
+      <c r="C392" t="n">
         <v>0.2802297884265098</v>
       </c>
-      <c r="D393">
+      <c r="D392" t="n">
         <v>163791789267.1991</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B394">
+      <c r="B393" t="n">
         <v>591059200000</v>
       </c>
-      <c r="C394">
+      <c r="C393" t="n">
         <v>0.2727917507774565</v>
       </c>
-      <c r="D394">
+      <c r="D393" t="n">
         <v>161236073981.1228</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B395">
+      <c r="B394" t="n">
         <v>594225800000</v>
       </c>
-      <c r="C395">
+      <c r="C394" t="n">
         <v>0.263005628320446</v>
       </c>
-      <c r="D395">
+      <c r="D394" t="n">
         <v>156284729893.2197</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B396">
+      <c r="B395" t="n">
         <v>599648600000</v>
       </c>
-      <c r="C396">
+      <c r="C395" t="n">
         <v>0.2569769234722722</v>
       </c>
-      <c r="D396">
+      <c r="D395" t="n">
         <v>154095852392.4552</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B397">
+      <c r="B396" t="n">
         <v>609642700000</v>
       </c>
-      <c r="C397">
+      <c r="C396" t="n">
         <v>0.2569307057886488</v>
       </c>
-      <c r="D397">
+      <c r="D396" t="n">
         <v>156635929189.8975</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B398">
+      <c r="B397" t="n">
         <v>619369400000</v>
       </c>
-      <c r="C398">
+      <c r="C397" t="n">
         <v>0.2545565624681804</v>
       </c>
-      <c r="D398">
+      <c r="D397" t="n">
         <v>157664545361.9794</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B399">
+      <c r="B398" t="n">
         <v>627591700000</v>
       </c>
-      <c r="C399">
+      <c r="C398" t="n">
         <v>0.2514711059699241</v>
       </c>
-      <c r="D399">
+      <c r="D398" t="n">
         <v>157821178896.5448</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B400">
+      <c r="B399" t="n">
         <v>639063300000</v>
       </c>
-      <c r="C400">
+      <c r="C399" t="n">
         <v>0.2514774299006664</v>
       </c>
-      <c r="D400">
+      <c r="D399" t="n">
         <v>160709996227.8385</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B401">
+      <c r="B400" t="n">
         <v>647371500000</v>
       </c>
-      <c r="C401">
+      <c r="C400" t="n">
         <v>0.2594235608477962</v>
       </c>
-      <c r="D401">
+      <c r="D400" t="n">
         <v>167943419721.3791</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B402">
+      <c r="B401" t="n">
         <v>651276400000</v>
       </c>
-      <c r="C402">
+      <c r="C401" t="n">
         <v>0.2596862989508674</v>
       </c>
-      <c r="D402">
+      <c r="D401" t="n">
         <v>169127557910.0447</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B403">
+      <c r="B402" t="n">
         <v>658167100000</v>
       </c>
-      <c r="C403">
+      <c r="C402" t="n">
         <v>0.2652871733651678</v>
       </c>
-      <c r="D403">
+      <c r="D402" t="n">
         <v>174603289560.9497</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B404">
+      <c r="B403" t="n">
         <v>660074100000</v>
       </c>
-      <c r="C404">
+      <c r="C403" t="n">
         <v>0.2658867322520606</v>
       </c>
-      <c r="D404">
+      <c r="D403" t="n">
         <v>175504945493.2199</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B405">
+      <c r="B404" t="n">
         <v>663528800000</v>
       </c>
-      <c r="C405">
+      <c r="C404" t="n">
         <v>0.2550630005611386</v>
       </c>
-      <c r="D405">
+      <c r="D404" t="n">
         <v>169241646686.7316</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B406">
+      <c r="B405" t="n">
         <v>680513800000</v>
       </c>
-      <c r="C406">
+      <c r="C405" t="n">
         <v>0.2550044625780951</v>
       </c>
-      <c r="D406">
+      <c r="D405" t="n">
         <v>173534055845.9773</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B407">
+      <c r="B406" t="n">
         <v>681415100000</v>
       </c>
-      <c r="C407">
+      <c r="C406" t="n">
         <v>0.259000259000259</v>
       </c>
-      <c r="D407">
+      <c r="D406" t="n">
         <v>176486687386.6874</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B408">
+      <c r="B407" t="n">
         <v>686142200000</v>
       </c>
-      <c r="C408">
+      <c r="C407" t="n">
         <v>0.2584112874050338</v>
       </c>
-      <c r="D408">
+      <c r="D407" t="n">
         <v>177306889244.9222</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B409">
+      <c r="B408" t="n">
         <v>692268100000</v>
       </c>
-      <c r="C409">
+      <c r="C408" t="n">
         <v>0.2571288987169268</v>
       </c>
-      <c r="D409">
+      <c r="D408" t="n">
         <v>178002134169.8593</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B410">
+      <c r="B409" t="n">
         <v>696747800000</v>
       </c>
-      <c r="C410">
+      <c r="C409" t="n">
         <v>0.2528572873470213</v>
       </c>
-      <c r="D410">
+      <c r="D409" t="n">
         <v>176177758673.0049</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B411">
+      <c r="B410" t="n">
         <v>702928000000</v>
       </c>
-      <c r="C411">
+      <c r="C410" t="n">
         <v>0.2562459961563101</v>
       </c>
-      <c r="D411">
+      <c r="D410" t="n">
         <v>180122485586.1627</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B412">
+      <c r="B411" t="n">
         <v>704187600000</v>
       </c>
-      <c r="C412">
+      <c r="C411" t="n">
         <v>0.2662052442433116</v>
       </c>
-      <c r="D412">
+      <c r="D411" t="n">
         <v>187458432051.1114</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B413">
+      <c r="B412" t="n">
         <v>713745100000</v>
       </c>
-      <c r="C413">
+      <c r="C412" t="n">
         <v>0.2672296304214211</v>
       </c>
-      <c r="D413">
+      <c r="D412" t="n">
         <v>190733839288.1003</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B414">
+      <c r="B413" t="n">
         <v>718977500000</v>
       </c>
-      <c r="C414">
+      <c r="C413" t="n">
         <v>0.2599563273370074</v>
       </c>
-      <c r="D414">
+      <c r="D413" t="n">
         <v>186902750337.9432</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B415">
+      <c r="B414" t="n">
         <v>734277300000</v>
       </c>
-      <c r="C415">
+      <c r="C414" t="n">
         <v>0.2593024763386491</v>
       </c>
-      <c r="D415">
+      <c r="D414" t="n">
         <v>190399922209.2571</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B416">
+      <c r="B415" t="n">
         <v>738121300000</v>
       </c>
-      <c r="C416">
+      <c r="C415" t="n">
         <v>0.2624809701296656</v>
       </c>
-      <c r="D416">
+      <c r="D415" t="n">
         <v>193742794897.3699</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B417">
+      <c r="B416" t="n">
         <v>740007400000</v>
       </c>
-      <c r="C417">
+      <c r="C416" t="n">
         <v>0.2650129856362962</v>
       </c>
-      <c r="D417">
+      <c r="D416" t="n">
         <v>196111570466.9529</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B418">
+      <c r="B417" t="n">
         <v>742339100000</v>
       </c>
-      <c r="C418">
+      <c r="C417" t="n">
         <v>0.2668944165688054</v>
       </c>
-      <c r="D418">
+      <c r="D417" t="n">
         <v>198126160990.7121</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B419">
+      <c r="B418" t="n">
         <v>742436600000</v>
       </c>
-      <c r="C419">
+      <c r="C418" t="n">
         <v>0.2610284521012791</v>
       </c>
-      <c r="D419">
+      <c r="D418" t="n">
         <v>193797076481.3365</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B420">
+      <c r="B419" t="n">
         <v>740616900000</v>
       </c>
-      <c r="C420">
+      <c r="C419" t="n">
         <v>0.261110240743642</v>
       </c>
-      <c r="D420">
+      <c r="D419" t="n">
         <v>193382657057.8098</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B421">
+      <c r="B420" t="n">
         <v>747274700000</v>
       </c>
-      <c r="C421">
+      <c r="C420" t="n">
         <v>0.2605455824496496</v>
       </c>
-      <c r="D421">
+      <c r="D420" t="n">
         <v>194699121961.3872</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B422">
+      <c r="B421" t="n">
         <v>761155500000</v>
       </c>
-      <c r="C422">
+      <c r="C421" t="n">
         <v>0.2658231212950903</v>
       </c>
-      <c r="D422">
+      <c r="D421" t="n">
         <v>202332730800.9251</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B423">
+      <c r="B422" t="n">
         <v>767259500000</v>
       </c>
-      <c r="C423">
+      <c r="C422" t="n">
         <v>0.274649821477616</v>
       </c>
-      <c r="D423">
+      <c r="D422" t="n">
         <v>210727684702.0049</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B424">
+      <c r="B423" t="n">
         <v>769309300000</v>
       </c>
-      <c r="C424">
+      <c r="C423" t="n">
         <v>0.2758392408904091</v>
       </c>
-      <c r="D424">
+      <c r="D423" t="n">
         <v>212205693321.932</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B425">
+      <c r="B424" t="n">
         <v>778131000000</v>
       </c>
-      <c r="C425">
+      <c r="C424" t="n">
         <v>0.2769162605228179</v>
       </c>
-      <c r="D425">
+      <c r="D424" t="n">
         <v>215477126716.8808</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B426">
+      <c r="B425" t="n">
         <v>773540400000</v>
       </c>
-      <c r="C426">
+      <c r="C425" t="n">
         <v>0.2829574714920348</v>
       </c>
-      <c r="D426">
+      <c r="D425" t="n">
         <v>218879035680.9372</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B427">
+      <c r="B426" t="n">
         <v>789848000000</v>
       </c>
-      <c r="C427">
+      <c r="C426" t="n">
         <v>0.2871500358937545</v>
       </c>
-      <c r="D427">
+      <c r="D426" t="n">
         <v>226804881550.6102</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B428">
+      <c r="B427" t="n">
         <v>798794500000</v>
       </c>
-      <c r="C428">
+      <c r="C427" t="n">
         <v>0.2814443725197714</v>
       </c>
-      <c r="D428">
+      <c r="D427" t="n">
         <v>224816216824.7446</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B429">
+      <c r="B428" t="n">
         <v>797691600000</v>
       </c>
-      <c r="C429">
+      <c r="C428" t="n">
         <v>0.2802297884265098</v>
       </c>
-      <c r="D429">
+      <c r="D428" t="n">
         <v>223536948297.604</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B430">
+      <c r="B429" t="n">
         <v>808309200000</v>
       </c>
-      <c r="C430">
+      <c r="C429" t="n">
         <v>0.2832540222071153</v>
       </c>
-      <c r="D430">
+      <c r="D429" t="n">
         <v>228956832087.0156</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B431">
+      <c r="B430" t="n">
         <v>798852700000</v>
       </c>
-      <c r="C431">
+      <c r="C430" t="n">
         <v>0.2845193046348195</v>
       </c>
-      <c r="D431">
+      <c r="D430" t="n">
         <v>227289014709.6481</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B432">
+      <c r="B431" t="n">
         <v>798915300000</v>
       </c>
-      <c r="C432">
+      <c r="C431" t="n">
         <v>0.2864180557942372</v>
       </c>
-      <c r="D432">
+      <c r="D431" t="n">
         <v>228823766970.2698</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B433">
+      <c r="B432" t="n">
         <v>809904800000</v>
       </c>
-      <c r="C433">
+      <c r="C432" t="n">
         <v>0.2877532228360958</v>
       </c>
-      <c r="D433">
+      <c r="D432" t="n">
         <v>233052716390.4236</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B434">
+      <c r="B433" t="n">
         <v>819159600000</v>
       </c>
-      <c r="C434">
+      <c r="C433" t="n">
         <v>0.2927571871889455</v>
       </c>
-      <c r="D434">
+      <c r="D433" t="n">
         <v>239814860354.8217</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B435">
+      <c r="B434" t="n">
         <v>810881400000</v>
       </c>
-      <c r="C435">
+      <c r="C434" t="n">
         <v>0.2879769618430525</v>
       </c>
-      <c r="D435">
+      <c r="D434" t="n">
         <v>233515161987.041</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B436">
+      <c r="B435" t="n">
         <v>814795000000</v>
       </c>
-      <c r="C436">
+      <c r="C435" t="n">
         <v>0.2867465733784481</v>
       </c>
-      <c r="D436">
+      <c r="D435" t="n">
         <v>233639674255.8926</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B437">
+      <c r="B436" t="n">
         <v>819928800000</v>
       </c>
-      <c r="C437">
+      <c r="C436" t="n">
         <v>0.2782647410746584</v>
       </c>
-      <c r="D437">
+      <c r="D436" t="n">
         <v>228157275231.6554</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B438">
+      <c r="B437" t="n">
         <v>822588500000</v>
       </c>
-      <c r="C438">
+      <c r="C437" t="n">
         <v>0.28109627547435</v>
       </c>
-      <c r="D438">
+      <c r="D437" t="n">
         <v>231226563598.0323</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B439">
+      <c r="B438" t="n">
         <v>827771700000</v>
       </c>
-      <c r="C439">
+      <c r="C438" t="n">
         <v>0.2737925747453729</v>
       </c>
-      <c r="D439">
+      <c r="D438" t="n">
         <v>226637745044.3544</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B440">
+      <c r="B439" t="n">
         <v>831331100000</v>
       </c>
-      <c r="C440">
+      <c r="C439" t="n">
         <v>0.2729034194798461</v>
       </c>
-      <c r="D440">
+      <c r="D439" t="n">
         <v>226873099909.9419</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B441">
+      <c r="B440" t="n">
         <v>829881400000</v>
       </c>
-      <c r="C441">
+      <c r="C440" t="n">
         <v>0.2776158352072402</v>
       </c>
-      <c r="D441">
+      <c r="D440" t="n">
         <v>230388217983.9538</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B442">
+      <c r="B441" t="n">
         <v>830645300000</v>
       </c>
-      <c r="C442">
+      <c r="C441" t="n">
         <v>0.2752849198920883</v>
       </c>
-      <c r="D442">
+      <c r="D441" t="n">
         <v>228664124869.2397</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B443">
+      <c r="B442" t="n">
         <v>823486200000</v>
       </c>
-      <c r="C443">
+      <c r="C442" t="n">
         <v>0.2690196922414721</v>
       </c>
-      <c r="D443">
+      <c r="D442" t="n">
         <v>221534004089.0993</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B444">
+      <c r="B443" t="n">
         <v>827009200000</v>
       </c>
-      <c r="C444">
+      <c r="C443" t="n">
         <v>0.2692007429940507</v>
       </c>
-      <c r="D444">
+      <c r="D443" t="n">
         <v>222631491102.9154</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B445">
+      <c r="B444" t="n">
         <v>826435700000</v>
       </c>
-      <c r="C445">
+      <c r="C444" t="n">
         <v>0.2678810608090008</v>
       </c>
-      <c r="D445">
+      <c r="D444" t="n">
         <v>221386472006.4292</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B446">
+      <c r="B445" t="n">
         <v>843241500000</v>
       </c>
-      <c r="C446">
+      <c r="C445" t="n">
         <v>0.275671950379049</v>
       </c>
-      <c r="D446">
+      <c r="D445" t="n">
         <v>232458028945.5548</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B447">
+      <c r="B446" t="n">
         <v>847555800000</v>
       </c>
-      <c r="C447">
+      <c r="C446" t="n">
         <v>0.2762812543168946</v>
       </c>
-      <c r="D447">
+      <c r="D446" t="n">
         <v>234163779527.5591</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B448">
+      <c r="B447" t="n">
         <v>850468400000</v>
       </c>
-      <c r="C448">
+      <c r="C447" t="n">
         <v>0.2754896829113749</v>
       </c>
-      <c r="D448">
+      <c r="D447" t="n">
         <v>234295269842.1444</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B449">
+      <c r="B448" t="n">
         <v>858786600000</v>
       </c>
-      <c r="C449">
+      <c r="C448" t="n">
         <v>0.2780326410320572</v>
       </c>
-      <c r="D449">
+      <c r="D448" t="n">
         <v>238770706480.9409</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B450">
+      <c r="B449" t="n">
         <v>857292600000</v>
       </c>
-      <c r="C450">
+      <c r="C449" t="n">
         <v>0.2760829353137683</v>
       </c>
-      <c r="D450">
+      <c r="D449" t="n">
         <v>236683857430.7722</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B451">
+      <c r="B450" t="n">
         <v>862395800000</v>
       </c>
-      <c r="C451">
+      <c r="C450" t="n">
         <v>0.28055999775552</v>
       </c>
-      <c r="D451">
+      <c r="D450" t="n">
         <v>241953763712.3699</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B452">
+      <c r="B451" t="n">
         <v>862518000000</v>
       </c>
-      <c r="C452">
+      <c r="C451" t="n">
         <v>0.2852822868228111</v>
       </c>
-      <c r="D452">
+      <c r="D451" t="n">
         <v>246061107465.8374</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B453">
+      <c r="B452" t="n">
         <v>859848500000</v>
       </c>
-      <c r="C453">
+      <c r="C452" t="n">
         <v>0.2835672763363108</v>
       </c>
-      <c r="D453">
+      <c r="D452" t="n">
         <v>243824897206.8623</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B454">
+      <c r="B453" t="n">
         <v>866261200000</v>
       </c>
-      <c r="C454">
+      <c r="C453" t="n">
         <v>0.2879769618430525</v>
       </c>
-      <c r="D454">
+      <c r="D453" t="n">
         <v>249463268538.5169</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B455">
+      <c r="B454" t="n">
         <v>867102200000</v>
       </c>
-      <c r="C455">
+      <c r="C454" t="n">
         <v>0.2841231958177066</v>
       </c>
-      <c r="D455">
+      <c r="D454" t="n">
         <v>246363848164.5641</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B456">
+      <c r="B455" t="n">
         <v>868743800000</v>
       </c>
-      <c r="C456">
+      <c r="C455" t="n">
         <v>0.2881014116969173</v>
       </c>
-      <c r="D456">
+      <c r="D455" t="n">
         <v>250286315182.9444</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B457">
+      <c r="B456" t="n">
         <v>878149200000</v>
       </c>
-      <c r="C457">
+      <c r="C456" t="n">
         <v>0.289863474303603</v>
       </c>
-      <c r="D457">
+      <c r="D456" t="n">
         <v>254543378068.9295</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B458">
+      <c r="B457" t="n">
         <v>887268200000</v>
       </c>
-      <c r="C458">
+      <c r="C457" t="n">
         <v>0.290098923732993</v>
       </c>
-      <c r="D458">
+      <c r="D457" t="n">
         <v>257395549882.5099</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B459">
+      <c r="B458" t="n">
         <v>898172000000</v>
       </c>
-      <c r="C459">
+      <c r="C458" t="n">
         <v>0.2887753039360074</v>
       </c>
-      <c r="D459">
+      <c r="D458" t="n">
         <v>259369892286.8116</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B460">
+      <c r="B459" t="n">
         <v>939849200000</v>
       </c>
-      <c r="C460">
+      <c r="C459" t="n">
         <v>0.2824140755175238</v>
       </c>
-      <c r="D460">
+      <c r="D459" t="n">
         <v>265426642943.8843</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B461">
+      <c r="B460" t="n">
         <v>991256800000</v>
       </c>
-      <c r="C461">
+      <c r="C460" t="n">
         <v>0.2871500358937545</v>
       </c>
-      <c r="D461">
+      <c r="D460" t="n">
         <v>284639425699.9282</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B462">
+      <c r="B461" t="n">
         <v>1005498800000</v>
       </c>
-      <c r="C462">
+      <c r="C461" t="n">
         <v>0.2851358672407402</v>
       </c>
-      <c r="D462">
+      <c r="D461" t="n">
         <v>286703772347.5236</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B463">
+      <c r="B462" t="n">
         <v>1019175100000</v>
       </c>
-      <c r="C463">
+      <c r="C462" t="n">
         <v>0.2889254861171304</v>
       </c>
-      <c r="D463">
+      <c r="D462" t="n">
         <v>294465661205.975</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B464">
+      <c r="B463" t="n">
         <v>1029648400000</v>
       </c>
-      <c r="C464">
+      <c r="C463" t="n">
         <v>0.2938151902453356</v>
       </c>
-      <c r="D464">
+      <c r="D463" t="n">
         <v>302526340531.8055</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B465">
+      <c r="B464" t="n">
         <v>1045486200000</v>
       </c>
-      <c r="C465">
+      <c r="C464" t="n">
         <v>0.2980714775403142</v>
       </c>
-      <c r="D465">
+      <c r="D464" t="n">
         <v>311629616382.0084</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B466">
+      <c r="B465" t="n">
         <v>1058798600000</v>
       </c>
-      <c r="C466">
+      <c r="C465" t="n">
         <v>0.2916302128900554</v>
       </c>
-      <c r="D466">
+      <c r="D465" t="n">
         <v>308777661125.6926</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B467">
+      <c r="B466" t="n">
         <v>1069591500000</v>
       </c>
-      <c r="C467">
+      <c r="C466" t="n">
         <v>0.293728888236158</v>
       </c>
-      <c r="D467">
+      <c r="D466" t="n">
         <v>314169922161.8446</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B468">
+      <c r="B467" t="n">
         <v>1085379100000</v>
       </c>
-      <c r="C468">
+      <c r="C467" t="n">
         <v>0.3025901718712176</v>
       </c>
-      <c r="D468">
+      <c r="D467" t="n">
         <v>328425048414.4275</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B469">
+      <c r="B468" t="n">
         <v>1106226900000</v>
       </c>
-      <c r="C469">
+      <c r="C468" t="n">
         <v>0.3114391603600237</v>
       </c>
-      <c r="D469">
+      <c r="D468" t="n">
         <v>344522376903.6719</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B470">
+      <c r="B469" t="n">
         <v>1131956800000</v>
       </c>
-      <c r="C470">
+      <c r="C469" t="n">
         <v>0.3050640634533252</v>
       </c>
-      <c r="D470">
+      <c r="D469" t="n">
         <v>345319341061.6229</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B471">
+      <c r="B470" t="n">
         <v>1143578000000</v>
       </c>
-      <c r="C471">
+      <c r="C470" t="n">
         <v>0.3022243713733075</v>
       </c>
-      <c r="D471">
+      <c r="D470" t="n">
         <v>345617142166.3443</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B472">
+      <c r="B471" t="n">
         <v>1164245000000</v>
       </c>
-      <c r="C472">
+      <c r="C471" t="n">
         <v>0.2994460248540201</v>
       </c>
-      <c r="D472">
+      <c r="D471" t="n">
         <v>348628537206.1686</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B473">
+      <c r="B472" t="n">
         <v>1175803700000</v>
       </c>
-      <c r="C473">
+      <c r="C472" t="n">
         <v>0.3081759068076058</v>
       </c>
-      <c r="D473">
+      <c r="D472" t="n">
         <v>362354371475.2381</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B474">
+      <c r="B473" t="n">
         <v>1183982300000</v>
       </c>
-      <c r="C474">
+      <c r="C473" t="n">
         <v>0.3081759068076058</v>
       </c>
-      <c r="D474">
+      <c r="D473" t="n">
         <v>364874818946.6548</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B475">
+      <c r="B474" t="n">
         <v>1200106600000</v>
       </c>
-      <c r="C475">
+      <c r="C474" t="n">
         <v>0.3069556142181841</v>
       </c>
-      <c r="D475">
+      <c r="D474" t="n">
         <v>368379458530.2966</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
+    <row r="475">
+      <c r="A475" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B476">
+      <c r="B475" t="n">
         <v>1225628400000</v>
       </c>
-      <c r="C476">
+      <c r="C475" t="n">
         <v>0.310096750186058</v>
       </c>
-      <c r="D476">
+      <c r="D475" t="n">
         <v>380063383775.738</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B477">
+      <c r="B476" t="n">
         <v>1239960200000</v>
       </c>
-      <c r="C477">
+      <c r="C476" t="n">
         <v>0.312275551947038</v>
       </c>
-      <c r="D477">
+      <c r="D476" t="n">
         <v>387209255847.3597</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
+    <row r="477">
+      <c r="A477" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B478">
+      <c r="B477" t="n">
         <v>1257625900000</v>
       </c>
-      <c r="C478">
+      <c r="C477" t="n">
         <v>0.3103565997330933</v>
       </c>
-      <c r="D478">
+      <c r="D477" t="n">
         <v>390312498060.2712</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
+    <row r="478">
+      <c r="A478" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B479">
+      <c r="B478" t="n">
         <v>1258657100000</v>
       </c>
-      <c r="C479">
+      <c r="C478" t="n">
         <v>0.3167463811725951</v>
       </c>
-      <c r="D479">
+      <c r="D478" t="n">
         <v>398675081562.1932</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
+    <row r="479">
+      <c r="A479" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B480">
+      <c r="B479" t="n">
         <v>1267713100000</v>
       </c>
-      <c r="C480">
+      <c r="C479" t="n">
         <v>0.3173494970010473</v>
       </c>
-      <c r="D480">
+      <c r="D479" t="n">
         <v>402308114626.6383</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
+    <row r="480">
+      <c r="A480" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B481">
+      <c r="B480" t="n">
         <v>1299480800000</v>
       </c>
-      <c r="C481">
+      <c r="C480" t="n">
         <v>0.3228305785123967</v>
       </c>
-      <c r="D481">
+      <c r="D480" t="n">
         <v>419512138429.7521</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
+    <row r="481">
+      <c r="A481" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B482">
+      <c r="B481" t="n">
         <v>1321141500000</v>
       </c>
-      <c r="C482">
+      <c r="C481" t="n">
         <v>0.3171180313312615</v>
       </c>
-      <c r="D482">
+      <c r="D481" t="n">
         <v>418957791590.0298</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
+    <row r="482">
+      <c r="A482" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B483">
+      <c r="B482" t="n">
         <v>1326756000000</v>
       </c>
-      <c r="C483">
+      <c r="C482" t="n">
         <v>0.3120319520718922</v>
       </c>
-      <c r="D483">
+      <c r="D482" t="n">
         <v>413990264603.0953</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
+    <row r="483">
+      <c r="A483" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B484">
+      <c r="B483" t="n">
         <v>1333664400000</v>
       </c>
-      <c r="C484">
+      <c r="C483" t="n">
         <v>0.3134992789516584</v>
       </c>
-      <c r="D484">
+      <c r="D483" t="n">
         <v>418102827763.4962</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
+    <row r="484">
+      <c r="A484" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B485">
+      <c r="B484" t="n">
         <v>1356168100000</v>
       </c>
-      <c r="C485">
+      <c r="C484" t="n">
         <v>0.2992936669460074</v>
       </c>
-      <c r="D485">
+      <c r="D484" t="n">
         <v>405892523644.1996</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B486">
+      <c r="B485" t="n">
         <v>1365393800000</v>
       </c>
-      <c r="C486">
+      <c r="C485" t="n">
         <v>0.3011594639361542</v>
       </c>
-      <c r="D486">
+      <c r="D485" t="n">
         <v>411201264869.7485</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B487">
+      <c r="B486" t="n">
         <v>1377815600000</v>
       </c>
-      <c r="C487">
+      <c r="C486" t="n">
         <v>0.2873315518777117</v>
       </c>
-      <c r="D487">
+      <c r="D486" t="n">
         <v>395889894549.3205</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B488">
+      <c r="B487" t="n">
         <v>1382673300000</v>
       </c>
-      <c r="C488">
+      <c r="C487" t="n">
         <v>0.2943947244465379</v>
       </c>
-      <c r="D488">
+      <c r="D487" t="n">
         <v>407051725153.0853</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B489">
+      <c r="B488" t="n">
         <v>1397990400000</v>
       </c>
-      <c r="C489">
+      <c r="C488" t="n">
         <v>0.3005981903988938</v>
       </c>
-      <c r="D489">
+      <c r="D488" t="n">
         <v>420233384435.0257</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B490">
+      <c r="B489" t="n">
         <v>1388676700000</v>
       </c>
-      <c r="C490">
+      <c r="C489" t="n">
         <v>0.2811911256080758</v>
       </c>
-      <c r="D490">
+      <c r="D489" t="n">
         <v>390483564378.7082</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B491">
+      <c r="B490" t="n">
         <v>1399005700000</v>
       </c>
-      <c r="C491">
+      <c r="C490" t="n">
         <v>0.2847137203541839</v>
       </c>
-      <c r="D491">
+      <c r="D490" t="n">
         <v>398316117643.7092</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B492">
+      <c r="B491" t="n">
         <v>1378892900000</v>
       </c>
-      <c r="C492">
+      <c r="C491" t="n">
         <v>0.2936072885073299</v>
       </c>
-      <c r="D492">
+      <c r="D491" t="n">
         <v>404853005511.0089</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B493">
+      <c r="B492" t="n">
         <v>1362510300000</v>
       </c>
-      <c r="C493">
+      <c r="C492" t="n">
         <v>0.2850627137970353</v>
       </c>
-      <c r="D493">
+      <c r="D492" t="n">
         <v>388400883694.4128</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
+    <row r="493">
+      <c r="A493" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B494">
+      <c r="B493" t="n">
         <v>1330227600000</v>
       </c>
-      <c r="C494">
+      <c r="C493" t="n">
         <v>0.2902496437185623</v>
       </c>
-      <c r="D494">
+      <c r="D493" t="n">
         <v>386098086964.5982</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B495">
+      <c r="B494" t="n">
         <v>1303847700000</v>
       </c>
-      <c r="C495">
+      <c r="C494" t="n">
         <v>0.2740995145697597</v>
       </c>
-      <c r="D495">
+      <c r="D494" t="n">
         <v>357384021642.8977</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
+    <row r="495">
+      <c r="A495" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B496">
+      <c r="B495" t="n">
         <v>1278852800000</v>
       </c>
-      <c r="C496">
+      <c r="C495" t="n">
         <v>0.2781563795165642</v>
       </c>
-      <c r="D496">
+      <c r="D495" t="n">
         <v>355721064782.6208</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
+    <row r="496">
+      <c r="A496" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B497">
+      <c r="B496" t="n">
         <v>1287306800000</v>
       </c>
-      <c r="C497">
+      <c r="C496" t="n">
         <v>0.2767246866092924</v>
       </c>
-      <c r="D497">
+      <c r="D496" t="n">
         <v>356229570800.011</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
+    <row r="497">
+      <c r="A497" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B498">
+      <c r="B497" t="n">
         <v>1275909800000</v>
       </c>
-      <c r="C498">
+      <c r="C497" t="n">
         <v>0.2691500242235022</v>
       </c>
-      <c r="D498">
+      <c r="D497" t="n">
         <v>343411153577.0038</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
+    <row r="498">
+      <c r="A498" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B499">
+      <c r="B498" t="n">
         <v>1276966700000</v>
       </c>
-      <c r="C499">
+      <c r="C498" t="n">
         <v>0.2707678977580418</v>
       </c>
-      <c r="D499">
+      <c r="D498" t="n">
         <v>345761588866.024</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="2">
+    <row r="499">
+      <c r="A499" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B500">
+      <c r="B499" t="n">
         <v>1274803200000</v>
       </c>
-      <c r="C500">
+      <c r="C499" t="n">
         <v>0.2729779160865886</v>
       </c>
-      <c r="D500">
+      <c r="D499" t="n">
         <v>347993120956.5146</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="2">
+    <row r="500">
+      <c r="A500" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B501">
+      <c r="B500" t="n">
         <v>1280927000000</v>
       </c>
-      <c r="C501">
+      <c r="C500" t="n">
         <v>0.2633935626613285</v>
       </c>
-      <c r="D501">
+      <c r="D500" t="n">
         <v>337387926039.0875</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B501" t="n">
+        <v>1285997940000</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.2628590654834504</v>
+      </c>
+      <c r="D501" t="n">
+        <v>338036216722.0423</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Israel.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Israel.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Israel_M2 (ILS)</t>
+  </si>
+  <si>
+    <t>Israel_FX (USD)</t>
+  </si>
+  <si>
+    <t>Israel_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6285 +385,5903 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Israel_M2 (ILS)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Israel_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Israel_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>29983</v>
-      </c>
-      <c r="B2" t="n">
-        <v>21200000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30011</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2">
         <v>22400000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30042</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>24400000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30072</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B4">
         <v>25800000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30103</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B5">
         <v>27400000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30133</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B6">
         <v>28300000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30164</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B7">
         <v>31500000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30195</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B8">
         <v>37700000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30225</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B9">
         <v>42900000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30256</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B10">
         <v>50500000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30286</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B11">
         <v>57600000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30317</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B12">
         <v>58400000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30348</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B13">
         <v>67900000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30376</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B14">
         <v>71400000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30407</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B15">
         <v>76800000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30437</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B16">
         <v>83200000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>30468</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B17">
         <v>87000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>30498</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B18">
         <v>90400000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>30529</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B19">
         <v>94400000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>30560</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B20">
         <v>100400000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>30590</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B21">
         <v>103200000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>30621</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B22">
         <v>112800000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>30651</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B23">
         <v>123100000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>30682</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B24">
         <v>149900000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>30713</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B25">
         <v>188300000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>30742</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B26">
         <v>214100000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>30773</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B27">
         <v>268400000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>30803</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B28">
         <v>287700000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>30834</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B29">
         <v>326200000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>30864</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B30">
         <v>324000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>30895</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B31">
         <v>366900000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>30926</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B32">
         <v>449600000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>30956</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B33">
         <v>506100000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>30987</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B34">
         <v>600900000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>31017</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B35">
         <v>729300000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>31048</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B36">
         <v>804800000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>31079</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B37">
         <v>883100000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>31107</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B38">
         <v>1008800000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>31138</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B39">
         <v>1343600000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>31168</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B40">
         <v>1455100000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>31199</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B41">
         <v>1611800000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>31229</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B42">
         <v>2390300000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>31260</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B43">
         <v>2883600000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>31291</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B44">
         <v>3232400000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>31321</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B45">
         <v>3552400000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>31352</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B46">
         <v>4045200000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>31382</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B47">
         <v>4300300000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>31413</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B48">
         <v>4423400000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>31444</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B49">
         <v>4843400000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>31472</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B50">
         <v>4944300000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>31503</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B51">
         <v>4975800000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>31533</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B52">
         <v>4955000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>31564</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B53">
         <v>4892600000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>31594</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B54">
         <v>5162900000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>31625</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B55">
         <v>5666500000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>31656</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B56">
         <v>6023600000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>31686</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B57">
         <v>6486700000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>31717</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B58">
         <v>6774600000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>31747</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B59">
         <v>7194000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>31778</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B60">
         <v>7233700000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>31809</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B61">
         <v>7485200000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>31837</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B62">
         <v>8006600000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>31868</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B63">
         <v>8666200000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>31898</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B64">
         <v>8987900000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>31929</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B65">
         <v>9338900000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>31959</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B66">
         <v>9721300000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>31990</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B67">
         <v>9920900000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>32021</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B68">
         <v>10101100000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>32051</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B69">
         <v>10183000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>32082</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B70">
         <v>10456700000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>32112</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B71">
         <v>10659200000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>32143</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B72">
         <v>10686600000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>32174</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B73">
         <v>11061500000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>32203</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B74">
         <v>11315300000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>32234</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B75">
         <v>11584000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>32264</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B76">
         <v>11812800000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>32295</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B77">
         <v>12042800000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>32325</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B78">
         <v>12432900000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>32356</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B79">
         <v>12798400000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>32387</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B80">
         <v>13126100000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>32417</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B81">
         <v>12575400000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>32448</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B82">
         <v>11661600000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>32478</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B83">
         <v>10968800000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>32509</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B84">
         <v>11571700000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>32540</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B85">
         <v>12097900000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>32568</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B86">
         <v>12642800000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>32599</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B87">
         <v>13132600000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>32629</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B88">
         <v>13363800000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>32660</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B89">
         <v>13219100000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>32690</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B90">
         <v>13463900000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>32721</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B91">
         <v>13730700000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>32752</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B92">
         <v>14105400000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>32782</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B93">
         <v>13989700000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>32813</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B94">
         <v>14209300000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>32843</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B95">
         <v>14309800000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>32874</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B96">
         <v>14724700000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>32905</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B97">
         <v>14963200000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>32933</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B98">
         <v>15431400000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>32964</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B99">
         <v>16138000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>32994</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B100">
         <v>16635400000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>33025</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B101">
         <v>16781900000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>33055</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B102">
         <v>16944900000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>33086</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B103">
         <v>17696500000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>33117</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B104">
         <v>17588200000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>33147</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B105">
         <v>18058500000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>33178</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B106">
         <v>18841900000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>33208</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B107">
         <v>19747400000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>33239</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B108">
         <v>21585500000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>33270</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B109">
         <v>21909800000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>33298</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B110">
         <v>22306000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>33329</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B111">
         <v>22120900000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>33359</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B112">
         <v>22389300000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>33390</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B113">
         <v>21894200000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>33420</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B114">
         <v>22203400000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>33451</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B115">
         <v>23584900000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>33482</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B116">
         <v>23049100000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>33512</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B117">
         <v>22056200000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>33543</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B118">
         <v>23364100000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>33573</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B119">
         <v>23756900000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>33604</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B120">
         <v>24855800000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>33635</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B121">
         <v>25303700000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>33664</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B122">
         <v>25384700000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>33695</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B123">
         <v>25976000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>33725</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B124">
         <v>25857300000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>33756</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B125">
         <v>25537000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>33786</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B126">
         <v>26018600000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>33817</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B127">
         <v>26302600000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>33848</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B128">
         <v>27750300000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>33878</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B129">
         <v>28727300000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>33909</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B130">
         <v>29292600000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>33939</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B131">
         <v>29665300000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>33970</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B132">
         <v>30386200000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>34001</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B133">
         <v>30157900000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>34029</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B134">
         <v>30936400000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>34060</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B135">
         <v>31145600000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>34090</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B136">
         <v>32327900000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>34121</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B137">
         <v>33096800000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>34151</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B138">
         <v>34239600000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>34182</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B139">
         <v>35644800000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>34213</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B140">
         <v>37388100000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>34243</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B141">
         <v>38572400000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>34274</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B142">
         <v>41261500000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>34304</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B143">
         <v>43613300000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>34335</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B144">
         <v>45755600000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>34366</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B145">
         <v>46547200000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>34394</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B146">
         <v>50127100000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>34425</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B147">
         <v>50872500000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>34455</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B148">
         <v>51106500000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>34486</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B149">
         <v>52393400000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>34516</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B150">
         <v>54863900000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>34547</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B151">
         <v>55873000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>34578</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B152">
         <v>57834200000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>34608</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B153">
         <v>56778900000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>34639</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B154">
         <v>57538500000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>34669</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B155">
         <v>59590000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>34700</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B156">
         <v>61388900000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>34731</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B157">
         <v>63068800000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>34759</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B158">
         <v>64345500000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>34790</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B159">
         <v>65662399999.99999</v>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>34820</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B160">
         <v>67430200000</v>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
         <v>34851</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B161">
         <v>69116600000</v>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
         <v>34881</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B162">
         <v>71190100000</v>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
         <v>34912</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B163">
         <v>72893300000</v>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
         <v>34943</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B164">
         <v>74350700000</v>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
         <v>34973</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B165">
         <v>74985500000</v>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>35004</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B166">
         <v>76064400000</v>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
         <v>35034</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B167">
         <v>78003800000</v>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
         <v>35065</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B168">
         <v>79916600000</v>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>35096</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B169">
         <v>81072700000</v>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
         <v>35125</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B170">
         <v>82576000000</v>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
         <v>35156</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B171">
         <v>84718100000</v>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
         <v>35186</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B172">
         <v>84676500000</v>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
         <v>35217</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B173">
         <v>85980600000</v>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
         <v>35247</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B174">
         <v>88936400000</v>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
         <v>35278</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B175">
         <v>92505800000</v>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
         <v>35309</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B176">
         <v>94329900000</v>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35339</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B177">
         <v>95150000000</v>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35370</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B178">
         <v>96601900000</v>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35400</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B179">
         <v>98902800000</v>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35431</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B180">
         <v>103180100000</v>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35462</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B181">
         <v>104615600000</v>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35490</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B182">
         <v>106110400000</v>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35521</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B183">
         <v>107533900000</v>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35551</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B184">
         <v>108889300000</v>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35582</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B185">
         <v>111206600000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35612</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B186">
         <v>112774400000</v>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35643</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B187">
         <v>114718000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C187">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D187">
         <v>32776571428.57143</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35674</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B188">
         <v>116196400000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C188">
         <v>0.2853881278538813</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D188">
         <v>33161073059.36073</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35704</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B189">
         <v>118167500000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C189">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D189">
         <v>33762142857.14286</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35735</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B190">
         <v>119754800000</v>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35765</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B191">
         <v>122541600000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C191">
         <v>0.2837684449489217</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D191">
         <v>34773439273.55278</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35796</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B192">
         <v>125591200000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C192">
         <v>0.2822466836014677</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D192">
         <v>35447699689.52864</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35827</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B193">
         <v>126668300000</v>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35855</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B194">
         <v>127003700000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C194">
         <v>0.2803476310625175</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D194">
         <v>35605186431.17466</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35886</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B195">
         <v>128626000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C195">
         <v>0.271665308340125</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D195">
         <v>34943221950.55692</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35916</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B196">
         <v>129389900000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C196">
         <v>0.2737476047084588</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D196">
         <v>35420175198.46702</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35947</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B197">
         <v>131618700000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C197">
         <v>0.2731494127287626</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D197">
         <v>35951570609.12319</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>35977</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B198">
         <v>135543000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C198">
         <v>0.2741979709350151</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D198">
         <v>37165615574.44475</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36008</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B199">
         <v>137577100000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C199">
         <v>0.2722570106180234</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D199">
         <v>37456329975.49687</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36039</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B200">
         <v>139568900000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C200">
         <v>0.2596053997923157</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D200">
         <v>36232840083.07373</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36069</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B201">
         <v>140938600000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C201">
         <v>0.2351281448389372</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D201">
         <v>33138631554.19704</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36100</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B202">
         <v>140465000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C202">
         <v>0.2391200382592061</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D202">
         <v>33587996174.07939</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36130</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B203">
         <v>142533000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C203">
         <v>0.2403846153846154</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D203">
         <v>34262740384.61538</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36161</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B204">
         <v>149174300000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C204">
         <v>0.2437835202340322</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D204">
         <v>36366235982.44759</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36192</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B205">
         <v>150478700000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C205">
         <v>0.2475247524752475</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D205">
         <v>37247202970.29703</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36220</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B206">
         <v>154237000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C206">
         <v>0.2493765586034913</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D206">
         <v>38463092269.32668</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36251</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B207">
         <v>157737800000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C207">
         <v>0.241779497098646</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D207">
         <v>38137765957.44681</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36281</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B208">
         <v>160058700000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C208">
         <v>0.243605359317905</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D208">
         <v>38991157125.45676</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36312</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B209">
         <v>161309400000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C209">
         <v>0.2455795677799607</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D209">
         <v>39614292730.8448</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36342</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B210">
         <v>164651000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C210">
         <v>0.2410800385728062</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D210">
         <v>39694069431.05111</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36373</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B211">
         <v>166929700000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C211">
         <v>0.2359603586597451</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D211">
         <v>39388791882.96365</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36404</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B212">
         <v>168321900000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C212">
         <v>0.2337540906965872</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D212">
         <v>39345932678.82188</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36434</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B213">
         <v>170334500000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C213">
         <v>0.2355157795572303</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D213">
         <v>40116462552.99104</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36465</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B214">
         <v>173286400000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C214">
         <v>0.2366863905325444</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D214">
         <v>41014532544.3787</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36495</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B215">
         <v>178808400000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C215">
         <v>0.2409058058299205</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D215">
         <v>43075981691.15876</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36526</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B216">
         <v>183975700000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C216">
         <v>0.245398773006135</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D216">
         <v>45147411042.94479</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36557</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B217">
         <v>185668600000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C217">
         <v>0.2474634991338777</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D217">
         <v>45946201435.28829</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36586</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B218">
         <v>187076700000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C218">
         <v>0.2493143854400399</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D218">
         <v>46640912490.65071</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36617</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B219">
         <v>188902300000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C219">
         <v>0.248015873015873</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D219">
         <v>46850768849.20635</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36647</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B220">
         <v>189103700000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C220">
         <v>0.2400384061449832</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D220">
         <v>45392150744.11906</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36678</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B221">
         <v>190961300000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C221">
         <v>0.2452783909737552</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D221">
         <v>46838680402.25656</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36708</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B222">
         <v>195056600000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C222">
         <v>0.2460629921259843</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D222">
         <v>47996210629.92126</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36739</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B223">
         <v>198410700000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C223">
         <v>0.2494387627837366</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D223">
         <v>49491319531.05512</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36770</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B224">
         <v>201584500000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C224">
         <v>0.2498750624687656</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D224">
         <v>50370939530.23489</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36800</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B225">
         <v>205945800000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C225">
         <v>0.2431906614785992</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D225">
         <v>50084095330.7393</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36831</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B226">
         <v>207942700000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C226">
         <v>0.2442002442002442</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D226">
         <v>50779658119.65813</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36861</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B227">
         <v>212393600000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C227">
         <v>0.2486943546381497</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D227">
         <v>52821089281.27332</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36892</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B228">
         <v>215819800000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C228">
         <v>0.2408187838651415</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D228">
         <v>51973461770.01807</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36923</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B229">
         <v>217782200000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C229">
         <v>0.2435460301997077</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D229">
         <v>53039990258.15879</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36951</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B230">
         <v>221484100000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C230">
         <v>0.2381519409383187</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D230">
         <v>52746868301.97666</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>36982</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B231">
         <v>222735800000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C231">
         <v>0.2420135527589545</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D231">
         <v>53905082284.60795</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37012</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B232">
         <v>224642300000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C232">
         <v>0.2416626389560174</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D232">
         <v>54287651039.14935</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37043</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B233">
         <v>227793600000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C233">
         <v>0.2399808015358771</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D233">
         <v>54666090712.74298</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37073</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B234">
         <v>230306000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C234">
         <v>0.2376990729736154</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D234">
         <v>54743522700.26147</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37104</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B235">
         <v>232646700000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C235">
         <v>0.2347417840375587</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D235">
         <v>54611901408.45071</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37135</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B236">
         <v>236009500000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C236">
         <v>0.2298850574712644</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D236">
         <v>54255057471.26437</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37165</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B237">
         <v>239598700000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C237">
         <v>0.2339181286549707</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D237">
         <v>56046479532.16374</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37196</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B238">
         <v>240095600000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C238">
         <v>0.2364625206904706</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D238">
         <v>56773610782.69094</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37226</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B239">
         <v>242857800000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C239">
         <v>0.2271694684234439</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D239">
         <v>55169877328.48705</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37257</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B240">
         <v>239634800000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C240">
         <v>0.2181025081788441</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D240">
         <v>52264950926.93566</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37288</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B241">
         <v>231312700000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C241">
         <v>0.2143852502947797</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D241">
         <v>49590031085.86129</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37316</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B242">
         <v>230560200000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C242">
         <v>0.2108370229812355</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D242">
         <v>48610626185.95825</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37347</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B243">
         <v>233057600000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C243">
         <v>0.2044989775051125</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D243">
         <v>47660040899.7955</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37377</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B244">
         <v>232290300000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C244">
         <v>0.2033760423022168</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D244">
         <v>47242281879.19463</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37408</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B245">
         <v>232231100000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C245">
         <v>0.2105263157894737</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D245">
         <v>48890757894.73684</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37438</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B246">
         <v>232066900000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C246">
         <v>0.2138351331123704</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D246">
         <v>49624056452.47514</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37469</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B247">
         <v>233317300000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C247">
         <v>0.2147028512538646</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D247">
         <v>50093889556.85331</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37500</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B248">
         <v>236599100000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C248">
         <v>0.2050440844781628</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D248">
         <v>48513245847.85729</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37530</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B249">
         <v>237118300000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C249">
         <v>0.2095118374188142</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D249">
         <v>49679090718.62561</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37561</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B250">
         <v>236775500000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C250">
         <v>0.2153779883695886</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D250">
         <v>50996230885.20353</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37591</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B251">
         <v>237770500000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C251">
         <v>0.2108014671782115</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D251">
         <v>50122370251.69695</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37622</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B252">
         <v>238793700000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C252">
         <v>0.2074688796680498</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D252">
         <v>49542261410.78838</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37653</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B253">
         <v>237425400000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C253">
         <v>0.2077706212341575</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D253">
         <v>49330022854.76834</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37681</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B254">
         <v>235316800000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C254">
         <v>0.2131060202450719</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D254">
         <v>50147426744.80554</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37712</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B255">
         <v>235152500000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C255">
         <v>0.2198285337436799</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D255">
         <v>51693229281.16069</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37742</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B256">
         <v>235653900000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C256">
         <v>0.2279202279202279</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D256">
         <v>53710290598.2906</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37773</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B257">
         <v>233550400000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C257">
         <v>0.2312673450508788</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D257">
         <v>54012580943.57077</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37803</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B258">
         <v>235657500000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C258">
         <v>0.2245677071637099</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D258">
         <v>52921064450.93195</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37834</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B259">
         <v>237979700000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C259">
         <v>0.2247191011235955</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D259">
         <v>53478584269.66292</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37865</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B260">
         <v>241116000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C260">
         <v>0.2249870632438635</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D260">
         <v>54247980741.10738</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37895</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B261">
         <v>244277100000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C261">
         <v>0.222667557336896</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D261">
         <v>54392585170.34068</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37926</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B262">
         <v>242554200000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C262">
         <v>0.2249718785151856</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D262">
         <v>54567874015.74802</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37956</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B263">
         <v>242423800000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C263">
         <v>0.2282062984938384</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D263">
         <v>55322638064.81059</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>37987</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B264">
         <v>247432200000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C264">
         <v>0.2229803554306866</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D264">
         <v>55172519900.99673</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38018</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B265">
         <v>244833700000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C265">
         <v>0.2226576416102601</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D265">
         <v>54514094228.71393</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38047</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B266">
         <v>243503700000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C266">
         <v>0.2209944751381215</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D266">
         <v>53812972375.69061</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38078</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B267">
         <v>244259800000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C267">
         <v>0.21767522855899</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D267">
         <v>53169307792.77318</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38108</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B268">
         <v>244662700000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C268">
         <v>0.2200704225352113</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D268">
         <v>53843023767.60564</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38139</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B269">
         <v>246161800000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C269">
         <v>0.2227667631989307</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D269">
         <v>54836667409.22254</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38169</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B270">
         <v>247645600000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C270">
         <v>0.2215820961666297</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D270">
         <v>54873831154.44273</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38200</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B271">
         <v>248832400000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C271">
         <v>0.2216312056737589</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D271">
         <v>55149024822.69504</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38231</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B272">
         <v>252335300000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C272">
         <v>0.2236786185608518</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D272">
         <v>56442011318.1381</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38261</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B273">
         <v>251575400000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C273">
         <v>0.2243661655822302</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D273">
         <v>56445007852.8158</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38292</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B274">
         <v>251598200000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C274">
         <v>0.2296738631143776</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D274">
         <v>57785530546.62379</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38322</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B275">
         <v>256059000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C275">
         <v>0.2314546927438954</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D275">
         <v>59266057169.3091</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38353</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B276">
         <v>258336900000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C276">
         <v>0.2281282080529257</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D276">
         <v>58933934070.94788</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38384</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B277">
         <v>258681900000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C277">
         <v>0.2289115256953188</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D277">
         <v>59215268398.76388</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38412</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B278">
         <v>256407800000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C278">
         <v>0.2294893861158921</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D278">
         <v>58842868617.32645</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38443</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B279">
         <v>259594600000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C279">
         <v>0.2289115256953188</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D279">
         <v>59424195948.26599</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38473</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B280">
         <v>260406300000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C280">
         <v>0.2268345242145854</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D280">
         <v>59069139162.9806</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38504</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B281">
         <v>265362400000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C281">
         <v>0.2184598580010923</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D281">
         <v>57971032222.82906</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38534</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B282">
         <v>267910800000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C282">
         <v>0.2213368747233289</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D282">
         <v>59298539176.62683</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38565</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B283">
         <v>267306900000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C283">
         <v>0.2206433961431535</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D283">
         <v>58979502228.49831</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38596</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B284">
         <v>265307900000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C284">
         <v>0.2176515398846447</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D284">
         <v>57744672978.56133</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38626</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B285">
         <v>265180300000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C285">
         <v>0.2153872663048161</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D285">
         <v>57116459894.89101</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38657</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B286">
         <v>265374300000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C286">
         <v>0.2146014850422765</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D286">
         <v>56949718872.0546</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38687</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B287">
         <v>269664000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C287">
         <v>0.2173676774263667</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D287">
         <v>58616237365.50375</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38718</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B288">
         <v>269822900000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C288">
         <v>0.2149613069647463</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D288">
         <v>58001483233.01805</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38749</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B289">
         <v>267555100000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C289">
         <v>0.2131060202450719</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D289">
         <v>57017602557.27224</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38777</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B290">
         <v>268358200000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C290">
         <v>0.2147535702781058</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D290">
         <v>57630881563.40598</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38808</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B291">
         <v>272180300000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C291">
         <v>0.2236185961224536</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D291">
         <v>60864576578.18825</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38838</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B292">
         <v>271529200000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C292">
         <v>0.2216852512802323</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D292">
         <v>60194018931.92046</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38869</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B293">
         <v>272924600000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C293">
         <v>0.2264954361169622</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D293">
         <v>61816176304.04747</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38899</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B294">
         <v>276535800000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C294">
         <v>0.2284722063560968</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D294">
         <v>63180744362.4483</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38930</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B295">
         <v>278050100000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C295">
         <v>0.2293577981651376</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D295">
         <v>63772958715.59633</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38961</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B296">
         <v>281820600000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C296">
         <v>0.2325040688212044</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D296">
         <v>65524436177.6331</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>38991</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B297">
         <v>284425800000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C297">
         <v>0.234246896228625</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D297">
         <v>66625860857.34364</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39022</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B298">
         <v>282246800000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C298">
         <v>0.2364066193853428</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D298">
         <v>66725011820.33096</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39052</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B299">
         <v>288972600000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C299">
         <v>0.2374394529395004</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D299">
         <v>68613496058.50509</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39083</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B300">
         <v>296334000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C300">
         <v>0.235626767200754</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D300">
         <v>69824222431.66824</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39114</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B301">
         <v>300961000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C301">
         <v>0.2376425855513308</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D301">
         <v>71521150190.11406</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39142</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B302">
         <v>303450500000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C302">
         <v>0.2409058058299205</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D302">
         <v>73102987231.99229</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39173</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B303">
         <v>310632900000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C303">
         <v>0.2481697481077057</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D303">
         <v>77089688546.96614</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39203</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B304">
         <v>313592000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C304">
         <v>0.246669955599408</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D304">
         <v>77353724716.32954</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39234</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B305">
         <v>317231100000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C305">
         <v>0.2352941176470588</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D305">
         <v>74642611764.70589</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39264</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B306">
         <v>326471600000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C306">
         <v>0.2321262766945218</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D306">
         <v>75782636954.50325</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39295</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B307">
         <v>331851200000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C307">
         <v>0.2430724355858046</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D307">
         <v>80663879436.07195</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39326</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B308">
         <v>329756900000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C308">
         <v>0.24919013207077</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D308">
         <v>82172165462.2477</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39356</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B309">
         <v>332953100000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C309">
         <v>0.2529084471421346</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D309">
         <v>84206651492.15984</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39387</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B310">
         <v>328750600000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C310">
         <v>0.261437908496732</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D310">
         <v>85947869281.04576</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39417</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B311">
         <v>330688400000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C311">
         <v>0.2601456815816858</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D311">
         <v>86027159209.15714</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39448</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B312">
         <v>333976700000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C312">
         <v>0.2770083102493075</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D312">
         <v>92514321329.63989</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39479</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B313">
         <v>332090100000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C313">
         <v>0.2747252747252747</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D313">
         <v>91233543956.04395</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39508</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B314">
         <v>338119300000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C314">
         <v>0.2834467120181406</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D314">
         <v>95838803854.87529</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39539</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B315">
         <v>343601000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C315">
         <v>0.2924831822170225</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D315">
         <v>100497513892.9512</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39569</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B316">
         <v>344694800000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C316">
         <v>0.3094059405940594</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D316">
         <v>106650618811.8812</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39600</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B317">
         <v>344960700000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C317">
         <v>0.2985074626865671</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D317">
         <v>102973343283.5821</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39630</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B318">
         <v>348894400000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C318">
         <v>0.2868617326448651</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D318">
         <v>100084452094.0906</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39661</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B319">
         <v>348499500000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C319">
         <v>0.2793296089385475</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D319">
         <v>97346229050.27933</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39692</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B320">
         <v>355544700000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C320">
         <v>0.2896032435563278</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D320">
         <v>102966898349.2615</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39722</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B321">
         <v>366841200000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C321">
         <v>0.2680965147453083</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D321">
         <v>98348847184.9866</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39753</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B322">
         <v>365782600000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C322">
         <v>0.2544464517442304</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D322">
         <v>93072084679.77914</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39783</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B323">
         <v>375249300000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C323">
         <v>0.2649708532061473</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D323">
         <v>99430127186.00954</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39814</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B324">
         <v>389044200000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C324">
         <v>0.2464875523786049</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D324">
         <v>95894552625.09242</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39845</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B325">
         <v>393428300000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C325">
         <v>0.2407318247472316</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D325">
         <v>94710712566.20125</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39873</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B326">
         <v>399951000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C326">
         <v>0.2373605506764776</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D326">
         <v>94932589603.60788</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39904</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B327">
         <v>407642900000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C327">
         <v>0.2388801299507907</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D327">
         <v>97377788925.51717</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39934</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B328">
         <v>407514900000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C328">
         <v>0.2551020408163265</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D328">
         <v>103957882653.0612</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39965</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B329">
         <v>411136000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C329">
         <v>0.255303939339784</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D329">
         <v>104964640404.4014</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>39995</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B330">
         <v>413626300000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C330">
         <v>0.2657595407675136</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D330">
         <v>109925135537.3658</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40026</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B331">
         <v>420072500000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C331">
         <v>0.2636505048907169</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D331">
         <v>110752326715.7057</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40057</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B332">
         <v>425299600000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C332">
         <v>0.2656818725258376</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D332">
         <v>112994394112.4897</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40087</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B333">
         <v>424657800000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C333">
         <v>0.2663896214603479</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D333">
         <v>113124430592.1841</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40118</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B334">
         <v>424180500000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C334">
         <v>0.2642775971880864</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D334">
         <v>112101403314.0411</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40148</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B335">
         <v>426196200000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C335">
         <v>0.2642077729926814</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D335">
         <v>112604348859.9435</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40179</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B336">
         <v>428392900000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C336">
         <v>0.268651102812777</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D336">
         <v>115088225022.1637</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40210</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B337">
         <v>423594100000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C337">
         <v>0.2647884340412011</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D337">
         <v>112162818408.0919</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40238</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B338">
         <v>420351000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C338">
         <v>0.270929287455974</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D338">
         <v>113885396911.4061</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40269</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B339">
         <v>426096800000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C339">
         <v>0.2688172043010753</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D339">
         <v>114542150537.6344</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40299</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B340">
         <v>427779500000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C340">
         <v>0.2590673575129534</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D340">
         <v>110823704663.2124</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40330</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B341">
         <v>427304600000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C341">
         <v>0.2577585318074028</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D341">
         <v>110141406330.5495</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40360</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B342">
         <v>428143000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C342">
         <v>0.265653640783147</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D342">
         <v>113737746725.8189</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40391</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B343">
         <v>422718500000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C343">
         <v>0.2628397203385375</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D343">
         <v>111107212321.9261</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40422</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B344">
         <v>428997100000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C344">
         <v>0.2756035718222908</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D344">
         <v>118233133061.4045</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40452</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B345">
         <v>428509000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C345">
         <v>0.2751031636863824</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D345">
         <v>117884181568.088</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40483</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B346">
         <v>432279500000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C346">
         <v>0.2721680910130096</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D346">
         <v>117652686299.0583</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40513</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B347">
         <v>441510400000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C347">
         <v>0.2824938557586373</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D347">
         <v>124723975253.5383</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40544</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B348">
         <v>451988000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C348">
         <v>0.2699856907583898</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D348">
         <v>122030292394.5031</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40575</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B349">
         <v>452665300000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C349">
         <v>0.2761286759629987</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D349">
         <v>124993869943.3936</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40603</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B350">
         <v>451648100000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C350">
         <v>0.2878691922390466</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D350">
         <v>130015573723.3001</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40634</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B351">
         <v>453020900000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C351">
         <v>0.2976190476190476</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D351">
         <v>134827648809.5238</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40664</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B352">
         <v>463405400000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C352">
         <v>0.2925430769680836</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D352">
         <v>135566041599.6255</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40695</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B353">
         <v>466954000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C353">
         <v>0.2945941964943291</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D353">
         <v>137561938429.8129</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40725</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B354">
         <v>467679200000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C354">
         <v>0.2926115581565472</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D354">
         <v>136848339429.4075</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40756</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B355">
         <v>475676200000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C355">
         <v>0.2809935933460717</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D355">
         <v>133661964707.2047</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40787</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B356">
         <v>486082000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C356">
         <v>0.2692514808831449</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D356">
         <v>130878298330.6408</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40817</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B357">
         <v>488335100000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C357">
         <v>0.2767629801837706</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D357">
         <v>135153077604.3396</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40848</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B358">
         <v>482394300000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C358">
         <v>0.2661698163428267</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D358">
         <v>128398802235.8264</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40878</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B359">
         <v>487757500000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C359">
         <v>0.262501640635254</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D359">
         <v>128037143982.1499</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40909</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B360">
         <v>499917100000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C360">
         <v>0.2677232812165346</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D360">
         <v>133839446348.2545</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40940</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B361">
         <v>492686800000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C361">
         <v>0.2647603918453799</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D361">
         <v>130443950225.0463</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>40969</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B362">
         <v>492045800000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C362">
         <v>0.2702337521956493</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D362">
         <v>132967382786.11</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41000</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B363">
         <v>500886500000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C363">
         <v>0.2659786685107854</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D363">
         <v>133225124345.0275</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41030</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B364">
         <v>495523000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C364">
         <v>0.2563773875144212</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D364">
         <v>127040892193.3086</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41061</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B365">
         <v>503946600000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C365">
         <v>0.2560491614389963</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D365">
         <v>129035104340.0333</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41091</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B366">
         <v>511333300000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C366">
         <v>0.2513383768567622</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D366">
         <v>128517681654.8119</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41122</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B367">
         <v>514689500000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C367">
         <v>0.2494076568150642</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D367">
         <v>128367502182.317</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41153</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B368">
         <v>520998200000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C368">
         <v>0.25552574421873</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D368">
         <v>133128452791.6188</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41183</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B369">
         <v>518500600000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C369">
         <v>0.2576323586242432</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D369">
         <v>133582532526.0853</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41214</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B370">
         <v>522499500000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C370">
         <v>0.2624052061192894</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D370">
         <v>137106588994.7257</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41244</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B371">
         <v>527619300000.0001</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C371">
         <v>0.2681540276734957</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D371">
         <v>141483240373.2704</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41275</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B372">
         <v>530065699999.9999</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C372">
         <v>0.269774468544297</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D372">
         <v>142998192511.0607</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41306</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B373">
         <v>526010900000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C373">
         <v>0.269432843863667</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D373">
         <v>141724612690.287</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41334</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B374">
         <v>530669400000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C374">
         <v>0.2747252747252747</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D374">
         <v>145788296703.2967</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41365</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B375">
         <v>534103300000.0001</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C375">
         <v>0.279290601871247</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D375">
         <v>149170032118.4193</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41395</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B376">
         <v>536555400000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C376">
         <v>0.2714293469409912</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D376">
         <v>145636881819.6623</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41426</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B377">
         <v>532349000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C377">
         <v>0.2759229623089233</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D377">
         <v>146887313062.193</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41456</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B378">
         <v>536553500000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C378">
         <v>0.2808121086181236</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D378">
         <v>150670719721.4344</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41487</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B379">
         <v>542158300000.0001</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C379">
         <v>0.2753303964757709</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D379">
         <v>149272659691.63</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41518</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B380">
         <v>547957300000.0001</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C380">
         <v>0.2838489923360772</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D380">
         <v>155537127448.1976</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41548</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B381">
         <v>547775100000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C381">
         <v>0.2838651073010106</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D381">
         <v>155494237538.3218</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41579</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B382">
         <v>553402900000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C382">
         <v>0.2845354958031014</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D382">
         <v>157462768530.3742</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41609</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B383">
         <v>562252500000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C383">
         <v>0.2884670859054982</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D383">
         <v>162191340218.0811</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41640</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B384">
         <v>564578400000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C384">
         <v>0.2858122784954841</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D384">
         <v>161363438893.3348</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41671</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B385">
         <v>563984600000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C385">
         <v>0.2870264064293915</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D385">
         <v>161878473019.5178</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41699</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B386">
         <v>569376400000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C386">
         <v>0.287463707706902</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D386">
         <v>163675051024.8081</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41730</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B387">
         <v>577837000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C387">
         <v>0.2891259721860815</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D387">
         <v>167067684390.0888</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41760</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B388">
         <v>575260100000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C388">
         <v>0.288334006112681</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D388">
         <v>165867049189.7815</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41791</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B389">
         <v>576437600000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C389">
         <v>0.2916897587725695</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D389">
         <v>168140944491.4389</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41821</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B390">
         <v>580493600000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C390">
         <v>0.2919708029197081</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D390">
         <v>169487182481.7518</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41852</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B391">
         <v>584491000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C391">
         <v>0.2802297884265098</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D391">
         <v>163791789267.1991</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41883</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B392">
         <v>591059200000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C392">
         <v>0.2727917507774565</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D392">
         <v>161236073981.1228</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41913</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B393">
         <v>594225800000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C393">
         <v>0.263005628320446</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D393">
         <v>156284729893.2197</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41944</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B394">
         <v>599648600000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C394">
         <v>0.2569769234722722</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D394">
         <v>154095852392.4552</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>41974</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B395">
         <v>609642700000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C395">
         <v>0.2569307057886488</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D395">
         <v>156635929189.8975</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42005</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B396">
         <v>619369400000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C396">
         <v>0.2545565624681804</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D396">
         <v>157664545361.9794</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42036</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B397">
         <v>627591700000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C397">
         <v>0.2514711059699241</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D397">
         <v>157821178896.5448</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42064</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B398">
         <v>639063300000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C398">
         <v>0.2514774299006664</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D398">
         <v>160709996227.8385</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42095</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B399">
         <v>647371500000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C399">
         <v>0.2594235608477962</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D399">
         <v>167943419721.3791</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42125</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B400">
         <v>651276400000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C400">
         <v>0.2596862989508674</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D400">
         <v>169127557910.0447</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42156</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B401">
         <v>658167100000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C401">
         <v>0.2652871733651678</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D401">
         <v>174603289560.9497</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42186</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B402">
         <v>660074100000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C402">
         <v>0.2658867322520606</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D402">
         <v>175504945493.2199</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42217</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B403">
         <v>663528800000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C403">
         <v>0.2550630005611386</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D403">
         <v>169241646686.7316</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42248</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B404">
         <v>680513800000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C404">
         <v>0.2550044625780951</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D404">
         <v>173534055845.9773</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42278</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B405">
         <v>681415100000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C405">
         <v>0.259000259000259</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D405">
         <v>176486687386.6874</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42309</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B406">
         <v>686142200000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C406">
         <v>0.2584112874050338</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D406">
         <v>177306889244.9222</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42339</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B407">
         <v>692268100000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C407">
         <v>0.2571288987169268</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D407">
         <v>178002134169.8593</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42370</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B408">
         <v>696747800000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C408">
         <v>0.2528572873470213</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D408">
         <v>176177758673.0049</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42401</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B409">
         <v>702928000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C409">
         <v>0.2562459961563101</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D409">
         <v>180122485586.1627</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42430</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B410">
         <v>704187600000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C410">
         <v>0.2662052442433116</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D410">
         <v>187458432051.1114</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42461</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B411">
         <v>713745100000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C411">
         <v>0.2672296304214211</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D411">
         <v>190733839288.1003</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42491</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B412">
         <v>718977500000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C412">
         <v>0.2599563273370074</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D412">
         <v>186902750337.9432</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42522</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B413">
         <v>734277300000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C413">
         <v>0.2593024763386491</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D413">
         <v>190399922209.2571</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42552</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B414">
         <v>738121300000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C414">
         <v>0.2624809701296656</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D414">
         <v>193742794897.3699</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42583</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B415">
         <v>740007400000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C415">
         <v>0.2650129856362962</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D415">
         <v>196111570466.9529</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42614</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B416">
         <v>742339100000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C416">
         <v>0.2668944165688054</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D416">
         <v>198126160990.7121</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42644</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B417">
         <v>742436600000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C417">
         <v>0.2610284521012791</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D417">
         <v>193797076481.3365</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42675</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B418">
         <v>740616900000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C418">
         <v>0.261110240743642</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D418">
         <v>193382657057.8098</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42705</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B419">
         <v>747274700000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C419">
         <v>0.2605455824496496</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D419">
         <v>194699121961.3872</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42736</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B420">
         <v>761155500000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C420">
         <v>0.2658231212950903</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D420">
         <v>202332730800.9251</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42767</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B421">
         <v>767259500000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C421">
         <v>0.274649821477616</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D421">
         <v>210727684702.0049</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42795</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B422">
         <v>769309300000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C422">
         <v>0.2758392408904091</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D422">
         <v>212205693321.932</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42826</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B423">
         <v>778131000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C423">
         <v>0.2769162605228179</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D423">
         <v>215477126716.8808</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42856</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B424">
         <v>773540400000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C424">
         <v>0.2829574714920348</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D424">
         <v>218879035680.9372</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42887</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B425">
         <v>789848000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C425">
         <v>0.2871500358937545</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D425">
         <v>226804881550.6102</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42917</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B426">
         <v>798794500000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C426">
         <v>0.2814443725197714</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D426">
         <v>224816216824.7446</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42948</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B427">
         <v>797691600000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C427">
         <v>0.2802297884265098</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D427">
         <v>223536948297.604</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>42979</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B428">
         <v>808309200000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C428">
         <v>0.2832540222071153</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D428">
         <v>228956832087.0156</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43009</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B429">
         <v>798852700000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C429">
         <v>0.2845193046348195</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D429">
         <v>227289014709.6481</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43040</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B430">
         <v>798915300000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C430">
         <v>0.2864180557942372</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D430">
         <v>228823766970.2698</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43070</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B431">
         <v>809904800000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C431">
         <v>0.2877532228360958</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D431">
         <v>233052716390.4236</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43101</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B432">
         <v>819159600000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C432">
         <v>0.2927571871889455</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D432">
         <v>239814860354.8217</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43132</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B433">
         <v>810881400000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C433">
         <v>0.2879769618430525</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D433">
         <v>233515161987.041</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43160</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B434">
         <v>814795000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C434">
         <v>0.2867465733784481</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D434">
         <v>233639674255.8926</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43191</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B435">
         <v>819928800000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C435">
         <v>0.2782647410746584</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D435">
         <v>228157275231.6554</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43221</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B436">
         <v>822588500000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C436">
         <v>0.28109627547435</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D436">
         <v>231226563598.0323</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43252</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B437">
         <v>827771700000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C437">
         <v>0.2737925747453729</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D437">
         <v>226637745044.3544</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43282</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B438">
         <v>831331100000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C438">
         <v>0.2729034194798461</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D438">
         <v>226873099909.9419</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43313</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B439">
         <v>829881400000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C439">
         <v>0.2776158352072402</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D439">
         <v>230388217983.9538</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43344</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B440">
         <v>830645300000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C440">
         <v>0.2752849198920883</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D440">
         <v>228664124869.2397</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43374</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B441">
         <v>823486200000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C441">
         <v>0.2690196922414721</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D441">
         <v>221534004089.0993</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43405</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B442">
         <v>827009200000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C442">
         <v>0.2692007429940507</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D442">
         <v>222631491102.9154</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43435</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B443">
         <v>826435700000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C443">
         <v>0.2678810608090008</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D443">
         <v>221386472006.4292</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43466</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B444">
         <v>843241500000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C444">
         <v>0.275671950379049</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D444">
         <v>232458028945.5548</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43497</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B445">
         <v>847555800000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C445">
         <v>0.2762812543168946</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D445">
         <v>234163779527.5591</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43525</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B446">
         <v>850468400000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C446">
         <v>0.2754896829113749</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D446">
         <v>234295269842.1444</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43556</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B447">
         <v>858786600000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C447">
         <v>0.2780326410320572</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D447">
         <v>238770706480.9409</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43586</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B448">
         <v>857292600000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C448">
         <v>0.2760829353137683</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D448">
         <v>236683857430.7722</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43617</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B449">
         <v>862395800000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C449">
         <v>0.28055999775552</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D449">
         <v>241953763712.3699</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43647</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B450">
         <v>862518000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C450">
         <v>0.2852822868228111</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D450">
         <v>246061107465.8374</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43678</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B451">
         <v>859848500000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C451">
         <v>0.2835672763363108</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D451">
         <v>243824897206.8623</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43709</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B452">
         <v>866261200000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C452">
         <v>0.2879769618430525</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D452">
         <v>249463268538.5169</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43739</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B453">
         <v>867102200000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C453">
         <v>0.2841231958177066</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D453">
         <v>246363848164.5641</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43770</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B454">
         <v>868743800000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C454">
         <v>0.2881014116969173</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D454">
         <v>250286315182.9444</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43800</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B455">
         <v>878149200000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C455">
         <v>0.289863474303603</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D455">
         <v>254543378068.9295</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43831</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B456">
         <v>887268200000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C456">
         <v>0.290098923732993</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D456">
         <v>257395549882.5099</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43862</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B457">
         <v>898172000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C457">
         <v>0.2887753039360074</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D457">
         <v>259369892286.8116</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43891</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B458">
         <v>939849200000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C458">
         <v>0.2824140755175238</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D458">
         <v>265426642943.8843</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43922</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B459">
         <v>991256800000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C459">
         <v>0.2871500358937545</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D459">
         <v>284639425699.9282</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43952</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B460">
         <v>1005498800000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C460">
         <v>0.2851358672407402</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D460">
         <v>286703772347.5236</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>43983</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B461">
         <v>1019175100000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C461">
         <v>0.2889254861171304</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D461">
         <v>294465661205.975</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44013</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B462">
         <v>1029648400000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C462">
         <v>0.2938151902453356</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D462">
         <v>302526340531.8055</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44044</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B463">
         <v>1045486200000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C463">
         <v>0.2980714775403142</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D463">
         <v>311629616382.0084</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44075</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B464">
         <v>1058798600000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C464">
         <v>0.2916302128900554</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D464">
         <v>308777661125.6926</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44105</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B465">
         <v>1069591500000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C465">
         <v>0.293728888236158</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D465">
         <v>314169922161.8446</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44136</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B466">
         <v>1085379100000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C466">
         <v>0.3025901718712176</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D466">
         <v>328425048414.4275</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44166</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B467">
         <v>1106226900000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C467">
         <v>0.3114391603600237</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D467">
         <v>344522376903.6719</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44197</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B468">
         <v>1131956800000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C468">
         <v>0.3050640634533252</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D468">
         <v>345319341061.6229</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44228</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B469">
         <v>1143578000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C469">
         <v>0.3022243713733075</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D469">
         <v>345617142166.3443</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44256</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B470">
         <v>1164245000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C470">
         <v>0.2994460248540201</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D470">
         <v>348628537206.1686</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44287</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B471">
         <v>1175803700000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C471">
         <v>0.3081759068076058</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D471">
         <v>362354371475.2381</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44317</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B472">
         <v>1183982300000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C472">
         <v>0.3081759068076058</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D472">
         <v>364874818946.6548</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44348</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B473">
         <v>1200106600000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C473">
         <v>0.3069556142181841</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D473">
         <v>368379458530.2966</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44378</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B474">
         <v>1225628400000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C474">
         <v>0.310096750186058</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D474">
         <v>380063383775.738</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44409</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B475">
         <v>1239960200000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C475">
         <v>0.312275551947038</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D475">
         <v>387209255847.3597</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44440</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B476">
         <v>1257625900000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C476">
         <v>0.3103565997330933</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D476">
         <v>390312498060.2712</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44470</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B477">
         <v>1258657100000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C477">
         <v>0.3167463811725951</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D477">
         <v>398675081562.1932</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44501</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B478">
         <v>1267713100000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C478">
         <v>0.3173494970010473</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D478">
         <v>402308114626.6383</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44531</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B479">
         <v>1299480800000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C479">
         <v>0.3228305785123967</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D479">
         <v>419512138429.7521</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44562</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B480">
         <v>1321141500000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C480">
         <v>0.3171180313312615</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D480">
         <v>418957791590.0298</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44593</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B481">
         <v>1326756000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C481">
         <v>0.3120319520718922</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D481">
         <v>413990264603.0953</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44621</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B482">
         <v>1333664400000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C482">
         <v>0.3134992789516584</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D482">
         <v>418102827763.4962</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44652</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B483">
         <v>1356168100000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C483">
         <v>0.2992936669460074</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D483">
         <v>405892523644.1996</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44682</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B484">
         <v>1365393800000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C484">
         <v>0.3011594639361542</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D484">
         <v>411201264869.7485</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44713</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B485">
         <v>1377815600000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C485">
         <v>0.2873315518777117</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D485">
         <v>395889894549.3205</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44743</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B486">
         <v>1382673300000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C486">
         <v>0.2943947244465379</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D486">
         <v>407051725153.0853</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44774</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B487">
         <v>1397990400000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C487">
         <v>0.3005981903988938</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D487">
         <v>420233384435.0257</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44805</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B488">
         <v>1388676700000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C488">
         <v>0.2811911256080758</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D488">
         <v>390483564378.7082</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44835</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B489">
         <v>1399005700000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C489">
         <v>0.2847137203541839</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D489">
         <v>398316117643.7092</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44866</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B490">
         <v>1378892900000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C490">
         <v>0.2936072885073299</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D490">
         <v>404853005511.0089</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44896</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B491">
         <v>1362510300000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C491">
         <v>0.2850627137970353</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D491">
         <v>388400883694.4128</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44927</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B492">
         <v>1330227600000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C492">
         <v>0.2902496437185623</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D492">
         <v>386098086964.5982</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44958</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B493">
         <v>1303847700000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C493">
         <v>0.2740995145697597</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D493">
         <v>357384021642.8977</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>44986</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B494">
         <v>1278852800000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C494">
         <v>0.2781563795165642</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D494">
         <v>355721064782.6208</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45017</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B495">
         <v>1287306800000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C495">
         <v>0.2767246866092924</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D495">
         <v>356229570800.011</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45047</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B496">
         <v>1275909800000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C496">
         <v>0.2691500242235022</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D496">
         <v>343411153577.0038</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45078</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B497">
         <v>1276966700000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C497">
         <v>0.2707678977580418</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D497">
         <v>345761588866.024</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45108</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B498">
         <v>1274803200000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C498">
         <v>0.2729779160865886</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D498">
         <v>347993120956.5146</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45139</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B499">
         <v>1280927000000</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C499">
         <v>0.2633935626613285</v>
       </c>
-      <c r="D500" t="n">
+      <c r="D499">
         <v>337387926039.0875</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>45170</v>
       </c>
-      <c r="B501" t="n">
-        <v>1285997940000</v>
-      </c>
-      <c r="C501" t="n">
+      <c r="B500">
+        <v>1285997900000</v>
+      </c>
+      <c r="C500">
         <v>0.2628590654834504</v>
       </c>
-      <c r="D501" t="n">
-        <v>338036216722.0423</v>
+      <c r="D500">
+        <v>338036206207.6797</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B501">
+        <v>1284203900000</v>
+      </c>
+      <c r="C501">
+        <v>0.2472249004919775</v>
+      </c>
+      <c r="D501">
+        <v>317487181388.9095</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>